--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="8520" windowWidth="19155" xWindow="240" yWindow="90"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Content" r:id="rId1" sheetId="1"/>
-    <sheet name="Equipment" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
-    <sheet name="Solid_Calculation" r:id="rId4" sheetId="5"/>
-    <sheet name="UserGroup" r:id="rId5" sheetId="6"/>
-    <sheet name="microbial_calculation_result" r:id="rId6" sheetId="7"/>
+    <sheet name="Content" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipment" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Solid_Calculation" sheetId="5" r:id="rId4"/>
+    <sheet name="UserGroup" sheetId="6" r:id="rId5"/>
+    <sheet name="microbial_calculation_result" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="218">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -760,34 +760,10 @@
     <t>Actual Rinse Result</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
     <t>active1</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>active2</t>
-  </si>
-  <si>
     <t>List od Products used for calculation</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -797,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="123" x14ac:knownFonts="1">
+  <fonts count="111" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,7 +1332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1366,7 +1342,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1376,7 +1362,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1386,93 +1377,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1669,508 +1585,496 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="250">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="16" numFmtId="3" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="20" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="20" numFmtId="3" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="10" numFmtId="3" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="22" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="19" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="12" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="20" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="20" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="20" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="26" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="26" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="13" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="53" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="54" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="14" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="69" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="90" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="91" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="92" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2180,7 +2084,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
@@ -2196,7 +2100,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="ade or pde.png" id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ade or pde.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2236,7 +2140,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 1"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2259,7 +2163,7 @@
           <a:noFill/>
           <a:miter lim="800000"/>
           <a:headEnd/>
-          <a:tailEnd len="med" type="none" w="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -2283,7 +2187,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 4"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2323,7 +2227,7 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 8"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2354,10 +2258,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2515,7 +2419,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2524,13 +2428,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2540,7 +2444,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2549,7 +2453,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2558,7 +2462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2568,12 +2472,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2604,7 +2508,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2623,7 +2527,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2635,8 +2539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2644,10 +2548,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,14 +2653,14 @@
       <c r="C23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F43" sqref="F43:J43"/>
@@ -2764,18 +2668,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2793,9 +2697,9 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="4" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="29.25" r="5" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="120" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -2865,7 +2769,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row ht="90" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -2890,7 +2794,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row ht="120" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -2915,7 +2819,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row ht="120" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
@@ -2940,7 +2844,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row ht="120" r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -2965,7 +2869,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row ht="120" r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -4116,14 +4020,14 @@
       <c r="M87" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
@@ -4131,12 +4035,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4366,63 +4270,63 @@
       <c r="H17" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU140"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="22" width="27.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="22" width="23.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="22" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="22" width="18.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="22" width="21.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="22" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="22" width="20.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="22" width="21.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="22" width="23.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="22" width="20.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="22" width="30.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="22" width="17.85546875" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" style="22" width="22.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="22" width="17.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="22" width="14.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="22" width="19.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="22" width="15.28515625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="22" width="23.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="22" width="20.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="22" width="20.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="22" width="26.85546875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="22" width="25.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="22" width="26.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="22" width="16.42578125" collapsed="true"/>
-    <col min="27" max="28" bestFit="true" customWidth="true" style="22" width="10.42578125" collapsed="true"/>
-    <col min="29" max="30" style="22" width="8.85546875" collapsed="true"/>
-    <col min="31" max="34" bestFit="true" customWidth="true" style="22" width="10.42578125" collapsed="true"/>
-    <col min="35" max="38" style="22" width="8.85546875" collapsed="true"/>
-    <col min="39" max="40" bestFit="true" customWidth="true" style="22" width="10.42578125" collapsed="true"/>
-    <col min="41" max="16384" style="22" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.7109375" style="22" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.28515625" style="22" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="22.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.7109375" style="22" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.28515625" style="22" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.28515625" style="22" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.7109375" style="22" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="27" max="28" width="10.42578125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="30" width="8.85546875" style="22" collapsed="1"/>
+    <col min="31" max="34" width="10.42578125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="38" width="8.85546875" style="22" collapsed="1"/>
+    <col min="39" max="40" width="10.42578125" style="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="16384" width="8.85546875" style="22" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="244" t="s">
+    <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F1" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -4510,25 +4414,25 @@
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="245" t="s">
+    <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="247"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
+      <c r="H6" s="227"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="245" t="s">
+      <c r="M6" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="246"/>
-      <c r="O6" s="246"/>
-      <c r="P6" s="246"/>
-      <c r="Q6" s="247"/>
-    </row>
-    <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="N6" s="226"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="226"/>
+      <c r="Q6" s="227"/>
+    </row>
+    <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
@@ -4544,10 +4448,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="248" t="s">
+      <c r="F7" s="228" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="249"/>
+      <c r="G7" s="229"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -4570,10 +4474,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="248" t="s">
+      <c r="P7" s="228" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="249"/>
+      <c r="Q7" s="229"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -4596,13 +4500,13 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="35.25" r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A9)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A9)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A9)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A9)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A9)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A9)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A9)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A9)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A9)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A9)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A9)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A9)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A9)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A9)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A9)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A9)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="F8" s="33" t="s">
@@ -4646,11 +4550,11 @@
         <v>115</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="228" t="s">
+      <c r="B9" s="208" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -4681,36 +4585,36 @@
         <v>0.12</v>
       </c>
       <c r="L9" s="42">
-        <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
+        <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="223">
+      <c r="M9" s="203">
         <v>20</v>
       </c>
-      <c r="N9" s="231" t="s">
+      <c r="N9" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="223">
+      <c r="O9" s="203">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="223">
+      <c r="P9" s="203">
         <v>3</v>
       </c>
-      <c r="Q9" s="223">
+      <c r="Q9" s="203">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="223">
+      <c r="R9" s="203">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="223"/>
-      <c r="T9" s="235">
+      <c r="S9" s="203"/>
+      <c r="T9" s="215">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="223">
+      <c r="U9" s="203">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -4731,11 +4635,11 @@
         <v>117</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="229"/>
+      <c r="B10" s="209"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -4756,7 +4660,7 @@
         <v>1E-3</v>
       </c>
       <c r="I10" s="36">
-        <f ref="I10:I22" si="1" t="shared">H10*D10*(E10/D10)*G10</f>
+        <f t="shared" ref="I10:I22" si="1">H10*D10*(E10/D10)*G10</f>
         <v>0.21</v>
       </c>
       <c r="J10" s="36"/>
@@ -4764,29 +4668,29 @@
         <v>3.15</v>
       </c>
       <c r="L10" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="224"/>
-      <c r="N10" s="232"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="236"/>
-      <c r="U10" s="224"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="204"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="216"/>
+      <c r="U10" s="204"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
       <c r="AJ10" s="46"/>
       <c r="AK10" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="223" t="s">
+    <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="229"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -4797,15 +4701,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="224"/>
-      <c r="Q11" s="224"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="236"/>
-      <c r="U11" s="224"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="212"/>
+      <c r="O11" s="204"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="216"/>
+      <c r="U11" s="204"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -4823,9 +4727,9 @@
       </c>
       <c r="AU11" s="65"/>
     </row>
-    <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="225"/>
-      <c r="B12" s="230"/>
+    <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="205"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -4836,15 +4740,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="225"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="225"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="225"/>
-      <c r="T12" s="237"/>
-      <c r="U12" s="225"/>
+      <c r="M12" s="205"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="205"/>
+      <c r="P12" s="205"/>
+      <c r="Q12" s="205"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="205"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -4856,11 +4760,11 @@
         <v>120</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="228" t="s">
+      <c r="B13" s="208" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -4891,36 +4795,36 @@
         <v>2E-3</v>
       </c>
       <c r="L13" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="223">
+      <c r="M13" s="203">
         <v>80</v>
       </c>
-      <c r="N13" s="231" t="s">
+      <c r="N13" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="223">
+      <c r="O13" s="203">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="223">
+      <c r="P13" s="203">
         <v>2</v>
       </c>
-      <c r="Q13" s="223">
+      <c r="Q13" s="203">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="223">
+      <c r="R13" s="203">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="223"/>
-      <c r="T13" s="235">
+      <c r="S13" s="203"/>
+      <c r="T13" s="215">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="223">
+      <c r="U13" s="203">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -4939,11 +4843,11 @@
         <v>122</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="229"/>
+      <c r="B14" s="209"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -4964,7 +4868,7 @@
         <v>1E-3</v>
       </c>
       <c r="I14" s="36">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="J14" s="36"/>
@@ -4972,29 +4876,29 @@
         <v>0.54</v>
       </c>
       <c r="L14" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="224"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="236"/>
-      <c r="U14" s="224"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="216"/>
+      <c r="U14" s="204"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
       <c r="AS14" s="70"/>
       <c r="AT14" s="70"/>
     </row>
-    <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="242" t="s">
+    <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="222" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="229"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5005,15 +4909,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="232"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="236"/>
-      <c r="U15" s="224"/>
+      <c r="M15" s="204"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="204"/>
+      <c r="P15" s="204"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="216"/>
+      <c r="U15" s="204"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5022,9 +4926,9 @@
       </c>
       <c r="AT15" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="243"/>
-      <c r="B16" s="230"/>
+    <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="223"/>
+      <c r="B16" s="210"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5035,26 +4939,26 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="225"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="225"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="225"/>
-      <c r="R16" s="225"/>
-      <c r="S16" s="225"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="225"/>
+      <c r="M16" s="205"/>
+      <c r="N16" s="213"/>
+      <c r="O16" s="205"/>
+      <c r="P16" s="205"/>
+      <c r="Q16" s="205"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="217"/>
+      <c r="U16" s="205"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
       <c r="AS16" s="64"/>
       <c r="AT16" s="64"/>
     </row>
-    <row customHeight="1" ht="24.95" r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="228" t="s">
+      <c r="B17" s="208" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5077,7 +4981,7 @@
         <v>1E-3</v>
       </c>
       <c r="I17" s="36">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>3.4999999999999996E-2</v>
       </c>
       <c r="J17" s="36"/>
@@ -5085,36 +4989,36 @@
         <v>1.5</v>
       </c>
       <c r="L17" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="223">
+      <c r="M17" s="203">
         <v>70</v>
       </c>
-      <c r="N17" s="231" t="s">
+      <c r="N17" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="223">
+      <c r="O17" s="203">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="223">
+      <c r="P17" s="203">
         <v>2</v>
       </c>
-      <c r="Q17" s="223">
+      <c r="Q17" s="203">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="223">
+      <c r="R17" s="203">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="223"/>
-      <c r="T17" s="235">
+      <c r="S17" s="203"/>
+      <c r="T17" s="215">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="223">
+      <c r="U17" s="203">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5129,11 +5033,11 @@
       <c r="AS17" s="64"/>
       <c r="AT17" s="64"/>
     </row>
-    <row customHeight="1" ht="24.95" r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="229"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5154,7 +5058,7 @@
         <v>1E-3</v>
       </c>
       <c r="I18" s="36">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="J18" s="36"/>
@@ -5162,27 +5066,27 @@
         <v>0.64</v>
       </c>
       <c r="L18" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="224"/>
-      <c r="N18" s="232"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="236"/>
-      <c r="U18" s="224"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="212"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="204"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="216"/>
+      <c r="U18" s="204"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
-    <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="223" t="s">
+    <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="229"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5193,22 +5097,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="232"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="236"/>
-      <c r="U19" s="224"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="212"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="204"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
-    <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="225"/>
-      <c r="B20" s="230"/>
+    <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="205"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5219,24 +5123,24 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="225"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="225"/>
-      <c r="T20" s="237"/>
-      <c r="U20" s="225"/>
+      <c r="M20" s="205"/>
+      <c r="N20" s="213"/>
+      <c r="O20" s="205"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="217"/>
+      <c r="U20" s="205"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
-    <row customHeight="1" ht="24.95" r="21" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="228" t="s">
+      <c r="B21" s="208" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5259,7 +5163,7 @@
         <v>1E-3</v>
       </c>
       <c r="I21" s="36">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="J21" s="36"/>
@@ -5267,36 +5171,36 @@
         <v>1.32</v>
       </c>
       <c r="L21" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="223">
+      <c r="M21" s="203">
         <v>60</v>
       </c>
-      <c r="N21" s="231" t="s">
+      <c r="N21" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="223">
+      <c r="O21" s="203">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="223">
+      <c r="P21" s="203">
         <v>3</v>
       </c>
-      <c r="Q21" s="223">
+      <c r="Q21" s="203">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="223">
+      <c r="R21" s="203">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="223"/>
-      <c r="T21" s="235">
+      <c r="S21" s="203"/>
+      <c r="T21" s="215">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="223">
+      <c r="U21" s="203">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -5309,11 +5213,11 @@
         <v>40</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="22" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="229"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5334,7 +5238,7 @@
         <v>1E-3</v>
       </c>
       <c r="I22" s="36">
-        <f si="1" t="shared"/>
+        <f t="shared" si="1"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="J22" s="36"/>
@@ -5342,27 +5246,27 @@
         <v>1.35</v>
       </c>
       <c r="L22" s="42">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="224"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="224"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="236"/>
-      <c r="U22" s="224"/>
+      <c r="M22" s="204"/>
+      <c r="N22" s="212"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="216"/>
+      <c r="U22" s="204"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
-    <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="226" t="s">
+    <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="229"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -5373,22 +5277,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="232"/>
-      <c r="O23" s="224"/>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="224"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="236"/>
-      <c r="U23" s="224"/>
+      <c r="M23" s="204"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="204"/>
+      <c r="P23" s="204"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="216"/>
+      <c r="U23" s="204"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
-    <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="227"/>
-      <c r="B24" s="230"/>
+    <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="207"/>
+      <c r="B24" s="210"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -5399,24 +5303,24 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="225"/>
-      <c r="R24" s="225"/>
-      <c r="S24" s="225"/>
-      <c r="T24" s="237"/>
-      <c r="U24" s="225"/>
+      <c r="M24" s="205"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
+      <c r="Q24" s="205"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="205"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
     </row>
-    <row customHeight="1" ht="46.5" r="25" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="45"/>
       <c r="D25" s="46"/>
     </row>
-    <row customHeight="1" ht="46.5" r="26" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:46" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="46"/>
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
@@ -5426,25 +5330,25 @@
       <c r="X26" s="46"/>
       <c r="Y26" s="46"/>
     </row>
-    <row customHeight="1" ht="35.25" r="27" spans="1:46" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="46"/>
       <c r="B27" s="53"/>
       <c r="C27" s="127"/>
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="234" t="s">
+      <c r="H27" s="214" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="234"/>
-      <c r="J27" s="234"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="234"/>
+      <c r="I27" s="214"/>
+      <c r="J27" s="214"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="28" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="46"/>
       <c r="B28" s="53"/>
       <c r="C28" s="127"/>
@@ -5468,7 +5372,7 @@
       <c r="N28" s="53"/>
       <c r="O28" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="29" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="46"/>
       <c r="B29" s="53"/>
       <c r="C29" s="127"/>
@@ -5492,7 +5396,7 @@
       </c>
       <c r="O29" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="30" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="46"/>
       <c r="B30" s="53"/>
       <c r="C30" s="127"/>
@@ -5515,7 +5419,7 @@
       <c r="M30" s="58"/>
       <c r="N30" s="59"/>
     </row>
-    <row customHeight="1" ht="24.95" r="31" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="46"/>
       <c r="B31" s="53"/>
       <c r="C31" s="127"/>
@@ -5538,7 +5442,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="32" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="46"/>
       <c r="B32" s="53"/>
       <c r="C32" s="127"/>
@@ -5561,7 +5465,7 @@
       <c r="M32" s="58"/>
       <c r="N32" s="62"/>
     </row>
-    <row customHeight="1" ht="24.95" r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="46"/>
       <c r="B33" s="53"/>
       <c r="C33" s="127"/>
@@ -5584,7 +5488,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="46"/>
       <c r="B34" s="53"/>
       <c r="C34" s="127"/>
@@ -5607,7 +5511,7 @@
       <c r="M34" s="58"/>
       <c r="N34" s="59"/>
     </row>
-    <row customHeight="1" ht="24.95" r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -5634,7 +5538,7 @@
       <c r="D36" s="66"/>
       <c r="E36" s="23"/>
     </row>
-    <row customHeight="1" ht="25.5" r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="D37" s="67"/>
@@ -5646,8 +5550,8 @@
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
     </row>
-    <row customHeight="1" ht="25.5" r="38" spans="1:40" x14ac:dyDescent="0.35"/>
-    <row ht="33.75" r="39" spans="1:40" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:40" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A39" s="22">
         <v>0</v>
       </c>
@@ -5716,22 +5620,22 @@
       <c r="AG39" s="75"/>
       <c r="AH39" s="75"/>
     </row>
-    <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="208" t="s">
+      <c r="D40" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="208"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="208"/>
-      <c r="H40" s="208"/>
-      <c r="I40" s="208" t="s">
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="208"/>
-      <c r="K40" s="208"/>
-      <c r="L40" s="208"/>
+      <c r="J40" s="188"/>
+      <c r="K40" s="188"/>
+      <c r="L40" s="188"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -5759,7 +5663,7 @@
       <c r="AM40" s="46"/>
       <c r="AN40" s="74"/>
     </row>
-    <row customHeight="1" ht="47.25" r="41" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="129" t="s">
         <v>207</v>
       </c>
@@ -5806,7 +5710,7 @@
         <v>135</v>
       </c>
       <c r="Z41" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A13)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A13)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A13)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A13)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A13)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A13)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A13)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A13)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A13)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A13)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A13)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A13)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A13)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A13)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A13)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A13)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA41" s="36">
@@ -5824,7 +5728,7 @@
         <v>136</v>
       </c>
       <c r="AF41" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG41" s="36">
@@ -5842,7 +5746,7 @@
         <v>136</v>
       </c>
       <c r="AL41" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM41" s="36">
@@ -5854,28 +5758,20 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="212" t="s">
-        <v>219</v>
-      </c>
+    <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="192"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="211">
-        <v>8.7500002700835466E-4</v>
-      </c>
+      <c r="H42" s="191"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="211">
-        <v>8.7500002700835466E-4</v>
-      </c>
-      <c r="N42" s="238" t="s">
-        <v>56</v>
-      </c>
+      <c r="M42" s="191"/>
+      <c r="N42" s="218"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -5885,7 +5781,7 @@
         <v>137</v>
       </c>
       <c r="Z42" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A14)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A14)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A14)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A14)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A14)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A14)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A14)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A14)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A14)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A14)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A14)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A14)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A14)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A14)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A14)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A14)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA42" s="36">
@@ -5898,7 +5794,7 @@
         <v>138</v>
       </c>
       <c r="AF42" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG42" s="36">
@@ -5911,7 +5807,7 @@
         <v>138</v>
       </c>
       <c r="AL42" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM42" s="36">
@@ -5920,38 +5816,20 @@
       </c>
       <c r="AN42" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="212"/>
-      <c r="C43" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="125">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E43" s="111">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F43" s="125">
-        <v>140</v>
-      </c>
-      <c r="G43" s="103">
-        <v>8.7500000000000002E-4</v>
-      </c>
-      <c r="H43" s="211"/>
-      <c r="I43" s="111">
-        <v>5.000000074505806E-2</v>
-      </c>
-      <c r="J43" s="111">
-        <v>2.0000000949949026E-4</v>
-      </c>
-      <c r="K43" s="103">
-        <v>140</v>
-      </c>
-      <c r="L43" s="103">
-        <v>8.7500002700835466E-4</v>
-      </c>
-      <c r="M43" s="211"/>
-      <c r="N43" s="211"/>
+    <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="192"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="191"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -5961,7 +5839,7 @@
         <v>139</v>
       </c>
       <c r="Z43" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A15)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A15)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A15)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A15)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A15)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A15)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A15)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A15)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A15)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A15)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A15)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A15)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A15)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A15)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A15)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A15)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA43" s="36">
@@ -5974,7 +5852,7 @@
         <v>140</v>
       </c>
       <c r="AF43" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG43" s="36">
@@ -5987,7 +5865,7 @@
         <v>140</v>
       </c>
       <c r="AL43" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A9)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A9)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A9)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A9)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A9)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A9)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A9)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A9)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM43" s="36">
@@ -5996,38 +5874,20 @@
       </c>
       <c r="AN43" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="212"/>
-      <c r="C44" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="111">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E44" s="111">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F44" s="125">
-        <v>150</v>
-      </c>
-      <c r="G44" s="125">
-        <v>9.3749999999999997E-4</v>
-      </c>
-      <c r="H44" s="211"/>
-      <c r="I44" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="K44" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="L44" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="M44" s="211"/>
-      <c r="N44" s="211"/>
+    <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="192"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="191"/>
+      <c r="N44" s="191"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6037,7 +5897,7 @@
         <v>141</v>
       </c>
       <c r="Z44" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A13)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A13)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A13)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A13)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A13)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A13)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A13)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A13)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A13)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A13)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A13)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A13)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A13)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A13)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A13)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A13)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA44" s="36">
@@ -6050,7 +5910,7 @@
         <v>142</v>
       </c>
       <c r="AF44" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG44" s="36">
@@ -6063,7 +5923,7 @@
         <v>142</v>
       </c>
       <c r="AL44" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM44" s="36">
@@ -6072,38 +5932,20 @@
       </c>
       <c r="AN44" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="212"/>
-      <c r="C45" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="111">
-        <v>5.0000002374872565E-2</v>
-      </c>
-      <c r="E45" s="111">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F45" s="125">
-        <v>180.00000000000003</v>
-      </c>
-      <c r="G45" s="125">
-        <v>1.1145510835913314E-3</v>
-      </c>
-      <c r="H45" s="211"/>
-      <c r="I45" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="J45" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="K45" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="L45" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="M45" s="211"/>
-      <c r="N45" s="211"/>
+    <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="192"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="191"/>
+      <c r="N45" s="191"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6113,7 +5955,7 @@
         <v>143</v>
       </c>
       <c r="Z45" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A14)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A14)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A14)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A14)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A14)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A14)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A14)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A14)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A14)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A14)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A14)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A14)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A14)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A14)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A14)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A14)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA45" s="36">
@@ -6126,7 +5968,7 @@
         <v>144</v>
       </c>
       <c r="AF45" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG45" s="36">
@@ -6139,7 +5981,7 @@
         <v>144</v>
       </c>
       <c r="AL45" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM45" s="36">
@@ -6148,20 +5990,20 @@
       </c>
       <c r="AN45" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="212"/>
+    <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="192"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="211"/>
+      <c r="H46" s="191"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="211"/>
-      <c r="N46" s="239"/>
+      <c r="M46" s="191"/>
+      <c r="N46" s="219"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6171,7 +6013,7 @@
         <v>145</v>
       </c>
       <c r="Z46" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A15)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A15)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A15)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A15)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A15)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A15)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A15)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A15)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A15)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A15)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A15)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A15)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A15)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A15)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A15)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A15)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA46" s="36">
@@ -6184,7 +6026,7 @@
         <v>146</v>
       </c>
       <c r="AF46" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG46" s="36">
@@ -6197,7 +6039,7 @@
         <v>146</v>
       </c>
       <c r="AL46" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A10)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A10)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A10)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A10)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A10)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A10)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A10)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A10)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM46" s="36">
@@ -6206,20 +6048,20 @@
       </c>
       <c r="AN46" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="212"/>
+    <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="192"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="211"/>
+      <c r="H47" s="191"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="211"/>
-      <c r="N47" s="240"/>
+      <c r="M47" s="191"/>
+      <c r="N47" s="220"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6231,7 +6073,7 @@
         <v>147</v>
       </c>
       <c r="Z47" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A13)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A13)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A13)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A13)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A13)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A13)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A13)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A13)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A13)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A13)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A13)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A13)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A13)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A13)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A13)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A13)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA47" s="36">
@@ -6244,7 +6086,7 @@
         <v>148</v>
       </c>
       <c r="AF47" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG47" s="36">
@@ -6257,7 +6099,7 @@
         <v>148</v>
       </c>
       <c r="AL47" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM47" s="36">
@@ -6266,20 +6108,20 @@
       </c>
       <c r="AN47" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="212"/>
+    <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="192"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="211"/>
+      <c r="H48" s="191"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="211"/>
-      <c r="N48" s="240"/>
+      <c r="M48" s="191"/>
+      <c r="N48" s="220"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -6291,7 +6133,7 @@
         <v>149</v>
       </c>
       <c r="Z48" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A14)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A14)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A14)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A14)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A14)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A14)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A14)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A14)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A14)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A14)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A14)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A14)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A14)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A14)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A14)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A14)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA48" s="36">
@@ -6304,7 +6146,7 @@
         <v>150</v>
       </c>
       <c r="AF48" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG48" s="36">
@@ -6317,7 +6159,7 @@
         <v>150</v>
       </c>
       <c r="AL48" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM48" s="36">
@@ -6326,20 +6168,20 @@
       </c>
       <c r="AN48" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="212"/>
+    <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="192"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="211"/>
+      <c r="H49" s="191"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="211"/>
-      <c r="N49" s="240"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="220"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -6351,7 +6193,7 @@
         <v>151</v>
       </c>
       <c r="Z49" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A15)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A15)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A15)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A15)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A15)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A15)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A15)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A15)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A15)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A15)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A15)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A15)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A15)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A15)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A15)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A15)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA49" s="36">
@@ -6364,7 +6206,7 @@
         <v>152</v>
       </c>
       <c r="AF49" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG49" s="36">
@@ -6377,7 +6219,7 @@
         <v>152</v>
       </c>
       <c r="AL49" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A11)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A11)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A11)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A11)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A11)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A11)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A11)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A11)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM49" s="36">
@@ -6386,28 +6228,20 @@
       </c>
       <c r="AN49" s="89"/>
     </row>
-    <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="213" t="s">
-        <v>223</v>
-      </c>
+    <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="193"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="209">
-        <v>7.3529413202777505E-4</v>
-      </c>
+      <c r="H50" s="189"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="209">
-        <v>7.3529419023543596E-4</v>
-      </c>
-      <c r="N50" s="241" t="s">
-        <v>56</v>
-      </c>
+      <c r="M50" s="189"/>
+      <c r="N50" s="221"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -6427,38 +6261,20 @@
       <c r="AH50" s="46"/>
       <c r="AN50" s="64"/>
     </row>
-    <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="213"/>
-      <c r="C51" s="112" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="113">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E51" s="113">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F51" s="113">
-        <v>120.00000000000001</v>
-      </c>
-      <c r="G51" s="113">
-        <v>7.5000000000000012E-4</v>
-      </c>
-      <c r="H51" s="209"/>
-      <c r="I51" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="J51" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="K51" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="L51" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="M51" s="209"/>
-      <c r="N51" s="216"/>
+    <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="193"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="189"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="189"/>
+      <c r="N51" s="196"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -6488,38 +6304,20 @@
       <c r="AM51" s="46"/>
       <c r="AN51" s="46"/>
     </row>
-    <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="213"/>
-      <c r="C52" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="113">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E52" s="113">
-        <v>1.6666667458290854E-4</v>
-      </c>
-      <c r="F52" s="113">
-        <v>125.00000593718141</v>
-      </c>
-      <c r="G52" s="113">
-        <v>7.3529415257165534E-4</v>
-      </c>
-      <c r="H52" s="209"/>
-      <c r="I52" s="113">
-        <v>4.0000002831220627E-2</v>
-      </c>
-      <c r="J52" s="113">
-        <v>1.6666667943354696E-4</v>
-      </c>
-      <c r="K52" s="113">
-        <v>125.00000762939453</v>
-      </c>
-      <c r="L52" s="113">
-        <v>7.3529419023543596E-4</v>
-      </c>
-      <c r="M52" s="209"/>
-      <c r="N52" s="216"/>
+    <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="193"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="189"/>
+      <c r="N52" s="196"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -6533,7 +6331,7 @@
         <v>156</v>
       </c>
       <c r="Z52" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA52" s="36">
@@ -6552,7 +6350,7 @@
         <v>157</v>
       </c>
       <c r="AF52" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG52" s="36">
@@ -6570,7 +6368,7 @@
         <v>158</v>
       </c>
       <c r="AL52" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM52" s="36">
@@ -6582,38 +6380,20 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="213"/>
-      <c r="C53" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="113">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E53" s="113">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F53" s="113">
-        <v>180.00000000000003</v>
-      </c>
-      <c r="G53" s="113">
-        <v>1.1250000000000001E-3</v>
-      </c>
-      <c r="H53" s="209"/>
-      <c r="I53" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="J53" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="K53" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="L53" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="M53" s="209"/>
-      <c r="N53" s="216"/>
+    <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="193"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="189"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="113"/>
+      <c r="M53" s="189"/>
+      <c r="N53" s="196"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -6625,7 +6405,7 @@
         <v>159</v>
       </c>
       <c r="Z53" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA53" s="36">
@@ -6639,7 +6419,7 @@
         <v>160</v>
       </c>
       <c r="AF53" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG53" s="36">
@@ -6652,7 +6432,7 @@
         <v>161</v>
       </c>
       <c r="AL53" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM53" s="36">
@@ -6661,20 +6441,20 @@
       </c>
       <c r="AN53" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="213"/>
+    <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="193"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="209"/>
+      <c r="H54" s="189"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="209"/>
-      <c r="N54" s="215"/>
+      <c r="M54" s="189"/>
+      <c r="N54" s="195"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -6684,7 +6464,7 @@
         <v>162</v>
       </c>
       <c r="Z54" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA54" s="36">
@@ -6698,7 +6478,7 @@
         <v>163</v>
       </c>
       <c r="AF54" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A13)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A13)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A13)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A13)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A13)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A13)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A13)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A13)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG54" s="36">
@@ -6711,7 +6491,7 @@
         <v>164</v>
       </c>
       <c r="AL54" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A17)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A17)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A17)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A17)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM54" s="36">
@@ -6720,20 +6500,20 @@
       </c>
       <c r="AN54" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="213"/>
+    <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="193"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="209"/>
+      <c r="H55" s="189"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="209"/>
-      <c r="N55" s="216"/>
+      <c r="M55" s="189"/>
+      <c r="N55" s="196"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -6743,7 +6523,7 @@
         <v>165</v>
       </c>
       <c r="Z55" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA55" s="36">
@@ -6757,7 +6537,7 @@
         <v>166</v>
       </c>
       <c r="AF55" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG55" s="36">
@@ -6770,7 +6550,7 @@
         <v>167</v>
       </c>
       <c r="AL55" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM55" s="36">
@@ -6779,20 +6559,20 @@
       </c>
       <c r="AN55" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="213"/>
+    <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="193"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="209"/>
+      <c r="H56" s="189"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="209"/>
-      <c r="N56" s="216"/>
+      <c r="M56" s="189"/>
+      <c r="N56" s="196"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -6802,7 +6582,7 @@
         <v>168</v>
       </c>
       <c r="Z56" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA56" s="36">
@@ -6816,7 +6596,7 @@
         <v>169</v>
       </c>
       <c r="AF56" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG56" s="36">
@@ -6829,7 +6609,7 @@
         <v>170</v>
       </c>
       <c r="AL56" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM56" s="36">
@@ -6838,20 +6618,20 @@
       </c>
       <c r="AN56" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="213"/>
+    <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="193"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="209"/>
+      <c r="H57" s="189"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="209"/>
-      <c r="N57" s="216"/>
+      <c r="M57" s="189"/>
+      <c r="N57" s="196"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -6861,7 +6641,7 @@
         <v>171</v>
       </c>
       <c r="Z57" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA57" s="36">
@@ -6875,7 +6655,7 @@
         <v>172</v>
       </c>
       <c r="AF57" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A14)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A14)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A14)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A14)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A14)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A14)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A14)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A14)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG57" s="36">
@@ -6888,7 +6668,7 @@
         <v>173</v>
       </c>
       <c r="AL57" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A18)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A18)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A18)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A18)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM57" s="36">
@@ -6897,28 +6677,20 @@
       </c>
       <c r="AN57" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="206" t="s">
-        <v>223</v>
-      </c>
+    <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="186"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="214">
-        <v>6.8627455038949847E-4</v>
-      </c>
+      <c r="H58" s="194"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="214">
-        <v>6.8627449218183756E-4</v>
-      </c>
-      <c r="N58" s="217" t="s">
-        <v>56</v>
-      </c>
+      <c r="M58" s="194"/>
+      <c r="N58" s="197"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -6928,7 +6700,7 @@
         <v>174</v>
       </c>
       <c r="Z58" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A17)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A17)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A17)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A17)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A17)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A17)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A17)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A17)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A17)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A17)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A17)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A17)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A17)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A17)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A17)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A17)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA58" s="36">
@@ -6942,7 +6714,7 @@
         <v>175</v>
       </c>
       <c r="AF58" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A21)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A21)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A21)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A21)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A21)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A21)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A21)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A21)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A21)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A21)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG58" s="36">
@@ -6955,7 +6727,7 @@
         <v>176</v>
       </c>
       <c r="AL58" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A21)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A21)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A21)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A21)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A21)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A21)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A21)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A21)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A21)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A21)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM58" s="36">
@@ -6964,38 +6736,20 @@
       </c>
       <c r="AN58" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="206"/>
-      <c r="C59" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="115">
-        <v>2.5000001187436283E-2</v>
-      </c>
-      <c r="E59" s="115">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F59" s="115">
-        <v>120.00000000000001</v>
-      </c>
-      <c r="G59" s="115">
-        <v>7.5000000000000012E-4</v>
-      </c>
-      <c r="H59" s="214"/>
-      <c r="I59" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="K59" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="L59" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="M59" s="214"/>
-      <c r="N59" s="218"/>
+    <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="186"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="194"/>
+      <c r="N59" s="198"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7005,7 +6759,7 @@
         <v>177</v>
       </c>
       <c r="Z59" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A18)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A18)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A18)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A18)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A18)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A18)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A18)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A18)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A18)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A18)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A18)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A18)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A18)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A18)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A18)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A18)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA59" s="36">
@@ -7019,7 +6773,7 @@
         <v>178</v>
       </c>
       <c r="AF59" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A22)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A22)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A22)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A22)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A22)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A22)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A22)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A22)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A22)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A22)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG59" s="36">
@@ -7032,7 +6786,7 @@
         <v>179</v>
       </c>
       <c r="AL59" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A22)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A22)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A22)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A22)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A22)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A22)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A22)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A22)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A22)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A22)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM59" s="36">
@@ -7041,38 +6795,20 @@
       </c>
       <c r="AN59" s="88"/>
     </row>
-    <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="206"/>
-      <c r="C60" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" s="115">
-        <v>2.5000001187436283E-2</v>
-      </c>
-      <c r="E60" s="115">
-        <v>1.6666667458290854E-4</v>
-      </c>
-      <c r="F60" s="115">
-        <v>116.66667220803598</v>
-      </c>
-      <c r="G60" s="115">
-        <v>6.8627454240021161E-4</v>
-      </c>
-      <c r="H60" s="214"/>
-      <c r="I60" s="115">
-        <v>2.500000037252903E-2</v>
-      </c>
-      <c r="J60" s="115">
-        <v>1.6666666488163173E-4</v>
-      </c>
-      <c r="K60" s="115">
-        <v>116.66667175292969</v>
-      </c>
-      <c r="L60" s="115">
-        <v>6.8627449218183756E-4</v>
-      </c>
-      <c r="M60" s="214"/>
-      <c r="N60" s="218"/>
+    <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="186"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="194"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="194"/>
+      <c r="N60" s="198"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7082,7 +6818,7 @@
         <v>180</v>
       </c>
       <c r="Z60" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A19)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A19)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A19)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A19)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A19)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A19)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AA60" s="36">
@@ -7096,7 +6832,7 @@
         <v>181</v>
       </c>
       <c r="AF60" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A23)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A23)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A23)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A23)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A23)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A15)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A15)),IF(ISNUMBER(SEARCH(B28,A23)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A15)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A15)),IF(ISNUMBER(SEARCH(B30,A23)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A15)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A15)),IF(ISNUMBER(SEARCH(B32,A23)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A15)),IF(ISNUMBER(SEARCH(B33,A23)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A15)),IF(ISNUMBER(SEARCH(B34,A23)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AG60" s="36">
@@ -7109,7 +6845,7 @@
         <v>182</v>
       </c>
       <c r="AL60" s="36" t="str">
-        <f><![CDATA[CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A23)),B27&V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A19)),B28&V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A23)),B29&V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A19)),B30&V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A23)),B31&V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A19)),B32&V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A19)),B34&V1,""),""))]]></f>
+        <f>CONCATENATE(IF(ISNUMBER(SEARCH(B27,A19)),IF(ISNUMBER(SEARCH(B27,A23)),B27&amp;V1,""),""),IF(ISNUMBER(SEARCH(B28,A23)),IF(ISNUMBER(SEARCH(B28,A19)),B28&amp;V1,""),""),IF(ISNUMBER(SEARCH(B29,A19)),IF(ISNUMBER(SEARCH(B29,A23)),B29&amp;V1,""),""),IF(ISNUMBER(SEARCH(B30,A23)),IF(ISNUMBER(SEARCH(B30,A19)),B30&amp;V1,""),""),IF(ISNUMBER(SEARCH(B31,A19)),IF(ISNUMBER(SEARCH(B31,A23)),B31&amp;V1,""),""),IF(ISNUMBER(SEARCH(B32,A23)),IF(ISNUMBER(SEARCH(B32,A19)),B32&amp;V1,""),""),IF(ISNUMBER(SEARCH(B33,A19)),IF(ISNUMBER(SEARCH(B33,A19)),B33&amp;V1,""),""),IF(ISNUMBER(SEARCH(B34,A23)),IF(ISNUMBER(SEARCH(B34,A19)),B34&amp;V1,""),""))</f>
         <v xml:space="preserve">, , , , , , , , </v>
       </c>
       <c r="AM60" s="36">
@@ -7118,402 +6854,260 @@
       </c>
       <c r="AN60" s="89"/>
     </row>
-    <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="206"/>
-      <c r="C61" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="115">
-        <v>2.5000001187436283E-2</v>
-      </c>
-      <c r="E61" s="115">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F61" s="115">
-        <v>180.00000000000003</v>
-      </c>
-      <c r="G61" s="115">
-        <v>1.1250000000000001E-3</v>
-      </c>
-      <c r="H61" s="214"/>
-      <c r="I61" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="J61" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="K61" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="L61" s="115" t="s">
-        <v>220</v>
-      </c>
-      <c r="M61" s="214"/>
-      <c r="N61" s="218"/>
+    <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="186"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="194"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="198"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="206"/>
+    <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="186"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="214"/>
+      <c r="H62" s="194"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="214"/>
-      <c r="N62" s="219"/>
+      <c r="M62" s="194"/>
+      <c r="N62" s="199"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="206"/>
+    <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="186"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="214"/>
+      <c r="H63" s="194"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="218"/>
+      <c r="M63" s="194"/>
+      <c r="N63" s="198"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="206"/>
+    <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="186"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="214"/>
+      <c r="H64" s="194"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="214"/>
-      <c r="N64" s="218"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="198"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="206"/>
+    <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="186"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="214"/>
+      <c r="H65" s="194"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="214"/>
-      <c r="N65" s="218"/>
+      <c r="M65" s="194"/>
+      <c r="N65" s="198"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="207" t="s">
-        <v>219</v>
-      </c>
+    <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="187"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="210">
-        <v>6.8359379656612873E-4</v>
-      </c>
+      <c r="H66" s="190"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="210">
-        <v>6.8359373835846782E-4</v>
-      </c>
-      <c r="N66" s="220" t="s">
-        <v>56</v>
-      </c>
+      <c r="M66" s="190"/>
+      <c r="N66" s="200"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="207"/>
-      <c r="C67" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="116">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E67" s="116">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F67" s="116">
-        <v>120.00000000000001</v>
-      </c>
-      <c r="G67" s="116">
-        <v>7.4303405572755425E-4</v>
-      </c>
-      <c r="H67" s="210"/>
-      <c r="I67" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J67" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="K67" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L67" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="M67" s="210"/>
-      <c r="N67" s="221"/>
+    <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="187"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="116"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="116"/>
+      <c r="J67" s="116"/>
+      <c r="K67" s="116"/>
+      <c r="L67" s="116"/>
+      <c r="M67" s="190"/>
+      <c r="N67" s="201"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="207"/>
-      <c r="C68" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D68" s="116">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E68" s="116">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F68" s="116">
-        <v>140</v>
-      </c>
-      <c r="G68" s="116">
-        <v>8.7500000000000002E-4</v>
-      </c>
-      <c r="H68" s="210"/>
-      <c r="I68" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J68" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="K68" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L68" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="M68" s="210"/>
-      <c r="N68" s="221"/>
+    <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="187"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="116"/>
+      <c r="H68" s="190"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="116"/>
+      <c r="M68" s="190"/>
+      <c r="N68" s="201"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="207"/>
-      <c r="C69" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" s="116">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="E69" s="116">
-        <v>1.4583334026004499E-4</v>
-      </c>
-      <c r="F69" s="116">
-        <v>109.37500519503374</v>
-      </c>
-      <c r="G69" s="116">
-        <v>6.8359378246896085E-4</v>
-      </c>
-      <c r="H69" s="210"/>
-      <c r="I69" s="116">
-        <v>3.5000000149011612E-2</v>
-      </c>
-      <c r="J69" s="116">
-        <v>1.4583332813344896E-4</v>
-      </c>
-      <c r="K69" s="116">
-        <v>109.375</v>
-      </c>
-      <c r="L69" s="116">
-        <v>6.8359373835846782E-4</v>
-      </c>
-      <c r="M69" s="210"/>
-      <c r="N69" s="221"/>
+    <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="187"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="116"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="116"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="116"/>
+      <c r="M69" s="190"/>
+      <c r="N69" s="201"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="207" t="s">
-        <v>223</v>
-      </c>
+    <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="187"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="210">
-        <v>7.4303406290709972E-4</v>
-      </c>
+      <c r="H70" s="190"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="210">
-        <v>7.4303406290709972E-4</v>
-      </c>
-      <c r="N70" s="222" t="s">
-        <v>56</v>
-      </c>
+      <c r="M70" s="190"/>
+      <c r="N70" s="202"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="207"/>
-      <c r="C71" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="116">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E71" s="116">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F71" s="116">
-        <v>120.00000000000001</v>
-      </c>
-      <c r="G71" s="116">
-        <v>7.4303405572755425E-4</v>
-      </c>
-      <c r="H71" s="210"/>
-      <c r="I71" s="116">
-        <v>4.0000002831220627E-2</v>
-      </c>
-      <c r="J71" s="116">
-        <v>2.0000000949949026E-4</v>
-      </c>
-      <c r="K71" s="116">
-        <v>120</v>
-      </c>
-      <c r="L71" s="116">
-        <v>7.4303406290709972E-4</v>
-      </c>
-      <c r="M71" s="210"/>
-      <c r="N71" s="221"/>
+    <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="187"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="116"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="116"/>
+      <c r="M71" s="190"/>
+      <c r="N71" s="201"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="207"/>
-      <c r="C72" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="116">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E72" s="116">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F72" s="116">
-        <v>140</v>
-      </c>
-      <c r="G72" s="116">
-        <v>8.7500000000000002E-4</v>
-      </c>
-      <c r="H72" s="210"/>
-      <c r="I72" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J72" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="K72" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L72" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="M72" s="210"/>
-      <c r="N72" s="221"/>
+    <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="187"/>
+      <c r="C72" s="128"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="116"/>
+      <c r="H72" s="190"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="190"/>
+      <c r="N72" s="201"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="207"/>
-      <c r="C73" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="D73" s="116">
-        <v>4.0000001899898052E-2</v>
-      </c>
-      <c r="E73" s="116">
-        <v>1.6666667458290854E-4</v>
-      </c>
-      <c r="F73" s="116">
-        <v>125.00000593718141</v>
-      </c>
-      <c r="G73" s="116">
-        <v>7.8125003710738383E-4</v>
-      </c>
-      <c r="H73" s="210"/>
-      <c r="I73" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="J73" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="K73" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="L73" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="M73" s="210"/>
-      <c r="N73" s="221"/>
+    <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="187"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="190"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="190"/>
+      <c r="N73" s="201"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
       <c r="T73" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="74" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P74" s="81"/>
       <c r="Q74" s="81"/>
       <c r="S74" s="69"/>
       <c r="T74" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="75" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
@@ -7532,7 +7126,7 @@
       <c r="Q75" s="81"/>
       <c r="S75" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="76" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -7551,7 +7145,7 @@
       <c r="Q76" s="81"/>
       <c r="S76" s="69"/>
     </row>
-    <row customHeight="1" ht="24.95" r="77" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -7570,10 +7164,10 @@
       <c r="Q77" s="81"/>
       <c r="S77" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="78" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S78" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="79" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="22">
         <v>0</v>
       </c>
@@ -7650,12 +7244,12 @@
         <v>24</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="80" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="123" t="s">
         <v>183</v>
       </c>
       <c r="C80" s="80" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80" s="46"/>
       <c r="E80" s="46"/>
@@ -7676,7 +7270,7 @@
       <c r="U80" s="46"/>
       <c r="X80" s="46"/>
     </row>
-    <row customHeight="1" ht="42.75" r="81" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:26" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="100" t="s">
         <v>184</v>
       </c>
@@ -7750,43 +7344,19 @@
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="82" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B82" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C82" s="97">
-        <v>1500</v>
-      </c>
-      <c r="D82" s="36">
-        <v>60</v>
-      </c>
-      <c r="E82" s="36">
-        <v>40</v>
-      </c>
-      <c r="F82" s="50">
-        <v>20</v>
-      </c>
-      <c r="G82" s="36">
-        <v>5.250000162050128E-2</v>
-      </c>
-      <c r="H82" s="36">
-        <v>1.312500040512532E-3</v>
-      </c>
-      <c r="I82" s="36">
-        <v>6.5624999999999996E-5</v>
-      </c>
-      <c r="J82" s="36">
-        <v>5.2500002086162567E-2</v>
-      </c>
-      <c r="K82" s="82">
-        <v>1.3124999823048711E-3</v>
-      </c>
-      <c r="L82" s="36">
-        <v>6.5624997660052031E-5</v>
-      </c>
-      <c r="M82" s="167" t="s">
-        <v>56</v>
-      </c>
+    <row r="82" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="96"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="82"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="158"/>
       <c r="O82" s="96"/>
       <c r="P82" s="121"/>
       <c r="Q82" s="36"/>
@@ -7800,43 +7370,19 @@
       <c r="Y82" s="36"/>
       <c r="Z82" s="132"/>
     </row>
-    <row customHeight="1" ht="26.25" r="83" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B83" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C83" s="97">
-        <v>150000</v>
-      </c>
-      <c r="D83" s="36">
-        <v>60</v>
-      </c>
-      <c r="E83" s="36">
-        <v>40</v>
-      </c>
-      <c r="F83" s="50">
-        <v>20</v>
-      </c>
-      <c r="G83" s="36">
-        <v>5.250000162050128E-2</v>
-      </c>
-      <c r="H83" s="36">
-        <v>1.312500040512532E-3</v>
-      </c>
-      <c r="I83" s="36">
-        <v>6.5624999999999998E-3</v>
-      </c>
-      <c r="J83" s="36">
-        <v>5.2500002086162567E-2</v>
-      </c>
-      <c r="K83" s="82">
-        <v>1.3124999823048711E-3</v>
-      </c>
-      <c r="L83" s="36">
-        <v>6.5625002607703209E-3</v>
-      </c>
-      <c r="M83" s="168" t="s">
-        <v>56</v>
-      </c>
+    <row r="83" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="96"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="82"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="159"/>
       <c r="O83" s="96"/>
       <c r="P83" s="97"/>
       <c r="Q83" s="36"/>
@@ -7850,43 +7396,19 @@
       <c r="Y83" s="36"/>
       <c r="Z83" s="133"/>
     </row>
-    <row customHeight="1" ht="26.25" r="84" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B84" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="C84" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D84" s="36">
-        <v>60</v>
-      </c>
-      <c r="E84" s="36">
-        <v>40</v>
-      </c>
-      <c r="F84" s="50">
-        <v>20</v>
-      </c>
-      <c r="G84" s="36">
-        <v>5.250000162050128E-2</v>
-      </c>
-      <c r="H84" s="36">
-        <v>1.312500040512532E-3</v>
-      </c>
-      <c r="I84" s="36">
-        <v>4.3750000000000001E-4</v>
-      </c>
-      <c r="J84" s="36">
-        <v>5.2500002086162567E-2</v>
-      </c>
-      <c r="K84" s="82">
-        <v>1.3124999823048711E-3</v>
-      </c>
-      <c r="L84" s="36">
-        <v>4.3750001350417733E-4</v>
-      </c>
-      <c r="M84" s="169" t="s">
-        <v>56</v>
-      </c>
+    <row r="84" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="96"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="82"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="160"/>
       <c r="O84" s="96"/>
       <c r="P84" s="97"/>
       <c r="Q84" s="36"/>
@@ -7900,7 +7422,7 @@
       <c r="Y84" s="36"/>
       <c r="Z84" s="134"/>
     </row>
-    <row customHeight="1" ht="26.25" r="85" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="96"/>
       <c r="C85" s="97"/>
       <c r="D85" s="36"/>
@@ -7926,7 +7448,7 @@
       <c r="Y85" s="36"/>
       <c r="Z85" s="135"/>
     </row>
-    <row customHeight="1" ht="26.25" r="86" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="98"/>
       <c r="C86" s="97"/>
       <c r="D86" s="36"/>
@@ -7952,7 +7474,7 @@
       <c r="Y86" s="36"/>
       <c r="Z86" s="136"/>
     </row>
-    <row customHeight="1" ht="26.25" r="87" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="98"/>
       <c r="C87" s="97"/>
       <c r="D87" s="36"/>
@@ -7978,7 +7500,7 @@
       <c r="Y87" s="36"/>
       <c r="Z87" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="88" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="98"/>
       <c r="C88" s="97"/>
       <c r="D88" s="36"/>
@@ -8004,7 +7526,7 @@
       <c r="Y88" s="36"/>
       <c r="Z88" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="89" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="98"/>
       <c r="C89" s="97"/>
       <c r="D89" s="36"/>
@@ -8030,19 +7552,19 @@
       <c r="Y89" s="36"/>
       <c r="Z89" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="90" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W90" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="91" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W91" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="92" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="80" t="str">
+      <c r="C92" s="80">
         <f>B50</f>
-        <v>active2</v>
+        <v>0</v>
       </c>
       <c r="F92" s="46"/>
       <c r="G92" s="46"/>
@@ -8062,7 +7584,7 @@
       <c r="U92" s="46"/>
       <c r="V92" s="46"/>
     </row>
-    <row customHeight="1" ht="44.25" r="93" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:26" ht="44.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="100" t="s">
         <v>184</v>
       </c>
@@ -8136,43 +7658,19 @@
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="94" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B94" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="97">
-        <v>1500</v>
-      </c>
-      <c r="D94" s="36">
-        <v>60</v>
-      </c>
-      <c r="E94" s="36">
-        <v>40</v>
-      </c>
-      <c r="F94" s="50">
-        <v>20</v>
-      </c>
-      <c r="G94" s="36">
-        <v>4.4117647921666503E-2</v>
-      </c>
-      <c r="H94" s="36">
-        <v>1.1029411980416626E-3</v>
-      </c>
-      <c r="I94" s="36">
-        <v>5.5147057771682741E-5</v>
-      </c>
-      <c r="J94" s="36">
-        <v>4.4117651879787445E-2</v>
-      </c>
-      <c r="K94" s="82">
-        <v>1.102941227145493E-3</v>
-      </c>
-      <c r="L94" s="36">
-        <v>5.5147062084870413E-5</v>
-      </c>
-      <c r="M94" s="170" t="s">
-        <v>56</v>
-      </c>
+    <row r="94" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="96"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="82"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="161"/>
       <c r="O94" s="96"/>
       <c r="P94" s="97"/>
       <c r="Q94" s="36"/>
@@ -8186,43 +7684,19 @@
       <c r="Y94" s="36"/>
       <c r="Z94" s="138"/>
     </row>
-    <row customHeight="1" ht="26.25" r="95" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B95" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="97">
-        <v>150000</v>
-      </c>
-      <c r="D95" s="36">
-        <v>60</v>
-      </c>
-      <c r="E95" s="36">
-        <v>40</v>
-      </c>
-      <c r="F95" s="50">
-        <v>20</v>
-      </c>
-      <c r="G95" s="36">
-        <v>4.4117647921666503E-2</v>
-      </c>
-      <c r="H95" s="36">
-        <v>1.1029411980416626E-3</v>
-      </c>
-      <c r="I95" s="36">
-        <v>5.5147060394287106E-3</v>
-      </c>
-      <c r="J95" s="36">
-        <v>4.4117651879787445E-2</v>
-      </c>
-      <c r="K95" s="82">
-        <v>1.102941227145493E-3</v>
-      </c>
-      <c r="L95" s="36">
-        <v>5.5147064849734306E-3</v>
-      </c>
-      <c r="M95" s="171" t="s">
-        <v>56</v>
-      </c>
+    <row r="95" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="96"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="82"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="162"/>
       <c r="O95" s="96"/>
       <c r="P95" s="97"/>
       <c r="Q95" s="36"/>
@@ -8236,43 +7710,19 @@
       <c r="Y95" s="36"/>
       <c r="Z95" s="139"/>
     </row>
-    <row customHeight="1" ht="26.25" r="96" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B96" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="C96" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D96" s="36">
-        <v>60</v>
-      </c>
-      <c r="E96" s="36">
-        <v>40</v>
-      </c>
-      <c r="F96" s="50">
-        <v>20</v>
-      </c>
-      <c r="G96" s="36">
-        <v>4.4117647921666503E-2</v>
-      </c>
-      <c r="H96" s="36">
-        <v>1.1029411980416626E-3</v>
-      </c>
-      <c r="I96" s="36">
-        <v>3.6764707565307617E-4</v>
-      </c>
-      <c r="J96" s="36">
-        <v>4.4117651879787445E-2</v>
-      </c>
-      <c r="K96" s="82">
-        <v>1.102941227145493E-3</v>
-      </c>
-      <c r="L96" s="36">
-        <v>3.6764709511771798E-4</v>
-      </c>
-      <c r="M96" s="172" t="s">
-        <v>56</v>
-      </c>
+    <row r="96" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="96"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="82"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="163"/>
       <c r="O96" s="96"/>
       <c r="P96" s="97"/>
       <c r="Q96" s="36"/>
@@ -8286,43 +7736,19 @@
       <c r="Y96" s="36"/>
       <c r="Z96" s="140"/>
     </row>
-    <row customHeight="1" ht="26.25" r="97" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B97" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D97" s="36">
-        <v>60</v>
-      </c>
-      <c r="E97" s="36">
-        <v>40</v>
-      </c>
-      <c r="F97" s="50">
-        <v>20</v>
-      </c>
-      <c r="G97" s="36">
-        <v>4.4117647921666503E-2</v>
-      </c>
-      <c r="H97" s="36">
-        <v>1.1029411980416626E-3</v>
-      </c>
-      <c r="I97" s="36">
-        <v>3.6764707565307617E-4</v>
-      </c>
-      <c r="J97" s="36">
-        <v>4.4117651879787445E-2</v>
-      </c>
-      <c r="K97" s="82">
-        <v>1.102941227145493E-3</v>
-      </c>
-      <c r="L97" s="36">
-        <v>3.6764709511771798E-4</v>
-      </c>
-      <c r="M97" s="173" t="s">
-        <v>56</v>
-      </c>
+    <row r="97" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="96"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="82"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="164"/>
       <c r="O97" s="96"/>
       <c r="P97" s="97"/>
       <c r="Q97" s="36"/>
@@ -8336,43 +7762,19 @@
       <c r="Y97" s="36"/>
       <c r="Z97" s="141"/>
     </row>
-    <row customHeight="1" ht="26.25" r="98" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B98" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="97">
-        <v>35000</v>
-      </c>
-      <c r="D98" s="36">
-        <v>60</v>
-      </c>
-      <c r="E98" s="36">
-        <v>40</v>
-      </c>
-      <c r="F98" s="50">
-        <v>20</v>
-      </c>
-      <c r="G98" s="36">
-        <v>4.4117647921666503E-2</v>
-      </c>
-      <c r="H98" s="36">
-        <v>1.1029411980416626E-3</v>
-      </c>
-      <c r="I98" s="36">
-        <v>1.2867647171020508E-3</v>
-      </c>
-      <c r="J98" s="36">
-        <v>4.4117651879787445E-2</v>
-      </c>
-      <c r="K98" s="82">
-        <v>1.102941227145493E-3</v>
-      </c>
-      <c r="L98" s="36">
-        <v>1.2867647456005216E-3</v>
-      </c>
-      <c r="M98" s="174" t="s">
-        <v>56</v>
-      </c>
+    <row r="98" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="98"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="82"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="165"/>
       <c r="O98" s="98"/>
       <c r="P98" s="97"/>
       <c r="Q98" s="36"/>
@@ -8386,7 +7788,7 @@
       <c r="Y98" s="36"/>
       <c r="Z98" s="142"/>
     </row>
-    <row customHeight="1" ht="26.25" r="99" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="98"/>
       <c r="C99" s="97"/>
       <c r="D99" s="36"/>
@@ -8412,7 +7814,7 @@
       <c r="Y99" s="36"/>
       <c r="Z99" s="143"/>
     </row>
-    <row customHeight="1" ht="26.25" r="100" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="98"/>
       <c r="C100" s="97"/>
       <c r="D100" s="36"/>
@@ -8438,7 +7840,7 @@
       <c r="Y100" s="36"/>
       <c r="Z100" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="101" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="98"/>
       <c r="C101" s="97"/>
       <c r="D101" s="36"/>
@@ -8464,19 +7866,19 @@
       <c r="Y101" s="36"/>
       <c r="Z101" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="102" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="X102" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="103" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="X103" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="104" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C104" s="80" t="str">
+      <c r="C104" s="80">
         <f>B58</f>
-        <v>active2</v>
+        <v>0</v>
       </c>
       <c r="F104" s="46"/>
       <c r="G104" s="46"/>
@@ -8497,7 +7899,7 @@
       <c r="V104" s="46"/>
       <c r="W104" s="46"/>
     </row>
-    <row customHeight="1" ht="41.25" r="105" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="100" t="s">
         <v>184</v>
       </c>
@@ -8571,43 +7973,19 @@
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="106" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B106" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C106" s="97">
-        <v>1500</v>
-      </c>
-      <c r="D106" s="36">
-        <v>60</v>
-      </c>
-      <c r="E106" s="36">
-        <v>40</v>
-      </c>
-      <c r="F106" s="50">
-        <v>20</v>
-      </c>
-      <c r="G106" s="36">
-        <v>4.1176473023369908E-2</v>
-      </c>
-      <c r="H106" s="36">
-        <v>1.0294118255842477E-3</v>
-      </c>
-      <c r="I106" s="36">
-        <v>5.1470589637756346E-5</v>
-      </c>
-      <c r="J106" s="36">
-        <v>4.117647185921669E-2</v>
-      </c>
-      <c r="K106" s="82">
-        <v>1.0294117964804173E-3</v>
-      </c>
-      <c r="L106" s="36">
-        <v>5.1470589824020863E-5</v>
-      </c>
-      <c r="M106" s="175" t="s">
-        <v>56</v>
-      </c>
+    <row r="106" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="96"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="82"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="166"/>
       <c r="O106" s="96"/>
       <c r="P106" s="97"/>
       <c r="Q106" s="36"/>
@@ -8621,43 +7999,19 @@
       <c r="Y106" s="36"/>
       <c r="Z106" s="145"/>
     </row>
-    <row customHeight="1" ht="26.25" r="107" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B107" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C107" s="97">
-        <v>150000</v>
-      </c>
-      <c r="D107" s="36">
-        <v>60</v>
-      </c>
-      <c r="E107" s="36">
-        <v>40</v>
-      </c>
-      <c r="F107" s="50">
-        <v>20</v>
-      </c>
-      <c r="G107" s="36">
-        <v>4.1176473023369908E-2</v>
-      </c>
-      <c r="H107" s="36">
-        <v>1.0294118255842477E-3</v>
-      </c>
-      <c r="I107" s="36">
-        <v>5.1470592498779298E-3</v>
-      </c>
-      <c r="J107" s="36">
-        <v>4.117647185921669E-2</v>
-      </c>
-      <c r="K107" s="82">
-        <v>1.0294117964804173E-3</v>
-      </c>
-      <c r="L107" s="36">
-        <v>5.1470589824020863E-3</v>
-      </c>
-      <c r="M107" s="176" t="s">
-        <v>56</v>
-      </c>
+    <row r="107" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="96"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="36"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="82"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="167"/>
       <c r="O107" s="96"/>
       <c r="P107" s="97"/>
       <c r="Q107" s="36"/>
@@ -8671,43 +8025,19 @@
       <c r="Y107" s="36"/>
       <c r="Z107" s="146"/>
     </row>
-    <row customHeight="1" ht="26.25" r="108" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B108" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D108" s="36">
-        <v>60</v>
-      </c>
-      <c r="E108" s="36">
-        <v>40</v>
-      </c>
-      <c r="F108" s="50">
-        <v>20</v>
-      </c>
-      <c r="G108" s="36">
-        <v>4.1176473023369908E-2</v>
-      </c>
-      <c r="H108" s="36">
-        <v>1.0294118255842477E-3</v>
-      </c>
-      <c r="I108" s="36">
-        <v>3.4313726425170898E-4</v>
-      </c>
-      <c r="J108" s="36">
-        <v>4.117647185921669E-2</v>
-      </c>
-      <c r="K108" s="82">
-        <v>1.0294117964804173E-3</v>
-      </c>
-      <c r="L108" s="36">
-        <v>3.4313724609091878E-4</v>
-      </c>
-      <c r="M108" s="177" t="s">
-        <v>56</v>
-      </c>
+    <row r="108" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="96"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="36"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="82"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="168"/>
       <c r="O108" s="96"/>
       <c r="P108" s="97"/>
       <c r="Q108" s="36"/>
@@ -8721,43 +8051,19 @@
       <c r="Y108" s="36"/>
       <c r="Z108" s="147"/>
     </row>
-    <row customHeight="1" ht="26.25" r="109" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B109" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="C109" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D109" s="36">
-        <v>60</v>
-      </c>
-      <c r="E109" s="36">
-        <v>40</v>
-      </c>
-      <c r="F109" s="50">
-        <v>20</v>
-      </c>
-      <c r="G109" s="36">
-        <v>4.1176473023369908E-2</v>
-      </c>
-      <c r="H109" s="36">
-        <v>1.0294118255842477E-3</v>
-      </c>
-      <c r="I109" s="36">
-        <v>3.4313726425170898E-4</v>
-      </c>
-      <c r="J109" s="36">
-        <v>4.117647185921669E-2</v>
-      </c>
-      <c r="K109" s="82">
-        <v>1.0294117964804173E-3</v>
-      </c>
-      <c r="L109" s="36">
-        <v>3.4313724609091878E-4</v>
-      </c>
-      <c r="M109" s="178" t="s">
-        <v>56</v>
-      </c>
+    <row r="109" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="96"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="82"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="169"/>
       <c r="O109" s="96"/>
       <c r="P109" s="97"/>
       <c r="Q109" s="36"/>
@@ -8771,7 +8077,7 @@
       <c r="Y109" s="36"/>
       <c r="Z109" s="148"/>
     </row>
-    <row customHeight="1" ht="26.25" r="110" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="98"/>
       <c r="C110" s="97"/>
       <c r="D110" s="36"/>
@@ -8797,7 +8103,7 @@
       <c r="Y110" s="36"/>
       <c r="Z110" s="149"/>
     </row>
-    <row customHeight="1" ht="26.25" r="111" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B111" s="98"/>
       <c r="C111" s="97"/>
       <c r="D111" s="36"/>
@@ -8823,7 +8129,7 @@
       <c r="Y111" s="36"/>
       <c r="Z111" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="112" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B112" s="98"/>
       <c r="C112" s="97"/>
       <c r="D112" s="36"/>
@@ -8849,7 +8155,7 @@
       <c r="Y112" s="36"/>
       <c r="Z112" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="113" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="98"/>
       <c r="C113" s="97"/>
       <c r="D113" s="36"/>
@@ -8875,17 +8181,17 @@
       <c r="Y113" s="36"/>
       <c r="Z113" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="114" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="X114" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="115" spans="2:26" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="26.25" r="116" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="C116" s="80" t="str">
+      <c r="C116" s="80">
         <f>B66</f>
-        <v>active1</v>
+        <v>0</v>
       </c>
       <c r="D116" s="46"/>
       <c r="E116" s="46"/>
@@ -8896,9 +8202,9 @@
       <c r="O116" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="P116" s="80" t="str">
+      <c r="P116" s="80">
         <f>B70</f>
-        <v>active2</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="46"/>
       <c r="R116" s="46"/>
@@ -8908,7 +8214,7 @@
       <c r="V116" s="46"/>
       <c r="W116" s="46"/>
     </row>
-    <row customHeight="1" ht="47.25" r="117" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="100" t="s">
         <v>184</v>
       </c>
@@ -8982,229 +8288,85 @@
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="118" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B118" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="97">
-        <v>1500</v>
-      </c>
-      <c r="D118" s="36">
-        <v>60</v>
-      </c>
-      <c r="E118" s="36">
-        <v>40</v>
-      </c>
-      <c r="F118" s="50">
-        <v>20</v>
-      </c>
-      <c r="G118" s="36">
-        <v>4.1015627793967724E-2</v>
-      </c>
-      <c r="H118" s="36">
-        <v>1.0253906948491931E-3</v>
-      </c>
-      <c r="I118" s="36">
-        <v>5.1269537210464481E-5</v>
-      </c>
-      <c r="J118" s="36">
-        <v>4.1015625E-2</v>
-      </c>
-      <c r="K118" s="82">
-        <v>1.0253905784338713E-3</v>
-      </c>
-      <c r="L118" s="36">
-        <v>5.1269533287268132E-5</v>
-      </c>
-      <c r="M118" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="O118" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="P118" s="97">
-        <v>1500</v>
-      </c>
-      <c r="Q118" s="36">
-        <v>60</v>
-      </c>
-      <c r="R118" s="36">
-        <v>40</v>
-      </c>
-      <c r="S118" s="50">
-        <v>20</v>
-      </c>
-      <c r="T118" s="36">
-        <v>4.4582043774425983E-2</v>
-      </c>
-      <c r="U118" s="36">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="V118" s="36">
-        <v>5.5727553367614748E-5</v>
-      </c>
-      <c r="W118" s="36">
-        <v>4.4582042843103409E-2</v>
-      </c>
-      <c r="X118" s="82">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="Y118" s="36">
-        <v>5.5727556173224002E-5</v>
-      </c>
-      <c r="Z118" s="182" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="26.25" r="119" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B119" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="97">
-        <v>150000</v>
-      </c>
-      <c r="D119" s="36">
-        <v>60</v>
-      </c>
-      <c r="E119" s="36">
-        <v>40</v>
-      </c>
-      <c r="F119" s="50">
-        <v>20</v>
-      </c>
-      <c r="G119" s="36">
-        <v>4.1015627793967724E-2</v>
-      </c>
-      <c r="H119" s="36">
-        <v>1.0253906948491931E-3</v>
-      </c>
-      <c r="I119" s="36">
-        <v>5.1269535064697265E-3</v>
-      </c>
-      <c r="J119" s="36">
-        <v>4.1015625E-2</v>
-      </c>
-      <c r="K119" s="82">
-        <v>1.0253905784338713E-3</v>
-      </c>
-      <c r="L119" s="36">
-        <v>5.126953125E-3</v>
-      </c>
-      <c r="M119" s="180" t="s">
-        <v>56</v>
-      </c>
-      <c r="O119" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="P119" s="97">
-        <v>150000</v>
-      </c>
-      <c r="Q119" s="36">
-        <v>60</v>
-      </c>
-      <c r="R119" s="36">
-        <v>40</v>
-      </c>
-      <c r="S119" s="50">
-        <v>20</v>
-      </c>
-      <c r="T119" s="36">
-        <v>4.4582043774425983E-2</v>
-      </c>
-      <c r="U119" s="36">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="V119" s="36">
-        <v>5.572755432128906E-3</v>
-      </c>
-      <c r="W119" s="36">
-        <v>4.4582042843103409E-2</v>
-      </c>
-      <c r="X119" s="82">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="Y119" s="36">
-        <v>5.5727553553879261E-3</v>
-      </c>
-      <c r="Z119" s="183" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="26.25" r="120" spans="2:26" x14ac:dyDescent="0.35">
-      <c r="B120" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="C120" s="97">
-        <v>10000</v>
-      </c>
-      <c r="D120" s="36">
-        <v>60</v>
-      </c>
-      <c r="E120" s="36">
-        <v>40</v>
-      </c>
-      <c r="F120" s="50">
-        <v>20</v>
-      </c>
-      <c r="G120" s="36">
-        <v>4.1015627793967724E-2</v>
-      </c>
-      <c r="H120" s="36">
-        <v>1.0253906948491931E-3</v>
-      </c>
-      <c r="I120" s="36">
-        <v>3.4179689884185794E-4</v>
-      </c>
-      <c r="J120" s="36">
-        <v>4.1015625E-2</v>
-      </c>
-      <c r="K120" s="82">
-        <v>1.0253905784338713E-3</v>
-      </c>
-      <c r="L120" s="36">
-        <v>3.4179686917923391E-4</v>
-      </c>
-      <c r="M120" s="181" t="s">
-        <v>56</v>
-      </c>
-      <c r="O120" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="P120" s="97">
-        <v>10000</v>
-      </c>
-      <c r="Q120" s="36">
-        <v>60</v>
-      </c>
-      <c r="R120" s="36">
-        <v>40</v>
-      </c>
-      <c r="S120" s="50">
-        <v>20</v>
-      </c>
-      <c r="T120" s="36">
-        <v>4.4582043774425983E-2</v>
-      </c>
-      <c r="U120" s="36">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="V120" s="36">
-        <v>3.7151703834533692E-4</v>
-      </c>
-      <c r="W120" s="36">
-        <v>4.4582042843103409E-2</v>
-      </c>
-      <c r="X120" s="82">
-        <v>1.1145510943606496E-3</v>
-      </c>
-      <c r="Y120" s="36">
-        <v>3.7151703145354986E-4</v>
-      </c>
-      <c r="Z120" s="184" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="26.25" r="121" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="96"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="82"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="170"/>
+      <c r="O118" s="96"/>
+      <c r="P118" s="97"/>
+      <c r="Q118" s="36"/>
+      <c r="R118" s="36"/>
+      <c r="S118" s="50"/>
+      <c r="T118" s="36"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="36"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="82"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="173"/>
+    </row>
+    <row r="119" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="96"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="82"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="171"/>
+      <c r="O119" s="96"/>
+      <c r="P119" s="97"/>
+      <c r="Q119" s="36"/>
+      <c r="R119" s="36"/>
+      <c r="S119" s="50"/>
+      <c r="T119" s="36"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="36"/>
+      <c r="W119" s="36"/>
+      <c r="X119" s="82"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="174"/>
+    </row>
+    <row r="120" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="96"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="82"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="172"/>
+      <c r="O120" s="96"/>
+      <c r="P120" s="97"/>
+      <c r="Q120" s="36"/>
+      <c r="R120" s="36"/>
+      <c r="S120" s="50"/>
+      <c r="T120" s="36"/>
+      <c r="U120" s="36"/>
+      <c r="V120" s="36"/>
+      <c r="W120" s="36"/>
+      <c r="X120" s="82"/>
+      <c r="Y120" s="36"/>
+      <c r="Z120" s="175"/>
+    </row>
+    <row r="121" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="96"/>
       <c r="C121" s="97"/>
       <c r="D121" s="36"/>
@@ -9230,7 +8392,7 @@
       <c r="Y121" s="36"/>
       <c r="Z121" s="153"/>
     </row>
-    <row customHeight="1" ht="26.25" r="122" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="98"/>
       <c r="C122" s="97"/>
       <c r="D122" s="36"/>
@@ -9256,7 +8418,7 @@
       <c r="Y122" s="36"/>
       <c r="Z122" s="154"/>
     </row>
-    <row customHeight="1" ht="26.25" r="123" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="98"/>
       <c r="C123" s="97"/>
       <c r="D123" s="36"/>
@@ -9282,7 +8444,7 @@
       <c r="Y123" s="36"/>
       <c r="Z123" s="155"/>
     </row>
-    <row customHeight="1" ht="26.25" r="124" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="98"/>
       <c r="C124" s="97"/>
       <c r="D124" s="36"/>
@@ -9308,7 +8470,7 @@
       <c r="Y124" s="36"/>
       <c r="Z124" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="125" spans="2:26" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="98"/>
       <c r="C125" s="97"/>
       <c r="D125" s="36"/>
@@ -9334,19 +8496,19 @@
       <c r="Y125" s="36"/>
       <c r="Z125" s="120"/>
     </row>
-    <row customHeight="1" ht="26.25" r="126" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S126" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="127" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S127" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="128" spans="2:26" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S128" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="129" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S129" s="69"/>
     </row>
-    <row customHeight="1" ht="26.25" r="130" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
@@ -9368,7 +8530,7 @@
       <c r="U130" s="64"/>
       <c r="V130" s="64"/>
     </row>
-    <row customHeight="1" ht="26.25" r="131" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="46"/>
       <c r="C131" s="46"/>
       <c r="D131" s="46"/>
@@ -9386,7 +8548,7 @@
       <c r="U131" s="64"/>
       <c r="V131" s="64"/>
     </row>
-    <row customHeight="1" ht="26.25" r="132" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="46"/>
       <c r="C132" s="46"/>
       <c r="D132" s="46"/>
@@ -9404,14 +8566,14 @@
       <c r="U132" s="64"/>
       <c r="V132" s="64"/>
     </row>
-    <row customHeight="1" ht="30" r="133" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="134" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="135" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="136" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="137" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="138" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="139" spans="2:22" x14ac:dyDescent="0.35"/>
-    <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
+    <row r="133" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
     <mergeCell ref="T9:T12"/>
@@ -9500,19 +8662,19 @@
     <mergeCell ref="H50:H53"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
       <formula1>"daily,week,month"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
@@ -9520,16 +8682,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="31.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="1" max="1" width="11" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -9547,8 +8709,8 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="13.5" r="4" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="29.25" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -9580,7 +8742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
         <v>0</v>
       </c>
@@ -9621,7 +8783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="75" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -9650,7 +8812,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row ht="60" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -9675,7 +8837,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row ht="90" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -9700,7 +8862,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row ht="75" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
@@ -9725,7 +8887,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row ht="75" r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
@@ -9750,7 +8912,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row ht="75" r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -9806,32 +8968,32 @@
       <c r="M14" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A7:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="6.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -9866,12 +9028,12 @@
         <v>9</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="48" r="8" s="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="156" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E8" s="157" t="s">
         <v>208</v>
@@ -9908,531 +9070,259 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>16.47058868408203</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="158"/>
-      <c r="J9" s="1" t="n">
-        <v>411.76470947265625</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>11.957295417785645</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>11.957295417785645</v>
-      </c>
-      <c r="I10" s="250" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>298.932373046875</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>239.14590454101562</v>
-      </c>
-      <c r="L10" s="251" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="O10" s="252" t="s">
-        <v>56</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="246"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>14.736842155456543</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="159"/>
-      <c r="J11" s="1" t="n">
-        <v>368.4210510253906</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="n">
-        <v>238.0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>25.454545974731445</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I12" s="160"/>
-      <c r="J12" s="1" t="n">
-        <v>636.3636474609375</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>164.70587158203125</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I13" s="200"/>
-      <c r="J13" s="1" t="n">
-        <v>4117.64697265625</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="201"/>
-      <c r="M13" s="1" t="n">
-        <v>139.99998474121094</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="O13" s="253" t="s">
-        <v>56</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="234"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="247"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>119.57293701171875</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I14" s="161"/>
-      <c r="J14" s="1" t="n">
-        <v>2989.323486328125</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="n">
-        <v>167.99998474121094</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>147.368408203125</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>147.36842346191406</v>
-      </c>
-      <c r="I15" s="254" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>3684.210205078125</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>2947.368408203125</v>
-      </c>
-      <c r="L15" s="255" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>237.99998474121094</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O15" s="185"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="236"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="176"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>254.54542541503906</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I16" s="162"/>
-      <c r="J16" s="1" t="n">
-        <v>6363.6357421875</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="n">
-        <v>195.99998474121094</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>1647.058837890625</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="163"/>
-      <c r="J17" s="1" t="n">
-        <v>41176.47265625</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="O17" s="256" t="s">
-        <v>56</v>
-      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="248"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>1195.7294921875</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1195.7294921875</v>
-      </c>
-      <c r="I18" s="257" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>29893.23828125</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>23914.58984375</v>
-      </c>
-      <c r="L18" s="258" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O18" s="186"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="177"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>1473.6842041015625</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I19" s="164"/>
-      <c r="J19" s="1" t="n">
-        <v>36842.10546875</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="240"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1" t="n">
-        <v>238.0</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>2545.45458984375</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I20" s="202"/>
-      <c r="J20" s="1" t="n">
-        <v>63636.36328125</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="203"/>
-      <c r="M20" s="1" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>16470.587890625</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="165"/>
-      <c r="J21" s="1" t="n">
-        <v>411764.6875</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="O21" s="259" t="s">
-        <v>56</v>
-      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="249"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>11957.294921875</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>11957.294921875</v>
-      </c>
-      <c r="I22" s="260" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>298932.375</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>239145.90625</v>
-      </c>
-      <c r="L22" s="261" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="O22" s="187"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="243"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="178"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>14736.841796875</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="204"/>
-      <c r="J23" s="1" t="n">
-        <v>368421.03125</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="205"/>
-      <c r="M23" s="1" t="n">
-        <v>238.0</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>25454.544921875</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I24" s="166"/>
-      <c r="J24" s="1" t="n">
-        <v>636363.625</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="245"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -10481,7 +9371,7 @@
       <c r="O27" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="247">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -823,9 +823,27 @@
 Active Name</t>
   </si>
   <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>Equipment Train</t>
+  </si>
+  <si>
+    <t>Expected L4 Train</t>
+  </si>
+  <si>
+    <t>Actual  L4 Train</t>
+  </si>
+  <si>
     <t>P1 active1</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>train product</t>
+  </si>
+  <si>
     <t>P2 active2</t>
   </si>
   <si>
@@ -835,25 +853,7 @@
     <t>P3 active2</t>
   </si>
   <si>
-    <t>P4 active1</t>
-  </si>
-  <si>
-    <t>P4 active2</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Equipment Train</t>
-  </si>
-  <si>
-    <t>Expected L4 Train</t>
-  </si>
-  <si>
-    <t>Actual  L4 Train</t>
+    <t>train product active1</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="145" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1556,6 +1556,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -1646,18 +1653,104 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1856,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2402,8 +2495,7 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2427,71 +2519,50 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2501,23 +2572,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2540,30 +2611,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="124" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2585,23 +2703,14 @@
     <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5021,15 +5130,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="382" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5118,22 +5227,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="383" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="384"/>
-      <c r="F6" s="384"/>
-      <c r="G6" s="384"/>
-      <c r="H6" s="385"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="383" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="384"/>
-      <c r="O6" s="384"/>
-      <c r="P6" s="384"/>
-      <c r="Q6" s="385"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5151,10 +5260,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="386" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="387"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5177,10 +5286,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="386" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="387"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5313,7 +5422,7 @@
         <v>60</v>
       </c>
       <c r="S9" s="365"/>
-      <c r="T9" s="368">
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
@@ -5381,7 +5490,7 @@
       <c r="Q10" s="366"/>
       <c r="R10" s="366"/>
       <c r="S10" s="366"/>
-      <c r="T10" s="369"/>
+      <c r="T10" s="381"/>
       <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
@@ -5411,7 +5520,7 @@
       <c r="Q11" s="366"/>
       <c r="R11" s="366"/>
       <c r="S11" s="366"/>
-      <c r="T11" s="369"/>
+      <c r="T11" s="381"/>
       <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
@@ -5450,7 +5559,7 @@
       <c r="Q12" s="367"/>
       <c r="R12" s="367"/>
       <c r="S12" s="367"/>
-      <c r="T12" s="370"/>
+      <c r="T12" s="382"/>
       <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
@@ -5523,7 +5632,7 @@
         <v>160</v>
       </c>
       <c r="S13" s="365"/>
-      <c r="T13" s="368">
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
@@ -5589,7 +5698,7 @@
       <c r="Q14" s="366"/>
       <c r="R14" s="366"/>
       <c r="S14" s="366"/>
-      <c r="T14" s="369"/>
+      <c r="T14" s="381"/>
       <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
@@ -5598,7 +5707,7 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="380" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="375"/>
@@ -5619,7 +5728,7 @@
       <c r="Q15" s="366"/>
       <c r="R15" s="366"/>
       <c r="S15" s="366"/>
-      <c r="T15" s="369"/>
+      <c r="T15" s="381"/>
       <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
@@ -5630,7 +5739,7 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="381"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -5649,7 +5758,7 @@
       <c r="Q16" s="367"/>
       <c r="R16" s="367"/>
       <c r="S16" s="367"/>
-      <c r="T16" s="370"/>
+      <c r="T16" s="382"/>
       <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
@@ -5717,7 +5826,7 @@
         <v>140</v>
       </c>
       <c r="S17" s="365"/>
-      <c r="T17" s="368">
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
@@ -5779,7 +5888,7 @@
       <c r="Q18" s="366"/>
       <c r="R18" s="366"/>
       <c r="S18" s="366"/>
-      <c r="T18" s="369"/>
+      <c r="T18" s="381"/>
       <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
@@ -5807,7 +5916,7 @@
       <c r="Q19" s="366"/>
       <c r="R19" s="366"/>
       <c r="S19" s="366"/>
-      <c r="T19" s="369"/>
+      <c r="T19" s="381"/>
       <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
@@ -5833,7 +5942,7 @@
       <c r="Q20" s="367"/>
       <c r="R20" s="367"/>
       <c r="S20" s="367"/>
-      <c r="T20" s="370"/>
+      <c r="T20" s="382"/>
       <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
@@ -5899,7 +6008,7 @@
         <v>180</v>
       </c>
       <c r="S21" s="365"/>
-      <c r="T21" s="368">
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
@@ -5959,14 +6068,14 @@
       <c r="Q22" s="366"/>
       <c r="R22" s="366"/>
       <c r="S22" s="366"/>
-      <c r="T22" s="369"/>
+      <c r="T22" s="381"/>
       <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="371" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="375"/>
@@ -5987,14 +6096,14 @@
       <c r="Q23" s="366"/>
       <c r="R23" s="366"/>
       <c r="S23" s="366"/>
-      <c r="T23" s="369"/>
+      <c r="T23" s="381"/>
       <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="372"/>
+      <c r="A24" s="386"/>
       <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -6013,7 +6122,7 @@
       <c r="Q24" s="367"/>
       <c r="R24" s="367"/>
       <c r="S24" s="367"/>
-      <c r="T24" s="370"/>
+      <c r="T24" s="382"/>
       <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
@@ -6040,13 +6149,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="373" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="373"/>
-      <c r="J27" s="373"/>
-      <c r="K27" s="373"/>
-      <c r="L27" s="373"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6326,19 +6435,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="363" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="363"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="363"/>
-      <c r="H40" s="363"/>
-      <c r="I40" s="363" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="363"/>
-      <c r="K40" s="363"/>
-      <c r="L40" s="363"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6462,7 +6571,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="358" t="s">
+      <c r="B42" s="391" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6470,17 +6579,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="359">
+      <c r="H42" s="389">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="359">
+      <c r="M42" s="389">
         <v>1</v>
       </c>
-      <c r="N42" s="364" t="s">
+      <c r="N42" s="388" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6528,7 +6637,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="358"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6544,7 +6653,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="359"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6557,8 +6666,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="359"/>
-      <c r="N43" s="359"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6604,7 +6713,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="358"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6620,7 +6729,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="359"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6633,8 +6742,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="359"/>
-      <c r="N44" s="359"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6680,7 +6789,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="358"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6696,7 +6805,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="359"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6709,8 +6818,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="359"/>
-      <c r="N45" s="359"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6756,19 +6865,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="358"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="359"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="359"/>
-      <c r="N46" s="360"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="392"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6814,19 +6923,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="358"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="359"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="359"/>
-      <c r="N47" s="361"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6874,19 +6983,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="358"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="359"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="359"/>
-      <c r="N48" s="361"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -6934,19 +7043,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="358"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="359"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="359"/>
-      <c r="N49" s="361"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -6994,19 +7103,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="353"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="354"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="354"/>
-      <c r="N50" s="362"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="396"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7027,19 +7136,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="353"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="354"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="354"/>
-      <c r="N51" s="356"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7070,19 +7179,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="353"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="354"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="354"/>
-      <c r="N52" s="356"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7146,19 +7255,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="353"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="354"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="354"/>
-      <c r="N53" s="356"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7207,19 +7316,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="353"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="354"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="354"/>
-      <c r="N54" s="355"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="398"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7266,19 +7375,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="353"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="354"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="354"/>
-      <c r="N55" s="356"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7325,19 +7434,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="353"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="354"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="354"/>
-      <c r="N56" s="356"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7384,19 +7493,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="353"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="354"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="354"/>
-      <c r="N57" s="356"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7443,19 +7552,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="348"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="349"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="349"/>
-      <c r="N58" s="357"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="401"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7502,19 +7611,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="348"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="349"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="349"/>
-      <c r="N59" s="351"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7561,19 +7670,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="348"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="349"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="349"/>
-      <c r="N60" s="351"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7620,247 +7729,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="348"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="349"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="349"/>
-      <c r="N61" s="351"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="348"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="349"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="349"/>
-      <c r="N62" s="350"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="407"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="348"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="349"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="349"/>
-      <c r="N63" s="351"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="348"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="349"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="349"/>
-      <c r="N64" s="351"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="348"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="349"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="349"/>
-      <c r="N65" s="351"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="344"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="345"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="345"/>
-      <c r="N66" s="352"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="408"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="344"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="345"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="345"/>
-      <c r="N67" s="347"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="344"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="345"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="345"/>
-      <c r="N68" s="347"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="344"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="345"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="345"/>
-      <c r="N69" s="347"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="344"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="345"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="345"/>
-      <c r="N70" s="346"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="405"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="344"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="345"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="345"/>
-      <c r="N71" s="347"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="344"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="345"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="345"/>
-      <c r="N72" s="347"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="344"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="345"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="345"/>
-      <c r="N73" s="347"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9413,23 +9522,57 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9446,57 +9589,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9513,8 +9622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE43" sqref="AE43"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9549,7 +9658,7 @@
     <col min="28" max="28" width="33.28515625" style="22" customWidth="1" collapsed="1"/>
     <col min="29" max="29" width="19.42578125" style="22" customWidth="1" collapsed="1"/>
     <col min="30" max="30" width="8.85546875" style="22" collapsed="1"/>
-    <col min="31" max="31" width="24.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="28.7109375" style="22" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="23.85546875" style="22" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="21" style="22" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="18.7109375" style="22" customWidth="1" collapsed="1"/>
@@ -9562,15 +9671,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="382" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9619,22 +9728,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="383" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="384"/>
-      <c r="F6" s="384"/>
-      <c r="G6" s="384"/>
-      <c r="H6" s="385"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="383" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="384"/>
-      <c r="O6" s="384"/>
-      <c r="P6" s="384"/>
-      <c r="Q6" s="385"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9652,10 +9761,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="386" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="387"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9678,10 +9787,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="386" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="387"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9767,7 +9876,7 @@
       <c r="Q9" s="365"/>
       <c r="R9" s="365"/>
       <c r="S9" s="365"/>
-      <c r="T9" s="368"/>
+      <c r="T9" s="380"/>
       <c r="U9" s="365"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
@@ -9796,7 +9905,7 @@
       <c r="Q10" s="366"/>
       <c r="R10" s="366"/>
       <c r="S10" s="366"/>
-      <c r="T10" s="369"/>
+      <c r="T10" s="381"/>
       <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
@@ -9824,7 +9933,7 @@
       <c r="Q11" s="366"/>
       <c r="R11" s="366"/>
       <c r="S11" s="366"/>
-      <c r="T11" s="369"/>
+      <c r="T11" s="381"/>
       <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
@@ -9854,7 +9963,7 @@
       <c r="Q12" s="367"/>
       <c r="R12" s="367"/>
       <c r="S12" s="367"/>
-      <c r="T12" s="370"/>
+      <c r="T12" s="382"/>
       <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
@@ -9882,7 +9991,7 @@
       <c r="Q13" s="365"/>
       <c r="R13" s="365"/>
       <c r="S13" s="365"/>
-      <c r="T13" s="368"/>
+      <c r="T13" s="380"/>
       <c r="U13" s="365"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
@@ -9910,7 +10019,7 @@
       <c r="Q14" s="366"/>
       <c r="R14" s="366"/>
       <c r="S14" s="366"/>
-      <c r="T14" s="369"/>
+      <c r="T14" s="381"/>
       <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
@@ -9919,7 +10028,7 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="380"/>
+      <c r="A15" s="383"/>
       <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -9938,7 +10047,7 @@
       <c r="Q15" s="366"/>
       <c r="R15" s="366"/>
       <c r="S15" s="366"/>
-      <c r="T15" s="369"/>
+      <c r="T15" s="381"/>
       <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
@@ -9947,7 +10056,7 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="381"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -9966,7 +10075,7 @@
       <c r="Q16" s="367"/>
       <c r="R16" s="367"/>
       <c r="S16" s="367"/>
-      <c r="T16" s="370"/>
+      <c r="T16" s="382"/>
       <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
@@ -9994,7 +10103,7 @@
       <c r="Q17" s="365"/>
       <c r="R17" s="365"/>
       <c r="S17" s="365"/>
-      <c r="T17" s="368"/>
+      <c r="T17" s="380"/>
       <c r="U17" s="365"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
@@ -10022,7 +10131,7 @@
       <c r="Q18" s="366"/>
       <c r="R18" s="366"/>
       <c r="S18" s="366"/>
-      <c r="T18" s="369"/>
+      <c r="T18" s="381"/>
       <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
@@ -10048,7 +10157,7 @@
       <c r="Q19" s="366"/>
       <c r="R19" s="366"/>
       <c r="S19" s="366"/>
-      <c r="T19" s="369"/>
+      <c r="T19" s="381"/>
       <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
@@ -10074,7 +10183,7 @@
       <c r="Q20" s="367"/>
       <c r="R20" s="367"/>
       <c r="S20" s="367"/>
-      <c r="T20" s="370"/>
+      <c r="T20" s="382"/>
       <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
@@ -10100,7 +10209,7 @@
       <c r="Q21" s="365"/>
       <c r="R21" s="365"/>
       <c r="S21" s="365"/>
-      <c r="T21" s="368"/>
+      <c r="T21" s="380"/>
       <c r="U21" s="365"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
@@ -10126,14 +10235,14 @@
       <c r="Q22" s="366"/>
       <c r="R22" s="366"/>
       <c r="S22" s="366"/>
-      <c r="T22" s="369"/>
+      <c r="T22" s="381"/>
       <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="371"/>
+      <c r="A23" s="385"/>
       <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -10152,14 +10261,14 @@
       <c r="Q23" s="366"/>
       <c r="R23" s="366"/>
       <c r="S23" s="366"/>
-      <c r="T23" s="369"/>
+      <c r="T23" s="381"/>
       <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="372"/>
+      <c r="A24" s="386"/>
       <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -10178,7 +10287,7 @@
       <c r="Q24" s="367"/>
       <c r="R24" s="367"/>
       <c r="S24" s="367"/>
-      <c r="T24" s="370"/>
+      <c r="T24" s="382"/>
       <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
@@ -10213,11 +10322,11 @@
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="324"/>
+      <c r="J27" s="324"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="324"/>
       <c r="M27" s="69"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -10232,7 +10341,7 @@
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
       <c r="I28" s="53"/>
-      <c r="J28" s="322"/>
+      <c r="J28" s="321"/>
       <c r="K28" s="53"/>
       <c r="L28" s="53"/>
       <c r="M28" s="53"/>
@@ -10247,10 +10356,10 @@
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
-      <c r="H29" s="323"/>
+      <c r="H29" s="322"/>
       <c r="I29" s="59"/>
       <c r="J29" s="69"/>
-      <c r="K29" s="321"/>
+      <c r="K29" s="320"/>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
       <c r="N29" s="59"/>
@@ -10280,10 +10389,10 @@
       <c r="E31" s="46"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
-      <c r="H31" s="324"/>
+      <c r="H31" s="323"/>
       <c r="I31" s="46"/>
       <c r="J31" s="59"/>
-      <c r="K31" s="321"/>
+      <c r="K31" s="320"/>
       <c r="L31" s="59"/>
       <c r="M31" s="59"/>
       <c r="N31" s="62"/>
@@ -10312,10 +10421,10 @@
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
       <c r="G33" s="46"/>
-      <c r="H33" s="324"/>
+      <c r="H33" s="323"/>
       <c r="I33" s="46"/>
-      <c r="J33" s="321"/>
-      <c r="K33" s="321"/>
+      <c r="J33" s="320"/>
+      <c r="K33" s="320"/>
       <c r="L33" s="59"/>
       <c r="M33" s="59"/>
       <c r="N33" s="59"/>
@@ -10344,11 +10453,11 @@
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="46"/>
-      <c r="H35" s="324"/>
+      <c r="H35" s="323"/>
       <c r="I35" s="46"/>
       <c r="J35" s="59"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="321"/>
+      <c r="K35" s="320"/>
+      <c r="L35" s="320"/>
       <c r="M35" s="46"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.35">
@@ -10488,33 +10597,33 @@
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="389" t="s">
+      <c r="F40" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="390"/>
-      <c r="H40" s="390"/>
-      <c r="I40" s="391"/>
-      <c r="J40" s="392" t="s">
+      <c r="G40" s="411"/>
+      <c r="H40" s="411"/>
+      <c r="I40" s="412"/>
+      <c r="J40" s="413" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
-      <c r="M40" s="394"/>
+      <c r="K40" s="414"/>
+      <c r="L40" s="414"/>
+      <c r="M40" s="415"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="236"/>
-      <c r="Q40" s="388" t="s">
+      <c r="Q40" s="409" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="388"/>
-      <c r="S40" s="388"/>
-      <c r="T40" s="388"/>
-      <c r="U40" s="388"/>
-      <c r="V40" s="388"/>
-      <c r="W40" s="388"/>
-      <c r="X40" s="388"/>
-      <c r="Y40" s="388"/>
+      <c r="R40" s="409"/>
+      <c r="S40" s="409"/>
+      <c r="T40" s="409"/>
+      <c r="U40" s="409"/>
+      <c r="V40" s="409"/>
+      <c r="W40" s="409"/>
+      <c r="X40" s="409"/>
+      <c r="Y40" s="409"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10617,18 +10726,18 @@
         <v>227</v>
       </c>
       <c r="AF41" s="250" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AG41" s="250" t="s">
         <v>229</v>
       </c>
       <c r="AH41" s="262" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI41" s="404" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ41" s="405" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI41" s="325" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ41" s="326" t="s">
         <v>48</v>
       </c>
       <c r="AK41" s="235"/>
@@ -10638,14 +10747,14 @@
       <c r="AO41" s="23"/>
     </row>
     <row r="42" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="320">
+      <c r="A42" s="319">
         <v>1</v>
       </c>
-      <c r="B42" s="320" t="s">
+      <c r="B42" s="319" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>99</v>
@@ -10674,13 +10783,13 @@
       <c r="M42" s="296">
         <v>1.4447884168475866E-3</v>
       </c>
-      <c r="N42" s="315" t="s">
+      <c r="N42" s="340" t="s">
         <v>59</v>
       </c>
       <c r="O42" s="64"/>
       <c r="P42" s="241"/>
       <c r="Q42" s="255" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R42" s="256" t="s">
         <v>222</v>
@@ -10695,7 +10804,7 @@
         <v>11</v>
       </c>
       <c r="V42" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W42" s="256">
         <v>9.765625E-3</v>
@@ -10703,28 +10812,34 @@
       <c r="X42" s="256">
         <v>8.8778409090909088E-4</v>
       </c>
-      <c r="Y42" s="257">
-        <v>7.3242187499999997E-5</v>
-      </c>
+      <c r="Y42" s="257"/>
       <c r="Z42" s="256">
         <v>1.4447884634137154E-2</v>
       </c>
       <c r="AA42" s="256">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB42" s="291">
-        <v>1.0835913417395204E-4</v>
-      </c>
-      <c r="AC42" s="326" t="s">
+      <c r="AB42" s="291"/>
+      <c r="AC42" s="341" t="s">
         <v>59</v>
       </c>
       <c r="AD42" s="64"/>
-      <c r="AE42" s="50"/>
+      <c r="AE42" s="50" t="s">
+        <v>240</v>
+      </c>
       <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="36"/>
+      <c r="AG42" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="50">
+        <v>6.308593787252903E-3</v>
+      </c>
+      <c r="AI42" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ42" s="344" t="s">
+        <v>59</v>
+      </c>
       <c r="AK42" s="235"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -10732,10 +10847,10 @@
       <c r="AO42" s="23"/>
     </row>
     <row r="43" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="320">
+      <c r="A43" s="319">
         <v>2</v>
       </c>
-      <c r="B43" s="320" t="s">
+      <c r="B43" s="319" t="s">
         <v>99</v>
       </c>
       <c r="D43" s="34"/>
@@ -10755,22 +10870,22 @@
         <v>9.7656254638422979E-4</v>
       </c>
       <c r="J43" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K43" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L43" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M43" s="297" t="s">
-        <v>243</v>
-      </c>
-      <c r="N43" s="316"/>
+        <v>241</v>
+      </c>
+      <c r="N43" s="315"/>
       <c r="O43" s="64"/>
       <c r="P43" s="241"/>
       <c r="Q43" s="255" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R43" s="256" t="s">
         <v>223</v>
@@ -10785,7 +10900,7 @@
         <v>11</v>
       </c>
       <c r="V43" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W43" s="256">
         <v>9.765625E-3</v>
@@ -10793,28 +10908,34 @@
       <c r="X43" s="256">
         <v>8.8778409090909088E-4</v>
       </c>
-      <c r="Y43" s="257">
-        <v>7.32421875E-3</v>
-      </c>
+      <c r="Y43" s="257"/>
       <c r="Z43" s="256">
         <v>1.4447884634137154E-2</v>
       </c>
       <c r="AA43" s="256">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB43" s="291">
-        <v>1.0835913009941578E-2</v>
-      </c>
-      <c r="AC43" s="327" t="s">
+      <c r="AB43" s="291"/>
+      <c r="AC43" s="342" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="64"/>
-      <c r="AE43" s="50"/>
+      <c r="AE43" s="50" t="s">
+        <v>240</v>
+      </c>
       <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="36"/>
+      <c r="AG43" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH43" s="50">
+        <v>4.4921875814907253E-4</v>
+      </c>
+      <c r="AI43" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ43" s="345" t="s">
+        <v>59</v>
+      </c>
       <c r="AK43" s="235"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
@@ -10822,45 +10943,45 @@
       <c r="AO43" s="23"/>
     </row>
     <row r="44" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="320">
+      <c r="A44" s="319">
         <v>3</v>
       </c>
-      <c r="B44" s="320" t="s">
+      <c r="B44" s="319" t="s">
         <v>103</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="F44" s="295">
         <v>5.0000002374872565E-2</v>
       </c>
       <c r="G44" s="295">
-        <v>1.2500000593718141E-3</v>
+        <v>5.5555558194302851E-3</v>
       </c>
       <c r="H44" s="296">
-        <v>1125.0000534346327</v>
+        <v>2777.7779097151429</v>
       </c>
       <c r="I44" s="296">
-        <v>6.9659446033104189E-3</v>
+        <v>1.8335167720892033E-2</v>
       </c>
       <c r="J44" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K44" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L44" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M44" s="296" t="s">
-        <v>243</v>
-      </c>
-      <c r="N44" s="317"/>
+        <v>241</v>
+      </c>
+      <c r="N44" s="316"/>
       <c r="O44" s="64"/>
       <c r="P44" s="241"/>
       <c r="Q44" s="255" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="R44" s="256" t="s">
         <v>224</v>
@@ -10875,7 +10996,7 @@
         <v>11</v>
       </c>
       <c r="V44" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W44" s="256">
         <v>9.765625E-3</v>
@@ -10883,19 +11004,15 @@
       <c r="X44" s="256">
         <v>8.8778409090909088E-4</v>
       </c>
-      <c r="Y44" s="257">
-        <v>4.8828125E-4</v>
-      </c>
+      <c r="Y44" s="257"/>
       <c r="Z44" s="256">
         <v>1.4447884634137154E-2</v>
       </c>
       <c r="AA44" s="256">
         <v>1.3134441105648875E-3</v>
       </c>
-      <c r="AB44" s="291">
-        <v>7.2239420842379332E-4</v>
-      </c>
-      <c r="AC44" s="328" t="s">
+      <c r="AB44" s="291"/>
+      <c r="AC44" s="343" t="s">
         <v>59</v>
       </c>
       <c r="AD44" s="64"/>
@@ -10904,7 +11021,7 @@
       <c r="AG44" s="50"/>
       <c r="AH44" s="50"/>
       <c r="AI44" s="50"/>
-      <c r="AJ44" s="36"/>
+      <c r="AJ44" s="327"/>
       <c r="AK44" s="235"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -10912,14 +11029,14 @@
       <c r="AO44" s="23"/>
     </row>
     <row r="45" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="320">
+      <c r="A45" s="319">
         <v>4</v>
       </c>
-      <c r="B45" s="320" t="s">
+      <c r="B45" s="319" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>93</v>
@@ -10937,18 +11054,18 @@
         <v>1.3125000623404048E-3</v>
       </c>
       <c r="J45" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K45" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L45" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M45" s="296" t="s">
-        <v>243</v>
-      </c>
-      <c r="N45" s="317"/>
+        <v>241</v>
+      </c>
+      <c r="N45" s="316"/>
       <c r="O45" s="64"/>
       <c r="P45" s="241"/>
       <c r="Q45" s="255"/>
@@ -10965,12 +11082,22 @@
       <c r="AB45" s="291"/>
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
-      <c r="AE45" s="50"/>
+      <c r="AE45" s="50" t="s">
+        <v>243</v>
+      </c>
       <c r="AF45" s="50"/>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="36"/>
+      <c r="AG45" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH45" s="50">
+        <v>5.2757356315851212E-3</v>
+      </c>
+      <c r="AI45" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ45" s="352" t="s">
+        <v>59</v>
+      </c>
       <c r="AK45" s="235"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
@@ -10978,9 +11105,9 @@
       <c r="AO45" s="23"/>
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="320"/>
-      <c r="B46" s="320" t="s">
-        <v>242</v>
+      <c r="A46" s="319"/>
+      <c r="B46" s="319" t="s">
+        <v>236</v>
       </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
@@ -11010,13 +11137,13 @@
       <c r="M46" s="296">
         <v>7.3529419023543596E-4</v>
       </c>
-      <c r="N46" s="315" t="s">
+      <c r="N46" s="346" t="s">
         <v>59</v>
       </c>
       <c r="O46" s="64"/>
       <c r="P46" s="241"/>
       <c r="Q46" s="255" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="R46" s="256" t="s">
         <v>222</v>
@@ -11031,7 +11158,7 @@
         <v>11</v>
       </c>
       <c r="V46" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W46" s="256">
         <v>6.4338237280026078E-3</v>
@@ -11039,28 +11166,34 @@
       <c r="X46" s="256">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y46" s="257">
-        <v>4.8253679275512697E-5</v>
-      </c>
+      <c r="Y46" s="257"/>
       <c r="Z46" s="256">
         <v>7.352941669523716E-3</v>
       </c>
       <c r="AA46" s="256">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB46" s="291">
-        <v>5.5147062084870413E-5</v>
-      </c>
-      <c r="AC46" s="329" t="s">
+      <c r="AB46" s="291"/>
+      <c r="AC46" s="347" t="s">
         <v>59</v>
       </c>
       <c r="AD46" s="64"/>
-      <c r="AE46" s="50"/>
+      <c r="AE46" s="50" t="s">
+        <v>243</v>
+      </c>
       <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="36"/>
+      <c r="AG46" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH46" s="50">
+        <v>3.8988972082734108E-3</v>
+      </c>
+      <c r="AI46" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ46" s="353" t="s">
+        <v>59</v>
+      </c>
       <c r="AK46" s="235"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
@@ -11068,40 +11201,40 @@
       <c r="AO46" s="23"/>
     </row>
     <row r="47" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="320"/>
-      <c r="B47" s="320"/>
+      <c r="A47" s="319"/>
+      <c r="B47" s="319"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="F47" s="295">
         <v>3.5000001662410796E-2</v>
       </c>
       <c r="G47" s="295">
-        <v>8.7500004156026989E-4</v>
+        <v>3.8888890736011993E-3</v>
       </c>
       <c r="H47" s="295">
-        <v>787.5000374042429</v>
+        <v>1944.4445368005995</v>
       </c>
       <c r="I47" s="295">
-        <v>4.9218752337765181E-3</v>
+        <v>1.2834617404624419E-2</v>
       </c>
       <c r="J47" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K47" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L47" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M47" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" s="318"/>
+        <v>241</v>
+      </c>
+      <c r="N47" s="317"/>
       <c r="P47" s="227"/>
       <c r="Q47" s="253" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="R47" s="257" t="s">
         <v>223</v>
@@ -11116,7 +11249,7 @@
         <v>11</v>
       </c>
       <c r="V47" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W47" s="257">
         <v>6.4338237280026078E-3</v>
@@ -11124,28 +11257,24 @@
       <c r="X47" s="257">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y47" s="257">
-        <v>4.8253677368164062E-3</v>
-      </c>
+      <c r="Y47" s="257"/>
       <c r="Z47" s="257">
         <v>7.352941669523716E-3</v>
       </c>
       <c r="AA47" s="257">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB47" s="292">
-        <v>5.5147064849734306E-3</v>
-      </c>
-      <c r="AC47" s="330" t="s">
+      <c r="AB47" s="292"/>
+      <c r="AC47" s="348" t="s">
         <v>59</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
       <c r="AF47" s="36"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="403"/>
+      <c r="AG47" s="50"/>
+      <c r="AH47" s="50"/>
       <c r="AI47" s="36"/>
-      <c r="AJ47" s="36"/>
+      <c r="AJ47" s="328"/>
       <c r="AK47" s="235"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
@@ -11153,10 +11282,10 @@
       <c r="AO47" s="23"/>
     </row>
     <row r="48" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="320"/>
-      <c r="B48" s="320"/>
+      <c r="A48" s="319"/>
+      <c r="B48" s="319"/>
       <c r="D48" s="34" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>93</v>
@@ -11174,21 +11303,21 @@
         <v>1.3125000623404048E-3</v>
       </c>
       <c r="J48" s="296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K48" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L48" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M48" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N48" s="318"/>
+        <v>241</v>
+      </c>
+      <c r="N48" s="317"/>
       <c r="P48" s="227"/>
       <c r="Q48" s="253" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="R48" s="257" t="s">
         <v>224</v>
@@ -11203,7 +11332,7 @@
         <v>11</v>
       </c>
       <c r="V48" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W48" s="257">
         <v>6.4338237280026078E-3</v>
@@ -11211,28 +11340,34 @@
       <c r="X48" s="257">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y48" s="257">
-        <v>3.2169117927551271E-4</v>
-      </c>
+      <c r="Y48" s="257"/>
       <c r="Z48" s="257">
         <v>7.352941669523716E-3</v>
       </c>
       <c r="AA48" s="257">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB48" s="292">
-        <v>3.6764709511771798E-4</v>
-      </c>
-      <c r="AC48" s="331" t="s">
+      <c r="AB48" s="292"/>
+      <c r="AC48" s="349" t="s">
         <v>59</v>
       </c>
       <c r="AD48" s="23"/>
-      <c r="AE48" s="72"/>
+      <c r="AE48" s="72" t="s">
+        <v>245</v>
+      </c>
       <c r="AF48" s="36"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="403"/>
-      <c r="AI48" s="36"/>
-      <c r="AJ48" s="36"/>
+      <c r="AG48" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH48" s="50">
+        <v>6.5333335660398006E-3</v>
+      </c>
+      <c r="AI48" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ48" s="359" t="s">
+        <v>59</v>
+      </c>
       <c r="AK48" s="235"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -11240,8 +11375,8 @@
       <c r="AO48" s="23"/>
     </row>
     <row r="49" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="320"/>
-      <c r="B49" s="320"/>
+      <c r="A49" s="319"/>
+      <c r="B49" s="319"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
         <v>99</v>
@@ -11270,12 +11405,12 @@
       <c r="M49" s="295">
         <v>6.8627449218183756E-4</v>
       </c>
-      <c r="N49" s="315" t="s">
+      <c r="N49" s="354" t="s">
         <v>59</v>
       </c>
       <c r="P49" s="227"/>
       <c r="Q49" s="253" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="R49" s="257" t="s">
         <v>225</v>
@@ -11290,7 +11425,7 @@
         <v>11</v>
       </c>
       <c r="V49" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W49" s="257">
         <v>6.4338237280026078E-3</v>
@@ -11298,28 +11433,34 @@
       <c r="X49" s="257">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y49" s="257">
-        <v>3.2169117927551271E-4</v>
-      </c>
+      <c r="Y49" s="257"/>
       <c r="Z49" s="257">
         <v>7.352941669523716E-3</v>
       </c>
       <c r="AA49" s="257">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB49" s="292">
-        <v>3.6764709511771798E-4</v>
-      </c>
-      <c r="AC49" s="332" t="s">
+      <c r="AB49" s="292"/>
+      <c r="AC49" s="350" t="s">
         <v>59</v>
       </c>
       <c r="AD49" s="23"/>
-      <c r="AE49" s="72"/>
+      <c r="AE49" s="72" t="s">
+        <v>245</v>
+      </c>
       <c r="AF49" s="36"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="403"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="36"/>
+      <c r="AG49" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH49" s="50">
+        <v>5.8223535306751728E-3</v>
+      </c>
+      <c r="AI49" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ49" s="360" t="s">
+        <v>59</v>
+      </c>
       <c r="AK49" s="235"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
@@ -11327,43 +11468,43 @@
       <c r="AO49" s="23"/>
     </row>
     <row r="50" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="320"/>
-      <c r="B50" s="320"/>
+      <c r="A50" s="319"/>
+      <c r="B50" s="319"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="F50" s="295">
         <v>3.5000001662410796E-2</v>
       </c>
       <c r="G50" s="295">
-        <v>8.7500004156026989E-4</v>
+        <v>3.8888890736011993E-3</v>
       </c>
       <c r="H50" s="295">
-        <v>787.5000374042429</v>
+        <v>1944.4445368005995</v>
       </c>
       <c r="I50" s="295">
-        <v>4.9218752337765181E-3</v>
+        <v>1.2834617404624419E-2</v>
       </c>
       <c r="J50" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K50" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L50" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M50" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N50" s="318"/>
+        <v>241</v>
+      </c>
+      <c r="N50" s="317"/>
       <c r="P50" s="227"/>
       <c r="Q50" s="253" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="R50" s="257" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="S50" s="258">
         <v>35000</v>
@@ -11375,7 +11516,7 @@
         <v>11</v>
       </c>
       <c r="V50" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W50" s="257">
         <v>6.4338237280026078E-3</v>
@@ -11383,19 +11524,15 @@
       <c r="X50" s="256">
         <v>5.8489306618205524E-4</v>
       </c>
-      <c r="Y50" s="256">
-        <v>1.1259191513061523E-3</v>
-      </c>
+      <c r="Y50" s="256"/>
       <c r="Z50" s="256">
         <v>7.352941669523716E-3</v>
       </c>
       <c r="AA50" s="256">
         <v>6.6844926914200187E-4</v>
       </c>
-      <c r="AB50" s="291">
-        <v>1.2867647456005216E-3</v>
-      </c>
-      <c r="AC50" s="333" t="s">
+      <c r="AB50" s="291"/>
+      <c r="AC50" s="351" t="s">
         <v>59</v>
       </c>
       <c r="AD50" s="46"/>
@@ -11404,7 +11541,7 @@
       <c r="AG50" s="50"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="36"/>
-      <c r="AJ50" s="36"/>
+      <c r="AJ50" s="329"/>
       <c r="AK50" s="23"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
@@ -11412,10 +11549,10 @@
       <c r="AO50" s="23"/>
     </row>
     <row r="51" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="320"/>
-      <c r="B51" s="320"/>
+      <c r="A51" s="319"/>
+      <c r="B51" s="319"/>
       <c r="D51" s="34" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>93</v>
@@ -11430,21 +11567,21 @@
         <v>300.00001424923539</v>
       </c>
       <c r="I51" s="295">
-        <v>1.8575852275494451E-3</v>
+        <v>1.9801981138563391E-3</v>
       </c>
       <c r="J51" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K51" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L51" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M51" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" s="318"/>
+        <v>241</v>
+      </c>
+      <c r="N51" s="317"/>
       <c r="P51" s="227"/>
       <c r="Q51" s="253"/>
       <c r="R51" s="257"/>
@@ -11460,12 +11597,22 @@
       <c r="AB51" s="291"/>
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
-      <c r="AE51" s="50"/>
+      <c r="AE51" s="50" t="s">
+        <v>246</v>
+      </c>
       <c r="AF51" s="50"/>
-      <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="120"/>
+      <c r="AG51" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH51" s="50">
+        <v>2.4814356118440628E-2</v>
+      </c>
+      <c r="AI51" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ51" s="363" t="s">
+        <v>59</v>
+      </c>
       <c r="AK51" s="46"/>
       <c r="AL51" s="46"/>
       <c r="AM51" s="46"/>
@@ -11473,8 +11620,8 @@
       <c r="AO51" s="23"/>
     </row>
     <row r="52" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="320"/>
-      <c r="B52" s="320"/>
+      <c r="A52" s="319"/>
+      <c r="B52" s="319"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
         <v>99</v>
@@ -11489,24 +11636,24 @@
         <v>233.33334441607195</v>
       </c>
       <c r="I52" s="295">
-        <v>1.4583334026004497E-3</v>
+        <v>1.5401540885549303E-3</v>
       </c>
       <c r="J52" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K52" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L52" s="295" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M52" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N52" s="318"/>
+        <v>241</v>
+      </c>
+      <c r="N52" s="317"/>
       <c r="P52" s="227"/>
       <c r="Q52" s="253" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R52" s="257" t="s">
         <v>222</v>
@@ -11521,7 +11668,7 @@
         <v>11</v>
       </c>
       <c r="V52" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W52" s="257">
         <v>9.6078438218683004E-3</v>
@@ -11529,28 +11676,34 @@
       <c r="X52" s="257">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y52" s="257">
-        <v>7.2058826684951783E-5</v>
-      </c>
+      <c r="Y52" s="257"/>
       <c r="Z52" s="257">
         <v>6.8627451546490192E-3</v>
       </c>
       <c r="AA52" s="257">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB52" s="292">
-        <v>5.1470589824020863E-5</v>
-      </c>
-      <c r="AC52" s="334" t="s">
+      <c r="AB52" s="292"/>
+      <c r="AC52" s="355" t="s">
         <v>59</v>
       </c>
       <c r="AD52" s="23"/>
-      <c r="AE52" s="36"/>
+      <c r="AE52" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="AF52" s="36"/>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="403"/>
-      <c r="AI52" s="36"/>
-      <c r="AJ52" s="36"/>
+      <c r="AG52" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH52" s="50">
+        <v>3.7128711119294167E-4</v>
+      </c>
+      <c r="AI52" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ52" s="364" t="s">
+        <v>59</v>
+      </c>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
@@ -11558,8 +11711,8 @@
       <c r="AO52" s="23"/>
     </row>
     <row r="53" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="320"/>
-      <c r="B53" s="320"/>
+      <c r="A53" s="319"/>
+      <c r="B53" s="319"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
         <v>103</v>
@@ -11574,26 +11727,24 @@
         <v>156.25000742147677</v>
       </c>
       <c r="I53" s="295">
-        <v>9.7656254638422979E-4</v>
-      </c>
-      <c r="J53" s="295">
-        <v>3.5000000149011612E-2</v>
-      </c>
-      <c r="K53" s="295">
-        <v>1.4583332813344896E-4</v>
-      </c>
-      <c r="L53" s="295">
-        <v>109.375</v>
-      </c>
-      <c r="M53" s="295">
-        <v>6.7724456312134862E-4</v>
-      </c>
-      <c r="N53" s="315" t="s">
-        <v>59</v>
-      </c>
+        <v>1.0313531843001767E-3</v>
+      </c>
+      <c r="J53" s="295" t="s">
+        <v>241</v>
+      </c>
+      <c r="K53" s="295" t="s">
+        <v>241</v>
+      </c>
+      <c r="L53" s="295" t="s">
+        <v>241</v>
+      </c>
+      <c r="M53" s="295" t="s">
+        <v>241</v>
+      </c>
+      <c r="N53" s="334"/>
       <c r="P53" s="227"/>
       <c r="Q53" s="253" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R53" s="257" t="s">
         <v>223</v>
@@ -11608,7 +11759,7 @@
         <v>11</v>
       </c>
       <c r="V53" s="256">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W53" s="257">
         <v>9.6078438218683004E-3</v>
@@ -11616,28 +11767,24 @@
       <c r="X53" s="257">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y53" s="257">
-        <v>7.205883026123047E-3</v>
-      </c>
+      <c r="Y53" s="257"/>
       <c r="Z53" s="257">
         <v>6.8627451546490192E-3</v>
       </c>
       <c r="AA53" s="257">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB53" s="292">
-        <v>5.1470589824020863E-3</v>
-      </c>
-      <c r="AC53" s="335" t="s">
+      <c r="AB53" s="292"/>
+      <c r="AC53" s="356" t="s">
         <v>59</v>
       </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
-      <c r="AG53" s="36"/>
-      <c r="AH53" s="403"/>
+      <c r="AG53" s="50"/>
+      <c r="AH53" s="50"/>
       <c r="AI53" s="36"/>
-      <c r="AJ53" s="36"/>
+      <c r="AJ53" s="330"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
@@ -11645,42 +11792,22 @@
       <c r="AO53" s="23"/>
     </row>
     <row r="54" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="320"/>
-      <c r="B54" s="320"/>
-      <c r="D54" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="295">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="G54" s="295">
-        <v>3.5000001662410796E-4</v>
-      </c>
-      <c r="H54" s="295">
-        <v>210.00000997446477</v>
-      </c>
-      <c r="I54" s="295">
-        <v>1.3003096592846116E-3</v>
-      </c>
-      <c r="J54" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="K54" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="L54" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="M54" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N54" s="318"/>
+      <c r="A54" s="319"/>
+      <c r="B54" s="319"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="295"/>
+      <c r="G54" s="295"/>
+      <c r="H54" s="295"/>
+      <c r="I54" s="295"/>
+      <c r="J54" s="295"/>
+      <c r="K54" s="295"/>
+      <c r="L54" s="295"/>
+      <c r="M54" s="295"/>
+      <c r="N54" s="317"/>
       <c r="P54" s="227"/>
       <c r="Q54" s="253" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R54" s="257" t="s">
         <v>224</v>
@@ -11695,7 +11822,7 @@
         <v>11</v>
       </c>
       <c r="V54" s="257">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W54" s="257">
         <v>9.6078438218683004E-3</v>
@@ -11703,28 +11830,24 @@
       <c r="X54" s="257">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y54" s="257">
-        <v>4.803921699523926E-4</v>
-      </c>
+      <c r="Y54" s="257"/>
       <c r="Z54" s="257">
         <v>6.8627451546490192E-3</v>
       </c>
       <c r="AA54" s="257">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB54" s="292">
-        <v>3.4313724609091878E-4</v>
-      </c>
-      <c r="AC54" s="336" t="s">
+      <c r="AB54" s="292"/>
+      <c r="AC54" s="357" t="s">
         <v>59</v>
       </c>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36"/>
       <c r="AF54" s="36"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="403"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="50"/>
       <c r="AI54" s="36"/>
-      <c r="AJ54" s="36"/>
+      <c r="AJ54" s="332"/>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -11732,40 +11855,22 @@
       <c r="AO54" s="23"/>
     </row>
     <row r="55" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="320"/>
-      <c r="B55" s="320"/>
+      <c r="A55" s="319"/>
+      <c r="B55" s="319"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="295">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="G55" s="295">
-        <v>2.3333334441607198E-4</v>
-      </c>
-      <c r="H55" s="295">
-        <v>163.33334109125039</v>
-      </c>
-      <c r="I55" s="295">
-        <v>1.020833381820315E-3</v>
-      </c>
-      <c r="J55" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="K55" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="L55" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="M55" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="N55" s="318"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="295"/>
+      <c r="G55" s="295"/>
+      <c r="H55" s="295"/>
+      <c r="I55" s="295"/>
+      <c r="J55" s="295"/>
+      <c r="K55" s="295"/>
+      <c r="L55" s="295"/>
+      <c r="M55" s="295"/>
+      <c r="N55" s="317"/>
       <c r="P55" s="227"/>
       <c r="Q55" s="253" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R55" s="257" t="s">
         <v>225</v>
@@ -11780,7 +11885,7 @@
         <v>11</v>
       </c>
       <c r="V55" s="257">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W55" s="257">
         <v>9.6078438218683004E-3</v>
@@ -11788,28 +11893,24 @@
       <c r="X55" s="257">
         <v>8.7344034744257272E-4</v>
       </c>
-      <c r="Y55" s="257">
-        <v>4.803921699523926E-4</v>
-      </c>
+      <c r="Y55" s="257"/>
       <c r="Z55" s="257">
         <v>6.8627451546490192E-3</v>
       </c>
       <c r="AA55" s="257">
         <v>6.2388594960793853E-4</v>
       </c>
-      <c r="AB55" s="292">
-        <v>3.4313724609091878E-4</v>
-      </c>
-      <c r="AC55" s="337" t="s">
+      <c r="AB55" s="292"/>
+      <c r="AC55" s="358" t="s">
         <v>59</v>
       </c>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36"/>
       <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="403"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="50"/>
       <c r="AI55" s="36"/>
-      <c r="AJ55" s="36"/>
+      <c r="AJ55" s="333"/>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -11817,39 +11918,19 @@
       <c r="AO55" s="23"/>
     </row>
     <row r="56" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="320"/>
-      <c r="B56" s="320"/>
+      <c r="A56" s="319"/>
+      <c r="B56" s="319"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F56" s="295">
-        <v>3.5000001662410796E-2</v>
-      </c>
-      <c r="G56" s="295">
-        <v>1.4583334026004499E-4</v>
-      </c>
-      <c r="H56" s="295">
-        <v>109.37500519503374</v>
-      </c>
-      <c r="I56" s="295">
-        <v>6.8359378246896085E-4</v>
-      </c>
-      <c r="J56" s="295">
-        <v>4.0000002831220627E-2</v>
-      </c>
-      <c r="K56" s="295">
-        <v>1.6666667943354696E-4</v>
-      </c>
-      <c r="L56" s="295">
-        <v>125.00000762939453</v>
-      </c>
-      <c r="M56" s="295">
-        <v>7.7399384463205934E-4</v>
-      </c>
-      <c r="N56" s="315" t="s">
-        <v>59</v>
-      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="295"/>
+      <c r="G56" s="295"/>
+      <c r="H56" s="295"/>
+      <c r="I56" s="295"/>
+      <c r="J56" s="295"/>
+      <c r="K56" s="295"/>
+      <c r="L56" s="295"/>
+      <c r="M56" s="295"/>
+      <c r="N56" s="336"/>
       <c r="P56" s="227"/>
       <c r="Q56" s="253"/>
       <c r="R56" s="257"/>
@@ -11867,10 +11948,10 @@
       <c r="AD56" s="23"/>
       <c r="AE56" s="36"/>
       <c r="AF56" s="36"/>
-      <c r="AG56" s="36"/>
-      <c r="AH56" s="403"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="50"/>
       <c r="AI56" s="36"/>
-      <c r="AJ56" s="36"/>
+      <c r="AJ56" s="331"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
@@ -11878,8 +11959,8 @@
       <c r="AO56" s="23"/>
     </row>
     <row r="57" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="320"/>
-      <c r="B57" s="320"/>
+      <c r="A57" s="319"/>
+      <c r="B57" s="319"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
       <c r="F57" s="251"/>
@@ -11890,10 +11971,10 @@
       <c r="K57" s="251"/>
       <c r="L57" s="251"/>
       <c r="M57" s="251"/>
-      <c r="N57" s="319"/>
+      <c r="N57" s="318"/>
       <c r="P57" s="227"/>
       <c r="Q57" s="253" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="R57" s="257" t="s">
         <v>222</v>
@@ -11908,34 +11989,26 @@
         <v>11</v>
       </c>
       <c r="V57" s="257">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W57" s="257">
-        <v>9.765625E-3</v>
+        <v>1.0313531383872032E-2</v>
       </c>
       <c r="X57" s="257">
-        <v>8.8778409090909088E-4</v>
-      </c>
-      <c r="Y57" s="257">
-        <v>7.3242187499999997E-5</v>
-      </c>
-      <c r="Z57" s="257">
-        <v>6.7724459804594517E-3</v>
-      </c>
-      <c r="AA57" s="257">
-        <v>6.1567692318931222E-4</v>
-      </c>
-      <c r="AB57" s="292">
-        <v>5.0793343689292669E-5</v>
-      </c>
-      <c r="AC57" s="338" t="s">
+        <v>9.3759376217018473E-4</v>
+      </c>
+      <c r="Y57" s="257"/>
+      <c r="Z57" s="257"/>
+      <c r="AA57" s="257"/>
+      <c r="AB57" s="292"/>
+      <c r="AC57" s="361" t="s">
         <v>59</v>
       </c>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
-      <c r="AG57" s="36"/>
-      <c r="AH57" s="403"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
       <c r="AI57" s="36"/>
       <c r="AJ57" s="36"/>
       <c r="AK57" s="23"/>
@@ -11945,8 +12018,8 @@
       <c r="AO57" s="23"/>
     </row>
     <row r="58" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="320"/>
-      <c r="B58" s="320"/>
+      <c r="A58" s="319"/>
+      <c r="B58" s="319"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34"/>
       <c r="F58" s="251"/>
@@ -11957,10 +12030,10 @@
       <c r="K58" s="251"/>
       <c r="L58" s="251"/>
       <c r="M58" s="251"/>
-      <c r="N58" s="319"/>
+      <c r="N58" s="318"/>
       <c r="P58" s="227"/>
       <c r="Q58" s="253" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="R58" s="257" t="s">
         <v>223</v>
@@ -11975,34 +12048,26 @@
         <v>11</v>
       </c>
       <c r="V58" s="257">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W58" s="257">
-        <v>9.765625E-3</v>
+        <v>1.0313531383872032E-2</v>
       </c>
       <c r="X58" s="257">
-        <v>8.8778409090909088E-4</v>
-      </c>
-      <c r="Y58" s="257">
-        <v>7.32421875E-3</v>
-      </c>
-      <c r="Z58" s="257">
-        <v>6.7724459804594517E-3</v>
-      </c>
-      <c r="AA58" s="257">
-        <v>6.1567692318931222E-4</v>
-      </c>
-      <c r="AB58" s="292">
-        <v>5.0793346017599106E-3</v>
-      </c>
-      <c r="AC58" s="339" t="s">
+        <v>9.3759376217018473E-4</v>
+      </c>
+      <c r="Y58" s="257"/>
+      <c r="Z58" s="257"/>
+      <c r="AA58" s="257"/>
+      <c r="AB58" s="292"/>
+      <c r="AC58" s="362" t="s">
         <v>59</v>
       </c>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="403"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
       <c r="AI58" s="36"/>
       <c r="AJ58" s="36"/>
       <c r="AK58" s="23"/>
@@ -12012,8 +12077,8 @@
       <c r="AO58" s="23"/>
     </row>
     <row r="59" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="320"/>
-      <c r="B59" s="320"/>
+      <c r="A59" s="319"/>
+      <c r="B59" s="319"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34"/>
       <c r="F59" s="251"/>
@@ -12026,50 +12091,24 @@
       <c r="M59" s="251"/>
       <c r="N59" s="251"/>
       <c r="P59" s="227"/>
-      <c r="Q59" s="253" t="s">
-        <v>240</v>
-      </c>
-      <c r="R59" s="257" t="s">
-        <v>224</v>
-      </c>
-      <c r="S59" s="258">
-        <v>10000</v>
-      </c>
-      <c r="T59" s="258">
-        <v>10</v>
-      </c>
-      <c r="U59" s="257">
-        <v>11</v>
-      </c>
-      <c r="V59" s="257">
-        <v>20</v>
-      </c>
-      <c r="W59" s="257">
-        <v>9.765625E-3</v>
-      </c>
-      <c r="X59" s="257">
-        <v>8.8778409090909088E-4</v>
-      </c>
-      <c r="Y59" s="257">
-        <v>4.8828125E-4</v>
-      </c>
-      <c r="Z59" s="257">
-        <v>6.7724459804594517E-3</v>
-      </c>
-      <c r="AA59" s="257">
-        <v>6.1567692318931222E-4</v>
-      </c>
-      <c r="AB59" s="292">
-        <v>3.3862228156067431E-4</v>
-      </c>
-      <c r="AC59" s="340" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q59" s="253"/>
+      <c r="R59" s="257"/>
+      <c r="S59" s="258"/>
+      <c r="T59" s="258"/>
+      <c r="U59" s="257"/>
+      <c r="V59" s="257"/>
+      <c r="W59" s="257"/>
+      <c r="X59" s="257"/>
+      <c r="Y59" s="257"/>
+      <c r="Z59" s="257"/>
+      <c r="AA59" s="257"/>
+      <c r="AB59" s="292"/>
+      <c r="AC59" s="335"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
-      <c r="AG59" s="36"/>
-      <c r="AH59" s="403"/>
+      <c r="AG59" s="50"/>
+      <c r="AH59" s="50"/>
       <c r="AI59" s="36"/>
       <c r="AJ59" s="36"/>
       <c r="AK59" s="23"/>
@@ -12079,8 +12118,8 @@
       <c r="AO59" s="23"/>
     </row>
     <row r="60" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="320"/>
-      <c r="B60" s="320"/>
+      <c r="A60" s="319"/>
+      <c r="B60" s="319"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
       <c r="F60" s="251"/>
@@ -12109,8 +12148,8 @@
       <c r="AD60" s="23"/>
       <c r="AE60" s="36"/>
       <c r="AF60" s="36"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="403"/>
+      <c r="AG60" s="50"/>
+      <c r="AH60" s="50"/>
       <c r="AI60" s="36"/>
       <c r="AJ60" s="36"/>
       <c r="AK60" s="23"/>
@@ -12132,50 +12171,24 @@
       <c r="M61" s="251"/>
       <c r="N61" s="251"/>
       <c r="P61" s="227"/>
-      <c r="Q61" s="253" t="s">
-        <v>241</v>
-      </c>
-      <c r="R61" s="257" t="s">
-        <v>222</v>
-      </c>
-      <c r="S61" s="258">
-        <v>1500</v>
-      </c>
-      <c r="T61" s="258">
-        <v>10</v>
-      </c>
-      <c r="U61" s="257">
-        <v>11</v>
-      </c>
-      <c r="V61" s="257">
-        <v>20</v>
-      </c>
-      <c r="W61" s="257">
-        <v>6.8359379656612873E-3</v>
-      </c>
-      <c r="X61" s="257">
-        <v>6.2144890596920789E-4</v>
-      </c>
-      <c r="Y61" s="257">
-        <v>5.1269537210464481E-5</v>
-      </c>
-      <c r="Z61" s="257">
-        <v>7.7399387955665588E-3</v>
-      </c>
-      <c r="AA61" s="257">
-        <v>7.0363079430535436E-4</v>
-      </c>
-      <c r="AB61" s="293">
-        <v>5.8049539802595973E-5</v>
-      </c>
-      <c r="AC61" s="341" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q61" s="253"/>
+      <c r="R61" s="257"/>
+      <c r="S61" s="258"/>
+      <c r="T61" s="258"/>
+      <c r="U61" s="257"/>
+      <c r="V61" s="257"/>
+      <c r="W61" s="257"/>
+      <c r="X61" s="257"/>
+      <c r="Y61" s="257"/>
+      <c r="Z61" s="257"/>
+      <c r="AA61" s="257"/>
+      <c r="AB61" s="293"/>
+      <c r="AC61" s="337"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="36"/>
+      <c r="AG61" s="50"/>
+      <c r="AH61" s="50"/>
       <c r="AI61" s="36"/>
       <c r="AJ61" s="36"/>
       <c r="AK61" s="23"/>
@@ -12197,50 +12210,24 @@
       <c r="M62" s="251"/>
       <c r="N62" s="251"/>
       <c r="P62" s="227"/>
-      <c r="Q62" s="253" t="s">
-        <v>241</v>
-      </c>
-      <c r="R62" s="257" t="s">
-        <v>223</v>
-      </c>
-      <c r="S62" s="258">
-        <v>150000</v>
-      </c>
-      <c r="T62" s="258">
-        <v>10</v>
-      </c>
-      <c r="U62" s="257">
-        <v>11</v>
-      </c>
-      <c r="V62" s="257">
-        <v>20</v>
-      </c>
-      <c r="W62" s="257">
-        <v>6.8359379656612873E-3</v>
-      </c>
-      <c r="X62" s="257">
-        <v>6.2144890596920789E-4</v>
-      </c>
-      <c r="Y62" s="257">
-        <v>5.1269535064697265E-3</v>
-      </c>
-      <c r="Z62" s="257">
-        <v>7.7399387955665588E-3</v>
-      </c>
-      <c r="AA62" s="257">
-        <v>7.0363079430535436E-4</v>
-      </c>
-      <c r="AB62" s="293">
-        <v>5.8049540966749191E-3</v>
-      </c>
-      <c r="AC62" s="342" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q62" s="253"/>
+      <c r="R62" s="257"/>
+      <c r="S62" s="258"/>
+      <c r="T62" s="258"/>
+      <c r="U62" s="257"/>
+      <c r="V62" s="257"/>
+      <c r="W62" s="257"/>
+      <c r="X62" s="257"/>
+      <c r="Y62" s="257"/>
+      <c r="Z62" s="257"/>
+      <c r="AA62" s="257"/>
+      <c r="AB62" s="293"/>
+      <c r="AC62" s="338"/>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
       <c r="AI62" s="36"/>
       <c r="AJ62" s="36"/>
       <c r="AK62" s="23"/>
@@ -12262,50 +12249,24 @@
       <c r="M63" s="251"/>
       <c r="N63" s="251"/>
       <c r="P63" s="227"/>
-      <c r="Q63" s="253" t="s">
-        <v>241</v>
-      </c>
-      <c r="R63" s="257" t="s">
-        <v>224</v>
-      </c>
-      <c r="S63" s="258">
-        <v>10000</v>
-      </c>
-      <c r="T63" s="258">
-        <v>10</v>
-      </c>
-      <c r="U63" s="257">
-        <v>11</v>
-      </c>
-      <c r="V63" s="257">
-        <v>20</v>
-      </c>
-      <c r="W63" s="257">
-        <v>6.8359379656612873E-3</v>
-      </c>
-      <c r="X63" s="257">
-        <v>6.2144890596920789E-4</v>
-      </c>
-      <c r="Y63" s="257">
-        <v>3.4179689884185794E-4</v>
-      </c>
-      <c r="Z63" s="257">
-        <v>7.7399387955665588E-3</v>
-      </c>
-      <c r="AA63" s="257">
-        <v>7.0363079430535436E-4</v>
-      </c>
-      <c r="AB63" s="293">
-        <v>3.8699692231602967E-4</v>
-      </c>
-      <c r="AC63" s="343" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q63" s="253"/>
+      <c r="R63" s="257"/>
+      <c r="S63" s="258"/>
+      <c r="T63" s="258"/>
+      <c r="U63" s="257"/>
+      <c r="V63" s="257"/>
+      <c r="W63" s="257"/>
+      <c r="X63" s="257"/>
+      <c r="Y63" s="257"/>
+      <c r="Z63" s="257"/>
+      <c r="AA63" s="257"/>
+      <c r="AB63" s="293"/>
+      <c r="AC63" s="339"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
       <c r="AI63" s="36"/>
       <c r="AJ63" s="36"/>
       <c r="AK63" s="23"/>
@@ -12343,8 +12304,8 @@
       <c r="AD64" s="23"/>
       <c r="AE64" s="36"/>
       <c r="AF64" s="36"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="36"/>
+      <c r="AG64" s="50"/>
+      <c r="AH64" s="50"/>
       <c r="AI64" s="36"/>
       <c r="AJ64" s="36"/>
       <c r="AK64" s="23"/>
@@ -12381,8 +12342,8 @@
       <c r="AC65" s="36"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
-      <c r="AG65" s="36"/>
-      <c r="AH65" s="36"/>
+      <c r="AG65" s="50"/>
+      <c r="AH65" s="50"/>
       <c r="AI65" s="36"/>
       <c r="AJ65" s="36"/>
     </row>
@@ -12414,8 +12375,8 @@
       <c r="AC66" s="36"/>
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="50"/>
       <c r="AI66" s="36"/>
       <c r="AJ66" s="36"/>
     </row>
@@ -12447,8 +12408,8 @@
       <c r="AC67" s="36"/>
       <c r="AE67" s="36"/>
       <c r="AF67" s="36"/>
-      <c r="AG67" s="36"/>
-      <c r="AH67" s="36"/>
+      <c r="AG67" s="50"/>
+      <c r="AH67" s="50"/>
       <c r="AI67" s="36"/>
       <c r="AJ67" s="36"/>
     </row>
@@ -12480,8 +12441,8 @@
       <c r="AC68" s="36"/>
       <c r="AE68" s="36"/>
       <c r="AF68" s="36"/>
-      <c r="AG68" s="36"/>
-      <c r="AH68" s="36"/>
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="50"/>
       <c r="AI68" s="36"/>
       <c r="AJ68" s="36"/>
     </row>
@@ -12513,8 +12474,8 @@
       <c r="AC69" s="36"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="36"/>
+      <c r="AG69" s="50"/>
+      <c r="AH69" s="50"/>
       <c r="AI69" s="36"/>
       <c r="AJ69" s="36"/>
     </row>
@@ -12546,8 +12507,8 @@
       <c r="AC70" s="36"/>
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
       <c r="AI70" s="36"/>
       <c r="AJ70" s="36"/>
     </row>
@@ -12579,8 +12540,8 @@
       <c r="AC71" s="36"/>
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
-      <c r="AG71" s="36"/>
-      <c r="AH71" s="36"/>
+      <c r="AG71" s="50"/>
+      <c r="AH71" s="50"/>
       <c r="AI71" s="36"/>
       <c r="AJ71" s="36"/>
     </row>
@@ -12612,8 +12573,8 @@
       <c r="AC72" s="36"/>
       <c r="AE72" s="36"/>
       <c r="AF72" s="36"/>
-      <c r="AG72" s="36"/>
-      <c r="AH72" s="36"/>
+      <c r="AG72" s="50"/>
+      <c r="AH72" s="50"/>
       <c r="AI72" s="36"/>
       <c r="AJ72" s="36"/>
     </row>
@@ -12645,8 +12606,8 @@
       <c r="AC73" s="36"/>
       <c r="AE73" s="36"/>
       <c r="AF73" s="36"/>
-      <c r="AG73" s="36"/>
-      <c r="AH73" s="36"/>
+      <c r="AG73" s="50"/>
+      <c r="AH73" s="50"/>
       <c r="AI73" s="36"/>
       <c r="AJ73" s="36"/>
     </row>
@@ -12680,8 +12641,8 @@
       <c r="AC74" s="36"/>
       <c r="AE74" s="36"/>
       <c r="AF74" s="36"/>
-      <c r="AG74" s="36"/>
-      <c r="AH74" s="36"/>
+      <c r="AG74" s="50"/>
+      <c r="AH74" s="50"/>
       <c r="AI74" s="36"/>
       <c r="AJ74" s="36"/>
     </row>
@@ -12716,8 +12677,8 @@
       <c r="AC75" s="36"/>
       <c r="AE75" s="36"/>
       <c r="AF75" s="36"/>
-      <c r="AG75" s="36"/>
-      <c r="AH75" s="36"/>
+      <c r="AG75" s="50"/>
+      <c r="AH75" s="50"/>
       <c r="AI75" s="36"/>
       <c r="AJ75" s="36"/>
     </row>
@@ -12752,8 +12713,8 @@
       <c r="AC76" s="36"/>
       <c r="AE76" s="36"/>
       <c r="AF76" s="36"/>
-      <c r="AG76" s="36"/>
-      <c r="AH76" s="36"/>
+      <c r="AG76" s="50"/>
+      <c r="AH76" s="50"/>
       <c r="AI76" s="36"/>
       <c r="AJ76" s="36"/>
     </row>
@@ -12788,8 +12749,8 @@
       <c r="AC77" s="36"/>
       <c r="AE77" s="36"/>
       <c r="AF77" s="36"/>
-      <c r="AG77" s="36"/>
-      <c r="AH77" s="36"/>
+      <c r="AG77" s="50"/>
+      <c r="AH77" s="50"/>
       <c r="AI77" s="36"/>
       <c r="AJ77" s="36"/>
     </row>
@@ -12824,8 +12785,8 @@
       <c r="AC78" s="36"/>
       <c r="AE78" s="36"/>
       <c r="AF78" s="36"/>
-      <c r="AG78" s="36"/>
-      <c r="AH78" s="36"/>
+      <c r="AG78" s="50"/>
+      <c r="AH78" s="50"/>
       <c r="AI78" s="36"/>
       <c r="AJ78" s="36"/>
     </row>
@@ -12860,8 +12821,8 @@
       <c r="AC79" s="36"/>
       <c r="AE79" s="36"/>
       <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
+      <c r="AG79" s="50"/>
+      <c r="AH79" s="50"/>
       <c r="AI79" s="36"/>
       <c r="AJ79" s="36"/>
     </row>
@@ -12896,8 +12857,8 @@
       <c r="AC80" s="36"/>
       <c r="AE80" s="36"/>
       <c r="AF80" s="36"/>
-      <c r="AG80" s="36"/>
-      <c r="AH80" s="36"/>
+      <c r="AG80" s="50"/>
+      <c r="AH80" s="50"/>
       <c r="AI80" s="36"/>
       <c r="AJ80" s="36"/>
     </row>
@@ -12932,8 +12893,8 @@
       <c r="AC81" s="36"/>
       <c r="AE81" s="36"/>
       <c r="AF81" s="36"/>
-      <c r="AG81" s="36"/>
-      <c r="AH81" s="36"/>
+      <c r="AG81" s="50"/>
+      <c r="AH81" s="50"/>
       <c r="AI81" s="36"/>
       <c r="AJ81" s="36"/>
     </row>
@@ -12968,8 +12929,8 @@
       <c r="AC82" s="36"/>
       <c r="AE82" s="36"/>
       <c r="AF82" s="36"/>
-      <c r="AG82" s="36"/>
-      <c r="AH82" s="36"/>
+      <c r="AG82" s="50"/>
+      <c r="AH82" s="50"/>
       <c r="AI82" s="36"/>
       <c r="AJ82" s="36"/>
     </row>
@@ -13004,8 +12965,8 @@
       <c r="AC83" s="36"/>
       <c r="AE83" s="36"/>
       <c r="AF83" s="36"/>
-      <c r="AG83" s="36"/>
-      <c r="AH83" s="36"/>
+      <c r="AG83" s="50"/>
+      <c r="AH83" s="50"/>
       <c r="AI83" s="36"/>
       <c r="AJ83" s="36"/>
     </row>
@@ -13040,8 +13001,8 @@
       <c r="AC84" s="36"/>
       <c r="AE84" s="36"/>
       <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
+      <c r="AG84" s="50"/>
+      <c r="AH84" s="50"/>
       <c r="AI84" s="36"/>
       <c r="AJ84" s="36"/>
     </row>
@@ -13076,8 +13037,8 @@
       <c r="AC85" s="36"/>
       <c r="AE85" s="36"/>
       <c r="AF85" s="36"/>
-      <c r="AG85" s="36"/>
-      <c r="AH85" s="36"/>
+      <c r="AG85" s="50"/>
+      <c r="AH85" s="50"/>
       <c r="AI85" s="36"/>
       <c r="AJ85" s="36"/>
     </row>
@@ -13112,8 +13073,8 @@
       <c r="AC86" s="36"/>
       <c r="AE86" s="36"/>
       <c r="AF86" s="36"/>
-      <c r="AG86" s="36"/>
-      <c r="AH86" s="36"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="50"/>
       <c r="AI86" s="36"/>
       <c r="AJ86" s="36"/>
     </row>
@@ -13148,8 +13109,8 @@
       <c r="AC87" s="36"/>
       <c r="AE87" s="36"/>
       <c r="AF87" s="36"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="36"/>
+      <c r="AG87" s="50"/>
+      <c r="AH87" s="50"/>
       <c r="AI87" s="36"/>
       <c r="AJ87" s="36"/>
     </row>
@@ -13184,8 +13145,8 @@
       <c r="AC88" s="36"/>
       <c r="AE88" s="36"/>
       <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="36"/>
+      <c r="AG88" s="50"/>
+      <c r="AH88" s="50"/>
       <c r="AI88" s="36"/>
       <c r="AJ88" s="36"/>
     </row>
@@ -13220,8 +13181,8 @@
       <c r="AC89" s="36"/>
       <c r="AE89" s="36"/>
       <c r="AF89" s="36"/>
-      <c r="AG89" s="36"/>
-      <c r="AH89" s="36"/>
+      <c r="AG89" s="50"/>
+      <c r="AH89" s="50"/>
       <c r="AI89" s="36"/>
       <c r="AJ89" s="36"/>
     </row>
@@ -13256,8 +13217,8 @@
       <c r="AC90" s="36"/>
       <c r="AE90" s="36"/>
       <c r="AF90" s="36"/>
-      <c r="AG90" s="36"/>
-      <c r="AH90" s="36"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="50"/>
       <c r="AI90" s="36"/>
       <c r="AJ90" s="36"/>
     </row>
@@ -13292,8 +13253,8 @@
       <c r="AC91" s="36"/>
       <c r="AE91" s="36"/>
       <c r="AF91" s="36"/>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="36"/>
+      <c r="AG91" s="50"/>
+      <c r="AH91" s="50"/>
       <c r="AI91" s="36"/>
       <c r="AJ91" s="36"/>
     </row>
@@ -13328,8 +13289,8 @@
       <c r="AC92" s="36"/>
       <c r="AE92" s="36"/>
       <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
+      <c r="AG92" s="50"/>
+      <c r="AH92" s="50"/>
       <c r="AI92" s="36"/>
       <c r="AJ92" s="36"/>
     </row>
@@ -13364,8 +13325,8 @@
       <c r="AC93" s="36"/>
       <c r="AE93" s="36"/>
       <c r="AF93" s="36"/>
-      <c r="AG93" s="36"/>
-      <c r="AH93" s="36"/>
+      <c r="AG93" s="50"/>
+      <c r="AH93" s="50"/>
       <c r="AI93" s="36"/>
       <c r="AJ93" s="36"/>
     </row>
@@ -13400,8 +13361,8 @@
       <c r="AC94" s="36"/>
       <c r="AE94" s="36"/>
       <c r="AF94" s="36"/>
-      <c r="AG94" s="36"/>
-      <c r="AH94" s="36"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
       <c r="AI94" s="36"/>
       <c r="AJ94" s="36"/>
     </row>
@@ -13436,8 +13397,8 @@
       <c r="AC95" s="36"/>
       <c r="AE95" s="36"/>
       <c r="AF95" s="36"/>
-      <c r="AG95" s="36"/>
-      <c r="AH95" s="36"/>
+      <c r="AG95" s="50"/>
+      <c r="AH95" s="50"/>
       <c r="AI95" s="36"/>
       <c r="AJ95" s="36"/>
     </row>
@@ -13472,8 +13433,8 @@
       <c r="AC96" s="36"/>
       <c r="AE96" s="36"/>
       <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="36"/>
+      <c r="AG96" s="50"/>
+      <c r="AH96" s="50"/>
       <c r="AI96" s="36"/>
       <c r="AJ96" s="36"/>
     </row>
@@ -13508,8 +13469,8 @@
       <c r="AC97" s="36"/>
       <c r="AE97" s="36"/>
       <c r="AF97" s="36"/>
-      <c r="AG97" s="36"/>
-      <c r="AH97" s="36"/>
+      <c r="AG97" s="50"/>
+      <c r="AH97" s="50"/>
       <c r="AI97" s="36"/>
       <c r="AJ97" s="36"/>
     </row>
@@ -13544,8 +13505,8 @@
       <c r="AC98" s="36"/>
       <c r="AE98" s="36"/>
       <c r="AF98" s="36"/>
-      <c r="AG98" s="36"/>
-      <c r="AH98" s="36"/>
+      <c r="AG98" s="50"/>
+      <c r="AH98" s="50"/>
       <c r="AI98" s="36"/>
       <c r="AJ98" s="36"/>
     </row>
@@ -13580,8 +13541,8 @@
       <c r="AC99" s="36"/>
       <c r="AE99" s="36"/>
       <c r="AF99" s="36"/>
-      <c r="AG99" s="36"/>
-      <c r="AH99" s="36"/>
+      <c r="AG99" s="50"/>
+      <c r="AH99" s="50"/>
       <c r="AI99" s="36"/>
       <c r="AJ99" s="36"/>
     </row>
@@ -13616,8 +13577,8 @@
       <c r="AC100" s="36"/>
       <c r="AE100" s="36"/>
       <c r="AF100" s="36"/>
-      <c r="AG100" s="36"/>
-      <c r="AH100" s="36"/>
+      <c r="AG100" s="50"/>
+      <c r="AH100" s="50"/>
       <c r="AI100" s="36"/>
       <c r="AJ100" s="36"/>
     </row>
@@ -13652,8 +13613,8 @@
       <c r="AC101" s="36"/>
       <c r="AE101" s="36"/>
       <c r="AF101" s="36"/>
-      <c r="AG101" s="36"/>
-      <c r="AH101" s="36"/>
+      <c r="AG101" s="50"/>
+      <c r="AH101" s="50"/>
       <c r="AI101" s="36"/>
       <c r="AJ101" s="36"/>
     </row>
@@ -13688,8 +13649,8 @@
       <c r="AC102" s="36"/>
       <c r="AE102" s="36"/>
       <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
+      <c r="AG102" s="50"/>
+      <c r="AH102" s="50"/>
       <c r="AI102" s="36"/>
       <c r="AJ102" s="36"/>
     </row>
@@ -13724,8 +13685,8 @@
       <c r="AC103" s="36"/>
       <c r="AE103" s="36"/>
       <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
+      <c r="AG103" s="50"/>
+      <c r="AH103" s="50"/>
       <c r="AI103" s="36"/>
       <c r="AJ103" s="36"/>
     </row>
@@ -13760,8 +13721,8 @@
       <c r="AC104" s="36"/>
       <c r="AE104" s="36"/>
       <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
+      <c r="AG104" s="50"/>
+      <c r="AH104" s="50"/>
       <c r="AI104" s="36"/>
       <c r="AJ104" s="36"/>
     </row>
@@ -13796,8 +13757,8 @@
       <c r="AC105" s="36"/>
       <c r="AE105" s="36"/>
       <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
+      <c r="AG105" s="50"/>
+      <c r="AH105" s="50"/>
       <c r="AI105" s="36"/>
       <c r="AJ105" s="36"/>
     </row>
@@ -13832,8 +13793,8 @@
       <c r="AC106" s="36"/>
       <c r="AE106" s="36"/>
       <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
+      <c r="AG106" s="50"/>
+      <c r="AH106" s="50"/>
       <c r="AI106" s="36"/>
       <c r="AJ106" s="36"/>
     </row>
@@ -13868,8 +13829,8 @@
       <c r="AC107" s="36"/>
       <c r="AE107" s="36"/>
       <c r="AF107" s="36"/>
-      <c r="AG107" s="36"/>
-      <c r="AH107" s="36"/>
+      <c r="AG107" s="50"/>
+      <c r="AH107" s="50"/>
       <c r="AI107" s="36"/>
       <c r="AJ107" s="36"/>
     </row>
@@ -13905,7 +13866,7 @@
       <c r="AE108" s="36"/>
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
-      <c r="AH108" s="36"/>
+      <c r="AH108" s="50"/>
       <c r="AI108" s="36"/>
       <c r="AJ108" s="36"/>
     </row>
@@ -13941,7 +13902,7 @@
       <c r="AE109" s="36"/>
       <c r="AF109" s="36"/>
       <c r="AG109" s="36"/>
-      <c r="AH109" s="36"/>
+      <c r="AH109" s="50"/>
       <c r="AI109" s="36"/>
       <c r="AJ109" s="36"/>
     </row>
@@ -13977,7 +13938,7 @@
       <c r="AE110" s="36"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
+      <c r="AH110" s="50"/>
       <c r="AI110" s="36"/>
       <c r="AJ110" s="36"/>
     </row>
@@ -14013,7 +13974,7 @@
       <c r="AE111" s="36"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
+      <c r="AH111" s="50"/>
       <c r="AI111" s="36"/>
       <c r="AJ111" s="36"/>
     </row>
@@ -14045,8 +14006,9 @@
       <c r="Z112" s="283"/>
       <c r="AA112" s="237"/>
       <c r="AB112" s="237"/>
-    </row>
-    <row r="113" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH112" s="50"/>
+    </row>
+    <row r="113" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B113" s="53"/>
       <c r="C113" s="127"/>
       <c r="D113" s="46"/>
@@ -14074,8 +14036,9 @@
       <c r="Z113" s="283"/>
       <c r="AA113" s="237"/>
       <c r="AB113" s="237"/>
-    </row>
-    <row r="114" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH113" s="50"/>
+    </row>
+    <row r="114" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="46"/>
       <c r="C114" s="46"/>
       <c r="D114" s="46"/>
@@ -14103,8 +14066,9 @@
       <c r="Z114" s="238"/>
       <c r="AA114" s="237"/>
       <c r="AB114" s="237"/>
-    </row>
-    <row r="115" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AH114" s="50"/>
+    </row>
+    <row r="115" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="46"/>
       <c r="C115" s="46"/>
       <c r="D115" s="46"/>
@@ -14132,8 +14096,9 @@
       <c r="Z115" s="238"/>
       <c r="AA115" s="237"/>
       <c r="AB115" s="237"/>
-    </row>
-    <row r="116" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH115" s="50"/>
+    </row>
+    <row r="116" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B116" s="53"/>
       <c r="C116" s="80"/>
       <c r="D116" s="46"/>
@@ -14161,8 +14126,9 @@
       <c r="Z116" s="238"/>
       <c r="AA116" s="237"/>
       <c r="AB116" s="237"/>
-    </row>
-    <row r="117" spans="2:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AH116" s="50"/>
+    </row>
+    <row r="117" spans="2:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B117" s="224"/>
       <c r="C117" s="224"/>
       <c r="D117" s="225"/>
@@ -14191,7 +14157,7 @@
       <c r="AA117" s="237"/>
       <c r="AB117" s="237"/>
     </row>
-    <row r="118" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="53"/>
       <c r="C118" s="127"/>
       <c r="D118" s="46"/>
@@ -14220,7 +14186,7 @@
       <c r="AA118" s="237"/>
       <c r="AB118" s="237"/>
     </row>
-    <row r="119" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="53"/>
       <c r="C119" s="127"/>
       <c r="D119" s="46"/>
@@ -14249,7 +14215,7 @@
       <c r="AA119" s="237"/>
       <c r="AB119" s="237"/>
     </row>
-    <row r="120" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="53"/>
       <c r="C120" s="127"/>
       <c r="D120" s="46"/>
@@ -14278,7 +14244,7 @@
       <c r="AA120" s="237"/>
       <c r="AB120" s="237"/>
     </row>
-    <row r="121" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="53"/>
       <c r="C121" s="127"/>
       <c r="D121" s="46"/>
@@ -14307,7 +14273,7 @@
       <c r="AA121" s="237"/>
       <c r="AB121" s="237"/>
     </row>
-    <row r="122" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="53"/>
       <c r="C122" s="127"/>
       <c r="D122" s="46"/>
@@ -14336,7 +14302,7 @@
       <c r="AA122" s="237"/>
       <c r="AB122" s="237"/>
     </row>
-    <row r="123" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="53"/>
       <c r="C123" s="127"/>
       <c r="D123" s="46"/>
@@ -14365,7 +14331,7 @@
       <c r="AA123" s="237"/>
       <c r="AB123" s="237"/>
     </row>
-    <row r="124" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="53"/>
       <c r="C124" s="127"/>
       <c r="D124" s="46"/>
@@ -14394,7 +14360,7 @@
       <c r="AA124" s="237"/>
       <c r="AB124" s="237"/>
     </row>
-    <row r="125" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="53"/>
       <c r="C125" s="127"/>
       <c r="D125" s="46"/>
@@ -14423,7 +14389,7 @@
       <c r="AA125" s="237"/>
       <c r="AB125" s="237"/>
     </row>
-    <row r="126" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="46"/>
       <c r="C126" s="46"/>
       <c r="D126" s="46"/>
@@ -14452,7 +14418,7 @@
       <c r="AA126" s="237"/>
       <c r="AB126" s="237"/>
     </row>
-    <row r="127" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="46"/>
       <c r="C127" s="46"/>
       <c r="D127" s="46"/>
@@ -14481,7 +14447,7 @@
       <c r="AA127" s="237"/>
       <c r="AB127" s="237"/>
     </row>
-    <row r="128" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="46"/>
       <c r="C128" s="46"/>
       <c r="D128" s="46"/>
@@ -18949,44 +18915,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -19001,6 +18929,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -19056,15 +19022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="382" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -19153,22 +19119,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="383" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="384"/>
-      <c r="F6" s="384"/>
-      <c r="G6" s="384"/>
-      <c r="H6" s="385"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="383" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="384"/>
-      <c r="O6" s="384"/>
-      <c r="P6" s="384"/>
-      <c r="Q6" s="385"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -19186,10 +19152,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="386" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="387"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -19212,10 +19178,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="386" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="387"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19348,7 +19314,7 @@
         <v>60</v>
       </c>
       <c r="S9" s="365"/>
-      <c r="T9" s="368">
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
@@ -19416,7 +19382,7 @@
       <c r="Q10" s="366"/>
       <c r="R10" s="366"/>
       <c r="S10" s="366"/>
-      <c r="T10" s="369"/>
+      <c r="T10" s="381"/>
       <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
@@ -19446,7 +19412,7 @@
       <c r="Q11" s="366"/>
       <c r="R11" s="366"/>
       <c r="S11" s="366"/>
-      <c r="T11" s="369"/>
+      <c r="T11" s="381"/>
       <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
@@ -19485,7 +19451,7 @@
       <c r="Q12" s="367"/>
       <c r="R12" s="367"/>
       <c r="S12" s="367"/>
-      <c r="T12" s="370"/>
+      <c r="T12" s="382"/>
       <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
@@ -19558,7 +19524,7 @@
         <v>160</v>
       </c>
       <c r="S13" s="365"/>
-      <c r="T13" s="368">
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
@@ -19624,7 +19590,7 @@
       <c r="Q14" s="366"/>
       <c r="R14" s="366"/>
       <c r="S14" s="366"/>
-      <c r="T14" s="369"/>
+      <c r="T14" s="381"/>
       <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
@@ -19633,7 +19599,7 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="380" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="375"/>
@@ -19654,7 +19620,7 @@
       <c r="Q15" s="366"/>
       <c r="R15" s="366"/>
       <c r="S15" s="366"/>
-      <c r="T15" s="369"/>
+      <c r="T15" s="381"/>
       <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
@@ -19665,7 +19631,7 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="381"/>
+      <c r="A16" s="384"/>
       <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -19684,7 +19650,7 @@
       <c r="Q16" s="367"/>
       <c r="R16" s="367"/>
       <c r="S16" s="367"/>
-      <c r="T16" s="370"/>
+      <c r="T16" s="382"/>
       <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
@@ -19752,7 +19718,7 @@
         <v>140</v>
       </c>
       <c r="S17" s="365"/>
-      <c r="T17" s="368">
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
@@ -19814,7 +19780,7 @@
       <c r="Q18" s="366"/>
       <c r="R18" s="366"/>
       <c r="S18" s="366"/>
-      <c r="T18" s="369"/>
+      <c r="T18" s="381"/>
       <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
@@ -19842,7 +19808,7 @@
       <c r="Q19" s="366"/>
       <c r="R19" s="366"/>
       <c r="S19" s="366"/>
-      <c r="T19" s="369"/>
+      <c r="T19" s="381"/>
       <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
@@ -19868,7 +19834,7 @@
       <c r="Q20" s="367"/>
       <c r="R20" s="367"/>
       <c r="S20" s="367"/>
-      <c r="T20" s="370"/>
+      <c r="T20" s="382"/>
       <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
@@ -19934,7 +19900,7 @@
         <v>180</v>
       </c>
       <c r="S21" s="365"/>
-      <c r="T21" s="368">
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
@@ -19994,14 +19960,14 @@
       <c r="Q22" s="366"/>
       <c r="R22" s="366"/>
       <c r="S22" s="366"/>
-      <c r="T22" s="369"/>
+      <c r="T22" s="381"/>
       <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="371" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="375"/>
@@ -20022,14 +19988,14 @@
       <c r="Q23" s="366"/>
       <c r="R23" s="366"/>
       <c r="S23" s="366"/>
-      <c r="T23" s="369"/>
+      <c r="T23" s="381"/>
       <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="372"/>
+      <c r="A24" s="386"/>
       <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -20048,7 +20014,7 @@
       <c r="Q24" s="367"/>
       <c r="R24" s="367"/>
       <c r="S24" s="367"/>
-      <c r="T24" s="370"/>
+      <c r="T24" s="382"/>
       <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
@@ -20075,13 +20041,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="373" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="373"/>
-      <c r="J27" s="373"/>
-      <c r="K27" s="373"/>
-      <c r="L27" s="373"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20361,19 +20327,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="363" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="363"/>
-      <c r="F40" s="363"/>
-      <c r="G40" s="363"/>
-      <c r="H40" s="363"/>
-      <c r="I40" s="363" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="363"/>
-      <c r="K40" s="363"/>
-      <c r="L40" s="363"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20497,19 +20463,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="358"/>
+      <c r="B42" s="391"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="359"/>
+      <c r="H42" s="389"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="359"/>
-      <c r="N42" s="400"/>
+      <c r="M42" s="389"/>
+      <c r="N42" s="416"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20555,19 +20521,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="358"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="359"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="359"/>
-      <c r="N43" s="359"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20613,19 +20579,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="358"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="359"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="359"/>
-      <c r="N44" s="359"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20671,19 +20637,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="358"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="359"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="359"/>
-      <c r="N45" s="359"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20729,19 +20695,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="358"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="359"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="359"/>
-      <c r="N46" s="401"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="417"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20787,19 +20753,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="358"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="359"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="359"/>
-      <c r="N47" s="361"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20847,19 +20813,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="358"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="359"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="359"/>
-      <c r="N48" s="361"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20907,19 +20873,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="358"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="359"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="359"/>
-      <c r="N49" s="361"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20967,19 +20933,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="353"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="354"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="354"/>
-      <c r="N50" s="402"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="418"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -21000,19 +20966,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="353"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="354"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="354"/>
-      <c r="N51" s="356"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -21043,19 +21009,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="353"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="354"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="354"/>
-      <c r="N52" s="356"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -21119,19 +21085,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="353"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="354"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="354"/>
-      <c r="N53" s="356"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -21180,19 +21146,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="353"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="354"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="354"/>
-      <c r="N54" s="395"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="419"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -21239,19 +21205,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="353"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="354"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="354"/>
-      <c r="N55" s="356"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21298,19 +21264,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="353"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="354"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="354"/>
-      <c r="N56" s="356"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21357,19 +21323,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="353"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="354"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="354"/>
-      <c r="N57" s="356"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21416,19 +21382,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="348"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="349"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="349"/>
-      <c r="N58" s="396"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="420"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21475,19 +21441,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="348"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="349"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="349"/>
-      <c r="N59" s="351"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21534,19 +21500,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="348"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="349"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="349"/>
-      <c r="N60" s="351"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21593,247 +21559,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="348"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="349"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="349"/>
-      <c r="N61" s="351"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="348"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="349"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="349"/>
-      <c r="N62" s="397"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="421"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="348"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="349"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="349"/>
-      <c r="N63" s="351"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="348"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="349"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="349"/>
-      <c r="N64" s="351"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="348"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="349"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="349"/>
-      <c r="N65" s="351"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="344"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="345"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="345"/>
-      <c r="N66" s="398"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="422"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="344"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="345"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="345"/>
-      <c r="N67" s="347"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="344"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="345"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="345"/>
-      <c r="N68" s="347"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="344"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="345"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="345"/>
-      <c r="N69" s="347"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="344"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="345"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="345"/>
-      <c r="N70" s="399"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="423"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="344"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="345"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="345"/>
-      <c r="N71" s="347"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="344"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="345"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="345"/>
-      <c r="N72" s="347"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="344"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="345"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="345"/>
-      <c r="N73" s="347"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -23314,24 +23280,56 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23348,56 +23346,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -23962,7 +23928,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>218</v>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="255">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -864,6 +864,21 @@
   <si>
     <t>E3,E1,E2,</t>
   </si>
+  <si>
+    <t>P1 active1</t>
+  </si>
+  <si>
+    <t>P2 active2</t>
+  </si>
+  <si>
+    <t>P3 active2</t>
+  </si>
+  <si>
+    <t>P4 active1</t>
+  </si>
+  <si>
+    <t>P4 active2</t>
+  </si>
 </sst>
 </file>
 
@@ -872,7 +887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="191" x14ac:knownFonts="1">
+  <fonts count="230" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,32 +1673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1698,27 +1688,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1794,32 +1809,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1834,27 +1824,247 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2093,7 +2303,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="490">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2707,53 +2917,6 @@
     <xf applyFont="1" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2763,23 +2926,23 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2802,30 +2965,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="13" fontId="25" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="10" fontId="16" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="11" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2847,41 +3057,80 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="7" fontId="25" numFmtId="3" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="38" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="74" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="64" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="31" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="68" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="171" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="186" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5301,15 +5550,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5398,22 +5647,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5431,10 +5680,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5457,10 +5706,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5537,7 +5786,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="374" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5571,33 +5820,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="365">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="365">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="365">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="365">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="365">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="365"/>
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="365">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5622,7 +5871,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5654,15 +5903,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5670,10 +5919,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="365" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5684,15 +5933,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5711,8 +5960,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5723,15 +5972,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5747,7 +5996,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="374" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5781,33 +6030,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="365">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="365">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="365">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="365">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="365">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="365"/>
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="365">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5830,7 +6079,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5862,15 +6111,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5878,10 +6127,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5892,15 +6141,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5910,8 +6159,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5922,15 +6171,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5941,7 +6190,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="374" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5975,33 +6224,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="365">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="365">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="365">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="365">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="365">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="365"/>
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="365">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -6020,7 +6269,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -6052,24 +6301,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -6080,22 +6329,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6106,15 +6355,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6123,7 +6372,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="374" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6157,33 +6406,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="365">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="365">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="365">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="365">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="365">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="365"/>
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="365">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6200,7 +6449,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6232,24 +6481,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6260,22 +6509,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6286,15 +6535,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6320,13 +6569,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6606,19 +6855,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6742,7 +6991,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="379" t="s">
+      <c r="B42" s="391" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6750,17 +6999,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="380">
+      <c r="H42" s="389">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="380">
+      <c r="M42" s="389">
         <v>1</v>
       </c>
-      <c r="N42" s="385" t="s">
+      <c r="N42" s="388" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6808,7 +7057,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6824,7 +7073,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="380"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6837,8 +7086,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6884,7 +7133,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6900,7 +7149,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="380"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6913,8 +7162,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6960,7 +7209,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6976,7 +7225,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="380"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6989,8 +7238,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -7036,19 +7285,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="381"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="392"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7094,19 +7343,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7154,19 +7403,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7214,19 +7463,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7274,19 +7523,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="396"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7307,19 +7556,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7350,19 +7599,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7426,19 +7675,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7487,19 +7736,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="376"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="398"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7546,19 +7795,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7605,19 +7854,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7664,19 +7913,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7723,19 +7972,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="378"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="401"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7782,19 +8031,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7841,19 +8090,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7900,247 +8149,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="371"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="407"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="373"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="408"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="367"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="405"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9693,23 +9942,57 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9726,57 +10009,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
@@ -9794,7 +10043,7 @@
   <dimension ref="A1:AV434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="D42" sqref="D42:N54"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9842,15 +10091,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9899,22 +10148,22 @@
       <c r="L5" s="23"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9932,10 +10181,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9958,10 +10207,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -10029,7 +10278,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="395"/>
+      <c r="B9" s="374"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10040,15 +10289,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="386"/>
-      <c r="R9" s="386"/>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="386"/>
+      <c r="M9" s="365"/>
+      <c r="N9" s="377"/>
+      <c r="O9" s="365"/>
+      <c r="P9" s="365"/>
+      <c r="Q9" s="365"/>
+      <c r="R9" s="365"/>
+      <c r="S9" s="365"/>
+      <c r="T9" s="380"/>
+      <c r="U9" s="365"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -10058,7 +10307,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -10069,15 +10318,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -10085,8 +10334,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="365"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10097,15 +10346,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10115,8 +10364,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10127,15 +10376,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10144,7 +10393,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="374"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10155,15 +10404,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="398"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="386"/>
-      <c r="Q13" s="386"/>
-      <c r="R13" s="386"/>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="386"/>
+      <c r="M13" s="365"/>
+      <c r="N13" s="377"/>
+      <c r="O13" s="365"/>
+      <c r="P13" s="365"/>
+      <c r="Q13" s="365"/>
+      <c r="R13" s="365"/>
+      <c r="S13" s="365"/>
+      <c r="T13" s="380"/>
+      <c r="U13" s="365"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10172,7 +10421,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10183,15 +10432,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10199,8 +10448,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401"/>
-      <c r="B15" s="396"/>
+      <c r="A15" s="383"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10211,15 +10460,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10227,8 +10476,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10239,15 +10488,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10256,7 +10505,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="395"/>
+      <c r="B17" s="374"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10267,15 +10516,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="398"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="386"/>
-      <c r="Q17" s="386"/>
-      <c r="R17" s="386"/>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="386"/>
+      <c r="M17" s="365"/>
+      <c r="N17" s="377"/>
+      <c r="O17" s="365"/>
+      <c r="P17" s="365"/>
+      <c r="Q17" s="365"/>
+      <c r="R17" s="365"/>
+      <c r="S17" s="365"/>
+      <c r="T17" s="380"/>
+      <c r="U17" s="365"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10284,7 +10533,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10295,22 +10544,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386"/>
-      <c r="B19" s="396"/>
+      <c r="A19" s="365"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10321,22 +10570,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10347,22 +10596,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="395"/>
+      <c r="B21" s="374"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10373,22 +10622,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="386"/>
-      <c r="N21" s="398"/>
-      <c r="O21" s="386"/>
-      <c r="P21" s="386"/>
-      <c r="Q21" s="386"/>
-      <c r="R21" s="386"/>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="386"/>
+      <c r="M21" s="365"/>
+      <c r="N21" s="377"/>
+      <c r="O21" s="365"/>
+      <c r="P21" s="365"/>
+      <c r="Q21" s="365"/>
+      <c r="R21" s="365"/>
+      <c r="S21" s="365"/>
+      <c r="T21" s="380"/>
+      <c r="U21" s="365"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10399,22 +10648,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="385"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10425,22 +10674,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10451,15 +10700,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10925,7 +11174,7 @@
         <v>93</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="E42" s="34" t="s">
         <v>99</v>
@@ -10954,13 +11203,13 @@
       <c r="M42" s="287" t="n">
         <v>0.0014447884168475866</v>
       </c>
-      <c r="N42" s="424" t="s">
+      <c r="N42" s="457" t="s">
         <v>59</v>
       </c>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R42" s="247" t="s">
         <v>222</v>
@@ -10991,12 +11240,12 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB42" s="282"/>
-      <c r="AC42" s="425" t="s">
+      <c r="AC42" s="458" t="s">
         <v>59</v>
       </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AF42" s="50" t="s">
         <v>241</v>
@@ -11010,7 +11259,7 @@
       <c r="AI42" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ42" s="428" t="s">
+      <c r="AJ42" s="461" t="s">
         <v>59</v>
       </c>
       <c r="AK42" s="226"/>
@@ -11058,7 +11307,7 @@
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R43" s="247" t="s">
         <v>223</v>
@@ -11089,12 +11338,12 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB43" s="282"/>
-      <c r="AC43" s="426" t="s">
+      <c r="AC43" s="459" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="AF43" s="50" t="s">
         <v>242</v>
@@ -11108,7 +11357,7 @@
       <c r="AI43" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ43" s="429" t="s">
+      <c r="AJ43" s="462" t="s">
         <v>59</v>
       </c>
       <c r="AK43" s="226"/>
@@ -11156,7 +11405,7 @@
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
       <c r="Q44" s="246" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="R44" s="247" t="s">
         <v>224</v>
@@ -11187,7 +11436,7 @@
         <v>0.0013134441105648875</v>
       </c>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="427" t="s">
+      <c r="AC44" s="460" t="s">
         <v>59</v>
       </c>
       <c r="AD44" s="64"/>
@@ -11211,22 +11460,22 @@
         <v>106</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G45" s="286" t="n">
-        <v>4.000000189989805E-4</v>
+        <v>3.5000001662410796E-4</v>
       </c>
       <c r="H45" s="287" t="n">
-        <v>240.0000113993883</v>
+        <v>210.00000997446477</v>
       </c>
       <c r="I45" s="287" t="n">
-        <v>0.001500000071246177</v>
+        <v>0.004</v>
       </c>
       <c r="J45" s="287" t="s">
         <v>240</v>
@@ -11258,7 +11507,7 @@
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AF45" s="50" t="s">
         <v>244</v>
@@ -11267,12 +11516,12 @@
         <v>25.0</v>
       </c>
       <c r="AH45" s="50" t="n">
-        <v>0.006029411684721708</v>
+        <v>0.03280000388622284</v>
       </c>
       <c r="AI45" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ45" s="436" t="s">
+      <c r="AJ45" s="469" t="s">
         <v>59</v>
       </c>
       <c r="AK45" s="226"/>
@@ -11289,16 +11538,16 @@
         <v>103</v>
       </c>
       <c r="F46" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G46" s="286" t="n">
-        <v>1.6666667458290854E-4</v>
+        <v>1.45833340260045E-4</v>
       </c>
       <c r="H46" s="287" t="n">
-        <v>125.00000593718141</v>
+        <v>109.37500519503374</v>
       </c>
       <c r="I46" s="287" t="n">
-        <v>7.352941525716553E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J46" s="287" t="n">
         <v>0.04000000283122063</v>
@@ -11312,13 +11561,13 @@
       <c r="M46" s="287" t="n">
         <v>7.35294190235436E-4</v>
       </c>
-      <c r="N46" s="430" t="s">
-        <v>56</v>
+      <c r="N46" s="463" t="s">
+        <v>59</v>
       </c>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
       <c r="Q46" s="246" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R46" s="247" t="s">
         <v>222</v>
@@ -11336,10 +11585,10 @@
         <v>25.0</v>
       </c>
       <c r="W46" s="247" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X46" s="247" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y46" s="248"/>
       <c r="Z46" s="247" t="n">
@@ -11349,12 +11598,12 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB46" s="282"/>
-      <c r="AC46" s="431" t="s">
-        <v>56</v>
+      <c r="AC46" s="464" t="s">
+        <v>59</v>
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="AF46" s="50" t="s">
         <v>245</v>
@@ -11363,12 +11612,12 @@
         <v>25.0</v>
       </c>
       <c r="AH46" s="50" t="n">
-        <v>0.004455882590264082</v>
+        <v>0.024240000173449516</v>
       </c>
       <c r="AI46" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="AJ46" s="437" t="s">
+      <c r="AJ46" s="470" t="s">
         <v>59</v>
       </c>
       <c r="AK46" s="226"/>
@@ -11385,16 +11634,16 @@
         <v>106</v>
       </c>
       <c r="F47" s="286" t="n">
-        <v>0.04000000189989805</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G47" s="286" t="n">
-        <v>0.0010000000474974513</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H47" s="286" t="n">
-        <v>900.0000427477062</v>
+        <v>787.5000374042429</v>
       </c>
       <c r="I47" s="286" t="n">
-        <v>0.005625000267173164</v>
+        <v>0.004</v>
       </c>
       <c r="J47" s="287" t="s">
         <v>240</v>
@@ -11411,7 +11660,7 @@
       <c r="N47" s="308"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R47" s="248" t="s">
         <v>223</v>
@@ -11429,10 +11678,10 @@
         <v>25.0</v>
       </c>
       <c r="W47" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X47" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y47" s="248"/>
       <c r="Z47" s="248" t="n">
@@ -11442,8 +11691,8 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB47" s="283"/>
-      <c r="AC47" s="432" t="s">
-        <v>56</v>
+      <c r="AC47" s="465" t="s">
+        <v>59</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11462,22 +11711,22 @@
       <c r="A48" s="310"/>
       <c r="B48" s="310"/>
       <c r="D48" s="34" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F48" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G48" s="286" t="n">
-        <v>2.500000118743628E-4</v>
+        <v>3.5000001662410796E-4</v>
       </c>
       <c r="H48" s="286" t="n">
-        <v>150.0000071246177</v>
+        <v>210.00000997446477</v>
       </c>
       <c r="I48" s="286" t="n">
-        <v>9.375000445288606E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J48" s="287" t="s">
         <v>240</v>
@@ -11494,7 +11743,7 @@
       <c r="N48" s="308"/>
       <c r="P48" s="218"/>
       <c r="Q48" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R48" s="248" t="s">
         <v>224</v>
@@ -11512,10 +11761,10 @@
         <v>25.0</v>
       </c>
       <c r="W48" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X48" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y48" s="248"/>
       <c r="Z48" s="248" t="n">
@@ -11525,12 +11774,12 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="433" t="s">
-        <v>56</v>
+      <c r="AC48" s="466" t="s">
+        <v>59</v>
       </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="AF48" s="36" t="s">
         <v>246</v>
@@ -11539,12 +11788,12 @@
         <v>25.0</v>
       </c>
       <c r="AH48" s="50" t="n">
-        <v>0.004666666965931654</v>
+        <v>0.02720000222325325</v>
       </c>
       <c r="AI48" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ48" s="443" t="s">
+      <c r="AJ48" s="476" t="s">
         <v>59</v>
       </c>
       <c r="AK48" s="226"/>
@@ -11561,16 +11810,16 @@
         <v>99</v>
       </c>
       <c r="F49" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G49" s="286" t="n">
-        <v>1.6666667458290854E-4</v>
+        <v>2.3333334441607198E-4</v>
       </c>
       <c r="H49" s="286" t="n">
-        <v>116.66667220803598</v>
+        <v>163.3333410912504</v>
       </c>
       <c r="I49" s="286" t="n">
-        <v>6.862745424002116E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J49" s="287" t="n">
         <v>0.02500000037252903</v>
@@ -11584,12 +11833,12 @@
       <c r="M49" s="286" t="n">
         <v>6.862744921818376E-4</v>
       </c>
-      <c r="N49" s="438" t="s">
-        <v>56</v>
+      <c r="N49" s="471" t="s">
+        <v>59</v>
       </c>
       <c r="P49" s="218"/>
       <c r="Q49" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R49" s="248" t="s">
         <v>225</v>
@@ -11607,10 +11856,10 @@
         <v>25.0</v>
       </c>
       <c r="W49" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X49" s="248" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y49" s="248"/>
       <c r="Z49" s="248" t="n">
@@ -11620,12 +11869,12 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB49" s="283"/>
-      <c r="AC49" s="434" t="s">
-        <v>56</v>
+      <c r="AC49" s="467" t="s">
+        <v>59</v>
       </c>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="AF49" s="36" t="s">
         <v>247</v>
@@ -11634,12 +11883,12 @@
         <v>25.0</v>
       </c>
       <c r="AH49" s="50" t="n">
-        <v>0.004158823750913143</v>
+        <v>0.024240000173449516</v>
       </c>
       <c r="AI49" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ49" s="444" t="s">
+      <c r="AJ49" s="477" t="s">
         <v>59</v>
       </c>
       <c r="AK49" s="226"/>
@@ -11656,16 +11905,16 @@
         <v>106</v>
       </c>
       <c r="F50" s="286" t="n">
-        <v>0.025000001187436283</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G50" s="286" t="n">
-        <v>6.250000296859071E-4</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H50" s="286" t="n">
-        <v>562.5000267173164</v>
+        <v>787.5000374042429</v>
       </c>
       <c r="I50" s="286" t="n">
-        <v>0.0035156251669832272</v>
+        <v>0.004</v>
       </c>
       <c r="J50" s="286" t="s">
         <v>240</v>
@@ -11682,7 +11931,7 @@
       <c r="N50" s="308"/>
       <c r="P50" s="218"/>
       <c r="Q50" s="244" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="R50" s="248" t="s">
         <v>243</v>
@@ -11700,10 +11949,10 @@
         <v>25.0</v>
       </c>
       <c r="W50" s="248" t="n">
-        <v>0.0073529413202777505</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X50" s="247" t="n">
-        <v>6.68449210934341E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y50" s="247"/>
       <c r="Z50" s="247" t="n">
@@ -11713,8 +11962,8 @@
         <v>6.684492691420019E-4</v>
       </c>
       <c r="AB50" s="282"/>
-      <c r="AC50" s="435" t="s">
-        <v>56</v>
+      <c r="AC50" s="468" t="s">
+        <v>59</v>
       </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
@@ -11733,22 +11982,22 @@
       <c r="A51" s="310"/>
       <c r="B51" s="310"/>
       <c r="D51" s="34" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G51" s="286" t="n">
-        <v>3.5000001662410796E-4</v>
+        <v>5.000000237487257E-4</v>
       </c>
       <c r="H51" s="286" t="n">
-        <v>210.00000997446477</v>
+        <v>300.0000142492354</v>
       </c>
       <c r="I51" s="286" t="n">
-        <v>0.0013003096592846116</v>
+        <v>0.004</v>
       </c>
       <c r="J51" s="286" t="s">
         <v>240</v>
@@ -11779,7 +12028,7 @@
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
       <c r="AE51" s="50" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="AF51" s="50" t="s">
         <v>248</v>
@@ -11788,12 +12037,12 @@
         <v>25.0</v>
       </c>
       <c r="AH51" s="50" t="n">
-        <v>4.101562808500603E-5</v>
+        <v>2.400000230409205E-4</v>
       </c>
       <c r="AI51" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ51" s="449" t="s">
+      <c r="AJ51" s="482" t="s">
         <v>59</v>
       </c>
       <c r="AK51" s="46"/>
@@ -11810,16 +12059,16 @@
         <v>99</v>
       </c>
       <c r="F52" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G52" s="286" t="n">
-        <v>2.3333334441607198E-4</v>
+        <v>3.333333491658171E-4</v>
       </c>
       <c r="H52" s="286" t="n">
-        <v>163.3333410912504</v>
+        <v>233.33334441607195</v>
       </c>
       <c r="I52" s="286" t="n">
-        <v>0.001020833381820315</v>
+        <v>0.004</v>
       </c>
       <c r="J52" s="286" t="s">
         <v>240</v>
@@ -11836,7 +12085,7 @@
       <c r="N52" s="308"/>
       <c r="P52" s="218"/>
       <c r="Q52" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R52" s="248" t="s">
         <v>222</v>
@@ -11854,10 +12103,10 @@
         <v>25.0</v>
       </c>
       <c r="W52" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X52" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y52" s="248"/>
       <c r="Z52" s="248" t="n">
@@ -11867,12 +12116,12 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB52" s="283"/>
-      <c r="AC52" s="439" t="s">
-        <v>56</v>
+      <c r="AC52" s="472" t="s">
+        <v>59</v>
       </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="AF52" s="36" t="s">
         <v>249</v>
@@ -11881,12 +12130,12 @@
         <v>25.0</v>
       </c>
       <c r="AH52" s="50" t="n">
-        <v>0.0044160159304738045</v>
+        <v>0.025840003043413162</v>
       </c>
       <c r="AI52" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="AJ52" s="450" t="s">
+      <c r="AJ52" s="483" t="s">
         <v>59</v>
       </c>
       <c r="AK52" s="23"/>
@@ -11903,16 +12152,16 @@
         <v>103</v>
       </c>
       <c r="F53" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.050000002374872565</v>
       </c>
       <c r="G53" s="286" t="n">
-        <v>1.45833340260045E-4</v>
+        <v>2.083333432286357E-4</v>
       </c>
       <c r="H53" s="286" t="n">
-        <v>109.37500519503374</v>
+        <v>156.25000742147677</v>
       </c>
       <c r="I53" s="286" t="n">
-        <v>6.835937824689609E-4</v>
+        <v>0.004</v>
       </c>
       <c r="J53" s="286" t="n">
         <v>0.03500000014901161</v>
@@ -11926,12 +12175,12 @@
       <c r="M53" s="286" t="n">
         <v>6.772445631213486E-4</v>
       </c>
-      <c r="N53" s="445" t="s">
+      <c r="N53" s="478" t="s">
         <v>59</v>
       </c>
       <c r="P53" s="218"/>
       <c r="Q53" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R53" s="248" t="s">
         <v>223</v>
@@ -11949,10 +12198,10 @@
         <v>25.0</v>
       </c>
       <c r="W53" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X53" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y53" s="248"/>
       <c r="Z53" s="248" t="n">
@@ -11962,8 +12211,8 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB53" s="283"/>
-      <c r="AC53" s="440" t="s">
-        <v>56</v>
+      <c r="AC53" s="473" t="s">
+        <v>59</v>
       </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
@@ -11981,20 +12230,40 @@
     <row customHeight="1" ht="24.95" r="54" spans="1:41" x14ac:dyDescent="0.4">
       <c r="A54" s="310"/>
       <c r="B54" s="310"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="286"/>
-      <c r="J54" s="286"/>
-      <c r="K54" s="286"/>
-      <c r="L54" s="286"/>
-      <c r="M54" s="286"/>
+      <c r="D54" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G54" s="286" t="n">
+        <v>3.5000001662410796E-4</v>
+      </c>
+      <c r="H54" s="286" t="n">
+        <v>210.00000997446477</v>
+      </c>
+      <c r="I54" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="L54" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="M54" s="286" t="s">
+        <v>240</v>
+      </c>
       <c r="N54" s="308"/>
       <c r="P54" s="218"/>
       <c r="Q54" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R54" s="248" t="s">
         <v>224</v>
@@ -12012,10 +12281,10 @@
         <v>25.0</v>
       </c>
       <c r="W54" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X54" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y54" s="248"/>
       <c r="Z54" s="248" t="n">
@@ -12025,16 +12294,28 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB54" s="283"/>
-      <c r="AC54" s="441" t="s">
-        <v>56</v>
+      <c r="AC54" s="474" t="s">
+        <v>59</v>
       </c>
       <c r="AD54" s="23"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="50"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="336"/>
+      <c r="AE54" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF54" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG54" s="50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AH54" s="50" t="n">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AI54" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ54" s="488" t="s">
+        <v>59</v>
+      </c>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -12045,19 +12326,37 @@
       <c r="A55" s="310"/>
       <c r="B55" s="310"/>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="286"/>
-      <c r="H55" s="286"/>
-      <c r="I55" s="286"/>
-      <c r="J55" s="286"/>
-      <c r="K55" s="286"/>
-      <c r="L55" s="286"/>
-      <c r="M55" s="286"/>
+      <c r="E55" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G55" s="286" t="n">
+        <v>2.3333334441607198E-4</v>
+      </c>
+      <c r="H55" s="286" t="n">
+        <v>163.3333410912504</v>
+      </c>
+      <c r="I55" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="L55" s="286" t="s">
+        <v>240</v>
+      </c>
+      <c r="M55" s="286" t="s">
+        <v>240</v>
+      </c>
       <c r="N55" s="308"/>
       <c r="P55" s="218"/>
       <c r="Q55" s="244" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="R55" s="248" t="s">
         <v>225</v>
@@ -12075,10 +12374,10 @@
         <v>25.0</v>
       </c>
       <c r="W55" s="248" t="n">
-        <v>0.006862745503894985</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X55" s="248" t="n">
-        <v>6.238859548995441E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y55" s="248"/>
       <c r="Z55" s="248" t="n">
@@ -12088,16 +12387,28 @@
         <v>6.238859496079385E-4</v>
       </c>
       <c r="AB55" s="283"/>
-      <c r="AC55" s="442" t="s">
-        <v>56</v>
+      <c r="AC55" s="475" t="s">
+        <v>59</v>
       </c>
       <c r="AD55" s="23"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="337"/>
+      <c r="AE55" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF55" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG55" s="50" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AH55" s="50" t="n">
+        <v>0.025840003043413162</v>
+      </c>
+      <c r="AI55" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ55" s="489" t="s">
+        <v>59</v>
+      </c>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -12108,16 +12419,36 @@
       <c r="A56" s="310"/>
       <c r="B56" s="310"/>
       <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="286"/>
-      <c r="G56" s="286"/>
-      <c r="H56" s="286"/>
-      <c r="I56" s="286"/>
-      <c r="J56" s="286"/>
-      <c r="K56" s="286"/>
-      <c r="L56" s="286"/>
-      <c r="M56" s="286"/>
-      <c r="N56" s="332"/>
+      <c r="E56" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="286" t="n">
+        <v>0.035000001662410796</v>
+      </c>
+      <c r="G56" s="286" t="n">
+        <v>1.45833340260045E-4</v>
+      </c>
+      <c r="H56" s="286" t="n">
+        <v>109.37500519503374</v>
+      </c>
+      <c r="I56" s="286" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="J56" s="286" t="n">
+        <v>0.04000000283122063</v>
+      </c>
+      <c r="K56" s="286" t="n">
+        <v>1.6666667943354696E-4</v>
+      </c>
+      <c r="L56" s="286" t="n">
+        <v>125.00000762939453</v>
+      </c>
+      <c r="M56" s="286" t="n">
+        <v>7.739938446320593E-4</v>
+      </c>
+      <c r="N56" s="484" t="s">
+        <v>59</v>
+      </c>
       <c r="P56" s="218"/>
       <c r="Q56" s="244"/>
       <c r="R56" s="248"/>
@@ -12161,7 +12492,7 @@
       <c r="N57" s="309"/>
       <c r="P57" s="218"/>
       <c r="Q57" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R57" s="248" t="s">
         <v>222</v>
@@ -12179,10 +12510,10 @@
         <v>25.0</v>
       </c>
       <c r="W57" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X57" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y57" s="248"/>
       <c r="Z57" s="248" t="n">
@@ -12192,7 +12523,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB57" s="283"/>
-      <c r="AC57" s="446" t="s">
+      <c r="AC57" s="479" t="s">
         <v>59</v>
       </c>
       <c r="AD57" s="23"/>
@@ -12224,7 +12555,7 @@
       <c r="N58" s="309"/>
       <c r="P58" s="218"/>
       <c r="Q58" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R58" s="248" t="s">
         <v>223</v>
@@ -12242,10 +12573,10 @@
         <v>25.0</v>
       </c>
       <c r="W58" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X58" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y58" s="248"/>
       <c r="Z58" s="248" t="n">
@@ -12255,7 +12586,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB58" s="283"/>
-      <c r="AC58" s="447" t="s">
+      <c r="AC58" s="480" t="s">
         <v>59</v>
       </c>
       <c r="AD58" s="23"/>
@@ -12287,7 +12618,7 @@
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
       <c r="Q59" s="244" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="R59" s="248" t="s">
         <v>224</v>
@@ -12305,10 +12636,10 @@
         <v>25.0</v>
       </c>
       <c r="W59" s="248" t="n">
-        <v>0.006835937965661287</v>
+        <v>0.04000000189989805</v>
       </c>
       <c r="X59" s="248" t="n">
-        <v>6.214489059692079E-4</v>
+        <v>0.003636363809081641</v>
       </c>
       <c r="Y59" s="248"/>
       <c r="Z59" s="248" t="n">
@@ -12318,7 +12649,7 @@
         <v>6.156769231893122E-4</v>
       </c>
       <c r="AB59" s="283"/>
-      <c r="AC59" s="448" t="s">
+      <c r="AC59" s="481" t="s">
         <v>59</v>
       </c>
       <c r="AD59" s="23"/>
@@ -12388,19 +12719,41 @@
       <c r="M61" s="242"/>
       <c r="N61" s="242"/>
       <c r="P61" s="218"/>
-      <c r="Q61" s="244"/>
-      <c r="R61" s="248"/>
-      <c r="S61" s="249"/>
-      <c r="T61" s="249"/>
-      <c r="U61" s="248"/>
-      <c r="V61" s="248"/>
-      <c r="W61" s="248"/>
-      <c r="X61" s="248"/>
+      <c r="Q61" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R61" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S61" s="249" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="T61" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U61" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V61" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W61" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X61" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y61" s="248"/>
-      <c r="Z61" s="248"/>
-      <c r="AA61" s="248"/>
+      <c r="Z61" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA61" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="333"/>
+      <c r="AC61" s="485" t="s">
+        <v>59</v>
+      </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
@@ -12427,19 +12780,41 @@
       <c r="M62" s="242"/>
       <c r="N62" s="242"/>
       <c r="P62" s="218"/>
-      <c r="Q62" s="244"/>
-      <c r="R62" s="248"/>
-      <c r="S62" s="249"/>
-      <c r="T62" s="249"/>
-      <c r="U62" s="248"/>
-      <c r="V62" s="248"/>
-      <c r="W62" s="248"/>
-      <c r="X62" s="248"/>
+      <c r="Q62" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R62" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S62" s="249" t="n">
+        <v>150000.0</v>
+      </c>
+      <c r="T62" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U62" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V62" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W62" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X62" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y62" s="248"/>
-      <c r="Z62" s="248"/>
-      <c r="AA62" s="248"/>
+      <c r="Z62" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA62" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="334"/>
+      <c r="AC62" s="486" t="s">
+        <v>59</v>
+      </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
@@ -12466,19 +12841,41 @@
       <c r="M63" s="242"/>
       <c r="N63" s="242"/>
       <c r="P63" s="218"/>
-      <c r="Q63" s="244"/>
-      <c r="R63" s="248"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="249"/>
-      <c r="U63" s="248"/>
-      <c r="V63" s="248"/>
-      <c r="W63" s="248"/>
-      <c r="X63" s="248"/>
+      <c r="Q63" s="244" t="s">
+        <v>254</v>
+      </c>
+      <c r="R63" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S63" s="249" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T63" s="249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U63" s="248" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="V63" s="248" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W63" s="248" t="n">
+        <v>0.04000000189989805</v>
+      </c>
+      <c r="X63" s="248" t="n">
+        <v>0.003636363809081641</v>
+      </c>
       <c r="Y63" s="248"/>
-      <c r="Z63" s="248"/>
-      <c r="AA63" s="248"/>
+      <c r="Z63" s="248" t="n">
+        <v>0.007739938795566559</v>
+      </c>
+      <c r="AA63" s="248" t="n">
+        <v>7.036307943053544E-4</v>
+      </c>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="335"/>
+      <c r="AC63" s="487" t="s">
+        <v>59</v>
+      </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -19132,44 +19529,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -19184,6 +19543,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
@@ -19239,15 +19636,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="368" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="368"/>
+      <c r="H1" s="368"/>
+      <c r="I1" s="368"/>
+      <c r="J1" s="368"/>
+      <c r="K1" s="368"/>
+      <c r="L1" s="368"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -19336,22 +19733,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="369" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="370"/>
+      <c r="F6" s="370"/>
+      <c r="G6" s="370"/>
+      <c r="H6" s="371"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="369" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="370"/>
+      <c r="O6" s="370"/>
+      <c r="P6" s="370"/>
+      <c r="Q6" s="371"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -19369,10 +19766,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="372" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="373"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -19395,10 +19792,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="372" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="373"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19475,7 +19872,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="374" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19509,33 +19906,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="365">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="365">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="365">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="365">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="365">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="365"/>
+      <c r="T9" s="380">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="365">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19560,7 +19957,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="375"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19592,15 +19989,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="366"/>
+      <c r="N10" s="378"/>
+      <c r="O10" s="366"/>
+      <c r="P10" s="366"/>
+      <c r="Q10" s="366"/>
+      <c r="R10" s="366"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="381"/>
+      <c r="U10" s="366"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19608,10 +20005,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="365" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="375"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19622,15 +20019,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="366"/>
+      <c r="N11" s="378"/>
+      <c r="O11" s="366"/>
+      <c r="P11" s="366"/>
+      <c r="Q11" s="366"/>
+      <c r="R11" s="366"/>
+      <c r="S11" s="366"/>
+      <c r="T11" s="381"/>
+      <c r="U11" s="366"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19649,8 +20046,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="367"/>
+      <c r="B12" s="376"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19661,15 +20058,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="367"/>
+      <c r="N12" s="379"/>
+      <c r="O12" s="367"/>
+      <c r="P12" s="367"/>
+      <c r="Q12" s="367"/>
+      <c r="R12" s="367"/>
+      <c r="S12" s="367"/>
+      <c r="T12" s="382"/>
+      <c r="U12" s="367"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19685,7 +20082,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="374" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19719,33 +20116,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="365">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="365">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="365">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="365">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="365">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="365"/>
+      <c r="T13" s="380">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="365">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19768,7 +20165,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="375"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19800,15 +20197,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="366"/>
+      <c r="N14" s="378"/>
+      <c r="O14" s="366"/>
+      <c r="P14" s="366"/>
+      <c r="Q14" s="366"/>
+      <c r="R14" s="366"/>
+      <c r="S14" s="366"/>
+      <c r="T14" s="381"/>
+      <c r="U14" s="366"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19816,10 +20213,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="383" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="375"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19830,15 +20227,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="366"/>
+      <c r="N15" s="378"/>
+      <c r="O15" s="366"/>
+      <c r="P15" s="366"/>
+      <c r="Q15" s="366"/>
+      <c r="R15" s="366"/>
+      <c r="S15" s="366"/>
+      <c r="T15" s="381"/>
+      <c r="U15" s="366"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19848,8 +20245,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="376"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19860,15 +20257,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="367"/>
+      <c r="N16" s="379"/>
+      <c r="O16" s="367"/>
+      <c r="P16" s="367"/>
+      <c r="Q16" s="367"/>
+      <c r="R16" s="367"/>
+      <c r="S16" s="367"/>
+      <c r="T16" s="382"/>
+      <c r="U16" s="367"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19879,7 +20276,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="374" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19913,33 +20310,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="365">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="365">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="365">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="365">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="365">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="365"/>
+      <c r="T17" s="380">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="365">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19958,7 +20355,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="375"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19990,24 +20387,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="366"/>
+      <c r="N18" s="378"/>
+      <c r="O18" s="366"/>
+      <c r="P18" s="366"/>
+      <c r="Q18" s="366"/>
+      <c r="R18" s="366"/>
+      <c r="S18" s="366"/>
+      <c r="T18" s="381"/>
+      <c r="U18" s="366"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="365" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="375"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -20018,22 +20415,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="366"/>
+      <c r="N19" s="378"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="381"/>
+      <c r="U19" s="366"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="376"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -20044,15 +20441,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="379"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="382"/>
+      <c r="U20" s="367"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -20061,7 +20458,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="374" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -20095,33 +20492,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="365">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="377" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="365">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="365">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="365">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="365">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="365"/>
+      <c r="T21" s="380">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="365">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -20138,7 +20535,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="375"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -20170,24 +20567,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="366"/>
+      <c r="N22" s="378"/>
+      <c r="O22" s="366"/>
+      <c r="P22" s="366"/>
+      <c r="Q22" s="366"/>
+      <c r="R22" s="366"/>
+      <c r="S22" s="366"/>
+      <c r="T22" s="381"/>
+      <c r="U22" s="366"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="385" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="375"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -20198,22 +20595,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="366"/>
+      <c r="N23" s="378"/>
+      <c r="O23" s="366"/>
+      <c r="P23" s="366"/>
+      <c r="Q23" s="366"/>
+      <c r="R23" s="366"/>
+      <c r="S23" s="366"/>
+      <c r="T23" s="381"/>
+      <c r="U23" s="366"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="386"/>
+      <c r="B24" s="376"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -20224,15 +20621,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="367"/>
+      <c r="N24" s="379"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="367"/>
+      <c r="Q24" s="367"/>
+      <c r="R24" s="367"/>
+      <c r="S24" s="367"/>
+      <c r="T24" s="382"/>
+      <c r="U24" s="367"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -20258,13 +20655,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="387" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="387"/>
+      <c r="J27" s="387"/>
+      <c r="K27" s="387"/>
+      <c r="L27" s="387"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20544,19 +20941,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="390" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="390"/>
+      <c r="F40" s="390"/>
+      <c r="G40" s="390"/>
+      <c r="H40" s="390"/>
+      <c r="I40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="390"/>
+      <c r="K40" s="390"/>
+      <c r="L40" s="390"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20680,19 +21077,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="379"/>
+      <c r="B42" s="391"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="380"/>
+      <c r="H42" s="389"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="380"/>
-      <c r="N42" s="421"/>
+      <c r="M42" s="389"/>
+      <c r="N42" s="416"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20738,19 +21135,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="391"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="380"/>
+      <c r="H43" s="389"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="389"/>
+      <c r="N43" s="389"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20796,19 +21193,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="391"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="380"/>
+      <c r="H44" s="389"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="389"/>
+      <c r="N44" s="389"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20854,19 +21251,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="391"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="380"/>
+      <c r="H45" s="389"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="389"/>
+      <c r="N45" s="389"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20912,19 +21309,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="391"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="389"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="422"/>
+      <c r="M46" s="389"/>
+      <c r="N46" s="417"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20970,19 +21367,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="391"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="389"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="389"/>
+      <c r="N47" s="393"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -21030,19 +21427,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="391"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="389"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="393"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -21090,19 +21487,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="391"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="389"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="389"/>
+      <c r="N49" s="393"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -21150,19 +21547,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="394"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="395"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="423"/>
+      <c r="M50" s="395"/>
+      <c r="N50" s="418"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -21183,19 +21580,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="394"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="395"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="395"/>
+      <c r="N51" s="397"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -21226,19 +21623,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="394"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="395"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="395"/>
+      <c r="N52" s="397"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -21302,19 +21699,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="394"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="395"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="395"/>
+      <c r="N53" s="397"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -21363,19 +21760,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="394"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="395"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="416"/>
+      <c r="M54" s="395"/>
+      <c r="N54" s="419"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -21422,19 +21819,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="394"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="395"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="395"/>
+      <c r="N55" s="397"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21481,19 +21878,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="394"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="395"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="395"/>
+      <c r="N56" s="397"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21540,19 +21937,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="394"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="395"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="395"/>
+      <c r="N57" s="397"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21599,19 +21996,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="399"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="400"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="417"/>
+      <c r="M58" s="400"/>
+      <c r="N58" s="420"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21658,19 +22055,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="399"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="400"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="400"/>
+      <c r="N59" s="402"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21717,19 +22114,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="399"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="400"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="400"/>
+      <c r="N60" s="402"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21776,247 +22173,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="399"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="400"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="400"/>
+      <c r="N61" s="402"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="399"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="400"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="418"/>
+      <c r="M62" s="400"/>
+      <c r="N62" s="421"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="399"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="400"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="400"/>
+      <c r="N63" s="402"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="399"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="400"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="400"/>
+      <c r="N64" s="402"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="399"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="400"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="400"/>
+      <c r="N65" s="402"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="403"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="404"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="419"/>
+      <c r="M66" s="404"/>
+      <c r="N66" s="422"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="403"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="404"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="404"/>
+      <c r="N67" s="406"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="403"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="404"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="404"/>
+      <c r="N68" s="406"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="403"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="404"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="404"/>
+      <c r="N69" s="406"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="403"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="404"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="420"/>
+      <c r="M70" s="404"/>
+      <c r="N70" s="423"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="403"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="404"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="404"/>
+      <c r="N71" s="406"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="403"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="404"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="404"/>
+      <c r="N72" s="406"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="403"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="404"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="404"/>
+      <c r="N73" s="406"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -23497,24 +23894,56 @@
     <row customHeight="1" ht="30" r="140" spans="2:22" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23531,56 +23960,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="257">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -841,7 +841,49 @@
     <t>Solid</t>
   </si>
   <si>
-    <t>P5</t>
+    <t>P1 active1</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>E3,E2,E1,</t>
+  </si>
+  <si>
+    <t>E1,E3,</t>
+  </si>
+  <si>
+    <t>P2 active2</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E4,E3,E2,E5,</t>
+  </si>
+  <si>
+    <t>E2,E1,</t>
+  </si>
+  <si>
+    <t>P3 active2</t>
+  </si>
+  <si>
+    <t>E2,E4,E3,</t>
+  </si>
+  <si>
+    <t>E1,E2,</t>
+  </si>
+  <si>
+    <t>P4 active1</t>
+  </si>
+  <si>
+    <t>E1,</t>
+  </si>
+  <si>
+    <t>E3,E1,E2,</t>
+  </si>
+  <si>
+    <t>P4 active2</t>
   </si>
 </sst>
 </file>
@@ -851,7 +893,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="177" x14ac:knownFonts="1">
+  <fonts count="179" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,67 +1731,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1760,36 +1742,6 @@
     <font>
       <sz val="11"/>
       <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -1884,12 +1836,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -2099,7 +2151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="440">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2663,11 +2715,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2692,45 +2739,56 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,23 +2798,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2779,77 +2837,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2871,14 +2882,57 @@
     <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5298,15 +5352,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="384" t="s">
+      <c r="F1" s="378" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5395,22 +5449,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="387"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="381"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="385" t="s">
+      <c r="M6" s="379" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="386"/>
-      <c r="O6" s="386"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="387"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="381"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5428,10 +5482,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="388" t="s">
+      <c r="F7" s="382" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="389"/>
+      <c r="G7" s="383"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5454,10 +5508,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="388" t="s">
+      <c r="P7" s="382" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="389"/>
+      <c r="Q7" s="383"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5534,7 +5588,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="390" t="s">
+      <c r="B9" s="370" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5568,33 +5622,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="381">
+      <c r="M9" s="361">
         <v>20</v>
       </c>
-      <c r="N9" s="393" t="s">
+      <c r="N9" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="381">
+      <c r="O9" s="361">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="381">
+      <c r="P9" s="361">
         <v>3</v>
       </c>
-      <c r="Q9" s="381">
+      <c r="Q9" s="361">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="381">
+      <c r="R9" s="361">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="381"/>
-      <c r="T9" s="396">
+      <c r="S9" s="361"/>
+      <c r="T9" s="364">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="381">
+      <c r="U9" s="361">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5619,7 +5673,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="391"/>
+      <c r="B10" s="371"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5651,15 +5705,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="382"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="382"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="382"/>
-      <c r="S10" s="382"/>
-      <c r="T10" s="397"/>
-      <c r="U10" s="382"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="374"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="362"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+      <c r="T10" s="365"/>
+      <c r="U10" s="362"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5667,10 +5721,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="381" t="s">
+      <c r="A11" s="361" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="391"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5681,15 +5735,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="394"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="382"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="397"/>
-      <c r="U11" s="382"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="362"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="365"/>
+      <c r="U11" s="362"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5708,8 +5762,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="383"/>
-      <c r="B12" s="392"/>
+      <c r="A12" s="363"/>
+      <c r="B12" s="372"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5720,15 +5774,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="383"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="398"/>
-      <c r="U12" s="383"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="366"/>
+      <c r="U12" s="363"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5744,7 +5798,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="390" t="s">
+      <c r="B13" s="370" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5778,33 +5832,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="381">
+      <c r="M13" s="361">
         <v>80</v>
       </c>
-      <c r="N13" s="393" t="s">
+      <c r="N13" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="381">
+      <c r="O13" s="361">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="381">
+      <c r="P13" s="361">
         <v>2</v>
       </c>
-      <c r="Q13" s="381">
+      <c r="Q13" s="361">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="381">
+      <c r="R13" s="361">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="381"/>
-      <c r="T13" s="396">
+      <c r="S13" s="361"/>
+      <c r="T13" s="364">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="381">
+      <c r="U13" s="361">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5827,7 +5881,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="391"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5859,15 +5913,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="382"/>
-      <c r="N14" s="394"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="382"/>
-      <c r="Q14" s="382"/>
-      <c r="R14" s="382"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="397"/>
-      <c r="U14" s="382"/>
+      <c r="M14" s="362"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="365"/>
+      <c r="U14" s="362"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5875,10 +5929,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="399" t="s">
+      <c r="A15" s="376" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="391"/>
+      <c r="B15" s="371"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5889,15 +5943,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="382"/>
-      <c r="N15" s="394"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="382"/>
-      <c r="Q15" s="382"/>
-      <c r="R15" s="382"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="397"/>
-      <c r="U15" s="382"/>
+      <c r="M15" s="362"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="365"/>
+      <c r="U15" s="362"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5907,8 +5961,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="400"/>
-      <c r="B16" s="392"/>
+      <c r="A16" s="377"/>
+      <c r="B16" s="372"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5919,15 +5973,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="383"/>
-      <c r="N16" s="395"/>
-      <c r="O16" s="383"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="383"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="383"/>
-      <c r="T16" s="398"/>
-      <c r="U16" s="383"/>
+      <c r="M16" s="363"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="366"/>
+      <c r="U16" s="363"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5938,7 +5992,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="390" t="s">
+      <c r="B17" s="370" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5972,33 +6026,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="381">
+      <c r="M17" s="361">
         <v>70</v>
       </c>
-      <c r="N17" s="393" t="s">
+      <c r="N17" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="381">
+      <c r="O17" s="361">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="381">
+      <c r="P17" s="361">
         <v>2</v>
       </c>
-      <c r="Q17" s="381">
+      <c r="Q17" s="361">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="381">
+      <c r="R17" s="361">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="381"/>
-      <c r="T17" s="396">
+      <c r="S17" s="361"/>
+      <c r="T17" s="364">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="381">
+      <c r="U17" s="361">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -6017,7 +6071,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="391"/>
+      <c r="B18" s="371"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -6049,24 +6103,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="382"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="382"/>
-      <c r="P18" s="382"/>
-      <c r="Q18" s="382"/>
-      <c r="R18" s="382"/>
-      <c r="S18" s="382"/>
-      <c r="T18" s="397"/>
-      <c r="U18" s="382"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="374"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="365"/>
+      <c r="U18" s="362"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="381" t="s">
+      <c r="A19" s="361" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="391"/>
+      <c r="B19" s="371"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -6077,22 +6131,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="382"/>
-      <c r="N19" s="394"/>
-      <c r="O19" s="382"/>
-      <c r="P19" s="382"/>
-      <c r="Q19" s="382"/>
-      <c r="R19" s="382"/>
-      <c r="S19" s="382"/>
-      <c r="T19" s="397"/>
-      <c r="U19" s="382"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="374"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="365"/>
+      <c r="U19" s="362"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="383"/>
-      <c r="B20" s="392"/>
+      <c r="A20" s="363"/>
+      <c r="B20" s="372"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6103,15 +6157,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="383"/>
-      <c r="N20" s="395"/>
-      <c r="O20" s="383"/>
-      <c r="P20" s="383"/>
-      <c r="Q20" s="383"/>
-      <c r="R20" s="383"/>
-      <c r="S20" s="383"/>
-      <c r="T20" s="398"/>
-      <c r="U20" s="383"/>
+      <c r="M20" s="363"/>
+      <c r="N20" s="375"/>
+      <c r="O20" s="363"/>
+      <c r="P20" s="363"/>
+      <c r="Q20" s="363"/>
+      <c r="R20" s="363"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="363"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6120,7 +6174,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="390" t="s">
+      <c r="B21" s="370" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6154,33 +6208,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="381">
+      <c r="M21" s="361">
         <v>60</v>
       </c>
-      <c r="N21" s="393" t="s">
+      <c r="N21" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="381">
+      <c r="O21" s="361">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="381">
+      <c r="P21" s="361">
         <v>3</v>
       </c>
-      <c r="Q21" s="381">
+      <c r="Q21" s="361">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="381">
+      <c r="R21" s="361">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="381"/>
-      <c r="T21" s="396">
+      <c r="S21" s="361"/>
+      <c r="T21" s="364">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="381">
+      <c r="U21" s="361">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6197,7 +6251,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="391"/>
+      <c r="B22" s="371"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6229,24 +6283,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="382"/>
-      <c r="N22" s="394"/>
-      <c r="O22" s="382"/>
-      <c r="P22" s="382"/>
-      <c r="Q22" s="382"/>
-      <c r="R22" s="382"/>
-      <c r="S22" s="382"/>
-      <c r="T22" s="397"/>
-      <c r="U22" s="382"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="362"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="401" t="s">
+      <c r="A23" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="391"/>
+      <c r="B23" s="371"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6257,22 +6311,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="382"/>
-      <c r="N23" s="394"/>
-      <c r="O23" s="382"/>
-      <c r="P23" s="382"/>
-      <c r="Q23" s="382"/>
-      <c r="R23" s="382"/>
-      <c r="S23" s="382"/>
-      <c r="T23" s="397"/>
-      <c r="U23" s="382"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="374"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="365"/>
+      <c r="U23" s="362"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="402"/>
-      <c r="B24" s="392"/>
+      <c r="A24" s="368"/>
+      <c r="B24" s="372"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6283,15 +6337,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="383"/>
-      <c r="N24" s="395"/>
-      <c r="O24" s="383"/>
-      <c r="P24" s="383"/>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="383"/>
-      <c r="S24" s="383"/>
-      <c r="T24" s="398"/>
-      <c r="U24" s="383"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="375"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363"/>
+      <c r="Q24" s="363"/>
+      <c r="R24" s="363"/>
+      <c r="S24" s="363"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="363"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6317,13 +6371,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="403" t="s">
+      <c r="H27" s="369" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="403"/>
-      <c r="J27" s="403"/>
-      <c r="K27" s="403"/>
-      <c r="L27" s="403"/>
+      <c r="I27" s="369"/>
+      <c r="J27" s="369"/>
+      <c r="K27" s="369"/>
+      <c r="L27" s="369"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6603,19 +6657,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="406" t="s">
+      <c r="D40" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="406"/>
-      <c r="I40" s="406" t="s">
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="406"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="406"/>
+      <c r="J40" s="359"/>
+      <c r="K40" s="359"/>
+      <c r="L40" s="359"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6739,7 +6793,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="407" t="s">
+      <c r="B42" s="354" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6747,17 +6801,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="405">
+      <c r="H42" s="355">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="405">
+      <c r="M42" s="355">
         <v>1</v>
       </c>
-      <c r="N42" s="404" t="s">
+      <c r="N42" s="360" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6805,7 +6859,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="407"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6821,7 +6875,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="405"/>
+      <c r="H43" s="355"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6834,8 +6888,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="405"/>
-      <c r="N43" s="405"/>
+      <c r="M43" s="355"/>
+      <c r="N43" s="355"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6881,7 +6935,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="407"/>
+      <c r="B44" s="354"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6897,7 +6951,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="405"/>
+      <c r="H44" s="355"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6910,8 +6964,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="405"/>
-      <c r="N44" s="405"/>
+      <c r="M44" s="355"/>
+      <c r="N44" s="355"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6957,7 +7011,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="407"/>
+      <c r="B45" s="354"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6973,7 +7027,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="405"/>
+      <c r="H45" s="355"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6986,8 +7040,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="405"/>
-      <c r="N45" s="405"/>
+      <c r="M45" s="355"/>
+      <c r="N45" s="355"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -7033,19 +7087,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="407"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="405"/>
+      <c r="H46" s="355"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="405"/>
-      <c r="N46" s="408"/>
+      <c r="M46" s="355"/>
+      <c r="N46" s="356"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7091,19 +7145,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="407"/>
+      <c r="B47" s="354"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="405"/>
+      <c r="H47" s="355"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="405"/>
-      <c r="N47" s="409"/>
+      <c r="M47" s="355"/>
+      <c r="N47" s="357"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7151,19 +7205,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="407"/>
+      <c r="B48" s="354"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="405"/>
+      <c r="H48" s="355"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="405"/>
-      <c r="N48" s="409"/>
+      <c r="M48" s="355"/>
+      <c r="N48" s="357"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7211,19 +7265,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="407"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="405"/>
+      <c r="H49" s="355"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="405"/>
-      <c r="N49" s="409"/>
+      <c r="M49" s="355"/>
+      <c r="N49" s="357"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7271,19 +7325,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="410"/>
+      <c r="B50" s="349"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="411"/>
+      <c r="H50" s="350"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="411"/>
-      <c r="N50" s="412"/>
+      <c r="M50" s="350"/>
+      <c r="N50" s="358"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7304,19 +7358,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="410"/>
+      <c r="B51" s="349"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="411"/>
+      <c r="H51" s="350"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="411"/>
-      <c r="N51" s="413"/>
+      <c r="M51" s="350"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7347,19 +7401,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="410"/>
+      <c r="B52" s="349"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="411"/>
+      <c r="H52" s="350"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="411"/>
-      <c r="N52" s="413"/>
+      <c r="M52" s="350"/>
+      <c r="N52" s="352"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7423,19 +7477,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="410"/>
+      <c r="B53" s="349"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="411"/>
+      <c r="H53" s="350"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="411"/>
-      <c r="N53" s="413"/>
+      <c r="M53" s="350"/>
+      <c r="N53" s="352"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7484,19 +7538,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="410"/>
+      <c r="B54" s="349"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="411"/>
+      <c r="H54" s="350"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="411"/>
-      <c r="N54" s="414"/>
+      <c r="M54" s="350"/>
+      <c r="N54" s="351"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7543,19 +7597,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="410"/>
+      <c r="B55" s="349"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="411"/>
+      <c r="H55" s="350"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="411"/>
-      <c r="N55" s="413"/>
+      <c r="M55" s="350"/>
+      <c r="N55" s="352"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7602,19 +7656,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="410"/>
+      <c r="B56" s="349"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="411"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="411"/>
-      <c r="N56" s="413"/>
+      <c r="M56" s="350"/>
+      <c r="N56" s="352"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7661,19 +7715,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="410"/>
+      <c r="B57" s="349"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="411"/>
+      <c r="H57" s="350"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="411"/>
-      <c r="N57" s="413"/>
+      <c r="M57" s="350"/>
+      <c r="N57" s="352"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7720,19 +7774,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="415"/>
+      <c r="B58" s="344"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="416"/>
+      <c r="H58" s="345"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="416"/>
-      <c r="N58" s="417"/>
+      <c r="M58" s="345"/>
+      <c r="N58" s="353"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7779,19 +7833,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="415"/>
+      <c r="B59" s="344"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="416"/>
+      <c r="H59" s="345"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="416"/>
-      <c r="N59" s="418"/>
+      <c r="M59" s="345"/>
+      <c r="N59" s="347"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7838,19 +7892,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="415"/>
+      <c r="B60" s="344"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="416"/>
+      <c r="H60" s="345"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="416"/>
-      <c r="N60" s="418"/>
+      <c r="M60" s="345"/>
+      <c r="N60" s="347"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7897,247 +7951,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="415"/>
+      <c r="B61" s="344"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="416"/>
+      <c r="H61" s="345"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="416"/>
-      <c r="N61" s="418"/>
+      <c r="M61" s="345"/>
+      <c r="N61" s="347"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="415"/>
+      <c r="B62" s="344"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="416"/>
+      <c r="H62" s="345"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="416"/>
-      <c r="N62" s="423"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="346"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="415"/>
+      <c r="B63" s="344"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="416"/>
+      <c r="H63" s="345"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="416"/>
-      <c r="N63" s="418"/>
+      <c r="M63" s="345"/>
+      <c r="N63" s="347"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="415"/>
+      <c r="B64" s="344"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="416"/>
+      <c r="H64" s="345"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="416"/>
-      <c r="N64" s="418"/>
+      <c r="M64" s="345"/>
+      <c r="N64" s="347"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="415"/>
+      <c r="B65" s="344"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="416"/>
+      <c r="H65" s="345"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="416"/>
-      <c r="N65" s="418"/>
+      <c r="M65" s="345"/>
+      <c r="N65" s="347"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="419"/>
+      <c r="B66" s="340"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="420"/>
+      <c r="H66" s="341"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="420"/>
-      <c r="N66" s="424"/>
+      <c r="M66" s="341"/>
+      <c r="N66" s="348"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="419"/>
+      <c r="B67" s="340"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="420"/>
+      <c r="H67" s="341"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="420"/>
-      <c r="N67" s="422"/>
+      <c r="M67" s="341"/>
+      <c r="N67" s="343"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="419"/>
+      <c r="B68" s="340"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="420"/>
+      <c r="H68" s="341"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="420"/>
-      <c r="N68" s="422"/>
+      <c r="M68" s="341"/>
+      <c r="N68" s="343"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="419"/>
+      <c r="B69" s="340"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="420"/>
+      <c r="H69" s="341"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="420"/>
-      <c r="N69" s="422"/>
+      <c r="M69" s="341"/>
+      <c r="N69" s="343"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="419"/>
+      <c r="B70" s="340"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="420"/>
+      <c r="H70" s="341"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="420"/>
-      <c r="N70" s="421"/>
+      <c r="M70" s="341"/>
+      <c r="N70" s="342"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="419"/>
+      <c r="B71" s="340"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="420"/>
+      <c r="H71" s="341"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="420"/>
-      <c r="N71" s="422"/>
+      <c r="M71" s="341"/>
+      <c r="N71" s="343"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="419"/>
+      <c r="B72" s="340"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="420"/>
+      <c r="H72" s="341"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="420"/>
-      <c r="N72" s="422"/>
+      <c r="M72" s="341"/>
+      <c r="N72" s="343"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="419"/>
+      <c r="B73" s="340"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="420"/>
+      <c r="H73" s="341"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="420"/>
-      <c r="N73" s="422"/>
+      <c r="M73" s="341"/>
+      <c r="N73" s="343"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9690,57 +9744,23 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9757,23 +9777,57 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9790,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9839,15 +9893,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="384" t="s">
+      <c r="F1" s="378" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9896,22 +9950,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="387"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="381"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="385" t="s">
+      <c r="M6" s="379" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="386"/>
-      <c r="O6" s="386"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="387"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="381"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9929,10 +9983,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="388" t="s">
+      <c r="F7" s="382" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="389"/>
+      <c r="G7" s="383"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9955,10 +10009,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="388" t="s">
+      <c r="P7" s="382" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="389"/>
+      <c r="Q7" s="383"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -10026,7 +10080,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="390"/>
+      <c r="B9" s="370"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10037,15 +10091,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="381"/>
-      <c r="N9" s="393"/>
-      <c r="O9" s="381"/>
-      <c r="P9" s="381"/>
-      <c r="Q9" s="381"/>
-      <c r="R9" s="381"/>
-      <c r="S9" s="381"/>
-      <c r="T9" s="396"/>
-      <c r="U9" s="381"/>
+      <c r="M9" s="361"/>
+      <c r="N9" s="373"/>
+      <c r="O9" s="361"/>
+      <c r="P9" s="361"/>
+      <c r="Q9" s="361"/>
+      <c r="R9" s="361"/>
+      <c r="S9" s="361"/>
+      <c r="T9" s="364"/>
+      <c r="U9" s="361"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -10055,7 +10109,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="391"/>
+      <c r="B10" s="371"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -10066,15 +10120,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="382"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="382"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="382"/>
-      <c r="S10" s="382"/>
-      <c r="T10" s="397"/>
-      <c r="U10" s="382"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="374"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="362"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+      <c r="T10" s="365"/>
+      <c r="U10" s="362"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -10082,8 +10136,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="381"/>
-      <c r="B11" s="391"/>
+      <c r="A11" s="361"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10094,15 +10148,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="394"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="382"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="397"/>
-      <c r="U11" s="382"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="362"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="365"/>
+      <c r="U11" s="362"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10112,8 +10166,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="383"/>
-      <c r="B12" s="392"/>
+      <c r="A12" s="363"/>
+      <c r="B12" s="372"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10124,15 +10178,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="383"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="398"/>
-      <c r="U12" s="383"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="366"/>
+      <c r="U12" s="363"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10141,7 +10195,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="390"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10152,15 +10206,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="381"/>
-      <c r="N13" s="393"/>
-      <c r="O13" s="381"/>
-      <c r="P13" s="381"/>
-      <c r="Q13" s="381"/>
-      <c r="R13" s="381"/>
-      <c r="S13" s="381"/>
-      <c r="T13" s="396"/>
-      <c r="U13" s="381"/>
+      <c r="M13" s="361"/>
+      <c r="N13" s="373"/>
+      <c r="O13" s="361"/>
+      <c r="P13" s="361"/>
+      <c r="Q13" s="361"/>
+      <c r="R13" s="361"/>
+      <c r="S13" s="361"/>
+      <c r="T13" s="364"/>
+      <c r="U13" s="361"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10169,7 +10223,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="391"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10180,15 +10234,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="382"/>
-      <c r="N14" s="394"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="382"/>
-      <c r="Q14" s="382"/>
-      <c r="R14" s="382"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="397"/>
-      <c r="U14" s="382"/>
+      <c r="M14" s="362"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="365"/>
+      <c r="U14" s="362"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10196,8 +10250,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="399"/>
-      <c r="B15" s="391"/>
+      <c r="A15" s="376"/>
+      <c r="B15" s="371"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10208,15 +10262,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="382"/>
-      <c r="N15" s="394"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="382"/>
-      <c r="Q15" s="382"/>
-      <c r="R15" s="382"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="397"/>
-      <c r="U15" s="382"/>
+      <c r="M15" s="362"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="365"/>
+      <c r="U15" s="362"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10224,8 +10278,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="400"/>
-      <c r="B16" s="392"/>
+      <c r="A16" s="377"/>
+      <c r="B16" s="372"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10236,15 +10290,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="383"/>
-      <c r="N16" s="395"/>
-      <c r="O16" s="383"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="383"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="383"/>
-      <c r="T16" s="398"/>
-      <c r="U16" s="383"/>
+      <c r="M16" s="363"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="366"/>
+      <c r="U16" s="363"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10253,7 +10307,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="390"/>
+      <c r="B17" s="370"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10264,15 +10318,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="381"/>
-      <c r="N17" s="393"/>
-      <c r="O17" s="381"/>
-      <c r="P17" s="381"/>
-      <c r="Q17" s="381"/>
-      <c r="R17" s="381"/>
-      <c r="S17" s="381"/>
-      <c r="T17" s="396"/>
-      <c r="U17" s="381"/>
+      <c r="M17" s="361"/>
+      <c r="N17" s="373"/>
+      <c r="O17" s="361"/>
+      <c r="P17" s="361"/>
+      <c r="Q17" s="361"/>
+      <c r="R17" s="361"/>
+      <c r="S17" s="361"/>
+      <c r="T17" s="364"/>
+      <c r="U17" s="361"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10281,7 +10335,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="391"/>
+      <c r="B18" s="371"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10292,22 +10346,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="382"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="382"/>
-      <c r="P18" s="382"/>
-      <c r="Q18" s="382"/>
-      <c r="R18" s="382"/>
-      <c r="S18" s="382"/>
-      <c r="T18" s="397"/>
-      <c r="U18" s="382"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="374"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="365"/>
+      <c r="U18" s="362"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="381"/>
-      <c r="B19" s="391"/>
+      <c r="A19" s="361"/>
+      <c r="B19" s="371"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10318,22 +10372,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="382"/>
-      <c r="N19" s="394"/>
-      <c r="O19" s="382"/>
-      <c r="P19" s="382"/>
-      <c r="Q19" s="382"/>
-      <c r="R19" s="382"/>
-      <c r="S19" s="382"/>
-      <c r="T19" s="397"/>
-      <c r="U19" s="382"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="374"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="365"/>
+      <c r="U19" s="362"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="383"/>
-      <c r="B20" s="392"/>
+      <c r="A20" s="363"/>
+      <c r="B20" s="372"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10344,22 +10398,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="383"/>
-      <c r="N20" s="395"/>
-      <c r="O20" s="383"/>
-      <c r="P20" s="383"/>
-      <c r="Q20" s="383"/>
-      <c r="R20" s="383"/>
-      <c r="S20" s="383"/>
-      <c r="T20" s="398"/>
-      <c r="U20" s="383"/>
+      <c r="M20" s="363"/>
+      <c r="N20" s="375"/>
+      <c r="O20" s="363"/>
+      <c r="P20" s="363"/>
+      <c r="Q20" s="363"/>
+      <c r="R20" s="363"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="363"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="390"/>
+      <c r="B21" s="370"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10370,22 +10424,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="381"/>
-      <c r="N21" s="393"/>
-      <c r="O21" s="381"/>
-      <c r="P21" s="381"/>
-      <c r="Q21" s="381"/>
-      <c r="R21" s="381"/>
-      <c r="S21" s="381"/>
-      <c r="T21" s="396"/>
-      <c r="U21" s="381"/>
+      <c r="M21" s="361"/>
+      <c r="N21" s="373"/>
+      <c r="O21" s="361"/>
+      <c r="P21" s="361"/>
+      <c r="Q21" s="361"/>
+      <c r="R21" s="361"/>
+      <c r="S21" s="361"/>
+      <c r="T21" s="364"/>
+      <c r="U21" s="361"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="391"/>
+      <c r="B22" s="371"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10396,22 +10450,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="382"/>
-      <c r="N22" s="394"/>
-      <c r="O22" s="382"/>
-      <c r="P22" s="382"/>
-      <c r="Q22" s="382"/>
-      <c r="R22" s="382"/>
-      <c r="S22" s="382"/>
-      <c r="T22" s="397"/>
-      <c r="U22" s="382"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="362"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="401"/>
-      <c r="B23" s="391"/>
+      <c r="A23" s="367"/>
+      <c r="B23" s="371"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10422,22 +10476,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="382"/>
-      <c r="N23" s="394"/>
-      <c r="O23" s="382"/>
-      <c r="P23" s="382"/>
-      <c r="Q23" s="382"/>
-      <c r="R23" s="382"/>
-      <c r="S23" s="382"/>
-      <c r="T23" s="397"/>
-      <c r="U23" s="382"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="374"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="365"/>
+      <c r="U23" s="362"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="402"/>
-      <c r="B24" s="392"/>
+      <c r="A24" s="368"/>
+      <c r="B24" s="372"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10448,15 +10502,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="383"/>
-      <c r="N24" s="395"/>
-      <c r="O24" s="383"/>
-      <c r="P24" s="383"/>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="383"/>
-      <c r="S24" s="383"/>
-      <c r="T24" s="398"/>
-      <c r="U24" s="383"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="375"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363"/>
+      <c r="Q24" s="363"/>
+      <c r="R24" s="363"/>
+      <c r="S24" s="363"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="363"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10763,41 +10817,41 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="332" t="s">
+      <c r="A40" s="327" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="333" t="s">
+      <c r="B40" s="328" t="s">
         <v>241</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="426" t="s">
+      <c r="F40" s="385" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="427"/>
-      <c r="H40" s="427"/>
-      <c r="I40" s="428"/>
-      <c r="J40" s="429" t="s">
+      <c r="G40" s="386"/>
+      <c r="H40" s="386"/>
+      <c r="I40" s="387"/>
+      <c r="J40" s="388" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="430"/>
-      <c r="L40" s="430"/>
-      <c r="M40" s="431"/>
+      <c r="K40" s="389"/>
+      <c r="L40" s="389"/>
+      <c r="M40" s="390"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="425" t="s">
+      <c r="Q40" s="384" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="425"/>
-      <c r="S40" s="425"/>
-      <c r="T40" s="425"/>
-      <c r="U40" s="425"/>
-      <c r="V40" s="425"/>
-      <c r="W40" s="425"/>
-      <c r="X40" s="425"/>
-      <c r="Y40" s="425"/>
+      <c r="R40" s="384"/>
+      <c r="S40" s="384"/>
+      <c r="T40" s="384"/>
+      <c r="U40" s="384"/>
+      <c r="V40" s="384"/>
+      <c r="W40" s="384"/>
+      <c r="X40" s="384"/>
+      <c r="Y40" s="384"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10927,39 +10981,93 @@
       <c r="B42" s="309" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="331"/>
-      <c r="E42" s="331"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="286"/>
-      <c r="H42" s="287"/>
-      <c r="I42" s="287"/>
-      <c r="J42" s="287"/>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="287"/>
-      <c r="N42" s="334"/>
+      <c r="D42" s="326" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="326" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G42" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H42" s="287">
+        <v>7000</v>
+      </c>
+      <c r="I42" s="287">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="J42" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K42" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L42" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M42" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="N42" s="329"/>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
-      <c r="Q42" s="246"/>
-      <c r="R42" s="247"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
-      <c r="X42" s="247"/>
+      <c r="Q42" s="246" t="s">
+        <v>242</v>
+      </c>
+      <c r="R42" s="247" t="s">
+        <v>222</v>
+      </c>
+      <c r="S42" s="247">
+        <v>1500</v>
+      </c>
+      <c r="T42" s="247">
+        <v>10</v>
+      </c>
+      <c r="U42" s="247">
+        <v>11</v>
+      </c>
+      <c r="V42" s="247">
+        <v>25</v>
+      </c>
+      <c r="W42" s="247">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X42" s="247">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y42" s="248"/>
-      <c r="Z42" s="247"/>
-      <c r="AA42" s="247"/>
+      <c r="Z42" s="247">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA42" s="247">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB42" s="282"/>
-      <c r="AC42" s="339"/>
+      <c r="AC42" s="418" t="s">
+        <v>59</v>
+      </c>
       <c r="AD42" s="64"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="342"/>
+      <c r="AE42" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF42" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG42" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH42" s="50">
+        <v>2.5840003043413162E-2</v>
+      </c>
+      <c r="AI42" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ42" s="399" t="s">
+        <v>59</v>
+      </c>
       <c r="AK42" s="226"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -10973,39 +11081,93 @@
       <c r="B43" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="331"/>
-      <c r="E43" s="331"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="286"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="287"/>
-      <c r="K43" s="286"/>
-      <c r="L43" s="286"/>
-      <c r="M43" s="288"/>
-      <c r="N43" s="338"/>
+      <c r="D43" s="326"/>
+      <c r="E43" s="326" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="287">
+        <v>20172016</v>
+      </c>
+      <c r="G43" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H43" s="287">
+        <v>7500</v>
+      </c>
+      <c r="I43" s="288">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J43" s="287">
+        <v>0.11999999731779099</v>
+      </c>
+      <c r="K43" s="286">
+        <v>4.9999996554106474E-4</v>
+      </c>
+      <c r="L43" s="286">
+        <v>375</v>
+      </c>
+      <c r="M43" s="288">
+        <v>2.3437498603016138E-3</v>
+      </c>
+      <c r="N43" s="338" t="s">
+        <v>59</v>
+      </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
-      <c r="Q43" s="246"/>
-      <c r="R43" s="247"/>
-      <c r="S43" s="247"/>
-      <c r="T43" s="247"/>
-      <c r="U43" s="247"/>
-      <c r="V43" s="247"/>
-      <c r="W43" s="247"/>
-      <c r="X43" s="247"/>
+      <c r="Q43" s="246" t="s">
+        <v>242</v>
+      </c>
+      <c r="R43" s="247" t="s">
+        <v>223</v>
+      </c>
+      <c r="S43" s="247">
+        <v>150000</v>
+      </c>
+      <c r="T43" s="247">
+        <v>10</v>
+      </c>
+      <c r="U43" s="247">
+        <v>11</v>
+      </c>
+      <c r="V43" s="247">
+        <v>25</v>
+      </c>
+      <c r="W43" s="247">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X43" s="247">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y43" s="248"/>
-      <c r="Z43" s="247"/>
-      <c r="AA43" s="247"/>
+      <c r="Z43" s="247">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA43" s="247">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB43" s="282"/>
-      <c r="AC43" s="340"/>
+      <c r="AC43" s="419" t="s">
+        <v>59</v>
+      </c>
       <c r="AD43" s="64"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="343"/>
+      <c r="AE43" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF43" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG43" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH43" s="50">
+        <v>1.8400001572445035E-3</v>
+      </c>
+      <c r="AI43" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ43" s="400" t="s">
+        <v>59</v>
+      </c>
       <c r="AK43" s="226"/>
       <c r="AL43" s="23"/>
       <c r="AM43" s="23"/>
@@ -11019,39 +11181,79 @@
       <c r="B44" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="331"/>
-      <c r="E44" s="331"/>
-      <c r="F44" s="286"/>
-      <c r="G44" s="286"/>
-      <c r="H44" s="287"/>
-      <c r="I44" s="287"/>
-      <c r="J44" s="287"/>
-      <c r="K44" s="286"/>
-      <c r="L44" s="286"/>
-      <c r="M44" s="287"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="326" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G44" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H44" s="287">
+        <v>9000</v>
+      </c>
+      <c r="I44" s="287">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J44" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K44" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L44" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M44" s="287" t="s">
+        <v>243</v>
+      </c>
       <c r="N44" s="306"/>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="247"/>
-      <c r="S44" s="247"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="247"/>
-      <c r="V44" s="247"/>
-      <c r="W44" s="247"/>
-      <c r="X44" s="247"/>
+      <c r="Q44" s="246" t="s">
+        <v>242</v>
+      </c>
+      <c r="R44" s="247" t="s">
+        <v>224</v>
+      </c>
+      <c r="S44" s="247">
+        <v>10000</v>
+      </c>
+      <c r="T44" s="247">
+        <v>10</v>
+      </c>
+      <c r="U44" s="247">
+        <v>11</v>
+      </c>
+      <c r="V44" s="247">
+        <v>25</v>
+      </c>
+      <c r="W44" s="247">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X44" s="247">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y44" s="248"/>
-      <c r="Z44" s="247"/>
-      <c r="AA44" s="247"/>
+      <c r="Z44" s="247">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA44" s="247">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="341"/>
+      <c r="AC44" s="420" t="s">
+        <v>59</v>
+      </c>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
       <c r="AG44" s="50"/>
       <c r="AH44" s="50"/>
       <c r="AI44" s="50"/>
-      <c r="AJ44" s="317"/>
+      <c r="AJ44" s="401"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -11065,16 +11267,36 @@
       <c r="B45" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="331"/>
-      <c r="E45" s="331"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="287"/>
-      <c r="J45" s="287"/>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="287"/>
+      <c r="D45" s="326" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G45" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="287">
+        <v>6000</v>
+      </c>
+      <c r="I45" s="287">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J45" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K45" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L45" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M45" s="287" t="s">
+        <v>243</v>
+      </c>
       <c r="N45" s="306"/>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
@@ -11092,12 +11314,24 @@
       <c r="AB45" s="282"/>
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
-      <c r="AE45" s="50"/>
-      <c r="AF45" s="50"/>
-      <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
-      <c r="AJ45" s="350"/>
+      <c r="AE45" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF45" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG45" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH45" s="50">
+        <v>3.2800003886222839E-2</v>
+      </c>
+      <c r="AI45" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ45" s="402" t="s">
+        <v>59</v>
+      </c>
       <c r="AK45" s="226"/>
       <c r="AL45" s="23"/>
       <c r="AM45" s="23"/>
@@ -11106,42 +11340,92 @@
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="309"/>
-      <c r="B46" s="309" t="s">
-        <v>242</v>
-      </c>
-      <c r="D46" s="331"/>
-      <c r="E46" s="331"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="286"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="287"/>
-      <c r="J46" s="287"/>
-      <c r="K46" s="286"/>
-      <c r="L46" s="286"/>
-      <c r="M46" s="287"/>
-      <c r="N46" s="335"/>
+      <c r="B46" s="309"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="326" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G46" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H46" s="287">
+        <v>7500</v>
+      </c>
+      <c r="I46" s="287">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J46" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K46" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L46" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M46" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="N46" s="330"/>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
-      <c r="Q46" s="246"/>
-      <c r="R46" s="247"/>
-      <c r="S46" s="247"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="247"/>
-      <c r="V46" s="247"/>
-      <c r="W46" s="247"/>
-      <c r="X46" s="247"/>
+      <c r="Q46" s="246" t="s">
+        <v>246</v>
+      </c>
+      <c r="R46" s="247" t="s">
+        <v>222</v>
+      </c>
+      <c r="S46" s="247">
+        <v>1500</v>
+      </c>
+      <c r="T46" s="247">
+        <v>10</v>
+      </c>
+      <c r="U46" s="247">
+        <v>11</v>
+      </c>
+      <c r="V46" s="247">
+        <v>25</v>
+      </c>
+      <c r="W46" s="247">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X46" s="247">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y46" s="248"/>
-      <c r="Z46" s="247"/>
-      <c r="AA46" s="247"/>
+      <c r="Z46" s="247">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA46" s="247">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB46" s="282"/>
-      <c r="AC46" s="345"/>
+      <c r="AC46" s="421" t="s">
+        <v>56</v>
+      </c>
       <c r="AD46" s="64"/>
-      <c r="AE46" s="50"/>
-      <c r="AF46" s="50"/>
-      <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
-      <c r="AJ46" s="351"/>
+      <c r="AE46" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF46" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG46" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH46" s="50">
+        <v>2.4240000173449516E-2</v>
+      </c>
+      <c r="AI46" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ46" s="403" t="s">
+        <v>59</v>
+      </c>
       <c r="AK46" s="226"/>
       <c r="AL46" s="23"/>
       <c r="AM46" s="23"/>
@@ -11151,38 +11435,78 @@
     <row r="47" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="309"/>
       <c r="B47" s="309"/>
-      <c r="D47" s="331"/>
-      <c r="E47" s="331"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="286"/>
-      <c r="H47" s="286"/>
-      <c r="I47" s="286"/>
-      <c r="J47" s="287"/>
-      <c r="K47" s="286"/>
-      <c r="L47" s="286"/>
-      <c r="M47" s="286"/>
-      <c r="N47" s="344"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G47" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H47" s="286">
+        <v>9000</v>
+      </c>
+      <c r="I47" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J47" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L47" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M47" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="N47" s="332"/>
       <c r="P47" s="218"/>
-      <c r="Q47" s="244"/>
-      <c r="R47" s="248"/>
-      <c r="S47" s="249"/>
-      <c r="T47" s="249"/>
-      <c r="U47" s="247"/>
-      <c r="V47" s="247"/>
-      <c r="W47" s="248"/>
-      <c r="X47" s="248"/>
+      <c r="Q47" s="244" t="s">
+        <v>246</v>
+      </c>
+      <c r="R47" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S47" s="249">
+        <v>150000</v>
+      </c>
+      <c r="T47" s="249">
+        <v>10</v>
+      </c>
+      <c r="U47" s="247">
+        <v>11</v>
+      </c>
+      <c r="V47" s="247">
+        <v>25</v>
+      </c>
+      <c r="W47" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X47" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y47" s="248"/>
-      <c r="Z47" s="248"/>
-      <c r="AA47" s="248"/>
+      <c r="Z47" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA47" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB47" s="283"/>
-      <c r="AC47" s="346"/>
+      <c r="AC47" s="422" t="s">
+        <v>56</v>
+      </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="50"/>
       <c r="AH47" s="50"/>
       <c r="AI47" s="36"/>
-      <c r="AJ47" s="318"/>
+      <c r="AJ47" s="404"/>
       <c r="AK47" s="226"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
@@ -11192,38 +11516,92 @@
     <row r="48" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="309"/>
       <c r="B48" s="309"/>
-      <c r="D48" s="331"/>
-      <c r="E48" s="331"/>
-      <c r="F48" s="286"/>
-      <c r="G48" s="286"/>
-      <c r="H48" s="286"/>
-      <c r="I48" s="286"/>
-      <c r="J48" s="287"/>
-      <c r="K48" s="286"/>
-      <c r="L48" s="286"/>
-      <c r="M48" s="286"/>
+      <c r="D48" s="326" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G48" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H48" s="286">
+        <v>6000</v>
+      </c>
+      <c r="I48" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J48" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L48" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M48" s="286" t="s">
+        <v>243</v>
+      </c>
       <c r="N48" s="307"/>
       <c r="P48" s="218"/>
-      <c r="Q48" s="244"/>
-      <c r="R48" s="248"/>
-      <c r="S48" s="249"/>
-      <c r="T48" s="249"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="247"/>
-      <c r="W48" s="248"/>
-      <c r="X48" s="248"/>
+      <c r="Q48" s="244" t="s">
+        <v>246</v>
+      </c>
+      <c r="R48" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S48" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T48" s="249">
+        <v>10</v>
+      </c>
+      <c r="U48" s="247">
+        <v>11</v>
+      </c>
+      <c r="V48" s="247">
+        <v>25</v>
+      </c>
+      <c r="W48" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X48" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y48" s="248"/>
-      <c r="Z48" s="248"/>
-      <c r="AA48" s="248"/>
+      <c r="Z48" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA48" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="347"/>
+      <c r="AC48" s="423" t="s">
+        <v>56</v>
+      </c>
       <c r="AD48" s="23"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="36"/>
-      <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="36"/>
-      <c r="AJ48" s="357"/>
+      <c r="AE48" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF48" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG48" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH48" s="50">
+        <v>2.720000222325325E-2</v>
+      </c>
+      <c r="AI48" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ48" s="405" t="s">
+        <v>59</v>
+      </c>
       <c r="AK48" s="226"/>
       <c r="AL48" s="23"/>
       <c r="AM48" s="23"/>
@@ -11233,38 +11611,90 @@
     <row r="49" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="309"/>
       <c r="B49" s="309"/>
-      <c r="D49" s="331"/>
-      <c r="E49" s="331"/>
-      <c r="F49" s="286"/>
-      <c r="G49" s="286"/>
-      <c r="H49" s="286"/>
-      <c r="I49" s="286"/>
-      <c r="J49" s="287"/>
-      <c r="K49" s="286"/>
-      <c r="L49" s="286"/>
-      <c r="M49" s="286"/>
-      <c r="N49" s="336"/>
+      <c r="D49" s="326"/>
+      <c r="E49" s="326" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G49" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H49" s="286">
+        <v>7000</v>
+      </c>
+      <c r="I49" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J49" s="287" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L49" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M49" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="N49" s="333"/>
       <c r="P49" s="218"/>
-      <c r="Q49" s="244"/>
-      <c r="R49" s="248"/>
-      <c r="S49" s="249"/>
-      <c r="T49" s="249"/>
-      <c r="U49" s="247"/>
-      <c r="V49" s="247"/>
-      <c r="W49" s="248"/>
-      <c r="X49" s="248"/>
+      <c r="Q49" s="244" t="s">
+        <v>246</v>
+      </c>
+      <c r="R49" s="248" t="s">
+        <v>225</v>
+      </c>
+      <c r="S49" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T49" s="249">
+        <v>10</v>
+      </c>
+      <c r="U49" s="247">
+        <v>11</v>
+      </c>
+      <c r="V49" s="247">
+        <v>25</v>
+      </c>
+      <c r="W49" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X49" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y49" s="248"/>
-      <c r="Z49" s="248"/>
-      <c r="AA49" s="248"/>
+      <c r="Z49" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA49" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB49" s="283"/>
-      <c r="AC49" s="348"/>
+      <c r="AC49" s="424" t="s">
+        <v>56</v>
+      </c>
       <c r="AD49" s="23"/>
-      <c r="AE49" s="72"/>
-      <c r="AF49" s="36"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="36"/>
-      <c r="AJ49" s="358"/>
+      <c r="AE49" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF49" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG49" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH49" s="50">
+        <v>2.4240000173449516E-2</v>
+      </c>
+      <c r="AI49" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ49" s="406" t="s">
+        <v>59</v>
+      </c>
       <c r="AK49" s="226"/>
       <c r="AL49" s="23"/>
       <c r="AM49" s="23"/>
@@ -11274,38 +11704,78 @@
     <row r="50" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="309"/>
       <c r="B50" s="309"/>
-      <c r="D50" s="331"/>
-      <c r="E50" s="331"/>
-      <c r="F50" s="286"/>
-      <c r="G50" s="286"/>
-      <c r="H50" s="286"/>
-      <c r="I50" s="286"/>
-      <c r="J50" s="286"/>
-      <c r="K50" s="286"/>
-      <c r="L50" s="286"/>
-      <c r="M50" s="286"/>
+      <c r="D50" s="326"/>
+      <c r="E50" s="326" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G50" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H50" s="286">
+        <v>9000</v>
+      </c>
+      <c r="I50" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J50" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K50" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L50" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M50" s="286" t="s">
+        <v>243</v>
+      </c>
       <c r="N50" s="307"/>
       <c r="P50" s="218"/>
-      <c r="Q50" s="244"/>
-      <c r="R50" s="248"/>
-      <c r="S50" s="249"/>
-      <c r="T50" s="249"/>
-      <c r="U50" s="247"/>
-      <c r="V50" s="247"/>
-      <c r="W50" s="248"/>
-      <c r="X50" s="247"/>
+      <c r="Q50" s="244" t="s">
+        <v>246</v>
+      </c>
+      <c r="R50" s="248" t="s">
+        <v>247</v>
+      </c>
+      <c r="S50" s="249">
+        <v>35000</v>
+      </c>
+      <c r="T50" s="249">
+        <v>10</v>
+      </c>
+      <c r="U50" s="247">
+        <v>11</v>
+      </c>
+      <c r="V50" s="247">
+        <v>25</v>
+      </c>
+      <c r="W50" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X50" s="247">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y50" s="247"/>
-      <c r="Z50" s="247"/>
-      <c r="AA50" s="247"/>
+      <c r="Z50" s="247">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA50" s="247">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB50" s="282"/>
-      <c r="AC50" s="349"/>
+      <c r="AC50" s="425" t="s">
+        <v>56</v>
+      </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="50"/>
       <c r="AG50" s="50"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="36"/>
-      <c r="AJ50" s="319"/>
+      <c r="AJ50" s="407"/>
       <c r="AK50" s="23"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
@@ -11315,17 +11785,37 @@
     <row r="51" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="309"/>
       <c r="B51" s="309"/>
-      <c r="D51" s="331"/>
-      <c r="E51" s="331"/>
-      <c r="F51" s="286"/>
-      <c r="G51" s="286"/>
-      <c r="H51" s="286"/>
-      <c r="I51" s="286"/>
-      <c r="J51" s="286"/>
-      <c r="K51" s="286"/>
-      <c r="L51" s="286"/>
-      <c r="M51" s="286"/>
-      <c r="N51" s="337"/>
+      <c r="D51" s="326" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G51" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H51" s="286">
+        <v>6000</v>
+      </c>
+      <c r="I51" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J51" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K51" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L51" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M51" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="N51" s="331"/>
       <c r="P51" s="218"/>
       <c r="Q51" s="244"/>
       <c r="R51" s="248"/>
@@ -11341,12 +11831,24 @@
       <c r="AB51" s="282"/>
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
-      <c r="AE51" s="50"/>
-      <c r="AF51" s="50"/>
-      <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="36"/>
-      <c r="AJ51" s="363"/>
+      <c r="AE51" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF51" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG51" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH51" s="50">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AI51" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ51" s="408" t="s">
+        <v>59</v>
+      </c>
       <c r="AK51" s="46"/>
       <c r="AL51" s="46"/>
       <c r="AM51" s="46"/>
@@ -11356,38 +11858,90 @@
     <row r="52" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="309"/>
       <c r="B52" s="309"/>
-      <c r="D52" s="331"/>
-      <c r="E52" s="331"/>
-      <c r="F52" s="286"/>
-      <c r="G52" s="286"/>
-      <c r="H52" s="286"/>
-      <c r="I52" s="286"/>
-      <c r="J52" s="286"/>
-      <c r="K52" s="286"/>
-      <c r="L52" s="286"/>
-      <c r="M52" s="286"/>
+      <c r="D52" s="326"/>
+      <c r="E52" s="326" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G52" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H52" s="286">
+        <v>7000</v>
+      </c>
+      <c r="I52" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J52" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K52" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L52" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M52" s="286" t="s">
+        <v>243</v>
+      </c>
       <c r="N52" s="307"/>
       <c r="P52" s="218"/>
-      <c r="Q52" s="244"/>
-      <c r="R52" s="248"/>
-      <c r="S52" s="249"/>
-      <c r="T52" s="249"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="247"/>
-      <c r="W52" s="248"/>
-      <c r="X52" s="248"/>
+      <c r="Q52" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R52" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S52" s="249">
+        <v>1500</v>
+      </c>
+      <c r="T52" s="249">
+        <v>10</v>
+      </c>
+      <c r="U52" s="247">
+        <v>11</v>
+      </c>
+      <c r="V52" s="247">
+        <v>25</v>
+      </c>
+      <c r="W52" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X52" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y52" s="248"/>
-      <c r="Z52" s="248"/>
-      <c r="AA52" s="248"/>
+      <c r="Z52" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA52" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB52" s="283"/>
-      <c r="AC52" s="353"/>
+      <c r="AC52" s="426" t="s">
+        <v>56</v>
+      </c>
       <c r="AD52" s="23"/>
-      <c r="AE52" s="36"/>
-      <c r="AF52" s="36"/>
-      <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="36"/>
-      <c r="AJ52" s="364"/>
+      <c r="AE52" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF52" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG52" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH52" s="50">
+        <v>2.5840003043413162E-2</v>
+      </c>
+      <c r="AI52" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ52" s="409" t="s">
+        <v>59</v>
+      </c>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
       <c r="AM52" s="23"/>
@@ -11397,38 +11951,80 @@
     <row r="53" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="309"/>
       <c r="B53" s="309"/>
-      <c r="D53" s="331"/>
-      <c r="E53" s="331"/>
-      <c r="F53" s="286"/>
-      <c r="G53" s="286"/>
-      <c r="H53" s="286"/>
-      <c r="I53" s="286"/>
-      <c r="J53" s="286"/>
-      <c r="K53" s="286"/>
-      <c r="L53" s="286"/>
-      <c r="M53" s="286"/>
-      <c r="N53" s="352"/>
+      <c r="D53" s="326"/>
+      <c r="E53" s="326" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G53" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H53" s="286">
+        <v>7500</v>
+      </c>
+      <c r="I53" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J53" s="286">
+        <v>0.11999999731779099</v>
+      </c>
+      <c r="K53" s="286">
+        <v>4.9999996554106474E-4</v>
+      </c>
+      <c r="L53" s="286">
+        <v>375</v>
+      </c>
+      <c r="M53" s="286">
+        <v>2.3437498603016138E-3</v>
+      </c>
+      <c r="N53" s="339" t="s">
+        <v>59</v>
+      </c>
       <c r="P53" s="218"/>
-      <c r="Q53" s="244"/>
-      <c r="R53" s="248"/>
-      <c r="S53" s="249"/>
-      <c r="T53" s="249"/>
-      <c r="U53" s="247"/>
-      <c r="V53" s="247"/>
-      <c r="W53" s="248"/>
-      <c r="X53" s="248"/>
+      <c r="Q53" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R53" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S53" s="249">
+        <v>150000</v>
+      </c>
+      <c r="T53" s="249">
+        <v>10</v>
+      </c>
+      <c r="U53" s="247">
+        <v>11</v>
+      </c>
+      <c r="V53" s="247">
+        <v>25</v>
+      </c>
+      <c r="W53" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X53" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y53" s="248"/>
-      <c r="Z53" s="248"/>
-      <c r="AA53" s="248"/>
+      <c r="Z53" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA53" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB53" s="283"/>
-      <c r="AC53" s="354"/>
+      <c r="AC53" s="427" t="s">
+        <v>56</v>
+      </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
       <c r="AG53" s="50"/>
       <c r="AH53" s="50"/>
       <c r="AI53" s="36"/>
-      <c r="AJ53" s="320"/>
+      <c r="AJ53" s="410"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
@@ -11438,38 +12034,92 @@
     <row r="54" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="309"/>
       <c r="B54" s="309"/>
-      <c r="D54" s="331"/>
-      <c r="E54" s="331"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="286"/>
-      <c r="H54" s="286"/>
-      <c r="I54" s="286"/>
-      <c r="J54" s="286"/>
-      <c r="K54" s="286"/>
-      <c r="L54" s="286"/>
-      <c r="M54" s="286"/>
+      <c r="D54" s="326" t="s">
+        <v>256</v>
+      </c>
+      <c r="E54" s="326" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G54" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H54" s="286">
+        <v>6000</v>
+      </c>
+      <c r="I54" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J54" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K54" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L54" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M54" s="286" t="s">
+        <v>243</v>
+      </c>
       <c r="N54" s="307"/>
       <c r="P54" s="218"/>
-      <c r="Q54" s="244"/>
-      <c r="R54" s="248"/>
-      <c r="S54" s="249"/>
-      <c r="T54" s="249"/>
-      <c r="U54" s="248"/>
-      <c r="V54" s="248"/>
-      <c r="W54" s="248"/>
-      <c r="X54" s="248"/>
+      <c r="Q54" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R54" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S54" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T54" s="249">
+        <v>10</v>
+      </c>
+      <c r="U54" s="248">
+        <v>11</v>
+      </c>
+      <c r="V54" s="248">
+        <v>25</v>
+      </c>
+      <c r="W54" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X54" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y54" s="248"/>
-      <c r="Z54" s="248"/>
-      <c r="AA54" s="248"/>
+      <c r="Z54" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA54" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB54" s="283"/>
-      <c r="AC54" s="355"/>
+      <c r="AC54" s="428" t="s">
+        <v>56</v>
+      </c>
       <c r="AD54" s="23"/>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="50"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="36"/>
-      <c r="AJ54" s="369"/>
+      <c r="AE54" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF54" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG54" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH54" s="50">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AI54" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ54" s="411" t="s">
+        <v>59</v>
+      </c>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
       <c r="AM54" s="23"/>
@@ -11479,38 +12129,90 @@
     <row r="55" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="309"/>
       <c r="B55" s="309"/>
-      <c r="D55" s="331"/>
-      <c r="E55" s="331"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="286"/>
-      <c r="H55" s="286"/>
-      <c r="I55" s="286"/>
-      <c r="J55" s="286"/>
-      <c r="K55" s="286"/>
-      <c r="L55" s="286"/>
-      <c r="M55" s="286"/>
+      <c r="D55" s="326"/>
+      <c r="E55" s="326" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G55" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H55" s="286">
+        <v>7000</v>
+      </c>
+      <c r="I55" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J55" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L55" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M55" s="286" t="s">
+        <v>243</v>
+      </c>
       <c r="N55" s="307"/>
       <c r="P55" s="218"/>
-      <c r="Q55" s="244"/>
-      <c r="R55" s="248"/>
-      <c r="S55" s="249"/>
-      <c r="T55" s="249"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
+      <c r="Q55" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R55" s="248" t="s">
+        <v>225</v>
+      </c>
+      <c r="S55" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T55" s="249">
+        <v>10</v>
+      </c>
+      <c r="U55" s="248">
+        <v>11</v>
+      </c>
+      <c r="V55" s="248">
+        <v>25</v>
+      </c>
+      <c r="W55" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X55" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y55" s="248"/>
-      <c r="Z55" s="248"/>
-      <c r="AA55" s="248"/>
+      <c r="Z55" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA55" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB55" s="283"/>
-      <c r="AC55" s="356"/>
+      <c r="AC55" s="429" t="s">
+        <v>56</v>
+      </c>
       <c r="AD55" s="23"/>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="36"/>
-      <c r="AJ55" s="370"/>
+      <c r="AE55" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF55" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG55" s="50">
+        <v>25</v>
+      </c>
+      <c r="AH55" s="50">
+        <v>2.5840003043413162E-2</v>
+      </c>
+      <c r="AI55" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ55" s="412" t="s">
+        <v>59</v>
+      </c>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
       <c r="AM55" s="23"/>
@@ -11520,17 +12222,35 @@
     <row r="56" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="309"/>
       <c r="B56" s="309"/>
-      <c r="D56" s="331"/>
-      <c r="E56" s="331"/>
-      <c r="F56" s="286"/>
-      <c r="G56" s="286"/>
-      <c r="H56" s="286"/>
-      <c r="I56" s="286"/>
-      <c r="J56" s="286"/>
-      <c r="K56" s="286"/>
-      <c r="L56" s="286"/>
-      <c r="M56" s="286"/>
-      <c r="N56" s="359"/>
+      <c r="D56" s="326"/>
+      <c r="E56" s="326" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="286">
+        <v>20172016</v>
+      </c>
+      <c r="G56" s="286">
+        <v>0.01</v>
+      </c>
+      <c r="H56" s="286">
+        <v>7500</v>
+      </c>
+      <c r="I56" s="286">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J56" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="K56" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="L56" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="M56" s="286" t="s">
+        <v>243</v>
+      </c>
+      <c r="N56" s="334"/>
       <c r="P56" s="218"/>
       <c r="Q56" s="244"/>
       <c r="R56" s="248"/>
@@ -11551,7 +12271,7 @@
       <c r="AG56" s="50"/>
       <c r="AH56" s="50"/>
       <c r="AI56" s="36"/>
-      <c r="AJ56" s="321"/>
+      <c r="AJ56" s="413"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
@@ -11561,8 +12281,8 @@
     <row r="57" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="309"/>
       <c r="B57" s="309"/>
-      <c r="D57" s="331"/>
-      <c r="E57" s="331"/>
+      <c r="D57" s="326"/>
+      <c r="E57" s="326"/>
       <c r="F57" s="242"/>
       <c r="G57" s="242"/>
       <c r="H57" s="242"/>
@@ -11573,26 +12293,48 @@
       <c r="M57" s="242"/>
       <c r="N57" s="308"/>
       <c r="P57" s="218"/>
-      <c r="Q57" s="244"/>
-      <c r="R57" s="248"/>
-      <c r="S57" s="249"/>
-      <c r="T57" s="249"/>
-      <c r="U57" s="248"/>
-      <c r="V57" s="248"/>
-      <c r="W57" s="248"/>
-      <c r="X57" s="248"/>
+      <c r="Q57" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R57" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S57" s="249">
+        <v>1500</v>
+      </c>
+      <c r="T57" s="249">
+        <v>10</v>
+      </c>
+      <c r="U57" s="248">
+        <v>11</v>
+      </c>
+      <c r="V57" s="248">
+        <v>25</v>
+      </c>
+      <c r="W57" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X57" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y57" s="248"/>
-      <c r="Z57" s="248"/>
-      <c r="AA57" s="248"/>
+      <c r="Z57" s="248">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA57" s="248">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB57" s="283"/>
-      <c r="AC57" s="360"/>
+      <c r="AC57" s="430" t="s">
+        <v>59</v>
+      </c>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="50"/>
       <c r="AH57" s="50"/>
       <c r="AI57" s="36"/>
-      <c r="AJ57" s="374"/>
+      <c r="AJ57" s="414"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
@@ -11614,26 +12356,48 @@
       <c r="M58" s="242"/>
       <c r="N58" s="308"/>
       <c r="P58" s="218"/>
-      <c r="Q58" s="244"/>
-      <c r="R58" s="248"/>
-      <c r="S58" s="249"/>
-      <c r="T58" s="249"/>
-      <c r="U58" s="248"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
+      <c r="Q58" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R58" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S58" s="249">
+        <v>150000</v>
+      </c>
+      <c r="T58" s="249">
+        <v>10</v>
+      </c>
+      <c r="U58" s="248">
+        <v>11</v>
+      </c>
+      <c r="V58" s="248">
+        <v>25</v>
+      </c>
+      <c r="W58" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X58" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y58" s="248"/>
-      <c r="Z58" s="248"/>
-      <c r="AA58" s="248"/>
+      <c r="Z58" s="248">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA58" s="248">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB58" s="283"/>
-      <c r="AC58" s="361"/>
+      <c r="AC58" s="431" t="s">
+        <v>59</v>
+      </c>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="50"/>
       <c r="AH58" s="50"/>
       <c r="AI58" s="36"/>
-      <c r="AJ58" s="375"/>
+      <c r="AJ58" s="415"/>
       <c r="AK58" s="23"/>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
@@ -11655,19 +12419,41 @@
       <c r="M59" s="242"/>
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
-      <c r="Q59" s="244"/>
-      <c r="R59" s="248"/>
-      <c r="S59" s="249"/>
-      <c r="T59" s="249"/>
-      <c r="U59" s="248"/>
-      <c r="V59" s="248"/>
-      <c r="W59" s="248"/>
-      <c r="X59" s="248"/>
+      <c r="Q59" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R59" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S59" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T59" s="249">
+        <v>10</v>
+      </c>
+      <c r="U59" s="248">
+        <v>11</v>
+      </c>
+      <c r="V59" s="248">
+        <v>25</v>
+      </c>
+      <c r="W59" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X59" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y59" s="248"/>
-      <c r="Z59" s="248"/>
-      <c r="AA59" s="248"/>
+      <c r="Z59" s="248">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="AA59" s="248">
+        <v>2.1306818816810846E-3</v>
+      </c>
       <c r="AB59" s="283"/>
-      <c r="AC59" s="362"/>
+      <c r="AC59" s="432" t="s">
+        <v>59</v>
+      </c>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
@@ -11715,7 +12501,7 @@
       <c r="AG60" s="50"/>
       <c r="AH60" s="50"/>
       <c r="AI60" s="36"/>
-      <c r="AJ60" s="379"/>
+      <c r="AJ60" s="416"/>
       <c r="AK60" s="23"/>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -11733,28 +12519,50 @@
       <c r="K61" s="242"/>
       <c r="L61" s="242"/>
       <c r="M61" s="242"/>
-      <c r="N61" s="365"/>
+      <c r="N61" s="335"/>
       <c r="P61" s="218"/>
-      <c r="Q61" s="244"/>
-      <c r="R61" s="248"/>
-      <c r="S61" s="249"/>
-      <c r="T61" s="249"/>
-      <c r="U61" s="248"/>
-      <c r="V61" s="248"/>
-      <c r="W61" s="248"/>
-      <c r="X61" s="248"/>
+      <c r="Q61" s="244" t="s">
+        <v>256</v>
+      </c>
+      <c r="R61" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S61" s="249">
+        <v>1500</v>
+      </c>
+      <c r="T61" s="249">
+        <v>10</v>
+      </c>
+      <c r="U61" s="248">
+        <v>11</v>
+      </c>
+      <c r="V61" s="248">
+        <v>25</v>
+      </c>
+      <c r="W61" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X61" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y61" s="248"/>
-      <c r="Z61" s="248"/>
-      <c r="AA61" s="248"/>
+      <c r="Z61" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA61" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="366"/>
+      <c r="AC61" s="433" t="s">
+        <v>56</v>
+      </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
       <c r="AG61" s="50"/>
       <c r="AH61" s="50"/>
       <c r="AI61" s="36"/>
-      <c r="AJ61" s="380"/>
+      <c r="AJ61" s="417"/>
       <c r="AK61" s="23"/>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -11774,19 +12582,41 @@
       <c r="M62" s="242"/>
       <c r="N62" s="242"/>
       <c r="P62" s="218"/>
-      <c r="Q62" s="244"/>
-      <c r="R62" s="248"/>
-      <c r="S62" s="249"/>
-      <c r="T62" s="249"/>
-      <c r="U62" s="248"/>
-      <c r="V62" s="248"/>
-      <c r="W62" s="248"/>
-      <c r="X62" s="248"/>
+      <c r="Q62" s="244" t="s">
+        <v>256</v>
+      </c>
+      <c r="R62" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S62" s="249">
+        <v>150000</v>
+      </c>
+      <c r="T62" s="249">
+        <v>10</v>
+      </c>
+      <c r="U62" s="248">
+        <v>11</v>
+      </c>
+      <c r="V62" s="248">
+        <v>25</v>
+      </c>
+      <c r="W62" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X62" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y62" s="248"/>
-      <c r="Z62" s="248"/>
-      <c r="AA62" s="248"/>
+      <c r="Z62" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA62" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="367"/>
+      <c r="AC62" s="434" t="s">
+        <v>56</v>
+      </c>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
@@ -11813,19 +12643,41 @@
       <c r="M63" s="242"/>
       <c r="N63" s="242"/>
       <c r="P63" s="218"/>
-      <c r="Q63" s="244"/>
-      <c r="R63" s="248"/>
-      <c r="S63" s="249"/>
-      <c r="T63" s="249"/>
-      <c r="U63" s="248"/>
-      <c r="V63" s="248"/>
-      <c r="W63" s="248"/>
-      <c r="X63" s="248"/>
+      <c r="Q63" s="244" t="s">
+        <v>256</v>
+      </c>
+      <c r="R63" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S63" s="249">
+        <v>10000</v>
+      </c>
+      <c r="T63" s="249">
+        <v>10</v>
+      </c>
+      <c r="U63" s="248">
+        <v>11</v>
+      </c>
+      <c r="V63" s="248">
+        <v>25</v>
+      </c>
+      <c r="W63" s="248">
+        <v>4.0000001899898052E-2</v>
+      </c>
+      <c r="X63" s="248">
+        <v>3.6363638090816412E-3</v>
+      </c>
       <c r="Y63" s="248"/>
-      <c r="Z63" s="248"/>
-      <c r="AA63" s="248"/>
+      <c r="Z63" s="248">
+        <v>3.9999999105930328E-2</v>
+      </c>
+      <c r="AA63" s="248">
+        <v>3.6363636609166861E-3</v>
+      </c>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="368"/>
+      <c r="AC63" s="435" t="s">
+        <v>56</v>
+      </c>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -11850,7 +12702,7 @@
       <c r="K64" s="242"/>
       <c r="L64" s="242"/>
       <c r="M64" s="242"/>
-      <c r="N64" s="242"/>
+      <c r="N64" s="336"/>
       <c r="P64" s="218"/>
       <c r="Q64" s="82"/>
       <c r="R64" s="248"/>
@@ -11903,7 +12755,7 @@
       <c r="Z65" s="248"/>
       <c r="AA65" s="248"/>
       <c r="AB65" s="284"/>
-      <c r="AC65" s="371"/>
+      <c r="AC65" s="436"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="50"/>
@@ -11936,7 +12788,7 @@
       <c r="Z66" s="248"/>
       <c r="AA66" s="248"/>
       <c r="AB66" s="284"/>
-      <c r="AC66" s="372"/>
+      <c r="AC66" s="437"/>
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="50"/>
@@ -11955,7 +12807,7 @@
       <c r="K67" s="242"/>
       <c r="L67" s="242"/>
       <c r="M67" s="242"/>
-      <c r="N67" s="242"/>
+      <c r="N67" s="337"/>
       <c r="P67" s="218"/>
       <c r="Q67" s="82"/>
       <c r="R67" s="248"/>
@@ -11969,7 +12821,7 @@
       <c r="Z67" s="248"/>
       <c r="AA67" s="248"/>
       <c r="AB67" s="284"/>
-      <c r="AC67" s="373"/>
+      <c r="AC67" s="438"/>
       <c r="AE67" s="36"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="50"/>
@@ -12035,7 +12887,7 @@
       <c r="Z69" s="248"/>
       <c r="AA69" s="248"/>
       <c r="AB69" s="284"/>
-      <c r="AC69" s="376"/>
+      <c r="AC69" s="439"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
       <c r="AG69" s="50"/>
@@ -12068,7 +12920,7 @@
       <c r="Z70" s="248"/>
       <c r="AA70" s="248"/>
       <c r="AB70" s="284"/>
-      <c r="AC70" s="377"/>
+      <c r="AC70" s="440"/>
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="50"/>
@@ -12101,7 +12953,7 @@
       <c r="Z71" s="248"/>
       <c r="AA71" s="248"/>
       <c r="AB71" s="284"/>
-      <c r="AC71" s="378"/>
+      <c r="AC71" s="441"/>
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="50"/>
@@ -18479,6 +19331,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -18493,44 +19383,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -18589,15 +19441,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="384" t="s">
+      <c r="F1" s="378" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="384"/>
-      <c r="H1" s="384"/>
-      <c r="I1" s="384"/>
-      <c r="J1" s="384"/>
-      <c r="K1" s="384"/>
-      <c r="L1" s="384"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18686,22 +19538,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="385" t="s">
+      <c r="D6" s="379" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="387"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="381"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="385" t="s">
+      <c r="M6" s="379" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="386"/>
-      <c r="O6" s="386"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="387"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="381"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18719,10 +19571,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="388" t="s">
+      <c r="F7" s="382" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="389"/>
+      <c r="G7" s="383"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18745,10 +19597,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="388" t="s">
+      <c r="P7" s="382" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="389"/>
+      <c r="Q7" s="383"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18825,7 +19677,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="390" t="s">
+      <c r="B9" s="370" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18859,33 +19711,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="381">
+      <c r="M9" s="361">
         <v>20</v>
       </c>
-      <c r="N9" s="393" t="s">
+      <c r="N9" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="381">
+      <c r="O9" s="361">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="381">
+      <c r="P9" s="361">
         <v>3</v>
       </c>
-      <c r="Q9" s="381">
+      <c r="Q9" s="361">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="381">
+      <c r="R9" s="361">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="381"/>
-      <c r="T9" s="396">
+      <c r="S9" s="361"/>
+      <c r="T9" s="364">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="381">
+      <c r="U9" s="361">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18910,7 +19762,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="391"/>
+      <c r="B10" s="371"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18942,15 +19794,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="382"/>
-      <c r="N10" s="394"/>
-      <c r="O10" s="382"/>
-      <c r="P10" s="382"/>
-      <c r="Q10" s="382"/>
-      <c r="R10" s="382"/>
-      <c r="S10" s="382"/>
-      <c r="T10" s="397"/>
-      <c r="U10" s="382"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="374"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
+      <c r="Q10" s="362"/>
+      <c r="R10" s="362"/>
+      <c r="S10" s="362"/>
+      <c r="T10" s="365"/>
+      <c r="U10" s="362"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18958,10 +19810,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="381" t="s">
+      <c r="A11" s="361" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="391"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18972,15 +19824,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="382"/>
-      <c r="N11" s="394"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="382"/>
-      <c r="Q11" s="382"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="382"/>
-      <c r="T11" s="397"/>
-      <c r="U11" s="382"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="374"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
+      <c r="Q11" s="362"/>
+      <c r="R11" s="362"/>
+      <c r="S11" s="362"/>
+      <c r="T11" s="365"/>
+      <c r="U11" s="362"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18999,8 +19851,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="383"/>
-      <c r="B12" s="392"/>
+      <c r="A12" s="363"/>
+      <c r="B12" s="372"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19011,15 +19863,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="383"/>
-      <c r="N12" s="395"/>
-      <c r="O12" s="383"/>
-      <c r="P12" s="383"/>
-      <c r="Q12" s="383"/>
-      <c r="R12" s="383"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="398"/>
-      <c r="U12" s="383"/>
+      <c r="M12" s="363"/>
+      <c r="N12" s="375"/>
+      <c r="O12" s="363"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="363"/>
+      <c r="R12" s="363"/>
+      <c r="S12" s="363"/>
+      <c r="T12" s="366"/>
+      <c r="U12" s="363"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19035,7 +19887,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="390" t="s">
+      <c r="B13" s="370" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19069,33 +19921,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="381">
+      <c r="M13" s="361">
         <v>80</v>
       </c>
-      <c r="N13" s="393" t="s">
+      <c r="N13" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="381">
+      <c r="O13" s="361">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="381">
+      <c r="P13" s="361">
         <v>2</v>
       </c>
-      <c r="Q13" s="381">
+      <c r="Q13" s="361">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="381">
+      <c r="R13" s="361">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="381"/>
-      <c r="T13" s="396">
+      <c r="S13" s="361"/>
+      <c r="T13" s="364">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="381">
+      <c r="U13" s="361">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19118,7 +19970,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="391"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19150,15 +20002,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="382"/>
-      <c r="N14" s="394"/>
-      <c r="O14" s="382"/>
-      <c r="P14" s="382"/>
-      <c r="Q14" s="382"/>
-      <c r="R14" s="382"/>
-      <c r="S14" s="382"/>
-      <c r="T14" s="397"/>
-      <c r="U14" s="382"/>
+      <c r="M14" s="362"/>
+      <c r="N14" s="374"/>
+      <c r="O14" s="362"/>
+      <c r="P14" s="362"/>
+      <c r="Q14" s="362"/>
+      <c r="R14" s="362"/>
+      <c r="S14" s="362"/>
+      <c r="T14" s="365"/>
+      <c r="U14" s="362"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19166,10 +20018,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="399" t="s">
+      <c r="A15" s="376" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="391"/>
+      <c r="B15" s="371"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19180,15 +20032,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="382"/>
-      <c r="N15" s="394"/>
-      <c r="O15" s="382"/>
-      <c r="P15" s="382"/>
-      <c r="Q15" s="382"/>
-      <c r="R15" s="382"/>
-      <c r="S15" s="382"/>
-      <c r="T15" s="397"/>
-      <c r="U15" s="382"/>
+      <c r="M15" s="362"/>
+      <c r="N15" s="374"/>
+      <c r="O15" s="362"/>
+      <c r="P15" s="362"/>
+      <c r="Q15" s="362"/>
+      <c r="R15" s="362"/>
+      <c r="S15" s="362"/>
+      <c r="T15" s="365"/>
+      <c r="U15" s="362"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19198,8 +20050,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="400"/>
-      <c r="B16" s="392"/>
+      <c r="A16" s="377"/>
+      <c r="B16" s="372"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19210,15 +20062,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="383"/>
-      <c r="N16" s="395"/>
-      <c r="O16" s="383"/>
-      <c r="P16" s="383"/>
-      <c r="Q16" s="383"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="383"/>
-      <c r="T16" s="398"/>
-      <c r="U16" s="383"/>
+      <c r="M16" s="363"/>
+      <c r="N16" s="375"/>
+      <c r="O16" s="363"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="363"/>
+      <c r="R16" s="363"/>
+      <c r="S16" s="363"/>
+      <c r="T16" s="366"/>
+      <c r="U16" s="363"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19229,7 +20081,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="390" t="s">
+      <c r="B17" s="370" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19263,33 +20115,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="381">
+      <c r="M17" s="361">
         <v>70</v>
       </c>
-      <c r="N17" s="393" t="s">
+      <c r="N17" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="381">
+      <c r="O17" s="361">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="381">
+      <c r="P17" s="361">
         <v>2</v>
       </c>
-      <c r="Q17" s="381">
+      <c r="Q17" s="361">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="381">
+      <c r="R17" s="361">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="381"/>
-      <c r="T17" s="396">
+      <c r="S17" s="361"/>
+      <c r="T17" s="364">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="381">
+      <c r="U17" s="361">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19308,7 +20160,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="391"/>
+      <c r="B18" s="371"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19340,24 +20192,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="382"/>
-      <c r="N18" s="394"/>
-      <c r="O18" s="382"/>
-      <c r="P18" s="382"/>
-      <c r="Q18" s="382"/>
-      <c r="R18" s="382"/>
-      <c r="S18" s="382"/>
-      <c r="T18" s="397"/>
-      <c r="U18" s="382"/>
+      <c r="M18" s="362"/>
+      <c r="N18" s="374"/>
+      <c r="O18" s="362"/>
+      <c r="P18" s="362"/>
+      <c r="Q18" s="362"/>
+      <c r="R18" s="362"/>
+      <c r="S18" s="362"/>
+      <c r="T18" s="365"/>
+      <c r="U18" s="362"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="381" t="s">
+      <c r="A19" s="361" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="391"/>
+      <c r="B19" s="371"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19368,22 +20220,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="382"/>
-      <c r="N19" s="394"/>
-      <c r="O19" s="382"/>
-      <c r="P19" s="382"/>
-      <c r="Q19" s="382"/>
-      <c r="R19" s="382"/>
-      <c r="S19" s="382"/>
-      <c r="T19" s="397"/>
-      <c r="U19" s="382"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="374"/>
+      <c r="O19" s="362"/>
+      <c r="P19" s="362"/>
+      <c r="Q19" s="362"/>
+      <c r="R19" s="362"/>
+      <c r="S19" s="362"/>
+      <c r="T19" s="365"/>
+      <c r="U19" s="362"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="383"/>
-      <c r="B20" s="392"/>
+      <c r="A20" s="363"/>
+      <c r="B20" s="372"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19394,15 +20246,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="383"/>
-      <c r="N20" s="395"/>
-      <c r="O20" s="383"/>
-      <c r="P20" s="383"/>
-      <c r="Q20" s="383"/>
-      <c r="R20" s="383"/>
-      <c r="S20" s="383"/>
-      <c r="T20" s="398"/>
-      <c r="U20" s="383"/>
+      <c r="M20" s="363"/>
+      <c r="N20" s="375"/>
+      <c r="O20" s="363"/>
+      <c r="P20" s="363"/>
+      <c r="Q20" s="363"/>
+      <c r="R20" s="363"/>
+      <c r="S20" s="363"/>
+      <c r="T20" s="366"/>
+      <c r="U20" s="363"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19411,7 +20263,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="390" t="s">
+      <c r="B21" s="370" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19445,33 +20297,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="381">
+      <c r="M21" s="361">
         <v>60</v>
       </c>
-      <c r="N21" s="393" t="s">
+      <c r="N21" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="381">
+      <c r="O21" s="361">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="381">
+      <c r="P21" s="361">
         <v>3</v>
       </c>
-      <c r="Q21" s="381">
+      <c r="Q21" s="361">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="381">
+      <c r="R21" s="361">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="381"/>
-      <c r="T21" s="396">
+      <c r="S21" s="361"/>
+      <c r="T21" s="364">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="381">
+      <c r="U21" s="361">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19488,7 +20340,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="391"/>
+      <c r="B22" s="371"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19520,24 +20372,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="382"/>
-      <c r="N22" s="394"/>
-      <c r="O22" s="382"/>
-      <c r="P22" s="382"/>
-      <c r="Q22" s="382"/>
-      <c r="R22" s="382"/>
-      <c r="S22" s="382"/>
-      <c r="T22" s="397"/>
-      <c r="U22" s="382"/>
+      <c r="M22" s="362"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="365"/>
+      <c r="U22" s="362"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="401" t="s">
+      <c r="A23" s="367" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="391"/>
+      <c r="B23" s="371"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19548,22 +20400,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="382"/>
-      <c r="N23" s="394"/>
-      <c r="O23" s="382"/>
-      <c r="P23" s="382"/>
-      <c r="Q23" s="382"/>
-      <c r="R23" s="382"/>
-      <c r="S23" s="382"/>
-      <c r="T23" s="397"/>
-      <c r="U23" s="382"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="374"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="365"/>
+      <c r="U23" s="362"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="402"/>
-      <c r="B24" s="392"/>
+      <c r="A24" s="368"/>
+      <c r="B24" s="372"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19574,15 +20426,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="383"/>
-      <c r="N24" s="395"/>
-      <c r="O24" s="383"/>
-      <c r="P24" s="383"/>
-      <c r="Q24" s="383"/>
-      <c r="R24" s="383"/>
-      <c r="S24" s="383"/>
-      <c r="T24" s="398"/>
-      <c r="U24" s="383"/>
+      <c r="M24" s="363"/>
+      <c r="N24" s="375"/>
+      <c r="O24" s="363"/>
+      <c r="P24" s="363"/>
+      <c r="Q24" s="363"/>
+      <c r="R24" s="363"/>
+      <c r="S24" s="363"/>
+      <c r="T24" s="366"/>
+      <c r="U24" s="363"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19608,13 +20460,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="403" t="s">
+      <c r="H27" s="369" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="403"/>
-      <c r="J27" s="403"/>
-      <c r="K27" s="403"/>
-      <c r="L27" s="403"/>
+      <c r="I27" s="369"/>
+      <c r="J27" s="369"/>
+      <c r="K27" s="369"/>
+      <c r="L27" s="369"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19894,19 +20746,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="406" t="s">
+      <c r="D40" s="359" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="406"/>
-      <c r="I40" s="406" t="s">
+      <c r="E40" s="359"/>
+      <c r="F40" s="359"/>
+      <c r="G40" s="359"/>
+      <c r="H40" s="359"/>
+      <c r="I40" s="359" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="406"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="406"/>
+      <c r="J40" s="359"/>
+      <c r="K40" s="359"/>
+      <c r="L40" s="359"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20030,19 +20882,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="407"/>
+      <c r="B42" s="354"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="405"/>
+      <c r="H42" s="355"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="405"/>
-      <c r="N42" s="432"/>
+      <c r="M42" s="355"/>
+      <c r="N42" s="396"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20088,19 +20940,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="407"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="405"/>
+      <c r="H43" s="355"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="405"/>
-      <c r="N43" s="405"/>
+      <c r="M43" s="355"/>
+      <c r="N43" s="355"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20146,19 +20998,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="407"/>
+      <c r="B44" s="354"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="405"/>
+      <c r="H44" s="355"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="405"/>
-      <c r="N44" s="405"/>
+      <c r="M44" s="355"/>
+      <c r="N44" s="355"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20204,19 +21056,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="407"/>
+      <c r="B45" s="354"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="405"/>
+      <c r="H45" s="355"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="405"/>
-      <c r="N45" s="405"/>
+      <c r="M45" s="355"/>
+      <c r="N45" s="355"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20262,19 +21114,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="407"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="405"/>
+      <c r="H46" s="355"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="405"/>
-      <c r="N46" s="433"/>
+      <c r="M46" s="355"/>
+      <c r="N46" s="397"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20320,19 +21172,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="407"/>
+      <c r="B47" s="354"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="405"/>
+      <c r="H47" s="355"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="405"/>
-      <c r="N47" s="409"/>
+      <c r="M47" s="355"/>
+      <c r="N47" s="357"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20380,19 +21232,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="407"/>
+      <c r="B48" s="354"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="405"/>
+      <c r="H48" s="355"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="405"/>
-      <c r="N48" s="409"/>
+      <c r="M48" s="355"/>
+      <c r="N48" s="357"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20440,19 +21292,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="407"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="405"/>
+      <c r="H49" s="355"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="405"/>
-      <c r="N49" s="409"/>
+      <c r="M49" s="355"/>
+      <c r="N49" s="357"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20500,19 +21352,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="410"/>
+      <c r="B50" s="349"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="411"/>
+      <c r="H50" s="350"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="411"/>
-      <c r="N50" s="434"/>
+      <c r="M50" s="350"/>
+      <c r="N50" s="398"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20533,19 +21385,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="410"/>
+      <c r="B51" s="349"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="411"/>
+      <c r="H51" s="350"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="411"/>
-      <c r="N51" s="413"/>
+      <c r="M51" s="350"/>
+      <c r="N51" s="352"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20576,19 +21428,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="410"/>
+      <c r="B52" s="349"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="411"/>
+      <c r="H52" s="350"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="411"/>
-      <c r="N52" s="413"/>
+      <c r="M52" s="350"/>
+      <c r="N52" s="352"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20652,19 +21504,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="410"/>
+      <c r="B53" s="349"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="411"/>
+      <c r="H53" s="350"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="411"/>
-      <c r="N53" s="413"/>
+      <c r="M53" s="350"/>
+      <c r="N53" s="352"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20713,19 +21565,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="410"/>
+      <c r="B54" s="349"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="411"/>
+      <c r="H54" s="350"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="411"/>
-      <c r="N54" s="435"/>
+      <c r="M54" s="350"/>
+      <c r="N54" s="391"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20772,19 +21624,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="410"/>
+      <c r="B55" s="349"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="411"/>
+      <c r="H55" s="350"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="411"/>
-      <c r="N55" s="413"/>
+      <c r="M55" s="350"/>
+      <c r="N55" s="352"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20831,19 +21683,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="410"/>
+      <c r="B56" s="349"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="411"/>
+      <c r="H56" s="350"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="411"/>
-      <c r="N56" s="413"/>
+      <c r="M56" s="350"/>
+      <c r="N56" s="352"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20890,19 +21742,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="410"/>
+      <c r="B57" s="349"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="411"/>
+      <c r="H57" s="350"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="411"/>
-      <c r="N57" s="413"/>
+      <c r="M57" s="350"/>
+      <c r="N57" s="352"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20949,19 +21801,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="415"/>
+      <c r="B58" s="344"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="416"/>
+      <c r="H58" s="345"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="416"/>
-      <c r="N58" s="436"/>
+      <c r="M58" s="345"/>
+      <c r="N58" s="392"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21008,19 +21860,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="415"/>
+      <c r="B59" s="344"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="416"/>
+      <c r="H59" s="345"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="416"/>
-      <c r="N59" s="418"/>
+      <c r="M59" s="345"/>
+      <c r="N59" s="347"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21067,19 +21919,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="415"/>
+      <c r="B60" s="344"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="416"/>
+      <c r="H60" s="345"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="416"/>
-      <c r="N60" s="418"/>
+      <c r="M60" s="345"/>
+      <c r="N60" s="347"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21126,247 +21978,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="415"/>
+      <c r="B61" s="344"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="416"/>
+      <c r="H61" s="345"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="416"/>
-      <c r="N61" s="418"/>
+      <c r="M61" s="345"/>
+      <c r="N61" s="347"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="415"/>
+      <c r="B62" s="344"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="416"/>
+      <c r="H62" s="345"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="416"/>
-      <c r="N62" s="437"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="393"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="415"/>
+      <c r="B63" s="344"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="416"/>
+      <c r="H63" s="345"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="416"/>
-      <c r="N63" s="418"/>
+      <c r="M63" s="345"/>
+      <c r="N63" s="347"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="415"/>
+      <c r="B64" s="344"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="416"/>
+      <c r="H64" s="345"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="416"/>
-      <c r="N64" s="418"/>
+      <c r="M64" s="345"/>
+      <c r="N64" s="347"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="415"/>
+      <c r="B65" s="344"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="416"/>
+      <c r="H65" s="345"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="416"/>
-      <c r="N65" s="418"/>
+      <c r="M65" s="345"/>
+      <c r="N65" s="347"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="419"/>
+      <c r="B66" s="340"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="420"/>
+      <c r="H66" s="341"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="420"/>
-      <c r="N66" s="438"/>
+      <c r="M66" s="341"/>
+      <c r="N66" s="394"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="419"/>
+      <c r="B67" s="340"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="420"/>
+      <c r="H67" s="341"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="420"/>
-      <c r="N67" s="422"/>
+      <c r="M67" s="341"/>
+      <c r="N67" s="343"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="419"/>
+      <c r="B68" s="340"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="420"/>
+      <c r="H68" s="341"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="420"/>
-      <c r="N68" s="422"/>
+      <c r="M68" s="341"/>
+      <c r="N68" s="343"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="419"/>
+      <c r="B69" s="340"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="420"/>
+      <c r="H69" s="341"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="420"/>
-      <c r="N69" s="422"/>
+      <c r="M69" s="341"/>
+      <c r="N69" s="343"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="419"/>
+      <c r="B70" s="340"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="420"/>
+      <c r="H70" s="341"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="420"/>
-      <c r="N70" s="439"/>
+      <c r="M70" s="341"/>
+      <c r="N70" s="395"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="419"/>
+      <c r="B71" s="340"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="420"/>
+      <c r="H71" s="341"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="420"/>
-      <c r="N71" s="422"/>
+      <c r="M71" s="341"/>
+      <c r="N71" s="343"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="419"/>
+      <c r="B72" s="340"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="420"/>
+      <c r="H72" s="341"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="420"/>
-      <c r="N72" s="422"/>
+      <c r="M72" s="341"/>
+      <c r="N72" s="343"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="419"/>
+      <c r="B73" s="340"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="420"/>
+      <c r="H73" s="341"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="420"/>
-      <c r="N73" s="422"/>
+      <c r="M73" s="341"/>
+      <c r="N73" s="343"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -22847,56 +23699,24 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -22913,24 +23733,56 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -23435,7 +24287,7 @@
       <c r="H11" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I11" s="322" t="s">
+      <c r="I11" s="317" t="s">
         <v>56</v>
       </c>
       <c r="J11" s="1">
@@ -23444,7 +24296,7 @@
       <c r="K11" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L11" s="323" t="s">
+      <c r="L11" s="318" t="s">
         <v>56</v>
       </c>
       <c r="M11" s="1">
@@ -23453,7 +24305,7 @@
       <c r="N11" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O11" s="324" t="s">
+      <c r="O11" s="319" t="s">
         <v>56</v>
       </c>
     </row>
@@ -23540,7 +24392,7 @@
       <c r="H14" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I14" s="325" t="s">
+      <c r="I14" s="320" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="1">
@@ -23549,7 +24401,7 @@
       <c r="K14" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L14" s="326" t="s">
+      <c r="L14" s="321" t="s">
         <v>56</v>
       </c>
       <c r="M14" s="1">
@@ -23558,7 +24410,7 @@
       <c r="N14" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O14" s="327" t="s">
+      <c r="O14" s="322" t="s">
         <v>56</v>
       </c>
     </row>
@@ -23608,7 +24460,7 @@
       <c r="H16" s="1">
         <v>2.5799791812896729</v>
       </c>
-      <c r="I16" s="328" t="s">
+      <c r="I16" s="323" t="s">
         <v>56</v>
       </c>
       <c r="J16" s="1">
@@ -23617,7 +24469,7 @@
       <c r="K16" s="1">
         <v>77.399398803710938</v>
       </c>
-      <c r="L16" s="329" t="s">
+      <c r="L16" s="324" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="1">
@@ -23626,7 +24478,7 @@
       <c r="N16" s="1">
         <v>41.666664123535156</v>
       </c>
-      <c r="O16" s="330" t="s">
+      <c r="O16" s="325" t="s">
         <v>56</v>
       </c>
     </row>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="259">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -829,12 +829,6 @@
     <t>Equipment Train</t>
   </si>
   <si>
-    <t>Expected L4 Train</t>
-  </si>
-  <si>
-    <t>Actual  L4 Train</t>
-  </si>
-  <si>
     <t>Select Type:</t>
   </si>
   <si>
@@ -884,6 +878,18 @@
   </si>
   <si>
     <t>P4 active2</t>
+  </si>
+  <si>
+    <t>List o Products used for Calculation</t>
+  </si>
+  <si>
+    <t>Expected L4c Train</t>
+  </si>
+  <si>
+    <t>Actual  L4c Train</t>
+  </si>
+  <si>
+    <t>L4c Equipment Train Result for Each current Product</t>
   </si>
 </sst>
 </file>
@@ -2151,7 +2157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="442">
+  <cellXfs count="444">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2727,169 +2733,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2933,6 +2779,174 @@
     <xf numFmtId="0" fontId="144" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="145" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5352,15 +5366,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="378" t="s">
+      <c r="F1" s="376" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5449,22 +5463,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="379" t="s">
+      <c r="D6" s="377" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="381"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="379"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="377" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="381"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="379"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5482,10 +5496,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="382" t="s">
+      <c r="F7" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="383"/>
+      <c r="G7" s="381"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5508,10 +5522,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="382" t="s">
+      <c r="P7" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="383"/>
+      <c r="Q7" s="381"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5588,7 +5602,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="370" t="s">
+      <c r="B9" s="382" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5622,33 +5636,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="361">
+      <c r="M9" s="373">
         <v>20</v>
       </c>
-      <c r="N9" s="373" t="s">
+      <c r="N9" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="361">
+      <c r="O9" s="373">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="361">
+      <c r="P9" s="373">
         <v>3</v>
       </c>
-      <c r="Q9" s="361">
+      <c r="Q9" s="373">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="361">
+      <c r="R9" s="373">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="361"/>
-      <c r="T9" s="364">
+      <c r="S9" s="373"/>
+      <c r="T9" s="388">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="361">
+      <c r="U9" s="373">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5673,7 +5687,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="371"/>
+      <c r="B10" s="383"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5705,15 +5719,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="362"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="362"/>
-      <c r="S10" s="362"/>
-      <c r="T10" s="365"/>
-      <c r="U10" s="362"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="374"/>
+      <c r="P10" s="374"/>
+      <c r="Q10" s="374"/>
+      <c r="R10" s="374"/>
+      <c r="S10" s="374"/>
+      <c r="T10" s="389"/>
+      <c r="U10" s="374"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5721,10 +5735,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="373" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="371"/>
+      <c r="B11" s="383"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5735,15 +5749,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="362"/>
-      <c r="P11" s="362"/>
-      <c r="Q11" s="362"/>
-      <c r="R11" s="362"/>
-      <c r="S11" s="362"/>
-      <c r="T11" s="365"/>
-      <c r="U11" s="362"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="374"/>
+      <c r="Q11" s="374"/>
+      <c r="R11" s="374"/>
+      <c r="S11" s="374"/>
+      <c r="T11" s="389"/>
+      <c r="U11" s="374"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5762,8 +5776,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="363"/>
-      <c r="B12" s="372"/>
+      <c r="A12" s="375"/>
+      <c r="B12" s="384"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5774,15 +5788,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="363"/>
-      <c r="S12" s="363"/>
-      <c r="T12" s="366"/>
-      <c r="U12" s="363"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="375"/>
+      <c r="S12" s="375"/>
+      <c r="T12" s="390"/>
+      <c r="U12" s="375"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5798,7 +5812,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="370" t="s">
+      <c r="B13" s="382" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5832,33 +5846,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="361">
+      <c r="M13" s="373">
         <v>80</v>
       </c>
-      <c r="N13" s="373" t="s">
+      <c r="N13" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="361">
+      <c r="O13" s="373">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="361">
+      <c r="P13" s="373">
         <v>2</v>
       </c>
-      <c r="Q13" s="361">
+      <c r="Q13" s="373">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="361">
+      <c r="R13" s="373">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="361"/>
-      <c r="T13" s="364">
+      <c r="S13" s="373"/>
+      <c r="T13" s="388">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="361">
+      <c r="U13" s="373">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5881,7 +5895,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="371"/>
+      <c r="B14" s="383"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5913,15 +5927,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="362"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="362"/>
-      <c r="R14" s="362"/>
-      <c r="S14" s="362"/>
-      <c r="T14" s="365"/>
-      <c r="U14" s="362"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="374"/>
+      <c r="Q14" s="374"/>
+      <c r="R14" s="374"/>
+      <c r="S14" s="374"/>
+      <c r="T14" s="389"/>
+      <c r="U14" s="374"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5929,10 +5943,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="376" t="s">
+      <c r="A15" s="391" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="371"/>
+      <c r="B15" s="383"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5943,15 +5957,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="362"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="362"/>
-      <c r="R15" s="362"/>
-      <c r="S15" s="362"/>
-      <c r="T15" s="365"/>
-      <c r="U15" s="362"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="374"/>
+      <c r="Q15" s="374"/>
+      <c r="R15" s="374"/>
+      <c r="S15" s="374"/>
+      <c r="T15" s="389"/>
+      <c r="U15" s="374"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5961,8 +5975,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="377"/>
-      <c r="B16" s="372"/>
+      <c r="A16" s="392"/>
+      <c r="B16" s="384"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5973,15 +5987,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="375"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="363"/>
-      <c r="Q16" s="363"/>
-      <c r="R16" s="363"/>
-      <c r="S16" s="363"/>
-      <c r="T16" s="366"/>
-      <c r="U16" s="363"/>
+      <c r="M16" s="375"/>
+      <c r="N16" s="387"/>
+      <c r="O16" s="375"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="375"/>
+      <c r="R16" s="375"/>
+      <c r="S16" s="375"/>
+      <c r="T16" s="390"/>
+      <c r="U16" s="375"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5992,7 +6006,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="370" t="s">
+      <c r="B17" s="382" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -6026,33 +6040,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="361">
+      <c r="M17" s="373">
         <v>70</v>
       </c>
-      <c r="N17" s="373" t="s">
+      <c r="N17" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="361">
+      <c r="O17" s="373">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="361">
+      <c r="P17" s="373">
         <v>2</v>
       </c>
-      <c r="Q17" s="361">
+      <c r="Q17" s="373">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="361">
+      <c r="R17" s="373">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="361"/>
-      <c r="T17" s="364">
+      <c r="S17" s="373"/>
+      <c r="T17" s="388">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="361">
+      <c r="U17" s="373">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -6071,7 +6085,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="371"/>
+      <c r="B18" s="383"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -6103,24 +6117,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="362"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="362"/>
-      <c r="P18" s="362"/>
-      <c r="Q18" s="362"/>
-      <c r="R18" s="362"/>
-      <c r="S18" s="362"/>
-      <c r="T18" s="365"/>
-      <c r="U18" s="362"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="374"/>
+      <c r="P18" s="374"/>
+      <c r="Q18" s="374"/>
+      <c r="R18" s="374"/>
+      <c r="S18" s="374"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="374"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="371"/>
+      <c r="B19" s="383"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -6131,22 +6145,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="362"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="362"/>
-      <c r="P19" s="362"/>
-      <c r="Q19" s="362"/>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
-      <c r="T19" s="365"/>
-      <c r="U19" s="362"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="386"/>
+      <c r="O19" s="374"/>
+      <c r="P19" s="374"/>
+      <c r="Q19" s="374"/>
+      <c r="R19" s="374"/>
+      <c r="S19" s="374"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="374"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363"/>
-      <c r="B20" s="372"/>
+      <c r="A20" s="375"/>
+      <c r="B20" s="384"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6157,15 +6171,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="363"/>
-      <c r="N20" s="375"/>
-      <c r="O20" s="363"/>
-      <c r="P20" s="363"/>
-      <c r="Q20" s="363"/>
-      <c r="R20" s="363"/>
-      <c r="S20" s="363"/>
-      <c r="T20" s="366"/>
-      <c r="U20" s="363"/>
+      <c r="M20" s="375"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="375"/>
+      <c r="P20" s="375"/>
+      <c r="Q20" s="375"/>
+      <c r="R20" s="375"/>
+      <c r="S20" s="375"/>
+      <c r="T20" s="390"/>
+      <c r="U20" s="375"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6174,7 +6188,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="370" t="s">
+      <c r="B21" s="382" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6208,33 +6222,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="361">
+      <c r="M21" s="373">
         <v>60</v>
       </c>
-      <c r="N21" s="373" t="s">
+      <c r="N21" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="361">
+      <c r="O21" s="373">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="361">
+      <c r="P21" s="373">
         <v>3</v>
       </c>
-      <c r="Q21" s="361">
+      <c r="Q21" s="373">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="361">
+      <c r="R21" s="373">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="361"/>
-      <c r="T21" s="364">
+      <c r="S21" s="373"/>
+      <c r="T21" s="388">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="361">
+      <c r="U21" s="373">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6251,7 +6265,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="371"/>
+      <c r="B22" s="383"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6283,24 +6297,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="362"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="362"/>
-      <c r="P22" s="362"/>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="362"/>
-      <c r="T22" s="365"/>
-      <c r="U22" s="362"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="374"/>
+      <c r="P22" s="374"/>
+      <c r="Q22" s="374"/>
+      <c r="R22" s="374"/>
+      <c r="S22" s="374"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="374"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="393" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="371"/>
+      <c r="B23" s="383"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6311,22 +6325,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="362"/>
-      <c r="N23" s="374"/>
-      <c r="O23" s="362"/>
-      <c r="P23" s="362"/>
-      <c r="Q23" s="362"/>
-      <c r="R23" s="362"/>
-      <c r="S23" s="362"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="362"/>
+      <c r="M23" s="374"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="374"/>
+      <c r="P23" s="374"/>
+      <c r="Q23" s="374"/>
+      <c r="R23" s="374"/>
+      <c r="S23" s="374"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="374"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="372"/>
+      <c r="A24" s="394"/>
+      <c r="B24" s="384"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6337,15 +6351,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="363"/>
-      <c r="N24" s="375"/>
-      <c r="O24" s="363"/>
-      <c r="P24" s="363"/>
-      <c r="Q24" s="363"/>
-      <c r="R24" s="363"/>
-      <c r="S24" s="363"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="363"/>
+      <c r="M24" s="375"/>
+      <c r="N24" s="387"/>
+      <c r="O24" s="375"/>
+      <c r="P24" s="375"/>
+      <c r="Q24" s="375"/>
+      <c r="R24" s="375"/>
+      <c r="S24" s="375"/>
+      <c r="T24" s="390"/>
+      <c r="U24" s="375"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6371,13 +6385,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="369" t="s">
+      <c r="H27" s="395" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="369"/>
-      <c r="L27" s="369"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="395"/>
+      <c r="K27" s="395"/>
+      <c r="L27" s="395"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6657,19 +6671,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="359" t="s">
+      <c r="D40" s="398" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359" t="s">
+      <c r="E40" s="398"/>
+      <c r="F40" s="398"/>
+      <c r="G40" s="398"/>
+      <c r="H40" s="398"/>
+      <c r="I40" s="398" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="359"/>
-      <c r="K40" s="359"/>
-      <c r="L40" s="359"/>
+      <c r="J40" s="398"/>
+      <c r="K40" s="398"/>
+      <c r="L40" s="398"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6793,7 +6807,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="354" t="s">
+      <c r="B42" s="399" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6801,17 +6815,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="355">
+      <c r="H42" s="397">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="355">
+      <c r="M42" s="397">
         <v>1</v>
       </c>
-      <c r="N42" s="360" t="s">
+      <c r="N42" s="396" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6859,7 +6873,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="354"/>
+      <c r="B43" s="399"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6875,7 +6889,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="355"/>
+      <c r="H43" s="397"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6888,8 +6902,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="355"/>
-      <c r="N43" s="355"/>
+      <c r="M43" s="397"/>
+      <c r="N43" s="397"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6935,7 +6949,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="354"/>
+      <c r="B44" s="399"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6951,7 +6965,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="355"/>
+      <c r="H44" s="397"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6964,8 +6978,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="355"/>
-      <c r="N44" s="355"/>
+      <c r="M44" s="397"/>
+      <c r="N44" s="397"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -7011,7 +7025,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="354"/>
+      <c r="B45" s="399"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -7027,7 +7041,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="355"/>
+      <c r="H45" s="397"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -7040,8 +7054,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="355"/>
-      <c r="N45" s="355"/>
+      <c r="M45" s="397"/>
+      <c r="N45" s="397"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -7087,19 +7101,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="354"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="355"/>
+      <c r="H46" s="397"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="355"/>
-      <c r="N46" s="356"/>
+      <c r="M46" s="397"/>
+      <c r="N46" s="400"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7145,19 +7159,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="354"/>
+      <c r="B47" s="399"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="355"/>
+      <c r="H47" s="397"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="355"/>
-      <c r="N47" s="357"/>
+      <c r="M47" s="397"/>
+      <c r="N47" s="401"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7205,19 +7219,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="354"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="355"/>
+      <c r="H48" s="397"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="355"/>
-      <c r="N48" s="357"/>
+      <c r="M48" s="397"/>
+      <c r="N48" s="401"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7265,19 +7279,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="354"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="355"/>
+      <c r="H49" s="397"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="355"/>
-      <c r="N49" s="357"/>
+      <c r="M49" s="397"/>
+      <c r="N49" s="401"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7325,19 +7339,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="349"/>
+      <c r="B50" s="402"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="350"/>
+      <c r="H50" s="403"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="350"/>
-      <c r="N50" s="358"/>
+      <c r="M50" s="403"/>
+      <c r="N50" s="404"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7358,19 +7372,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="349"/>
+      <c r="B51" s="402"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="350"/>
+      <c r="H51" s="403"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="350"/>
-      <c r="N51" s="352"/>
+      <c r="M51" s="403"/>
+      <c r="N51" s="405"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7401,19 +7415,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="349"/>
+      <c r="B52" s="402"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="350"/>
+      <c r="H52" s="403"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="350"/>
-      <c r="N52" s="352"/>
+      <c r="M52" s="403"/>
+      <c r="N52" s="405"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7477,19 +7491,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="349"/>
+      <c r="B53" s="402"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="350"/>
+      <c r="H53" s="403"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="350"/>
-      <c r="N53" s="352"/>
+      <c r="M53" s="403"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7538,19 +7552,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="349"/>
+      <c r="B54" s="402"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="350"/>
+      <c r="H54" s="403"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="350"/>
-      <c r="N54" s="351"/>
+      <c r="M54" s="403"/>
+      <c r="N54" s="406"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7597,19 +7611,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="349"/>
+      <c r="B55" s="402"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="350"/>
+      <c r="H55" s="403"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="350"/>
-      <c r="N55" s="352"/>
+      <c r="M55" s="403"/>
+      <c r="N55" s="405"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7656,19 +7670,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="349"/>
+      <c r="B56" s="402"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="350"/>
+      <c r="H56" s="403"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="350"/>
-      <c r="N56" s="352"/>
+      <c r="M56" s="403"/>
+      <c r="N56" s="405"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7715,19 +7729,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="349"/>
+      <c r="B57" s="402"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="350"/>
+      <c r="H57" s="403"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="350"/>
-      <c r="N57" s="352"/>
+      <c r="M57" s="403"/>
+      <c r="N57" s="405"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7774,19 +7788,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="344"/>
+      <c r="B58" s="407"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="345"/>
+      <c r="H58" s="408"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="345"/>
-      <c r="N58" s="353"/>
+      <c r="M58" s="408"/>
+      <c r="N58" s="409"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7833,19 +7847,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="344"/>
+      <c r="B59" s="407"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="345"/>
+      <c r="H59" s="408"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="345"/>
-      <c r="N59" s="347"/>
+      <c r="M59" s="408"/>
+      <c r="N59" s="410"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7892,19 +7906,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="344"/>
+      <c r="B60" s="407"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="345"/>
+      <c r="H60" s="408"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="345"/>
-      <c r="N60" s="347"/>
+      <c r="M60" s="408"/>
+      <c r="N60" s="410"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7951,247 +7965,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="344"/>
+      <c r="B61" s="407"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="345"/>
+      <c r="H61" s="408"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="345"/>
-      <c r="N61" s="347"/>
+      <c r="M61" s="408"/>
+      <c r="N61" s="410"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="344"/>
+      <c r="B62" s="407"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="345"/>
+      <c r="H62" s="408"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="346"/>
+      <c r="M62" s="408"/>
+      <c r="N62" s="415"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="344"/>
+      <c r="B63" s="407"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="345"/>
+      <c r="H63" s="408"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="345"/>
-      <c r="N63" s="347"/>
+      <c r="M63" s="408"/>
+      <c r="N63" s="410"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="344"/>
+      <c r="B64" s="407"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="345"/>
+      <c r="H64" s="408"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="345"/>
-      <c r="N64" s="347"/>
+      <c r="M64" s="408"/>
+      <c r="N64" s="410"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="344"/>
+      <c r="B65" s="407"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="345"/>
+      <c r="H65" s="408"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="345"/>
-      <c r="N65" s="347"/>
+      <c r="M65" s="408"/>
+      <c r="N65" s="410"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="340"/>
+      <c r="B66" s="411"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="341"/>
+      <c r="H66" s="412"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="341"/>
-      <c r="N66" s="348"/>
+      <c r="M66" s="412"/>
+      <c r="N66" s="416"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="340"/>
+      <c r="B67" s="411"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="341"/>
+      <c r="H67" s="412"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="341"/>
-      <c r="N67" s="343"/>
+      <c r="M67" s="412"/>
+      <c r="N67" s="414"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="340"/>
+      <c r="B68" s="411"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="341"/>
+      <c r="H68" s="412"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="341"/>
-      <c r="N68" s="343"/>
+      <c r="M68" s="412"/>
+      <c r="N68" s="414"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="340"/>
+      <c r="B69" s="411"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="341"/>
+      <c r="H69" s="412"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="341"/>
-      <c r="N69" s="343"/>
+      <c r="M69" s="412"/>
+      <c r="N69" s="414"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="340"/>
+      <c r="B70" s="411"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="341"/>
+      <c r="H70" s="412"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="341"/>
-      <c r="N70" s="342"/>
+      <c r="M70" s="412"/>
+      <c r="N70" s="413"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="340"/>
+      <c r="B71" s="411"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="341"/>
+      <c r="H71" s="412"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="341"/>
-      <c r="N71" s="343"/>
+      <c r="M71" s="412"/>
+      <c r="N71" s="414"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="340"/>
+      <c r="B72" s="411"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="341"/>
+      <c r="H72" s="412"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="341"/>
-      <c r="N72" s="343"/>
+      <c r="M72" s="412"/>
+      <c r="N72" s="414"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="340"/>
+      <c r="B73" s="411"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="341"/>
+      <c r="H73" s="412"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="343"/>
+      <c r="M73" s="412"/>
+      <c r="N73" s="414"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9744,23 +9758,57 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9777,57 +9825,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9844,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9893,15 +9907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="378" t="s">
+      <c r="F1" s="376" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9950,22 +9964,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="379" t="s">
+      <c r="D6" s="377" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="381"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="379"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="377" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="381"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="379"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9983,10 +9997,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="382" t="s">
+      <c r="F7" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="383"/>
+      <c r="G7" s="381"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -10009,10 +10023,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="382" t="s">
+      <c r="P7" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="383"/>
+      <c r="Q7" s="381"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -10080,7 +10094,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="370"/>
+      <c r="B9" s="382"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -10091,15 +10105,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="361"/>
-      <c r="N9" s="373"/>
-      <c r="O9" s="361"/>
-      <c r="P9" s="361"/>
-      <c r="Q9" s="361"/>
-      <c r="R9" s="361"/>
-      <c r="S9" s="361"/>
-      <c r="T9" s="364"/>
-      <c r="U9" s="361"/>
+      <c r="M9" s="373"/>
+      <c r="N9" s="385"/>
+      <c r="O9" s="373"/>
+      <c r="P9" s="373"/>
+      <c r="Q9" s="373"/>
+      <c r="R9" s="373"/>
+      <c r="S9" s="373"/>
+      <c r="T9" s="388"/>
+      <c r="U9" s="373"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -10109,7 +10123,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="371"/>
+      <c r="B10" s="383"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -10120,15 +10134,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="362"/>
-      <c r="S10" s="362"/>
-      <c r="T10" s="365"/>
-      <c r="U10" s="362"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="374"/>
+      <c r="P10" s="374"/>
+      <c r="Q10" s="374"/>
+      <c r="R10" s="374"/>
+      <c r="S10" s="374"/>
+      <c r="T10" s="389"/>
+      <c r="U10" s="374"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -10136,8 +10150,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="361"/>
-      <c r="B11" s="371"/>
+      <c r="A11" s="373"/>
+      <c r="B11" s="383"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10148,15 +10162,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="362"/>
-      <c r="P11" s="362"/>
-      <c r="Q11" s="362"/>
-      <c r="R11" s="362"/>
-      <c r="S11" s="362"/>
-      <c r="T11" s="365"/>
-      <c r="U11" s="362"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="374"/>
+      <c r="Q11" s="374"/>
+      <c r="R11" s="374"/>
+      <c r="S11" s="374"/>
+      <c r="T11" s="389"/>
+      <c r="U11" s="374"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10166,8 +10180,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="363"/>
-      <c r="B12" s="372"/>
+      <c r="A12" s="375"/>
+      <c r="B12" s="384"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10178,15 +10192,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="363"/>
-      <c r="S12" s="363"/>
-      <c r="T12" s="366"/>
-      <c r="U12" s="363"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="375"/>
+      <c r="S12" s="375"/>
+      <c r="T12" s="390"/>
+      <c r="U12" s="375"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10195,7 +10209,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="370"/>
+      <c r="B13" s="382"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10206,15 +10220,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="361"/>
-      <c r="N13" s="373"/>
-      <c r="O13" s="361"/>
-      <c r="P13" s="361"/>
-      <c r="Q13" s="361"/>
-      <c r="R13" s="361"/>
-      <c r="S13" s="361"/>
-      <c r="T13" s="364"/>
-      <c r="U13" s="361"/>
+      <c r="M13" s="373"/>
+      <c r="N13" s="385"/>
+      <c r="O13" s="373"/>
+      <c r="P13" s="373"/>
+      <c r="Q13" s="373"/>
+      <c r="R13" s="373"/>
+      <c r="S13" s="373"/>
+      <c r="T13" s="388"/>
+      <c r="U13" s="373"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10223,7 +10237,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="371"/>
+      <c r="B14" s="383"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10234,15 +10248,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="362"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="362"/>
-      <c r="R14" s="362"/>
-      <c r="S14" s="362"/>
-      <c r="T14" s="365"/>
-      <c r="U14" s="362"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="374"/>
+      <c r="Q14" s="374"/>
+      <c r="R14" s="374"/>
+      <c r="S14" s="374"/>
+      <c r="T14" s="389"/>
+      <c r="U14" s="374"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10250,8 +10264,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="376"/>
-      <c r="B15" s="371"/>
+      <c r="A15" s="391"/>
+      <c r="B15" s="383"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10262,15 +10276,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="362"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="362"/>
-      <c r="R15" s="362"/>
-      <c r="S15" s="362"/>
-      <c r="T15" s="365"/>
-      <c r="U15" s="362"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="374"/>
+      <c r="Q15" s="374"/>
+      <c r="R15" s="374"/>
+      <c r="S15" s="374"/>
+      <c r="T15" s="389"/>
+      <c r="U15" s="374"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10278,8 +10292,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="377"/>
-      <c r="B16" s="372"/>
+      <c r="A16" s="392"/>
+      <c r="B16" s="384"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10290,15 +10304,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="375"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="363"/>
-      <c r="Q16" s="363"/>
-      <c r="R16" s="363"/>
-      <c r="S16" s="363"/>
-      <c r="T16" s="366"/>
-      <c r="U16" s="363"/>
+      <c r="M16" s="375"/>
+      <c r="N16" s="387"/>
+      <c r="O16" s="375"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="375"/>
+      <c r="R16" s="375"/>
+      <c r="S16" s="375"/>
+      <c r="T16" s="390"/>
+      <c r="U16" s="375"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10307,7 +10321,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="370"/>
+      <c r="B17" s="382"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10318,15 +10332,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="361"/>
-      <c r="N17" s="373"/>
-      <c r="O17" s="361"/>
-      <c r="P17" s="361"/>
-      <c r="Q17" s="361"/>
-      <c r="R17" s="361"/>
-      <c r="S17" s="361"/>
-      <c r="T17" s="364"/>
-      <c r="U17" s="361"/>
+      <c r="M17" s="373"/>
+      <c r="N17" s="385"/>
+      <c r="O17" s="373"/>
+      <c r="P17" s="373"/>
+      <c r="Q17" s="373"/>
+      <c r="R17" s="373"/>
+      <c r="S17" s="373"/>
+      <c r="T17" s="388"/>
+      <c r="U17" s="373"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10335,7 +10349,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="371"/>
+      <c r="B18" s="383"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10346,22 +10360,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="362"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="362"/>
-      <c r="P18" s="362"/>
-      <c r="Q18" s="362"/>
-      <c r="R18" s="362"/>
-      <c r="S18" s="362"/>
-      <c r="T18" s="365"/>
-      <c r="U18" s="362"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="374"/>
+      <c r="P18" s="374"/>
+      <c r="Q18" s="374"/>
+      <c r="R18" s="374"/>
+      <c r="S18" s="374"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="374"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="361"/>
-      <c r="B19" s="371"/>
+      <c r="A19" s="373"/>
+      <c r="B19" s="383"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10372,22 +10386,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="362"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="362"/>
-      <c r="P19" s="362"/>
-      <c r="Q19" s="362"/>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
-      <c r="T19" s="365"/>
-      <c r="U19" s="362"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="386"/>
+      <c r="O19" s="374"/>
+      <c r="P19" s="374"/>
+      <c r="Q19" s="374"/>
+      <c r="R19" s="374"/>
+      <c r="S19" s="374"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="374"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363"/>
-      <c r="B20" s="372"/>
+      <c r="A20" s="375"/>
+      <c r="B20" s="384"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10398,22 +10412,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="363"/>
-      <c r="N20" s="375"/>
-      <c r="O20" s="363"/>
-      <c r="P20" s="363"/>
-      <c r="Q20" s="363"/>
-      <c r="R20" s="363"/>
-      <c r="S20" s="363"/>
-      <c r="T20" s="366"/>
-      <c r="U20" s="363"/>
+      <c r="M20" s="375"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="375"/>
+      <c r="P20" s="375"/>
+      <c r="Q20" s="375"/>
+      <c r="R20" s="375"/>
+      <c r="S20" s="375"/>
+      <c r="T20" s="390"/>
+      <c r="U20" s="375"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="370"/>
+      <c r="B21" s="382"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10424,22 +10438,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="361"/>
-      <c r="N21" s="373"/>
-      <c r="O21" s="361"/>
-      <c r="P21" s="361"/>
-      <c r="Q21" s="361"/>
-      <c r="R21" s="361"/>
-      <c r="S21" s="361"/>
-      <c r="T21" s="364"/>
-      <c r="U21" s="361"/>
+      <c r="M21" s="373"/>
+      <c r="N21" s="385"/>
+      <c r="O21" s="373"/>
+      <c r="P21" s="373"/>
+      <c r="Q21" s="373"/>
+      <c r="R21" s="373"/>
+      <c r="S21" s="373"/>
+      <c r="T21" s="388"/>
+      <c r="U21" s="373"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="371"/>
+      <c r="B22" s="383"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10450,22 +10464,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="362"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="362"/>
-      <c r="P22" s="362"/>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="362"/>
-      <c r="T22" s="365"/>
-      <c r="U22" s="362"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="374"/>
+      <c r="P22" s="374"/>
+      <c r="Q22" s="374"/>
+      <c r="R22" s="374"/>
+      <c r="S22" s="374"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="374"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367"/>
-      <c r="B23" s="371"/>
+      <c r="A23" s="393"/>
+      <c r="B23" s="383"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10476,22 +10490,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="362"/>
-      <c r="N23" s="374"/>
-      <c r="O23" s="362"/>
-      <c r="P23" s="362"/>
-      <c r="Q23" s="362"/>
-      <c r="R23" s="362"/>
-      <c r="S23" s="362"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="362"/>
+      <c r="M23" s="374"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="374"/>
+      <c r="P23" s="374"/>
+      <c r="Q23" s="374"/>
+      <c r="R23" s="374"/>
+      <c r="S23" s="374"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="374"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="372"/>
+      <c r="A24" s="394"/>
+      <c r="B24" s="384"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10502,15 +10516,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="363"/>
-      <c r="N24" s="375"/>
-      <c r="O24" s="363"/>
-      <c r="P24" s="363"/>
-      <c r="Q24" s="363"/>
-      <c r="R24" s="363"/>
-      <c r="S24" s="363"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="363"/>
+      <c r="M24" s="375"/>
+      <c r="N24" s="387"/>
+      <c r="O24" s="375"/>
+      <c r="P24" s="375"/>
+      <c r="Q24" s="375"/>
+      <c r="R24" s="375"/>
+      <c r="S24" s="375"/>
+      <c r="T24" s="390"/>
+      <c r="U24" s="375"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10817,52 +10831,54 @@
       <c r="AO39" s="23"/>
     </row>
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="327" t="s">
-        <v>240</v>
-      </c>
-      <c r="B40" s="328" t="s">
-        <v>241</v>
+      <c r="A40" s="434" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="435" t="s">
+        <v>239</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="385" t="s">
+      <c r="F40" s="418" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="386"/>
-      <c r="H40" s="386"/>
-      <c r="I40" s="387"/>
-      <c r="J40" s="388" t="s">
+      <c r="G40" s="419"/>
+      <c r="H40" s="419"/>
+      <c r="I40" s="420"/>
+      <c r="J40" s="421" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="389"/>
-      <c r="L40" s="389"/>
-      <c r="M40" s="390"/>
+      <c r="K40" s="422"/>
+      <c r="L40" s="422"/>
+      <c r="M40" s="423"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="384" t="s">
+      <c r="Q40" s="417" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="384"/>
-      <c r="S40" s="384"/>
-      <c r="T40" s="384"/>
-      <c r="U40" s="384"/>
-      <c r="V40" s="384"/>
-      <c r="W40" s="384"/>
-      <c r="X40" s="384"/>
-      <c r="Y40" s="384"/>
+      <c r="R40" s="417"/>
+      <c r="S40" s="417"/>
+      <c r="T40" s="417"/>
+      <c r="U40" s="417"/>
+      <c r="V40" s="417"/>
+      <c r="W40" s="417"/>
+      <c r="X40" s="417"/>
+      <c r="Y40" s="417"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
       <c r="AC40" s="46"/>
       <c r="AD40" s="77"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="77"/>
+      <c r="AE40" s="432" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF40" s="432"/>
+      <c r="AG40" s="432"/>
+      <c r="AH40" s="432"/>
+      <c r="AI40" s="432"/>
+      <c r="AJ40" s="432"/>
       <c r="AK40" s="23"/>
       <c r="AL40" s="46"/>
       <c r="AM40" s="46"/>
@@ -10870,11 +10886,11 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="433" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>217</v>
+      <c r="B41" s="433" t="s">
+        <v>255</v>
       </c>
       <c r="D41" s="253" t="s">
         <v>235</v>
@@ -10960,10 +10976,10 @@
         <v>229</v>
       </c>
       <c r="AH41" s="253" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AI41" s="315" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="AJ41" s="316" t="s">
         <v>48</v>
@@ -10982,7 +10998,7 @@
         <v>93</v>
       </c>
       <c r="D42" s="326" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E42" s="326" t="s">
         <v>99</v>
@@ -11000,22 +11016,22 @@
         <v>4.3749999999999997E-2</v>
       </c>
       <c r="J42" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K42" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L42" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M42" s="287" t="s">
-        <v>243</v>
-      </c>
-      <c r="N42" s="329"/>
+        <v>241</v>
+      </c>
+      <c r="N42" s="436"/>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="246" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R42" s="247" t="s">
         <v>222</v>
@@ -11046,15 +11062,15 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB42" s="282"/>
-      <c r="AC42" s="418" t="s">
+      <c r="AC42" s="349" t="s">
         <v>59</v>
       </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF42" s="50" t="s">
         <v>242</v>
-      </c>
-      <c r="AF42" s="50" t="s">
-        <v>244</v>
       </c>
       <c r="AG42" s="50">
         <v>25</v>
@@ -11063,9 +11079,9 @@
         <v>2.5840003043413162E-2</v>
       </c>
       <c r="AI42" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ42" s="399" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ42" s="330" t="s">
         <v>59</v>
       </c>
       <c r="AK42" s="226"/>
@@ -11109,13 +11125,13 @@
       <c r="M43" s="288">
         <v>2.3437498603016138E-3</v>
       </c>
-      <c r="N43" s="338" t="s">
+      <c r="N43" s="437" t="s">
         <v>59</v>
       </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="246" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R43" s="247" t="s">
         <v>223</v>
@@ -11146,15 +11162,15 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB43" s="282"/>
-      <c r="AC43" s="419" t="s">
+      <c r="AC43" s="350" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF43" s="50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG43" s="50">
         <v>25</v>
@@ -11163,9 +11179,9 @@
         <v>1.8400001572445035E-3</v>
       </c>
       <c r="AI43" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ43" s="400" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ43" s="331" t="s">
         <v>59</v>
       </c>
       <c r="AK43" s="226"/>
@@ -11198,22 +11214,22 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J44" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K44" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L44" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M44" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N44" s="306"/>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
       <c r="Q44" s="246" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R44" s="247" t="s">
         <v>224</v>
@@ -11244,7 +11260,7 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="420" t="s">
+      <c r="AC44" s="351" t="s">
         <v>59</v>
       </c>
       <c r="AD44" s="64"/>
@@ -11253,7 +11269,7 @@
       <c r="AG44" s="50"/>
       <c r="AH44" s="50"/>
       <c r="AI44" s="50"/>
-      <c r="AJ44" s="401"/>
+      <c r="AJ44" s="332"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -11268,7 +11284,7 @@
         <v>106</v>
       </c>
       <c r="D45" s="326" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E45" s="326" t="s">
         <v>93</v>
@@ -11286,16 +11302,16 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J45" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K45" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L45" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M45" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N45" s="306"/>
       <c r="O45" s="64"/>
@@ -11315,10 +11331,10 @@
       <c r="AC45" s="50"/>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF45" s="50" t="s">
         <v>246</v>
-      </c>
-      <c r="AF45" s="50" t="s">
-        <v>248</v>
       </c>
       <c r="AG45" s="50">
         <v>25</v>
@@ -11327,9 +11343,9 @@
         <v>3.2800003886222839E-2</v>
       </c>
       <c r="AI45" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ45" s="402" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ45" s="333" t="s">
         <v>59</v>
       </c>
       <c r="AK45" s="226"/>
@@ -11358,22 +11374,22 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J46" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K46" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L46" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M46" s="287" t="s">
-        <v>243</v>
-      </c>
-      <c r="N46" s="330"/>
+        <v>241</v>
+      </c>
+      <c r="N46" s="438"/>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
       <c r="Q46" s="246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R46" s="247" t="s">
         <v>222</v>
@@ -11404,15 +11420,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB46" s="282"/>
-      <c r="AC46" s="421" t="s">
+      <c r="AC46" s="352" t="s">
         <v>56</v>
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AF46" s="50" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG46" s="50">
         <v>25</v>
@@ -11421,9 +11437,9 @@
         <v>2.4240000173449516E-2</v>
       </c>
       <c r="AI46" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ46" s="403" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ46" s="334" t="s">
         <v>59</v>
       </c>
       <c r="AK46" s="226"/>
@@ -11452,21 +11468,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J47" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K47" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L47" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M47" s="286" t="s">
-        <v>243</v>
-      </c>
-      <c r="N47" s="332"/>
+        <v>241</v>
+      </c>
+      <c r="N47" s="439"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="244" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R47" s="248" t="s">
         <v>223</v>
@@ -11497,7 +11513,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB47" s="283"/>
-      <c r="AC47" s="422" t="s">
+      <c r="AC47" s="353" t="s">
         <v>56</v>
       </c>
       <c r="AD47" s="23"/>
@@ -11506,7 +11522,7 @@
       <c r="AG47" s="50"/>
       <c r="AH47" s="50"/>
       <c r="AI47" s="36"/>
-      <c r="AJ47" s="404"/>
+      <c r="AJ47" s="335"/>
       <c r="AK47" s="226"/>
       <c r="AL47" s="23"/>
       <c r="AM47" s="23"/>
@@ -11517,7 +11533,7 @@
       <c r="A48" s="309"/>
       <c r="B48" s="309"/>
       <c r="D48" s="326" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E48" s="326" t="s">
         <v>93</v>
@@ -11535,21 +11551,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J48" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K48" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L48" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M48" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N48" s="307"/>
       <c r="P48" s="218"/>
       <c r="Q48" s="244" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R48" s="248" t="s">
         <v>224</v>
@@ -11580,15 +11596,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="423" t="s">
+      <c r="AC48" s="354" t="s">
         <v>56</v>
       </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF48" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG48" s="50">
         <v>25</v>
@@ -11597,9 +11613,9 @@
         <v>2.720000222325325E-2</v>
       </c>
       <c r="AI48" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ48" s="405" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ48" s="336" t="s">
         <v>59</v>
       </c>
       <c r="AK48" s="226"/>
@@ -11628,21 +11644,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J49" s="287" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K49" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L49" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M49" s="286" t="s">
-        <v>243</v>
-      </c>
-      <c r="N49" s="333"/>
+        <v>241</v>
+      </c>
+      <c r="N49" s="440"/>
       <c r="P49" s="218"/>
       <c r="Q49" s="244" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R49" s="248" t="s">
         <v>225</v>
@@ -11673,15 +11689,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB49" s="283"/>
-      <c r="AC49" s="424" t="s">
+      <c r="AC49" s="355" t="s">
         <v>56</v>
       </c>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF49" s="36" t="s">
         <v>250</v>
-      </c>
-      <c r="AF49" s="36" t="s">
-        <v>252</v>
       </c>
       <c r="AG49" s="50">
         <v>25</v>
@@ -11690,9 +11706,9 @@
         <v>2.4240000173449516E-2</v>
       </c>
       <c r="AI49" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ49" s="406" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ49" s="337" t="s">
         <v>59</v>
       </c>
       <c r="AK49" s="226"/>
@@ -11721,24 +11737,24 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J50" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K50" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L50" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M50" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N50" s="307"/>
       <c r="P50" s="218"/>
       <c r="Q50" s="244" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R50" s="248" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S50" s="249">
         <v>35000</v>
@@ -11766,7 +11782,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB50" s="282"/>
-      <c r="AC50" s="425" t="s">
+      <c r="AC50" s="356" t="s">
         <v>56</v>
       </c>
       <c r="AD50" s="46"/>
@@ -11775,7 +11791,7 @@
       <c r="AG50" s="50"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="36"/>
-      <c r="AJ50" s="407"/>
+      <c r="AJ50" s="338"/>
       <c r="AK50" s="23"/>
       <c r="AL50" s="23"/>
       <c r="AM50" s="23"/>
@@ -11786,7 +11802,7 @@
       <c r="A51" s="309"/>
       <c r="B51" s="309"/>
       <c r="D51" s="326" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E51" s="326" t="s">
         <v>93</v>
@@ -11804,18 +11820,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J51" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K51" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L51" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M51" s="286" t="s">
-        <v>243</v>
-      </c>
-      <c r="N51" s="331"/>
+        <v>241</v>
+      </c>
+      <c r="N51" s="441"/>
       <c r="P51" s="218"/>
       <c r="Q51" s="244"/>
       <c r="R51" s="248"/>
@@ -11832,10 +11848,10 @@
       <c r="AC51" s="50"/>
       <c r="AD51" s="76"/>
       <c r="AE51" s="50" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AF51" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG51" s="50">
         <v>25</v>
@@ -11844,9 +11860,9 @@
         <v>2.400000230409205E-4</v>
       </c>
       <c r="AI51" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ51" s="408" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ51" s="339" t="s">
         <v>59</v>
       </c>
       <c r="AK51" s="46"/>
@@ -11875,21 +11891,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J52" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K52" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L52" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M52" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N52" s="307"/>
       <c r="P52" s="218"/>
       <c r="Q52" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R52" s="248" t="s">
         <v>222</v>
@@ -11920,15 +11936,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB52" s="283"/>
-      <c r="AC52" s="426" t="s">
+      <c r="AC52" s="357" t="s">
         <v>56</v>
       </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF52" s="36" t="s">
         <v>253</v>
-      </c>
-      <c r="AF52" s="36" t="s">
-        <v>255</v>
       </c>
       <c r="AG52" s="50">
         <v>25</v>
@@ -11937,9 +11953,9 @@
         <v>2.5840003043413162E-2</v>
       </c>
       <c r="AI52" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ52" s="409" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ52" s="340" t="s">
         <v>59</v>
       </c>
       <c r="AK52" s="23"/>
@@ -11979,12 +11995,12 @@
       <c r="M53" s="286">
         <v>2.3437498603016138E-3</v>
       </c>
-      <c r="N53" s="339" t="s">
+      <c r="N53" s="442" t="s">
         <v>59</v>
       </c>
       <c r="P53" s="218"/>
       <c r="Q53" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R53" s="248" t="s">
         <v>223</v>
@@ -12015,7 +12031,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB53" s="283"/>
-      <c r="AC53" s="427" t="s">
+      <c r="AC53" s="358" t="s">
         <v>56</v>
       </c>
       <c r="AD53" s="23"/>
@@ -12024,7 +12040,7 @@
       <c r="AG53" s="50"/>
       <c r="AH53" s="50"/>
       <c r="AI53" s="36"/>
-      <c r="AJ53" s="410"/>
+      <c r="AJ53" s="341"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
       <c r="AM53" s="23"/>
@@ -12035,7 +12051,7 @@
       <c r="A54" s="309"/>
       <c r="B54" s="309"/>
       <c r="D54" s="326" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E54" s="326" t="s">
         <v>93</v>
@@ -12053,21 +12069,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J54" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K54" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L54" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M54" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N54" s="307"/>
       <c r="P54" s="218"/>
       <c r="Q54" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R54" s="248" t="s">
         <v>224</v>
@@ -12098,15 +12114,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB54" s="283"/>
-      <c r="AC54" s="428" t="s">
+      <c r="AC54" s="359" t="s">
         <v>56</v>
       </c>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF54" s="36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AG54" s="50">
         <v>25</v>
@@ -12115,9 +12131,9 @@
         <v>2.400000230409205E-4</v>
       </c>
       <c r="AI54" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ54" s="411" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ54" s="342" t="s">
         <v>59</v>
       </c>
       <c r="AK54" s="23"/>
@@ -12146,21 +12162,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J55" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K55" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L55" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M55" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N55" s="307"/>
       <c r="P55" s="218"/>
       <c r="Q55" s="244" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="R55" s="248" t="s">
         <v>225</v>
@@ -12191,15 +12207,15 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB55" s="283"/>
-      <c r="AC55" s="429" t="s">
+      <c r="AC55" s="360" t="s">
         <v>56</v>
       </c>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF55" s="36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AG55" s="50">
         <v>25</v>
@@ -12208,9 +12224,9 @@
         <v>2.5840003043413162E-2</v>
       </c>
       <c r="AI55" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ55" s="412" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ55" s="343" t="s">
         <v>59</v>
       </c>
       <c r="AK55" s="23"/>
@@ -12239,18 +12255,18 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J56" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K56" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L56" s="286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M56" s="286" t="s">
-        <v>243</v>
-      </c>
-      <c r="N56" s="334"/>
+        <v>241</v>
+      </c>
+      <c r="N56" s="443"/>
       <c r="P56" s="218"/>
       <c r="Q56" s="244"/>
       <c r="R56" s="248"/>
@@ -12271,7 +12287,7 @@
       <c r="AG56" s="50"/>
       <c r="AH56" s="50"/>
       <c r="AI56" s="36"/>
-      <c r="AJ56" s="413"/>
+      <c r="AJ56" s="344"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
       <c r="AM56" s="23"/>
@@ -12294,7 +12310,7 @@
       <c r="N57" s="308"/>
       <c r="P57" s="218"/>
       <c r="Q57" s="244" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R57" s="248" t="s">
         <v>222</v>
@@ -12325,7 +12341,7 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB57" s="283"/>
-      <c r="AC57" s="430" t="s">
+      <c r="AC57" s="361" t="s">
         <v>59</v>
       </c>
       <c r="AD57" s="23"/>
@@ -12334,7 +12350,7 @@
       <c r="AG57" s="50"/>
       <c r="AH57" s="50"/>
       <c r="AI57" s="36"/>
-      <c r="AJ57" s="414"/>
+      <c r="AJ57" s="345"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
       <c r="AM57" s="23"/>
@@ -12357,7 +12373,7 @@
       <c r="N58" s="308"/>
       <c r="P58" s="218"/>
       <c r="Q58" s="244" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R58" s="248" t="s">
         <v>223</v>
@@ -12388,7 +12404,7 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB58" s="283"/>
-      <c r="AC58" s="431" t="s">
+      <c r="AC58" s="362" t="s">
         <v>59</v>
       </c>
       <c r="AD58" s="23"/>
@@ -12397,7 +12413,7 @@
       <c r="AG58" s="50"/>
       <c r="AH58" s="50"/>
       <c r="AI58" s="36"/>
-      <c r="AJ58" s="415"/>
+      <c r="AJ58" s="346"/>
       <c r="AK58" s="23"/>
       <c r="AL58" s="23"/>
       <c r="AM58" s="23"/>
@@ -12420,7 +12436,7 @@
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
       <c r="Q59" s="244" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R59" s="248" t="s">
         <v>224</v>
@@ -12451,7 +12467,7 @@
         <v>2.1306818816810846E-3</v>
       </c>
       <c r="AB59" s="283"/>
-      <c r="AC59" s="432" t="s">
+      <c r="AC59" s="363" t="s">
         <v>59</v>
       </c>
       <c r="AD59" s="23"/>
@@ -12501,7 +12517,7 @@
       <c r="AG60" s="50"/>
       <c r="AH60" s="50"/>
       <c r="AI60" s="36"/>
-      <c r="AJ60" s="416"/>
+      <c r="AJ60" s="347"/>
       <c r="AK60" s="23"/>
       <c r="AL60" s="23"/>
       <c r="AM60" s="23"/>
@@ -12519,10 +12535,10 @@
       <c r="K61" s="242"/>
       <c r="L61" s="242"/>
       <c r="M61" s="242"/>
-      <c r="N61" s="335"/>
+      <c r="N61" s="327"/>
       <c r="P61" s="218"/>
       <c r="Q61" s="244" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R61" s="248" t="s">
         <v>222</v>
@@ -12553,7 +12569,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="433" t="s">
+      <c r="AC61" s="364" t="s">
         <v>56</v>
       </c>
       <c r="AD61" s="23"/>
@@ -12562,7 +12578,7 @@
       <c r="AG61" s="50"/>
       <c r="AH61" s="50"/>
       <c r="AI61" s="36"/>
-      <c r="AJ61" s="417"/>
+      <c r="AJ61" s="348"/>
       <c r="AK61" s="23"/>
       <c r="AL61" s="23"/>
       <c r="AM61" s="23"/>
@@ -12583,7 +12599,7 @@
       <c r="N62" s="242"/>
       <c r="P62" s="218"/>
       <c r="Q62" s="244" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R62" s="248" t="s">
         <v>223</v>
@@ -12614,7 +12630,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="434" t="s">
+      <c r="AC62" s="365" t="s">
         <v>56</v>
       </c>
       <c r="AD62" s="23"/>
@@ -12644,7 +12660,7 @@
       <c r="N63" s="242"/>
       <c r="P63" s="218"/>
       <c r="Q63" s="244" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R63" s="248" t="s">
         <v>224</v>
@@ -12675,7 +12691,7 @@
         <v>3.6363636609166861E-3</v>
       </c>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="435" t="s">
+      <c r="AC63" s="366" t="s">
         <v>56</v>
       </c>
       <c r="AD63" s="23"/>
@@ -12702,7 +12718,7 @@
       <c r="K64" s="242"/>
       <c r="L64" s="242"/>
       <c r="M64" s="242"/>
-      <c r="N64" s="336"/>
+      <c r="N64" s="328"/>
       <c r="P64" s="218"/>
       <c r="Q64" s="82"/>
       <c r="R64" s="248"/>
@@ -12755,7 +12771,7 @@
       <c r="Z65" s="248"/>
       <c r="AA65" s="248"/>
       <c r="AB65" s="284"/>
-      <c r="AC65" s="436"/>
+      <c r="AC65" s="367"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="50"/>
@@ -12788,7 +12804,7 @@
       <c r="Z66" s="248"/>
       <c r="AA66" s="248"/>
       <c r="AB66" s="284"/>
-      <c r="AC66" s="437"/>
+      <c r="AC66" s="368"/>
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="50"/>
@@ -12807,7 +12823,7 @@
       <c r="K67" s="242"/>
       <c r="L67" s="242"/>
       <c r="M67" s="242"/>
-      <c r="N67" s="337"/>
+      <c r="N67" s="329"/>
       <c r="P67" s="218"/>
       <c r="Q67" s="82"/>
       <c r="R67" s="248"/>
@@ -12821,7 +12837,7 @@
       <c r="Z67" s="248"/>
       <c r="AA67" s="248"/>
       <c r="AB67" s="284"/>
-      <c r="AC67" s="438"/>
+      <c r="AC67" s="369"/>
       <c r="AE67" s="36"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="50"/>
@@ -12887,7 +12903,7 @@
       <c r="Z69" s="248"/>
       <c r="AA69" s="248"/>
       <c r="AB69" s="284"/>
-      <c r="AC69" s="439"/>
+      <c r="AC69" s="370"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
       <c r="AG69" s="50"/>
@@ -12920,7 +12936,7 @@
       <c r="Z70" s="248"/>
       <c r="AA70" s="248"/>
       <c r="AB70" s="284"/>
-      <c r="AC70" s="440"/>
+      <c r="AC70" s="371"/>
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="50"/>
@@ -12953,7 +12969,7 @@
       <c r="Z71" s="248"/>
       <c r="AA71" s="248"/>
       <c r="AB71" s="284"/>
-      <c r="AC71" s="441"/>
+      <c r="AC71" s="372"/>
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="50"/>
@@ -19330,45 +19346,8 @@
       <c r="Y434" s="228"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
+  <mergeCells count="53">
+    <mergeCell ref="AE40:AJ40"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -19383,6 +19362,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -19441,15 +19458,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="378" t="s">
+      <c r="F1" s="376" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -19538,22 +19555,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="379" t="s">
+      <c r="D6" s="377" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="381"/>
+      <c r="E6" s="378"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="378"/>
+      <c r="H6" s="379"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="379" t="s">
+      <c r="M6" s="377" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="381"/>
+      <c r="N6" s="378"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="378"/>
+      <c r="Q6" s="379"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -19571,10 +19588,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="382" t="s">
+      <c r="F7" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="383"/>
+      <c r="G7" s="381"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -19597,10 +19614,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="382" t="s">
+      <c r="P7" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="383"/>
+      <c r="Q7" s="381"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -19677,7 +19694,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="370" t="s">
+      <c r="B9" s="382" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -19711,33 +19728,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="361">
+      <c r="M9" s="373">
         <v>20</v>
       </c>
-      <c r="N9" s="373" t="s">
+      <c r="N9" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="361">
+      <c r="O9" s="373">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="361">
+      <c r="P9" s="373">
         <v>3</v>
       </c>
-      <c r="Q9" s="361">
+      <c r="Q9" s="373">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="361">
+      <c r="R9" s="373">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="361"/>
-      <c r="T9" s="364">
+      <c r="S9" s="373"/>
+      <c r="T9" s="388">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="361">
+      <c r="U9" s="373">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19762,7 +19779,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="371"/>
+      <c r="B10" s="383"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19794,15 +19811,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="362"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
-      <c r="Q10" s="362"/>
-      <c r="R10" s="362"/>
-      <c r="S10" s="362"/>
-      <c r="T10" s="365"/>
-      <c r="U10" s="362"/>
+      <c r="M10" s="374"/>
+      <c r="N10" s="386"/>
+      <c r="O10" s="374"/>
+      <c r="P10" s="374"/>
+      <c r="Q10" s="374"/>
+      <c r="R10" s="374"/>
+      <c r="S10" s="374"/>
+      <c r="T10" s="389"/>
+      <c r="U10" s="374"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19810,10 +19827,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="361" t="s">
+      <c r="A11" s="373" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="371"/>
+      <c r="B11" s="383"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19824,15 +19841,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="362"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="362"/>
-      <c r="P11" s="362"/>
-      <c r="Q11" s="362"/>
-      <c r="R11" s="362"/>
-      <c r="S11" s="362"/>
-      <c r="T11" s="365"/>
-      <c r="U11" s="362"/>
+      <c r="M11" s="374"/>
+      <c r="N11" s="386"/>
+      <c r="O11" s="374"/>
+      <c r="P11" s="374"/>
+      <c r="Q11" s="374"/>
+      <c r="R11" s="374"/>
+      <c r="S11" s="374"/>
+      <c r="T11" s="389"/>
+      <c r="U11" s="374"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19851,8 +19868,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="363"/>
-      <c r="B12" s="372"/>
+      <c r="A12" s="375"/>
+      <c r="B12" s="384"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19863,15 +19880,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="363"/>
-      <c r="N12" s="375"/>
-      <c r="O12" s="363"/>
-      <c r="P12" s="363"/>
-      <c r="Q12" s="363"/>
-      <c r="R12" s="363"/>
-      <c r="S12" s="363"/>
-      <c r="T12" s="366"/>
-      <c r="U12" s="363"/>
+      <c r="M12" s="375"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="375"/>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="375"/>
+      <c r="S12" s="375"/>
+      <c r="T12" s="390"/>
+      <c r="U12" s="375"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19887,7 +19904,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="370" t="s">
+      <c r="B13" s="382" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19921,33 +19938,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="361">
+      <c r="M13" s="373">
         <v>80</v>
       </c>
-      <c r="N13" s="373" t="s">
+      <c r="N13" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="361">
+      <c r="O13" s="373">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="361">
+      <c r="P13" s="373">
         <v>2</v>
       </c>
-      <c r="Q13" s="361">
+      <c r="Q13" s="373">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="361">
+      <c r="R13" s="373">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="361"/>
-      <c r="T13" s="364">
+      <c r="S13" s="373"/>
+      <c r="T13" s="388">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="361">
+      <c r="U13" s="373">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19970,7 +19987,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="371"/>
+      <c r="B14" s="383"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -20002,15 +20019,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="362"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="362"/>
-      <c r="P14" s="362"/>
-      <c r="Q14" s="362"/>
-      <c r="R14" s="362"/>
-      <c r="S14" s="362"/>
-      <c r="T14" s="365"/>
-      <c r="U14" s="362"/>
+      <c r="M14" s="374"/>
+      <c r="N14" s="386"/>
+      <c r="O14" s="374"/>
+      <c r="P14" s="374"/>
+      <c r="Q14" s="374"/>
+      <c r="R14" s="374"/>
+      <c r="S14" s="374"/>
+      <c r="T14" s="389"/>
+      <c r="U14" s="374"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -20018,10 +20035,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="376" t="s">
+      <c r="A15" s="391" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="371"/>
+      <c r="B15" s="383"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -20032,15 +20049,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="362"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="362"/>
-      <c r="P15" s="362"/>
-      <c r="Q15" s="362"/>
-      <c r="R15" s="362"/>
-      <c r="S15" s="362"/>
-      <c r="T15" s="365"/>
-      <c r="U15" s="362"/>
+      <c r="M15" s="374"/>
+      <c r="N15" s="386"/>
+      <c r="O15" s="374"/>
+      <c r="P15" s="374"/>
+      <c r="Q15" s="374"/>
+      <c r="R15" s="374"/>
+      <c r="S15" s="374"/>
+      <c r="T15" s="389"/>
+      <c r="U15" s="374"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -20050,8 +20067,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="377"/>
-      <c r="B16" s="372"/>
+      <c r="A16" s="392"/>
+      <c r="B16" s="384"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -20062,15 +20079,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="363"/>
-      <c r="N16" s="375"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="363"/>
-      <c r="Q16" s="363"/>
-      <c r="R16" s="363"/>
-      <c r="S16" s="363"/>
-      <c r="T16" s="366"/>
-      <c r="U16" s="363"/>
+      <c r="M16" s="375"/>
+      <c r="N16" s="387"/>
+      <c r="O16" s="375"/>
+      <c r="P16" s="375"/>
+      <c r="Q16" s="375"/>
+      <c r="R16" s="375"/>
+      <c r="S16" s="375"/>
+      <c r="T16" s="390"/>
+      <c r="U16" s="375"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -20081,7 +20098,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="370" t="s">
+      <c r="B17" s="382" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -20115,33 +20132,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="361">
+      <c r="M17" s="373">
         <v>70</v>
       </c>
-      <c r="N17" s="373" t="s">
+      <c r="N17" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="361">
+      <c r="O17" s="373">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="361">
+      <c r="P17" s="373">
         <v>2</v>
       </c>
-      <c r="Q17" s="361">
+      <c r="Q17" s="373">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="361">
+      <c r="R17" s="373">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="361"/>
-      <c r="T17" s="364">
+      <c r="S17" s="373"/>
+      <c r="T17" s="388">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="361">
+      <c r="U17" s="373">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -20160,7 +20177,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="371"/>
+      <c r="B18" s="383"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -20192,24 +20209,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="362"/>
-      <c r="N18" s="374"/>
-      <c r="O18" s="362"/>
-      <c r="P18" s="362"/>
-      <c r="Q18" s="362"/>
-      <c r="R18" s="362"/>
-      <c r="S18" s="362"/>
-      <c r="T18" s="365"/>
-      <c r="U18" s="362"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="386"/>
+      <c r="O18" s="374"/>
+      <c r="P18" s="374"/>
+      <c r="Q18" s="374"/>
+      <c r="R18" s="374"/>
+      <c r="S18" s="374"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="374"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="373" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="371"/>
+      <c r="B19" s="383"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -20220,22 +20237,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="362"/>
-      <c r="N19" s="374"/>
-      <c r="O19" s="362"/>
-      <c r="P19" s="362"/>
-      <c r="Q19" s="362"/>
-      <c r="R19" s="362"/>
-      <c r="S19" s="362"/>
-      <c r="T19" s="365"/>
-      <c r="U19" s="362"/>
+      <c r="M19" s="374"/>
+      <c r="N19" s="386"/>
+      <c r="O19" s="374"/>
+      <c r="P19" s="374"/>
+      <c r="Q19" s="374"/>
+      <c r="R19" s="374"/>
+      <c r="S19" s="374"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="374"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="363"/>
-      <c r="B20" s="372"/>
+      <c r="A20" s="375"/>
+      <c r="B20" s="384"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -20246,15 +20263,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="363"/>
-      <c r="N20" s="375"/>
-      <c r="O20" s="363"/>
-      <c r="P20" s="363"/>
-      <c r="Q20" s="363"/>
-      <c r="R20" s="363"/>
-      <c r="S20" s="363"/>
-      <c r="T20" s="366"/>
-      <c r="U20" s="363"/>
+      <c r="M20" s="375"/>
+      <c r="N20" s="387"/>
+      <c r="O20" s="375"/>
+      <c r="P20" s="375"/>
+      <c r="Q20" s="375"/>
+      <c r="R20" s="375"/>
+      <c r="S20" s="375"/>
+      <c r="T20" s="390"/>
+      <c r="U20" s="375"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -20263,7 +20280,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="370" t="s">
+      <c r="B21" s="382" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -20297,33 +20314,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="361">
+      <c r="M21" s="373">
         <v>60</v>
       </c>
-      <c r="N21" s="373" t="s">
+      <c r="N21" s="385" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="361">
+      <c r="O21" s="373">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="361">
+      <c r="P21" s="373">
         <v>3</v>
       </c>
-      <c r="Q21" s="361">
+      <c r="Q21" s="373">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="361">
+      <c r="R21" s="373">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="361"/>
-      <c r="T21" s="364">
+      <c r="S21" s="373"/>
+      <c r="T21" s="388">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="361">
+      <c r="U21" s="373">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -20340,7 +20357,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="371"/>
+      <c r="B22" s="383"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -20372,24 +20389,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="362"/>
-      <c r="N22" s="374"/>
-      <c r="O22" s="362"/>
-      <c r="P22" s="362"/>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="362"/>
-      <c r="T22" s="365"/>
-      <c r="U22" s="362"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="386"/>
+      <c r="O22" s="374"/>
+      <c r="P22" s="374"/>
+      <c r="Q22" s="374"/>
+      <c r="R22" s="374"/>
+      <c r="S22" s="374"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="374"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="393" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="371"/>
+      <c r="B23" s="383"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -20400,22 +20417,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="362"/>
-      <c r="N23" s="374"/>
-      <c r="O23" s="362"/>
-      <c r="P23" s="362"/>
-      <c r="Q23" s="362"/>
-      <c r="R23" s="362"/>
-      <c r="S23" s="362"/>
-      <c r="T23" s="365"/>
-      <c r="U23" s="362"/>
+      <c r="M23" s="374"/>
+      <c r="N23" s="386"/>
+      <c r="O23" s="374"/>
+      <c r="P23" s="374"/>
+      <c r="Q23" s="374"/>
+      <c r="R23" s="374"/>
+      <c r="S23" s="374"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="374"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="372"/>
+      <c r="A24" s="394"/>
+      <c r="B24" s="384"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -20426,15 +20443,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="363"/>
-      <c r="N24" s="375"/>
-      <c r="O24" s="363"/>
-      <c r="P24" s="363"/>
-      <c r="Q24" s="363"/>
-      <c r="R24" s="363"/>
-      <c r="S24" s="363"/>
-      <c r="T24" s="366"/>
-      <c r="U24" s="363"/>
+      <c r="M24" s="375"/>
+      <c r="N24" s="387"/>
+      <c r="O24" s="375"/>
+      <c r="P24" s="375"/>
+      <c r="Q24" s="375"/>
+      <c r="R24" s="375"/>
+      <c r="S24" s="375"/>
+      <c r="T24" s="390"/>
+      <c r="U24" s="375"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -20460,13 +20477,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="369" t="s">
+      <c r="H27" s="395" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="369"/>
-      <c r="L27" s="369"/>
+      <c r="I27" s="395"/>
+      <c r="J27" s="395"/>
+      <c r="K27" s="395"/>
+      <c r="L27" s="395"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20746,19 +20763,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="359" t="s">
+      <c r="D40" s="398" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="359"/>
-      <c r="F40" s="359"/>
-      <c r="G40" s="359"/>
-      <c r="H40" s="359"/>
-      <c r="I40" s="359" t="s">
+      <c r="E40" s="398"/>
+      <c r="F40" s="398"/>
+      <c r="G40" s="398"/>
+      <c r="H40" s="398"/>
+      <c r="I40" s="398" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="359"/>
-      <c r="K40" s="359"/>
-      <c r="L40" s="359"/>
+      <c r="J40" s="398"/>
+      <c r="K40" s="398"/>
+      <c r="L40" s="398"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20882,19 +20899,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="354"/>
+      <c r="B42" s="399"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="355"/>
+      <c r="H42" s="397"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="355"/>
-      <c r="N42" s="396"/>
+      <c r="M42" s="397"/>
+      <c r="N42" s="424"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20940,19 +20957,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="354"/>
+      <c r="B43" s="399"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="355"/>
+      <c r="H43" s="397"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="355"/>
-      <c r="N43" s="355"/>
+      <c r="M43" s="397"/>
+      <c r="N43" s="397"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20998,19 +21015,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="354"/>
+      <c r="B44" s="399"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="355"/>
+      <c r="H44" s="397"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="355"/>
-      <c r="N44" s="355"/>
+      <c r="M44" s="397"/>
+      <c r="N44" s="397"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -21056,19 +21073,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="354"/>
+      <c r="B45" s="399"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="355"/>
+      <c r="H45" s="397"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="355"/>
-      <c r="N45" s="355"/>
+      <c r="M45" s="397"/>
+      <c r="N45" s="397"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -21114,19 +21131,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="354"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="355"/>
+      <c r="H46" s="397"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="355"/>
-      <c r="N46" s="397"/>
+      <c r="M46" s="397"/>
+      <c r="N46" s="425"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -21172,19 +21189,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="354"/>
+      <c r="B47" s="399"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="355"/>
+      <c r="H47" s="397"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="355"/>
-      <c r="N47" s="357"/>
+      <c r="M47" s="397"/>
+      <c r="N47" s="401"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -21232,19 +21249,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="354"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="355"/>
+      <c r="H48" s="397"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="355"/>
-      <c r="N48" s="357"/>
+      <c r="M48" s="397"/>
+      <c r="N48" s="401"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -21292,19 +21309,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="354"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="355"/>
+      <c r="H49" s="397"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="355"/>
-      <c r="N49" s="357"/>
+      <c r="M49" s="397"/>
+      <c r="N49" s="401"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -21352,19 +21369,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="349"/>
+      <c r="B50" s="402"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="350"/>
+      <c r="H50" s="403"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="350"/>
-      <c r="N50" s="398"/>
+      <c r="M50" s="403"/>
+      <c r="N50" s="426"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -21385,19 +21402,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="349"/>
+      <c r="B51" s="402"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="350"/>
+      <c r="H51" s="403"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="350"/>
-      <c r="N51" s="352"/>
+      <c r="M51" s="403"/>
+      <c r="N51" s="405"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -21428,19 +21445,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="349"/>
+      <c r="B52" s="402"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="350"/>
+      <c r="H52" s="403"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="350"/>
-      <c r="N52" s="352"/>
+      <c r="M52" s="403"/>
+      <c r="N52" s="405"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -21504,19 +21521,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="349"/>
+      <c r="B53" s="402"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="350"/>
+      <c r="H53" s="403"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="350"/>
-      <c r="N53" s="352"/>
+      <c r="M53" s="403"/>
+      <c r="N53" s="405"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -21565,19 +21582,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="349"/>
+      <c r="B54" s="402"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="350"/>
+      <c r="H54" s="403"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="350"/>
-      <c r="N54" s="391"/>
+      <c r="M54" s="403"/>
+      <c r="N54" s="427"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -21624,19 +21641,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="349"/>
+      <c r="B55" s="402"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="350"/>
+      <c r="H55" s="403"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="350"/>
-      <c r="N55" s="352"/>
+      <c r="M55" s="403"/>
+      <c r="N55" s="405"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -21683,19 +21700,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="349"/>
+      <c r="B56" s="402"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="350"/>
+      <c r="H56" s="403"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="350"/>
-      <c r="N56" s="352"/>
+      <c r="M56" s="403"/>
+      <c r="N56" s="405"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21742,19 +21759,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="349"/>
+      <c r="B57" s="402"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="350"/>
+      <c r="H57" s="403"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="350"/>
-      <c r="N57" s="352"/>
+      <c r="M57" s="403"/>
+      <c r="N57" s="405"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21801,19 +21818,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="344"/>
+      <c r="B58" s="407"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="345"/>
+      <c r="H58" s="408"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="345"/>
-      <c r="N58" s="392"/>
+      <c r="M58" s="408"/>
+      <c r="N58" s="428"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21860,19 +21877,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="344"/>
+      <c r="B59" s="407"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="345"/>
+      <c r="H59" s="408"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="345"/>
-      <c r="N59" s="347"/>
+      <c r="M59" s="408"/>
+      <c r="N59" s="410"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21919,19 +21936,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="344"/>
+      <c r="B60" s="407"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="345"/>
+      <c r="H60" s="408"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="345"/>
-      <c r="N60" s="347"/>
+      <c r="M60" s="408"/>
+      <c r="N60" s="410"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21978,247 +21995,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="344"/>
+      <c r="B61" s="407"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="345"/>
+      <c r="H61" s="408"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="345"/>
-      <c r="N61" s="347"/>
+      <c r="M61" s="408"/>
+      <c r="N61" s="410"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="344"/>
+      <c r="B62" s="407"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="345"/>
+      <c r="H62" s="408"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="393"/>
+      <c r="M62" s="408"/>
+      <c r="N62" s="429"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="344"/>
+      <c r="B63" s="407"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="345"/>
+      <c r="H63" s="408"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="345"/>
-      <c r="N63" s="347"/>
+      <c r="M63" s="408"/>
+      <c r="N63" s="410"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="344"/>
+      <c r="B64" s="407"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="345"/>
+      <c r="H64" s="408"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="345"/>
-      <c r="N64" s="347"/>
+      <c r="M64" s="408"/>
+      <c r="N64" s="410"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="344"/>
+      <c r="B65" s="407"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="345"/>
+      <c r="H65" s="408"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="345"/>
-      <c r="N65" s="347"/>
+      <c r="M65" s="408"/>
+      <c r="N65" s="410"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="340"/>
+      <c r="B66" s="411"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="341"/>
+      <c r="H66" s="412"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="341"/>
-      <c r="N66" s="394"/>
+      <c r="M66" s="412"/>
+      <c r="N66" s="430"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="340"/>
+      <c r="B67" s="411"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="341"/>
+      <c r="H67" s="412"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="341"/>
-      <c r="N67" s="343"/>
+      <c r="M67" s="412"/>
+      <c r="N67" s="414"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="340"/>
+      <c r="B68" s="411"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="341"/>
+      <c r="H68" s="412"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="341"/>
-      <c r="N68" s="343"/>
+      <c r="M68" s="412"/>
+      <c r="N68" s="414"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="340"/>
+      <c r="B69" s="411"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="341"/>
+      <c r="H69" s="412"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="341"/>
-      <c r="N69" s="343"/>
+      <c r="M69" s="412"/>
+      <c r="N69" s="414"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="340"/>
+      <c r="B70" s="411"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="341"/>
+      <c r="H70" s="412"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="341"/>
-      <c r="N70" s="395"/>
+      <c r="M70" s="412"/>
+      <c r="N70" s="431"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="340"/>
+      <c r="B71" s="411"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="341"/>
+      <c r="H71" s="412"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="341"/>
-      <c r="N71" s="343"/>
+      <c r="M71" s="412"/>
+      <c r="N71" s="414"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="340"/>
+      <c r="B72" s="411"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="341"/>
+      <c r="H72" s="412"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="341"/>
-      <c r="N72" s="343"/>
+      <c r="M72" s="412"/>
+      <c r="N72" s="414"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="340"/>
+      <c r="B73" s="411"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="341"/>
+      <c r="H73" s="412"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="341"/>
-      <c r="N73" s="343"/>
+      <c r="M73" s="412"/>
+      <c r="N73" s="414"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -23699,24 +23716,56 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -23733,56 +23782,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="252">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -838,40 +838,37 @@
     <t>Solid</t>
   </si>
   <si>
-    <t>Select Type:</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Test4 P1A1</t>
-  </si>
-  <si>
-    <t>Test Equipment5</t>
-  </si>
-  <si>
-    <t>Test Equipment6</t>
-  </si>
-  <si>
-    <t>Test Equipment8</t>
-  </si>
-  <si>
-    <t>Test Equipment6,Test Equipment8,Test Equipment5,</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Test3 P1A1</t>
-  </si>
-  <si>
-    <t>Test Equipment7</t>
-  </si>
-  <si>
-    <t>Test Equipment6,Test Equipment5,Test Equipment7,</t>
+    <t>Select Product Type</t>
+  </si>
+  <si>
+    <t>Limit Selection Type</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Test Product5</t>
+  </si>
+  <si>
+    <t>Test Product6</t>
+  </si>
+  <si>
+    <t>Tenant ID:</t>
+  </si>
+  <si>
+    <t>Test Product5 Test API</t>
+  </si>
+  <si>
+    <t>test equipment</t>
+  </si>
+  <si>
+    <t>test equipment1</t>
+  </si>
+  <si>
+    <t>Test Product6 Test API</t>
+  </si>
+  <si>
+    <t>Test Equipment27</t>
   </si>
 </sst>
 </file>
@@ -881,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="174" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1773,52 +1770,37 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2017,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="436">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2638,6 +2620,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,6 +2771,7 @@
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="46" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="79" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="83" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2793,9 +2779,6 @@
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -5215,15 +5198,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5312,22 +5295,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5345,10 +5328,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5371,10 +5354,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5451,7 +5434,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="378" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5485,33 +5468,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="369">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="369">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="369">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="369">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="369">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="369"/>
+      <c r="T9" s="384">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="369">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5536,7 +5519,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5568,15 +5551,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5584,10 +5567,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="369" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5598,15 +5581,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5625,8 +5608,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5637,15 +5620,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5661,7 +5644,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="378" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5695,33 +5678,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="369">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="369">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="369">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="369">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="369">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="369"/>
+      <c r="T13" s="384">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="369">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5744,7 +5727,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5776,15 +5759,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5792,10 +5775,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="387" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5806,15 +5789,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5824,8 +5807,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5836,15 +5819,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5855,7 +5838,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="378" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5889,33 +5872,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="369">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="369">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="369">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="369">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="369">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="369"/>
+      <c r="T17" s="384">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="369">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5934,7 +5917,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5966,24 +5949,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5994,22 +5977,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -6020,15 +6003,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -6037,7 +6020,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="378" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -6071,33 +6054,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="369">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="369">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="369">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="369">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="369">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="369"/>
+      <c r="T21" s="384">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="369">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6114,7 +6097,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6146,24 +6129,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6174,22 +6157,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6200,15 +6183,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6234,13 +6217,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="391" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6520,19 +6503,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="394"/>
+      <c r="F40" s="394"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="394"/>
+      <c r="I40" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="394"/>
+      <c r="L40" s="394"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6656,7 +6639,7 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="394" t="s">
+      <c r="B42" s="395" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6664,17 +6647,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="392">
+      <c r="H42" s="393">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="392">
+      <c r="M42" s="393">
         <v>1</v>
       </c>
-      <c r="N42" s="391" t="s">
+      <c r="N42" s="392" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6722,7 +6705,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="395"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6738,7 +6721,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="392"/>
+      <c r="H43" s="393"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6751,8 +6734,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="393"/>
+      <c r="N43" s="393"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6798,7 +6781,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6814,7 +6797,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="392"/>
+      <c r="H44" s="393"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6827,8 +6810,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6874,7 +6857,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6890,7 +6873,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="392"/>
+      <c r="H45" s="393"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6903,8 +6886,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="393"/>
+      <c r="N45" s="393"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6950,19 +6933,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="393"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="395"/>
+      <c r="M46" s="393"/>
+      <c r="N46" s="396"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -7008,19 +6991,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="393"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="393"/>
+      <c r="N47" s="397"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -7068,19 +7051,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="393"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="393"/>
+      <c r="N48" s="397"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7128,19 +7111,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="393"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="393"/>
+      <c r="N49" s="397"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7188,19 +7171,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="398"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="399"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="399"/>
+      <c r="M50" s="399"/>
+      <c r="N50" s="400"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7221,19 +7204,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="398"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="399"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="399"/>
+      <c r="N51" s="401"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7264,19 +7247,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="398"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="399"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="399"/>
+      <c r="N52" s="401"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7340,19 +7323,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="398"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="399"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="399"/>
+      <c r="N53" s="401"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7401,19 +7384,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="398"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="399"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="401"/>
+      <c r="M54" s="399"/>
+      <c r="N54" s="402"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7460,19 +7443,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="398"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="399"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="399"/>
+      <c r="N55" s="401"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7519,19 +7502,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="398"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="399"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="399"/>
+      <c r="N56" s="401"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7578,19 +7561,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="398"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="399"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="399"/>
+      <c r="N57" s="401"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7637,19 +7620,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="403"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="404"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="404"/>
+      <c r="M58" s="404"/>
+      <c r="N58" s="405"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7696,19 +7679,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="403"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="404"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="404"/>
+      <c r="N59" s="406"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7755,19 +7738,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="403"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="404"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="404"/>
+      <c r="N60" s="406"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7814,247 +7797,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="403"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="404"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="404"/>
+      <c r="N61" s="406"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="403"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="404"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="410"/>
+      <c r="M62" s="404"/>
+      <c r="N62" s="411"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="403"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="404"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="404"/>
+      <c r="N63" s="406"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="403"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="404"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="404"/>
+      <c r="N64" s="406"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="403"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="404"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="404"/>
+      <c r="N65" s="406"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="407"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="408"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="411"/>
+      <c r="M66" s="408"/>
+      <c r="N66" s="412"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="407"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="408"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="408"/>
+      <c r="N67" s="410"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="407"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="408"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="408"/>
+      <c r="N68" s="410"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="407"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="408"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="408"/>
+      <c r="N69" s="410"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="407"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="408"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="408"/>
+      <c r="M70" s="408"/>
+      <c r="N70" s="409"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="407"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="408"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="408"/>
+      <c r="N71" s="410"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="407"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="408"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="408"/>
+      <c r="N72" s="410"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="407"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="408"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="408"/>
+      <c r="N73" s="410"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9708,14 +9691,14 @@
   <dimension ref="A1:AV434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="B44" sqref="B44:B45"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="22" width="27.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="22" width="29.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="22" width="33.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="22" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="22" width="25.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="22" width="36.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="22" width="30.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="22" width="21.42578125" collapsed="true"/>
@@ -9756,15 +9739,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9813,22 +9796,22 @@
       <c r="L5" s="23"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9846,10 +9829,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9872,10 +9855,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9943,7 +9926,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="377"/>
+      <c r="B9" s="378"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9954,15 +9937,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="368"/>
-      <c r="N9" s="380"/>
-      <c r="O9" s="368"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="368"/>
-      <c r="R9" s="368"/>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383"/>
-      <c r="U9" s="368"/>
+      <c r="M9" s="369"/>
+      <c r="N9" s="381"/>
+      <c r="O9" s="369"/>
+      <c r="P9" s="369"/>
+      <c r="Q9" s="369"/>
+      <c r="R9" s="369"/>
+      <c r="S9" s="369"/>
+      <c r="T9" s="384"/>
+      <c r="U9" s="369"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9972,7 +9955,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9983,15 +9966,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9999,8 +9982,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
-      <c r="B11" s="378"/>
+      <c r="A11" s="369"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -10011,15 +9994,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -10029,8 +10012,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -10041,15 +10024,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -10058,7 +10041,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="377"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -10069,15 +10052,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="368"/>
-      <c r="N13" s="380"/>
-      <c r="O13" s="368"/>
-      <c r="P13" s="368"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="368"/>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383"/>
-      <c r="U13" s="368"/>
+      <c r="M13" s="369"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="369"/>
+      <c r="P13" s="369"/>
+      <c r="Q13" s="369"/>
+      <c r="R13" s="369"/>
+      <c r="S13" s="369"/>
+      <c r="T13" s="384"/>
+      <c r="U13" s="369"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -10086,7 +10069,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10097,15 +10080,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10113,8 +10096,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386"/>
-      <c r="B15" s="378"/>
+      <c r="A15" s="387"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10125,15 +10108,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10141,8 +10124,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10153,15 +10136,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10170,7 +10153,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="377"/>
+      <c r="B17" s="378"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10181,15 +10164,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="368"/>
-      <c r="N17" s="380"/>
-      <c r="O17" s="368"/>
-      <c r="P17" s="368"/>
-      <c r="Q17" s="368"/>
-      <c r="R17" s="368"/>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383"/>
-      <c r="U17" s="368"/>
+      <c r="M17" s="369"/>
+      <c r="N17" s="381"/>
+      <c r="O17" s="369"/>
+      <c r="P17" s="369"/>
+      <c r="Q17" s="369"/>
+      <c r="R17" s="369"/>
+      <c r="S17" s="369"/>
+      <c r="T17" s="384"/>
+      <c r="U17" s="369"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10198,7 +10181,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10209,22 +10192,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368"/>
-      <c r="B19" s="378"/>
+      <c r="A19" s="369"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10235,22 +10218,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10261,22 +10244,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="377"/>
+      <c r="B21" s="378"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10287,22 +10270,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="368"/>
-      <c r="N21" s="380"/>
-      <c r="O21" s="368"/>
-      <c r="P21" s="368"/>
-      <c r="Q21" s="368"/>
-      <c r="R21" s="368"/>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383"/>
-      <c r="U21" s="368"/>
+      <c r="M21" s="369"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="369"/>
+      <c r="P21" s="369"/>
+      <c r="Q21" s="369"/>
+      <c r="R21" s="369"/>
+      <c r="S21" s="369"/>
+      <c r="T21" s="384"/>
+      <c r="U21" s="369"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10313,22 +10296,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388"/>
-      <c r="B23" s="378"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10339,22 +10322,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10365,15 +10348,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10563,13 +10546,17 @@
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
     </row>
-    <row customHeight="1" ht="25.5" r="38" spans="1:41" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" s="22">
-        <v>0</v>
-      </c>
-      <c r="B39" s="22">
-        <v>1</v>
+    <row customHeight="1" ht="25.5" r="38" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A38" s="428" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="49.5" r="39" spans="1:41" x14ac:dyDescent="0.4">
+      <c r="A39" s="368" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="368" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="22">
         <v>2</v>
@@ -10681,40 +10668,40 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:41" x14ac:dyDescent="0.5">
       <c r="A40" s="366" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B40" s="367" t="s">
         <v>240</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="413" t="s">
+      <c r="F40" s="414" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="414"/>
-      <c r="H40" s="414"/>
-      <c r="I40" s="415"/>
-      <c r="J40" s="416" t="s">
+      <c r="G40" s="415"/>
+      <c r="H40" s="415"/>
+      <c r="I40" s="416"/>
+      <c r="J40" s="417" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="417"/>
-      <c r="L40" s="417"/>
-      <c r="M40" s="418"/>
+      <c r="K40" s="418"/>
+      <c r="L40" s="418"/>
+      <c r="M40" s="419"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="412" t="s">
+      <c r="Q40" s="413" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="412"/>
-      <c r="S40" s="412"/>
-      <c r="T40" s="412"/>
-      <c r="U40" s="412"/>
-      <c r="V40" s="412"/>
-      <c r="W40" s="412"/>
-      <c r="X40" s="412"/>
-      <c r="Y40" s="412"/>
+      <c r="R40" s="413"/>
+      <c r="S40" s="413"/>
+      <c r="T40" s="413"/>
+      <c r="U40" s="413"/>
+      <c r="V40" s="413"/>
+      <c r="W40" s="413"/>
+      <c r="X40" s="413"/>
+      <c r="Y40" s="413"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10842,51 +10829,51 @@
         <v>1</v>
       </c>
       <c r="B42" s="310" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F42" s="286" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G42" s="286" t="n">
-        <v>0.002500000037252903</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H42" s="287" t="n">
-        <v>1250.0000186264515</v>
+        <v>437.50002078013495</v>
       </c>
       <c r="I42" s="287" t="n">
-        <v>0.009687504269112676</v>
+        <v>19.886364580915224</v>
       </c>
       <c r="J42" s="287" t="n">
-        <v>0.020000001415610313</v>
+        <v>0.03500000014901161</v>
       </c>
       <c r="K42" s="286" t="n">
-        <v>2.500000118743628E-4</v>
+        <v>8.750000270083547E-4</v>
       </c>
       <c r="L42" s="286" t="n">
-        <v>125.00000762939453</v>
+        <v>437.5</v>
       </c>
       <c r="M42" s="287" t="n">
-        <v>9.687505080364645E-4</v>
-      </c>
-      <c r="N42" s="427" t="s">
-        <v>59</v>
+        <v>19.886363983154297</v>
+      </c>
+      <c r="N42" s="429" t="s">
+        <v>56</v>
       </c>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="246" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R42" s="247" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="S42" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T42" s="247" t="n">
         <v>60.0</v>
@@ -10898,41 +10885,33 @@
         <v>20.0</v>
       </c>
       <c r="W42" s="247" t="n">
-        <v>0.5812502838671207</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X42" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
-      <c r="Y42" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y42" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z42" s="247" t="n">
-        <v>0.058125030249357224</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA42" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
-      <c r="AB42" s="282"/>
-      <c r="AC42" s="428" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB42" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC42" s="430" t="s">
+        <v>56</v>
       </c>
       <c r="AD42" s="64"/>
-      <c r="AE42" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF42" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG42" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AH42" s="50" t="n">
-        <v>0.0937500149011612</v>
-      </c>
-      <c r="AI42" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ42" s="431" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="333"/>
       <c r="AK42" s="226"/>
       <c r="AL42" s="23"/>
       <c r="AM42" s="23"/>
@@ -10944,51 +10923,51 @@
         <v>2</v>
       </c>
       <c r="B43" s="310" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>250</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F43" s="287" t="n">
-        <v>0.20000000298023224</v>
+        <v>0.035000001662410796</v>
       </c>
       <c r="G43" s="286" t="n">
-        <v>0.0022222222553359137</v>
+        <v>8.750000415602699E-4</v>
       </c>
       <c r="H43" s="287" t="n">
-        <v>1777.777804268731</v>
+        <v>437.50002078013495</v>
       </c>
       <c r="I43" s="288" t="n">
-        <v>0.013777783849404694</v>
+        <v>19.886364580915224</v>
       </c>
       <c r="J43" s="287" t="n">
-        <v>0.030000001192092896</v>
+        <v>0.03500000014901161</v>
       </c>
       <c r="K43" s="286" t="n">
-        <v>3.333333588670939E-4</v>
+        <v>8.750000270083547E-4</v>
       </c>
       <c r="L43" s="286" t="n">
-        <v>266.66668701171875</v>
+        <v>437.5</v>
       </c>
       <c r="M43" s="288" t="n">
-        <v>0.0020666676573455334</v>
+        <v>19.886363983154297</v>
       </c>
       <c r="N43" s="432" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="246" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="R43" s="247" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="S43" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T43" s="247" t="n">
         <v>60.0</v>
@@ -11000,21 +10979,25 @@
         <v>20.0</v>
       </c>
       <c r="W43" s="247" t="n">
-        <v>0.5812502838671207</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X43" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
-      <c r="Y43" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y43" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z43" s="247" t="n">
-        <v>0.058125030249357224</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA43" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
-      <c r="AB43" s="282"/>
-      <c r="AC43" s="429" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB43" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC43" s="431" t="s">
+        <v>56</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
@@ -11047,60 +11030,26 @@
       <c r="N44" s="307"/>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
-      <c r="Q44" s="246" t="s">
-        <v>244</v>
-      </c>
-      <c r="R44" s="247" t="s">
-        <v>247</v>
-      </c>
-      <c r="S44" s="247" t="n">
-        <v>64516.1015625</v>
-      </c>
-      <c r="T44" s="247" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U44" s="247" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V44" s="247" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W44" s="247" t="n">
-        <v>0.5812502838671207</v>
-      </c>
-      <c r="X44" s="247" t="n">
-        <v>0.014531257096678019</v>
-      </c>
+      <c r="Q44" s="246"/>
+      <c r="R44" s="247"/>
+      <c r="S44" s="247"/>
+      <c r="T44" s="247"/>
+      <c r="U44" s="247"/>
+      <c r="V44" s="247"/>
+      <c r="W44" s="247"/>
+      <c r="X44" s="247"/>
       <c r="Y44" s="248"/>
-      <c r="Z44" s="247" t="n">
-        <v>0.058125030249357224</v>
-      </c>
-      <c r="AA44" s="247" t="n">
-        <v>0.0014531257329508662</v>
-      </c>
+      <c r="Z44" s="247"/>
+      <c r="AA44" s="247"/>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="430" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC44" s="349"/>
       <c r="AD44" s="64"/>
-      <c r="AE44" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF44" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG44" s="50" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="AH44" s="50" t="n">
-        <v>0.13333334028720856</v>
-      </c>
-      <c r="AI44" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJ44" s="436" t="s">
-        <v>59</v>
-      </c>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="318"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
       <c r="AM44" s="23"/>
@@ -11125,19 +11074,45 @@
       <c r="N45" s="307"/>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
-      <c r="Q45" s="246"/>
-      <c r="R45" s="247"/>
-      <c r="S45" s="247"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="247"/>
-      <c r="V45" s="247"/>
-      <c r="W45" s="247"/>
-      <c r="X45" s="247"/>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="247"/>
-      <c r="AA45" s="247"/>
-      <c r="AB45" s="282"/>
-      <c r="AC45" s="50"/>
+      <c r="Q45" s="246" t="s">
+        <v>250</v>
+      </c>
+      <c r="R45" s="247" t="s">
+        <v>248</v>
+      </c>
+      <c r="S45" s="247" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T45" s="247" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U45" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V45" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W45" s="247" t="n">
+        <v>1193.1818389892578</v>
+      </c>
+      <c r="X45" s="247" t="n">
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y45" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
+      <c r="Z45" s="247" t="n">
+        <v>1193.1817626953125</v>
+      </c>
+      <c r="AA45" s="247" t="n">
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB45" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC45" s="433" t="s">
+        <v>56</v>
+      </c>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
@@ -11171,10 +11146,10 @@
         <v>250</v>
       </c>
       <c r="R46" s="247" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="S46" s="247" t="n">
-        <v>64516.1015625</v>
+        <v>11.0</v>
       </c>
       <c r="T46" s="247" t="n">
         <v>60.0</v>
@@ -11186,21 +11161,25 @@
         <v>20.0</v>
       </c>
       <c r="W46" s="247" t="n">
-        <v>0.8266670443117619</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X46" s="247" t="n">
-        <v>0.020666676107794046</v>
-      </c>
-      <c r="Y46" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y46" s="248" t="n">
+        <v>0.0109375</v>
+      </c>
       <c r="Z46" s="247" t="n">
-        <v>0.12400005757808685</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA46" s="247" t="n">
-        <v>0.0031000014860183</v>
-      </c>
-      <c r="AB46" s="282"/>
-      <c r="AC46" s="433" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB46" s="282" t="n">
+        <v>0.010937499813735485</v>
+      </c>
+      <c r="AC46" s="434" t="s">
+        <v>56</v>
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
@@ -11234,10 +11213,10 @@
         <v>250</v>
       </c>
       <c r="R47" s="248" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="S47" s="249" t="n">
-        <v>64516.1015625</v>
+        <v>10000.0</v>
       </c>
       <c r="T47" s="249" t="n">
         <v>60.0</v>
@@ -11249,21 +11228,25 @@
         <v>20.0</v>
       </c>
       <c r="W47" s="248" t="n">
-        <v>0.8266670443117619</v>
+        <v>1193.1818389892578</v>
       </c>
       <c r="X47" s="248" t="n">
-        <v>0.020666676107794046</v>
-      </c>
-      <c r="Y47" s="248"/>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="Y47" s="248" t="n">
+        <v>9.94318203125</v>
+      </c>
       <c r="Z47" s="248" t="n">
-        <v>0.12400005757808685</v>
+        <v>1193.1817626953125</v>
       </c>
       <c r="AA47" s="248" t="n">
-        <v>0.0031000014860183</v>
-      </c>
-      <c r="AB47" s="283"/>
-      <c r="AC47" s="434" t="s">
-        <v>59</v>
+        <v>29.829545974731445</v>
+      </c>
+      <c r="AB47" s="283" t="n">
+        <v>9.943181991577148</v>
+      </c>
+      <c r="AC47" s="435" t="s">
+        <v>56</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11293,41 +11276,19 @@
       <c r="M48" s="286"/>
       <c r="N48" s="308"/>
       <c r="P48" s="218"/>
-      <c r="Q48" s="244" t="s">
-        <v>250</v>
-      </c>
-      <c r="R48" s="248" t="s">
-        <v>251</v>
-      </c>
-      <c r="S48" s="249" t="n">
-        <v>64516.1015625</v>
-      </c>
-      <c r="T48" s="249" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U48" s="247" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V48" s="247" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W48" s="248" t="n">
-        <v>0.8266670443117619</v>
-      </c>
-      <c r="X48" s="248" t="n">
-        <v>0.020666676107794046</v>
-      </c>
+      <c r="Q48" s="244"/>
+      <c r="R48" s="248"/>
+      <c r="S48" s="249"/>
+      <c r="T48" s="249"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="247"/>
+      <c r="W48" s="248"/>
+      <c r="X48" s="248"/>
       <c r="Y48" s="248"/>
-      <c r="Z48" s="248" t="n">
-        <v>0.12400005757808685</v>
-      </c>
-      <c r="AA48" s="248" t="n">
-        <v>0.0031000014860183</v>
-      </c>
+      <c r="Z48" s="248"/>
+      <c r="AA48" s="248"/>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="435" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC48" s="352"/>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="36"/>
@@ -18643,12 +18604,15 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:Q12"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">
       <formula1>"daily,week,month"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="B40" type="list">
       <formula1>"Solid,Liquid,Inhalant,Patch,Topical"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A40" type="list">
+      <formula1>"Manual,Campaign"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -18700,15 +18664,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:47" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18797,22 +18761,22 @@
       </c>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:47" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18830,10 +18794,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18856,10 +18820,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18936,7 +18900,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="378" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18970,33 +18934,33 @@
         <f ref="L9:L22" si="0" t="shared">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="369">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="369">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="369">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="369">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="369">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="369"/>
+      <c r="T9" s="384">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="369">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -19021,7 +18985,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -19053,15 +19017,15 @@
         <f si="0" t="shared"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -19069,10 +19033,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="369" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -19083,15 +19047,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -19110,8 +19074,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -19122,15 +19086,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -19146,7 +19110,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="378" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -19180,33 +19144,33 @@
         <f si="0" t="shared"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="369">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="369">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="369">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="369">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="369">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="369"/>
+      <c r="T13" s="384">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="369">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -19229,7 +19193,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19261,15 +19225,15 @@
         <f si="0" t="shared"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19277,10 +19241,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="387" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19291,15 +19255,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19309,8 +19273,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19321,15 +19285,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19340,7 +19304,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="378" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19374,33 +19338,33 @@
         <f si="0" t="shared"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="369">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="369">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="369">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="369">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="369">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="369"/>
+      <c r="T17" s="384">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="369">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19419,7 +19383,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19451,24 +19415,24 @@
         <f si="0" t="shared"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19479,22 +19443,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19505,15 +19469,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19522,7 +19486,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="378" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19556,33 +19520,33 @@
         <f si="0" t="shared"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="369">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="369">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="369">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="369">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="369">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="369"/>
+      <c r="T21" s="384">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="369">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19599,7 +19563,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19631,24 +19595,24 @@
         <f si="0" t="shared"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19659,22 +19623,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:46" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19685,15 +19649,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19719,13 +19683,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="391" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -20005,19 +19969,19 @@
     <row customHeight="1" ht="32.25" r="40" spans="1:40" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="394"/>
+      <c r="F40" s="394"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="394"/>
+      <c r="I40" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="394"/>
+      <c r="L40" s="394"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -20141,19 +20105,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="42" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B42" s="394"/>
+      <c r="B42" s="395"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="392"/>
+      <c r="H42" s="393"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="392"/>
-      <c r="N42" s="419"/>
+      <c r="M42" s="393"/>
+      <c r="N42" s="420"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -20199,19 +20163,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="395"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="392"/>
+      <c r="H43" s="393"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="393"/>
+      <c r="N43" s="393"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20257,19 +20221,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="392"/>
+      <c r="H44" s="393"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20315,19 +20279,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="392"/>
+      <c r="H45" s="393"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="393"/>
+      <c r="N45" s="393"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20373,19 +20337,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="393"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="420"/>
+      <c r="M46" s="393"/>
+      <c r="N46" s="421"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20431,19 +20395,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="393"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="393"/>
+      <c r="N47" s="397"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20491,19 +20455,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="393"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="393"/>
+      <c r="N48" s="397"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20551,19 +20515,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="393"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="393"/>
+      <c r="N49" s="397"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20611,19 +20575,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="398"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="399"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="421"/>
+      <c r="M50" s="399"/>
+      <c r="N50" s="422"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20644,19 +20608,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row customHeight="1" ht="24.95" r="51" spans="2:40" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="398"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="399"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="399"/>
+      <c r="N51" s="401"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20687,19 +20651,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row customHeight="1" ht="24.95" r="52" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="398"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="399"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="399"/>
+      <c r="N52" s="401"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20763,19 +20727,19 @@
       </c>
     </row>
     <row customHeight="1" ht="24.95" r="53" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="398"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="399"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="399"/>
+      <c r="N53" s="401"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20824,19 +20788,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="54" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="398"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="399"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="422"/>
+      <c r="M54" s="399"/>
+      <c r="N54" s="423"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20883,19 +20847,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="55" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="398"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="399"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="399"/>
+      <c r="N55" s="401"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20942,19 +20906,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="56" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="398"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="399"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="399"/>
+      <c r="N56" s="401"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -21001,19 +20965,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="57" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="398"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="399"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="399"/>
+      <c r="N57" s="401"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -21060,19 +21024,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="58" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="403"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="404"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="423"/>
+      <c r="M58" s="404"/>
+      <c r="N58" s="424"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -21119,19 +21083,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="59" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="403"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="404"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="404"/>
+      <c r="N59" s="406"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -21178,19 +21142,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row customHeight="1" ht="24.95" r="60" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="403"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="404"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="404"/>
+      <c r="N60" s="406"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -21237,247 +21201,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row customHeight="1" ht="24.95" r="61" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="403"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="404"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="404"/>
+      <c r="N61" s="406"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="62" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="403"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="404"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="424"/>
+      <c r="M62" s="404"/>
+      <c r="N62" s="425"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="63" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="403"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="404"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="404"/>
+      <c r="N63" s="406"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="64" spans="2:40" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="403"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="404"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="404"/>
+      <c r="N64" s="406"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="403"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="404"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="404"/>
+      <c r="N65" s="406"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="407"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="408"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="425"/>
+      <c r="M66" s="408"/>
+      <c r="N66" s="426"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="407"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="408"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="408"/>
+      <c r="N67" s="410"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="407"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="408"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="408"/>
+      <c r="N68" s="410"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="407"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="408"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="408"/>
+      <c r="N69" s="410"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="407"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="408"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="426"/>
+      <c r="M70" s="408"/>
+      <c r="N70" s="427"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="407"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="408"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="408"/>
+      <c r="N71" s="410"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="407"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="408"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="408"/>
+      <c r="N72" s="410"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row customHeight="1" ht="24.95" r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="407"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="408"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="408"/>
+      <c r="N73" s="410"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="254">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -856,19 +856,25 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>Test Product5 Test API</t>
-  </si>
-  <si>
-    <t>test equipment</t>
-  </si>
-  <si>
-    <t>test equipment1</t>
-  </si>
-  <si>
-    <t>Test Product6 Test API</t>
-  </si>
-  <si>
-    <t>Test Equipment27</t>
+    <t>S1 active1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S1 active2</t>
+  </si>
+  <si>
+    <t>S2 active1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>S2 active2</t>
   </si>
 </sst>
 </file>
@@ -878,7 +884,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="184" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,37 +1776,102 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1999,7 +2070,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="436">
+  <cellXfs count="449">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2779,6 +2850,19 @@
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -10835,34 +10919,34 @@
         <v>247</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F42" s="286" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.005714285985699721</v>
       </c>
       <c r="G42" s="286" t="n">
-        <v>8.750000415602699E-4</v>
+        <v>1.6000128446531142E-4</v>
       </c>
       <c r="H42" s="287" t="n">
-        <v>437.50002078013495</v>
+        <v>80.00064223265571</v>
       </c>
       <c r="I42" s="287" t="n">
-        <v>19.886364580915224</v>
+        <v>1.3333440372109283E-4</v>
       </c>
       <c r="J42" s="287" t="n">
-        <v>0.03500000014901161</v>
+        <v>0.005714286584407091</v>
       </c>
       <c r="K42" s="286" t="n">
-        <v>8.750000270083547E-4</v>
+        <v>1.6000002506189048E-4</v>
       </c>
       <c r="L42" s="286" t="n">
-        <v>437.5</v>
+        <v>80.00000762939453</v>
       </c>
       <c r="M42" s="287" t="n">
-        <v>19.886363983154297</v>
+        <v>1.6000002506189048E-4</v>
       </c>
       <c r="N42" s="429" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
@@ -10870,10 +10954,10 @@
         <v>247</v>
       </c>
       <c r="R42" s="247" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="S42" s="247" t="n">
-        <v>11.0</v>
+        <v>10000.0</v>
       </c>
       <c r="T42" s="247" t="n">
         <v>60.0</v>
@@ -10885,25 +10969,25 @@
         <v>20.0</v>
       </c>
       <c r="W42" s="247" t="n">
-        <v>1193.1818389892578</v>
+        <v>0.008000063826330006</v>
       </c>
       <c r="X42" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.0000159565825015E-4</v>
       </c>
       <c r="Y42" s="248" t="n">
-        <v>0.0109375</v>
+        <v>6.666719913482666E-5</v>
       </c>
       <c r="Z42" s="247" t="n">
-        <v>1193.1817626953125</v>
+        <v>0.009600001387298107</v>
       </c>
       <c r="AA42" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.400000230409205E-4</v>
       </c>
       <c r="AB42" s="282" t="n">
-        <v>0.010937499813735485</v>
+        <v>8.000001253094524E-5</v>
       </c>
       <c r="AC42" s="430" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50"/>
@@ -10926,37 +11010,37 @@
         <v>245</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F43" s="287" t="n">
-        <v>0.035000001662410796</v>
+        <v>0.011428571971399442</v>
       </c>
       <c r="G43" s="286" t="n">
-        <v>8.750000415602699E-4</v>
+        <v>3.2000256893062283E-4</v>
       </c>
       <c r="H43" s="287" t="n">
-        <v>437.50002078013495</v>
+        <v>160.00128446531141</v>
       </c>
       <c r="I43" s="288" t="n">
-        <v>19.886364580915224</v>
+        <v>2.6666880744218567E-4</v>
       </c>
       <c r="J43" s="287" t="n">
-        <v>0.03500000014901161</v>
+        <v>0.011428573168814182</v>
       </c>
       <c r="K43" s="286" t="n">
-        <v>8.750000270083547E-4</v>
+        <v>3.2000005012378097E-4</v>
       </c>
       <c r="L43" s="286" t="n">
-        <v>437.5</v>
+        <v>160.00001525878906</v>
       </c>
       <c r="M43" s="288" t="n">
-        <v>19.886363983154297</v>
-      </c>
-      <c r="N43" s="432" t="s">
-        <v>56</v>
+        <v>3.2000005012378097E-4</v>
+      </c>
+      <c r="N43" s="434" t="s">
+        <v>59</v>
       </c>
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
@@ -10964,10 +11048,10 @@
         <v>247</v>
       </c>
       <c r="R43" s="247" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="S43" s="247" t="n">
-        <v>11.0</v>
+        <v>100000.0</v>
       </c>
       <c r="T43" s="247" t="n">
         <v>60.0</v>
@@ -10979,25 +11063,25 @@
         <v>20.0</v>
       </c>
       <c r="W43" s="247" t="n">
-        <v>1193.1818389892578</v>
+        <v>0.008000063826330006</v>
       </c>
       <c r="X43" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.0000159565825015E-4</v>
       </c>
       <c r="Y43" s="248" t="n">
-        <v>0.0109375</v>
+        <v>6.666719913482666E-4</v>
       </c>
       <c r="Z43" s="247" t="n">
-        <v>1193.1817626953125</v>
+        <v>0.009600001387298107</v>
       </c>
       <c r="AA43" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.400000230409205E-4</v>
       </c>
       <c r="AB43" s="282" t="n">
-        <v>0.010937499813735485</v>
+        <v>8.00000096205622E-4</v>
       </c>
       <c r="AC43" s="431" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
@@ -11017,32 +11101,80 @@
         <v>3</v>
       </c>
       <c r="B44" s="310"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="286"/>
-      <c r="G44" s="286"/>
-      <c r="H44" s="287"/>
-      <c r="I44" s="287"/>
-      <c r="J44" s="287"/>
-      <c r="K44" s="286"/>
-      <c r="L44" s="286"/>
-      <c r="M44" s="287"/>
-      <c r="N44" s="307"/>
+      <c r="D44" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="286" t="n">
+        <v>0.007142857482124652</v>
+      </c>
+      <c r="G44" s="286" t="n">
+        <v>1.3888773578032173E-4</v>
+      </c>
+      <c r="H44" s="287" t="n">
+        <v>249.99792440457912</v>
+      </c>
+      <c r="I44" s="287" t="n">
+        <v>4.166632073409652E-4</v>
+      </c>
+      <c r="J44" s="287" t="n">
+        <v>0.007142857648432255</v>
+      </c>
+      <c r="K44" s="286" t="n">
+        <v>1.3888889225199819E-4</v>
+      </c>
+      <c r="L44" s="286" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="M44" s="287" t="n">
+        <v>5.000000237487257E-4</v>
+      </c>
+      <c r="N44" s="439" t="s">
+        <v>59</v>
+      </c>
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
-      <c r="Q44" s="246"/>
-      <c r="R44" s="247"/>
-      <c r="S44" s="247"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="247"/>
-      <c r="V44" s="247"/>
-      <c r="W44" s="247"/>
-      <c r="X44" s="247"/>
-      <c r="Y44" s="248"/>
-      <c r="Z44" s="247"/>
-      <c r="AA44" s="247"/>
-      <c r="AB44" s="282"/>
-      <c r="AC44" s="349"/>
+      <c r="Q44" s="246" t="s">
+        <v>247</v>
+      </c>
+      <c r="R44" s="247" t="s">
+        <v>223</v>
+      </c>
+      <c r="S44" s="247" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T44" s="247" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U44" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V44" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W44" s="247" t="n">
+        <v>0.008000063826330006</v>
+      </c>
+      <c r="X44" s="247" t="n">
+        <v>2.0000159565825015E-4</v>
+      </c>
+      <c r="Y44" s="248" t="n">
+        <v>1.0000079870223998E-4</v>
+      </c>
+      <c r="Z44" s="247" t="n">
+        <v>0.009600001387298107</v>
+      </c>
+      <c r="AA44" s="247" t="n">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AB44" s="282" t="n">
+        <v>1.2000001152046025E-4</v>
+      </c>
+      <c r="AC44" s="432" t="s">
+        <v>59</v>
+      </c>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -11061,27 +11193,49 @@
         <v>4</v>
       </c>
       <c r="B45" s="310"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="287"/>
-      <c r="J45" s="287"/>
-      <c r="K45" s="286"/>
-      <c r="L45" s="286"/>
-      <c r="M45" s="287"/>
-      <c r="N45" s="307"/>
+      <c r="D45" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F45" s="286" t="n">
+        <v>0.003571428741062326</v>
+      </c>
+      <c r="G45" s="286" t="n">
+        <v>6.944386789016087E-5</v>
+      </c>
+      <c r="H45" s="287" t="n">
+        <v>124.99896220228956</v>
+      </c>
+      <c r="I45" s="287" t="n">
+        <v>2.083316036704826E-4</v>
+      </c>
+      <c r="J45" s="287" t="n">
+        <v>0.0035714288242161274</v>
+      </c>
+      <c r="K45" s="286" t="n">
+        <v>6.944444612599909E-5</v>
+      </c>
+      <c r="L45" s="286" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="M45" s="287" t="n">
+        <v>2.500000118743628E-4</v>
+      </c>
+      <c r="N45" s="444" t="s">
+        <v>59</v>
+      </c>
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
       <c r="Q45" s="246" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R45" s="247" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="S45" s="247" t="n">
-        <v>11.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T45" s="247" t="n">
         <v>60.0</v>
@@ -11093,25 +11247,25 @@
         <v>20.0</v>
       </c>
       <c r="W45" s="247" t="n">
-        <v>1193.1818389892578</v>
+        <v>0.008000063826330006</v>
       </c>
       <c r="X45" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.0000159565825015E-4</v>
       </c>
       <c r="Y45" s="248" t="n">
-        <v>0.0109375</v>
+        <v>0.0020000160217285155</v>
       </c>
       <c r="Z45" s="247" t="n">
-        <v>1193.1817626953125</v>
+        <v>0.009600001387298107</v>
       </c>
       <c r="AA45" s="247" t="n">
-        <v>29.829545974731445</v>
+        <v>2.400000230409205E-4</v>
       </c>
       <c r="AB45" s="282" t="n">
-        <v>0.010937499813735485</v>
+        <v>0.002400000346824527</v>
       </c>
       <c r="AC45" s="433" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50"/>
@@ -11142,45 +11296,19 @@
       <c r="N46" s="335"/>
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
-      <c r="Q46" s="246" t="s">
-        <v>250</v>
-      </c>
-      <c r="R46" s="247" t="s">
-        <v>249</v>
-      </c>
-      <c r="S46" s="247" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="T46" s="247" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U46" s="247" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V46" s="247" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W46" s="247" t="n">
-        <v>1193.1818389892578</v>
-      </c>
-      <c r="X46" s="247" t="n">
-        <v>29.829545974731445</v>
-      </c>
-      <c r="Y46" s="248" t="n">
-        <v>0.0109375</v>
-      </c>
-      <c r="Z46" s="247" t="n">
-        <v>1193.1817626953125</v>
-      </c>
-      <c r="AA46" s="247" t="n">
-        <v>29.829545974731445</v>
-      </c>
-      <c r="AB46" s="282" t="n">
-        <v>0.010937499813735485</v>
-      </c>
-      <c r="AC46" s="434" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q46" s="246"/>
+      <c r="R46" s="247"/>
+      <c r="S46" s="247"/>
+      <c r="T46" s="247"/>
+      <c r="U46" s="247"/>
+      <c r="V46" s="247"/>
+      <c r="W46" s="247"/>
+      <c r="X46" s="247"/>
+      <c r="Y46" s="248"/>
+      <c r="Z46" s="247"/>
+      <c r="AA46" s="247"/>
+      <c r="AB46" s="282"/>
+      <c r="AC46" s="350"/>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
       <c r="AF46" s="50"/>
@@ -11210,10 +11338,10 @@
       <c r="N47" s="308"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R47" s="248" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="S47" s="249" t="n">
         <v>10000.0</v>
@@ -11228,25 +11356,25 @@
         <v>20.0</v>
       </c>
       <c r="W47" s="248" t="n">
-        <v>1193.1818389892578</v>
+        <v>0.016000127652660012</v>
       </c>
       <c r="X47" s="248" t="n">
-        <v>29.829545974731445</v>
+        <v>4.000031913165003E-4</v>
       </c>
       <c r="Y47" s="248" t="n">
-        <v>9.94318203125</v>
+        <v>1.3333439826965332E-4</v>
       </c>
       <c r="Z47" s="248" t="n">
-        <v>1193.1817626953125</v>
+        <v>0.019200002774596214</v>
       </c>
       <c r="AA47" s="248" t="n">
-        <v>29.829545974731445</v>
+        <v>4.80000046081841E-4</v>
       </c>
       <c r="AB47" s="283" t="n">
-        <v>9.943181991577148</v>
+        <v>1.6000002506189048E-4</v>
       </c>
       <c r="AC47" s="435" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
@@ -11276,19 +11404,45 @@
       <c r="M48" s="286"/>
       <c r="N48" s="308"/>
       <c r="P48" s="218"/>
-      <c r="Q48" s="244"/>
-      <c r="R48" s="248"/>
-      <c r="S48" s="249"/>
-      <c r="T48" s="249"/>
-      <c r="U48" s="247"/>
-      <c r="V48" s="247"/>
-      <c r="W48" s="248"/>
-      <c r="X48" s="248"/>
-      <c r="Y48" s="248"/>
-      <c r="Z48" s="248"/>
-      <c r="AA48" s="248"/>
-      <c r="AB48" s="283"/>
-      <c r="AC48" s="352"/>
+      <c r="Q48" s="244" t="s">
+        <v>249</v>
+      </c>
+      <c r="R48" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S48" s="249" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T48" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U48" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V48" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W48" s="248" t="n">
+        <v>0.016000127652660012</v>
+      </c>
+      <c r="X48" s="248" t="n">
+        <v>4.000031913165003E-4</v>
+      </c>
+      <c r="Y48" s="248" t="n">
+        <v>0.0013333439826965332</v>
+      </c>
+      <c r="Z48" s="248" t="n">
+        <v>0.019200002774596214</v>
+      </c>
+      <c r="AA48" s="248" t="n">
+        <v>4.80000046081841E-4</v>
+      </c>
+      <c r="AB48" s="283" t="n">
+        <v>0.001600000192411244</v>
+      </c>
+      <c r="AC48" s="436" t="s">
+        <v>59</v>
+      </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="36"/>
@@ -11317,19 +11471,45 @@
       <c r="M49" s="286"/>
       <c r="N49" s="338"/>
       <c r="P49" s="218"/>
-      <c r="Q49" s="244"/>
-      <c r="R49" s="248"/>
-      <c r="S49" s="249"/>
-      <c r="T49" s="249"/>
-      <c r="U49" s="247"/>
-      <c r="V49" s="247"/>
-      <c r="W49" s="248"/>
-      <c r="X49" s="248"/>
-      <c r="Y49" s="248"/>
-      <c r="Z49" s="248"/>
-      <c r="AA49" s="248"/>
-      <c r="AB49" s="283"/>
-      <c r="AC49" s="353"/>
+      <c r="Q49" s="244" t="s">
+        <v>249</v>
+      </c>
+      <c r="R49" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S49" s="249" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T49" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U49" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V49" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W49" s="248" t="n">
+        <v>0.016000127652660012</v>
+      </c>
+      <c r="X49" s="248" t="n">
+        <v>4.000031913165003E-4</v>
+      </c>
+      <c r="Y49" s="248" t="n">
+        <v>2.0000159740447997E-4</v>
+      </c>
+      <c r="Z49" s="248" t="n">
+        <v>0.019200002774596214</v>
+      </c>
+      <c r="AA49" s="248" t="n">
+        <v>4.80000046081841E-4</v>
+      </c>
+      <c r="AB49" s="283" t="n">
+        <v>2.400000230409205E-4</v>
+      </c>
+      <c r="AC49" s="437" t="s">
+        <v>59</v>
+      </c>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72"/>
       <c r="AF49" s="36"/>
@@ -11358,19 +11538,45 @@
       <c r="M50" s="286"/>
       <c r="N50" s="308"/>
       <c r="P50" s="218"/>
-      <c r="Q50" s="244"/>
-      <c r="R50" s="248"/>
-      <c r="S50" s="249"/>
-      <c r="T50" s="249"/>
-      <c r="U50" s="247"/>
-      <c r="V50" s="247"/>
-      <c r="W50" s="248"/>
-      <c r="X50" s="247"/>
-      <c r="Y50" s="247"/>
-      <c r="Z50" s="247"/>
-      <c r="AA50" s="247"/>
-      <c r="AB50" s="282"/>
-      <c r="AC50" s="354"/>
+      <c r="Q50" s="244" t="s">
+        <v>249</v>
+      </c>
+      <c r="R50" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S50" s="249" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T50" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U50" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V50" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W50" s="248" t="n">
+        <v>0.016000127652660012</v>
+      </c>
+      <c r="X50" s="247" t="n">
+        <v>4.000031913165003E-4</v>
+      </c>
+      <c r="Y50" s="247" t="n">
+        <v>0.004000032043457031</v>
+      </c>
+      <c r="Z50" s="247" t="n">
+        <v>0.019200002774596214</v>
+      </c>
+      <c r="AA50" s="247" t="n">
+        <v>4.80000046081841E-4</v>
+      </c>
+      <c r="AB50" s="282" t="n">
+        <v>0.004800000693649054</v>
+      </c>
+      <c r="AC50" s="438" t="s">
+        <v>59</v>
+      </c>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="50"/>
@@ -11440,19 +11646,45 @@
       <c r="M52" s="286"/>
       <c r="N52" s="308"/>
       <c r="P52" s="218"/>
-      <c r="Q52" s="244"/>
-      <c r="R52" s="248"/>
-      <c r="S52" s="249"/>
-      <c r="T52" s="249"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="247"/>
-      <c r="W52" s="248"/>
-      <c r="X52" s="248"/>
-      <c r="Y52" s="248"/>
-      <c r="Z52" s="248"/>
-      <c r="AA52" s="248"/>
-      <c r="AB52" s="283"/>
-      <c r="AC52" s="355"/>
+      <c r="Q52" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R52" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="S52" s="249" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T52" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U52" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V52" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W52" s="248" t="n">
+        <v>0.024999792804010212</v>
+      </c>
+      <c r="X52" s="248" t="n">
+        <v>6.249948201002553E-4</v>
+      </c>
+      <c r="Y52" s="248" t="n">
+        <v>7.291606426239013E-4</v>
+      </c>
+      <c r="Z52" s="248" t="n">
+        <v>0.030000001192092896</v>
+      </c>
+      <c r="AA52" s="248" t="n">
+        <v>7.50000006519258E-4</v>
+      </c>
+      <c r="AB52" s="283" t="n">
+        <v>8.750000270083547E-4</v>
+      </c>
+      <c r="AC52" s="440" t="s">
+        <v>59</v>
+      </c>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36"/>
       <c r="AF52" s="36"/>
@@ -11481,19 +11713,45 @@
       <c r="M53" s="286"/>
       <c r="N53" s="341"/>
       <c r="P53" s="218"/>
-      <c r="Q53" s="244"/>
-      <c r="R53" s="248"/>
-      <c r="S53" s="249"/>
-      <c r="T53" s="249"/>
-      <c r="U53" s="247"/>
-      <c r="V53" s="247"/>
-      <c r="W53" s="248"/>
-      <c r="X53" s="248"/>
-      <c r="Y53" s="248"/>
-      <c r="Z53" s="248"/>
-      <c r="AA53" s="248"/>
-      <c r="AB53" s="283"/>
-      <c r="AC53" s="356"/>
+      <c r="Q53" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R53" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S53" s="249" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T53" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U53" s="247" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V53" s="247" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W53" s="248" t="n">
+        <v>0.024999792804010212</v>
+      </c>
+      <c r="X53" s="248" t="n">
+        <v>6.249948201002553E-4</v>
+      </c>
+      <c r="Y53" s="248" t="n">
+        <v>0.0020833160400390623</v>
+      </c>
+      <c r="Z53" s="248" t="n">
+        <v>0.030000001192092896</v>
+      </c>
+      <c r="AA53" s="248" t="n">
+        <v>7.50000006519258E-4</v>
+      </c>
+      <c r="AB53" s="283" t="n">
+        <v>0.002500000176951289</v>
+      </c>
+      <c r="AC53" s="441" t="s">
+        <v>59</v>
+      </c>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
@@ -11522,19 +11780,45 @@
       <c r="M54" s="286"/>
       <c r="N54" s="308"/>
       <c r="P54" s="218"/>
-      <c r="Q54" s="244"/>
-      <c r="R54" s="248"/>
-      <c r="S54" s="249"/>
-      <c r="T54" s="249"/>
-      <c r="U54" s="248"/>
-      <c r="V54" s="248"/>
-      <c r="W54" s="248"/>
-      <c r="X54" s="248"/>
-      <c r="Y54" s="248"/>
-      <c r="Z54" s="248"/>
-      <c r="AA54" s="248"/>
-      <c r="AB54" s="283"/>
-      <c r="AC54" s="357"/>
+      <c r="Q54" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R54" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S54" s="249" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T54" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U54" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V54" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W54" s="248" t="n">
+        <v>0.024999792804010212</v>
+      </c>
+      <c r="X54" s="248" t="n">
+        <v>6.249948201002553E-4</v>
+      </c>
+      <c r="Y54" s="248" t="n">
+        <v>3.124974012374878E-4</v>
+      </c>
+      <c r="Z54" s="248" t="n">
+        <v>0.030000001192092896</v>
+      </c>
+      <c r="AA54" s="248" t="n">
+        <v>7.50000006519258E-4</v>
+      </c>
+      <c r="AB54" s="283" t="n">
+        <v>3.75000003259629E-4</v>
+      </c>
+      <c r="AC54" s="442" t="s">
+        <v>59</v>
+      </c>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36"/>
       <c r="AF54" s="36"/>
@@ -11563,19 +11847,45 @@
       <c r="M55" s="286"/>
       <c r="N55" s="308"/>
       <c r="P55" s="218"/>
-      <c r="Q55" s="244"/>
-      <c r="R55" s="248"/>
-      <c r="S55" s="249"/>
-      <c r="T55" s="249"/>
-      <c r="U55" s="248"/>
-      <c r="V55" s="248"/>
-      <c r="W55" s="248"/>
-      <c r="X55" s="248"/>
-      <c r="Y55" s="248"/>
-      <c r="Z55" s="248"/>
-      <c r="AA55" s="248"/>
-      <c r="AB55" s="283"/>
-      <c r="AC55" s="358"/>
+      <c r="Q55" s="244" t="s">
+        <v>250</v>
+      </c>
+      <c r="R55" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S55" s="249" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T55" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U55" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V55" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W55" s="248" t="n">
+        <v>0.024999792804010212</v>
+      </c>
+      <c r="X55" s="248" t="n">
+        <v>6.249948201002553E-4</v>
+      </c>
+      <c r="Y55" s="248" t="n">
+        <v>0.006249948120117188</v>
+      </c>
+      <c r="Z55" s="248" t="n">
+        <v>0.030000001192092896</v>
+      </c>
+      <c r="AA55" s="248" t="n">
+        <v>7.50000006519258E-4</v>
+      </c>
+      <c r="AB55" s="283" t="n">
+        <v>0.007500000298023224</v>
+      </c>
+      <c r="AC55" s="443" t="s">
+        <v>59</v>
+      </c>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36"/>
       <c r="AF55" s="36"/>
@@ -11645,19 +11955,45 @@
       <c r="M57" s="242"/>
       <c r="N57" s="309"/>
       <c r="P57" s="218"/>
-      <c r="Q57" s="244"/>
-      <c r="R57" s="248"/>
-      <c r="S57" s="249"/>
-      <c r="T57" s="249"/>
-      <c r="U57" s="248"/>
-      <c r="V57" s="248"/>
-      <c r="W57" s="248"/>
-      <c r="X57" s="248"/>
-      <c r="Y57" s="248"/>
-      <c r="Z57" s="248"/>
-      <c r="AA57" s="248"/>
-      <c r="AB57" s="283"/>
-      <c r="AC57" s="359"/>
+      <c r="Q57" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R57" s="248" t="s">
+        <v>252</v>
+      </c>
+      <c r="S57" s="249" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T57" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U57" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V57" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W57" s="248" t="n">
+        <v>0.012499896402005106</v>
+      </c>
+      <c r="X57" s="248" t="n">
+        <v>3.1249741005012766E-4</v>
+      </c>
+      <c r="Y57" s="248" t="n">
+        <v>3.6458032131195066E-4</v>
+      </c>
+      <c r="Z57" s="248" t="n">
+        <v>0.015000000596046448</v>
+      </c>
+      <c r="AA57" s="248" t="n">
+        <v>3.75000003259629E-4</v>
+      </c>
+      <c r="AB57" s="283" t="n">
+        <v>4.3750001350417733E-4</v>
+      </c>
+      <c r="AC57" s="445" t="s">
+        <v>59</v>
+      </c>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
@@ -11686,19 +12022,45 @@
       <c r="M58" s="242"/>
       <c r="N58" s="309"/>
       <c r="P58" s="218"/>
-      <c r="Q58" s="244"/>
-      <c r="R58" s="248"/>
-      <c r="S58" s="249"/>
-      <c r="T58" s="249"/>
-      <c r="U58" s="248"/>
-      <c r="V58" s="248"/>
-      <c r="W58" s="248"/>
-      <c r="X58" s="248"/>
-      <c r="Y58" s="248"/>
-      <c r="Z58" s="248"/>
-      <c r="AA58" s="248"/>
-      <c r="AB58" s="283"/>
-      <c r="AC58" s="360"/>
+      <c r="Q58" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R58" s="248" t="s">
+        <v>222</v>
+      </c>
+      <c r="S58" s="249" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T58" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U58" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V58" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W58" s="248" t="n">
+        <v>0.012499896402005106</v>
+      </c>
+      <c r="X58" s="248" t="n">
+        <v>3.1249741005012766E-4</v>
+      </c>
+      <c r="Y58" s="248" t="n">
+        <v>0.0010416580200195312</v>
+      </c>
+      <c r="Z58" s="248" t="n">
+        <v>0.015000000596046448</v>
+      </c>
+      <c r="AA58" s="248" t="n">
+        <v>3.75000003259629E-4</v>
+      </c>
+      <c r="AB58" s="283" t="n">
+        <v>0.0012500000884756446</v>
+      </c>
+      <c r="AC58" s="446" t="s">
+        <v>59</v>
+      </c>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
@@ -11727,19 +12089,45 @@
       <c r="M59" s="242"/>
       <c r="N59" s="242"/>
       <c r="P59" s="218"/>
-      <c r="Q59" s="244"/>
-      <c r="R59" s="248"/>
-      <c r="S59" s="249"/>
-      <c r="T59" s="249"/>
-      <c r="U59" s="248"/>
-      <c r="V59" s="248"/>
-      <c r="W59" s="248"/>
-      <c r="X59" s="248"/>
-      <c r="Y59" s="248"/>
-      <c r="Z59" s="248"/>
-      <c r="AA59" s="248"/>
-      <c r="AB59" s="283"/>
-      <c r="AC59" s="361"/>
+      <c r="Q59" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R59" s="248" t="s">
+        <v>223</v>
+      </c>
+      <c r="S59" s="249" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T59" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U59" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V59" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W59" s="248" t="n">
+        <v>0.012499896402005106</v>
+      </c>
+      <c r="X59" s="248" t="n">
+        <v>3.1249741005012766E-4</v>
+      </c>
+      <c r="Y59" s="248" t="n">
+        <v>1.562487006187439E-4</v>
+      </c>
+      <c r="Z59" s="248" t="n">
+        <v>0.015000000596046448</v>
+      </c>
+      <c r="AA59" s="248" t="n">
+        <v>3.75000003259629E-4</v>
+      </c>
+      <c r="AB59" s="283" t="n">
+        <v>1.875000016298145E-4</v>
+      </c>
+      <c r="AC59" s="447" t="s">
+        <v>59</v>
+      </c>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
@@ -11768,19 +12156,45 @@
       <c r="M60" s="242"/>
       <c r="N60" s="242"/>
       <c r="P60" s="218"/>
-      <c r="Q60" s="244"/>
-      <c r="R60" s="248"/>
-      <c r="S60" s="249"/>
-      <c r="T60" s="249"/>
-      <c r="U60" s="248"/>
-      <c r="V60" s="248"/>
-      <c r="W60" s="248"/>
-      <c r="X60" s="248"/>
-      <c r="Y60" s="248"/>
-      <c r="Z60" s="248"/>
-      <c r="AA60" s="248"/>
-      <c r="AB60" s="283"/>
-      <c r="AC60" s="50"/>
+      <c r="Q60" s="244" t="s">
+        <v>253</v>
+      </c>
+      <c r="R60" s="248" t="s">
+        <v>224</v>
+      </c>
+      <c r="S60" s="249" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T60" s="249" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U60" s="248" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V60" s="248" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W60" s="248" t="n">
+        <v>0.012499896402005106</v>
+      </c>
+      <c r="X60" s="248" t="n">
+        <v>3.1249741005012766E-4</v>
+      </c>
+      <c r="Y60" s="248" t="n">
+        <v>0.003124974060058594</v>
+      </c>
+      <c r="Z60" s="248" t="n">
+        <v>0.015000000596046448</v>
+      </c>
+      <c r="AA60" s="248" t="n">
+        <v>3.75000003259629E-4</v>
+      </c>
+      <c r="AB60" s="283" t="n">
+        <v>0.003750000149011612</v>
+      </c>
+      <c r="AC60" s="448" t="s">
+        <v>59</v>
+      </c>
       <c r="AD60" s="23"/>
       <c r="AE60" s="36"/>
       <c r="AF60" s="36"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -4980,8 +4980,8 @@
       <c r="AN42" s="34" t="n">
         <v>0.0012000096030533314</v>
       </c>
-      <c r="AO42" s="34" t="e">
-        <v>#DIV/0!</v>
+      <c r="AO42" s="34" t="n">
+        <v>599.9999389648438</v>
       </c>
       <c r="AP42" s="21"/>
     </row>
@@ -5075,8 +5075,8 @@
       <c r="AN43" s="34" t="n">
         <v>4.0000322042033076E-4</v>
       </c>
-      <c r="AO43" s="34" t="e">
-        <v>#DIV/0!</v>
+      <c r="AO43" s="34" t="n">
+        <v>66.66667175292969</v>
       </c>
       <c r="AP43" s="21"/>
     </row>
@@ -5148,8 +5148,8 @@
       <c r="AN44" s="34" t="n">
         <v>4.0000322042033076E-4</v>
       </c>
-      <c r="AO44" s="34" t="e">
-        <v>#DIV/0!</v>
+      <c r="AO44" s="34" t="n">
+        <v>166.6666717529297</v>
       </c>
       <c r="AP44" s="21"/>
     </row>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="150">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -452,9 +452,6 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual Error Message </t>
   </si>
   <si>
@@ -487,34 +484,43 @@
     <t xml:space="preserve">  selenium</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
   </si>
   <si>
-    <t>EPref2</t>
-  </si>
-  <si>
-    <t>EPref1</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>Topical</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>Topical2 active1</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Topical2</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>Topical2 active3</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="122" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,27 +1134,72 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1311,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="289">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1843,21 +1894,20 @@
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3593,10 +3643,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>46</v>
@@ -3617,7 +3667,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -3632,10 +3682,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="17"/>
@@ -3650,7 +3700,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2">
         <v>75</v>
@@ -3668,10 +3718,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="226" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
@@ -3681,10 +3731,10 @@
       <c r="B11" s="245"/>
       <c r="C11" s="245"/>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3744,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB39" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4724,7 +4774,7 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A40" s="197" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B40" s="198" t="s">
         <v>138</v>
@@ -4886,7 +4936,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="227" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AP41" s="21"/>
     </row>
@@ -4901,67 +4951,75 @@
         <v>140</v>
       </c>
       <c r="E42" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F42" s="150" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="150" t="n">
-        <v>0.007142857482124652</v>
-      </c>
       <c r="G42" s="150" t="n">
-        <v>2.0000160558163928E-4</v>
+        <v>0.07000000029802322</v>
       </c>
       <c r="H42" s="151" t="n">
-        <v>360.0028900469507</v>
+        <v>35000.00014901161</v>
       </c>
       <c r="I42" s="151" t="n">
-        <v>0.0012000096334898356</v>
-      </c>
-      <c r="J42" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="N42" s="191"/>
+        <v>0.08433734975665448</v>
+      </c>
+      <c r="J42" s="151" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K42" s="150" t="n">
+        <v>0.07000000029802322</v>
+      </c>
+      <c r="L42" s="150" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="M42" s="151" t="n">
+        <v>0.08433735370635986</v>
+      </c>
+      <c r="N42" s="275" t="s">
+        <v>143</v>
+      </c>
       <c r="O42" s="53"/>
       <c r="P42" s="130"/>
       <c r="Q42" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R42" s="205" t="s">
+        <v>144</v>
+      </c>
+      <c r="S42" s="205" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T42" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U42" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V42" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W42" s="205" t="n">
+        <v>5.060240745544434</v>
+      </c>
+      <c r="X42" s="205" t="n">
+        <v>0.12650601863861083</v>
+      </c>
+      <c r="Y42" s="206" t="n">
+        <v>0.10542167723178864</v>
+      </c>
+      <c r="Z42" s="205" t="n">
+        <v>5.060241222381592</v>
+      </c>
+      <c r="AA42" s="205" t="n">
+        <v>0.1265060305595398</v>
+      </c>
+      <c r="AB42" s="207" t="n">
+        <v>0.10542169213294983</v>
+      </c>
+      <c r="AC42" s="276" t="s">
         <v>143</v>
-      </c>
-      <c r="S42" s="205" t="n">
-        <v>100000.0</v>
-      </c>
-      <c r="T42" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U42" s="205" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="V42" s="205" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="W42" s="205" t="n">
-        <v>0.024000192061066628</v>
-      </c>
-      <c r="X42" s="205" t="n">
-        <v>4.8000384122133256E-4</v>
-      </c>
-      <c r="Y42" s="206" t="n">
-        <v>0.004000031854957342</v>
-      </c>
-      <c r="Z42" s="205"/>
-      <c r="AA42" s="205"/>
-      <c r="AB42" s="207"/>
-      <c r="AC42" s="275" t="s">
-        <v>144</v>
       </c>
       <c r="AD42" s="53"/>
       <c r="AE42" s="47"/>
@@ -4972,16 +5030,16 @@
       <c r="AJ42" s="228"/>
       <c r="AK42" s="124"/>
       <c r="AL42" s="47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AM42" s="47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AN42" s="34" t="n">
-        <v>0.0012000096030533314</v>
+        <v>0.08433734625577927</v>
       </c>
       <c r="AO42" s="34" t="n">
-        <v>599.9999389648438</v>
+        <v>120.48192596435547</v>
       </c>
       <c r="AP42" s="21"/>
     </row>
@@ -4993,36 +5051,38 @@
         <v>125</v>
       </c>
       <c r="D43" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="151" t="n">
-        <v>0.008571428978549582</v>
-      </c>
       <c r="G43" s="150" t="n">
-        <v>2.4000192669796714E-4</v>
+        <v>0.08000000566244125</v>
       </c>
       <c r="H43" s="151" t="n">
-        <v>120.00096334898356</v>
+        <v>40000.00283122063</v>
       </c>
       <c r="I43" s="152" t="n">
-        <v>4.0000321116327855E-4</v>
-      </c>
-      <c r="J43" s="151" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="150" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="152" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="170"/>
+        <v>0.09638554899089308</v>
+      </c>
+      <c r="J43" s="151" t="n">
+        <v>0.0022320004645735025</v>
+      </c>
+      <c r="K43" s="150" t="n">
+        <v>0.08000000566244125</v>
+      </c>
+      <c r="L43" s="150" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="M43" s="152" t="n">
+        <v>0.09638554602861404</v>
+      </c>
+      <c r="N43" s="282" t="s">
+        <v>143</v>
+      </c>
       <c r="O43" s="53"/>
       <c r="P43" s="130"/>
       <c r="Q43" s="141" t="s">
@@ -5032,31 +5092,37 @@
         <v>145</v>
       </c>
       <c r="S43" s="205" t="n">
-        <v>15000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T43" s="205" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U43" s="205" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V43" s="205" t="n">
         <v>30.0</v>
       </c>
-      <c r="U43" s="205" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V43" s="205" t="n">
-        <v>40.0</v>
-      </c>
       <c r="W43" s="205" t="n">
-        <v>0.036000289022922516</v>
+        <v>5.060240745544434</v>
       </c>
       <c r="X43" s="205" t="n">
-        <v>9.000072255730629E-4</v>
+        <v>0.05060240745544434</v>
       </c>
       <c r="Y43" s="206" t="n">
-        <v>4.500036302488297E-4</v>
-      </c>
-      <c r="Z43" s="205"/>
-      <c r="AA43" s="205"/>
-      <c r="AB43" s="207"/>
-      <c r="AC43" s="276" t="s">
-        <v>144</v>
+        <v>0.21084335446357727</v>
+      </c>
+      <c r="Z43" s="205" t="n">
+        <v>5.060241222381592</v>
+      </c>
+      <c r="AA43" s="205" t="n">
+        <v>0.05060241371393204</v>
+      </c>
+      <c r="AB43" s="207" t="n">
+        <v>0.21084338426589966</v>
+      </c>
+      <c r="AC43" s="277" t="s">
+        <v>143</v>
       </c>
       <c r="AD43" s="53"/>
       <c r="AE43" s="47"/>
@@ -5066,18 +5132,10 @@
       <c r="AI43" s="207"/>
       <c r="AJ43" s="229"/>
       <c r="AK43" s="124"/>
-      <c r="AL43" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM43" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN43" s="34" t="n">
-        <v>4.0000322042033076E-4</v>
-      </c>
-      <c r="AO43" s="34" t="n">
-        <v>66.66667175292969</v>
-      </c>
+      <c r="AL43" s="47"/>
+      <c r="AM43" s="47"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
       <c r="AP43" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -5102,34 +5160,40 @@
         <v>140</v>
       </c>
       <c r="R44" s="205" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="S44" s="205" t="n">
-        <v>300000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T44" s="205" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="U44" s="205" t="n">
-        <v>40.0</v>
+        <v>120.0</v>
       </c>
       <c r="V44" s="205" t="n">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="W44" s="205" t="n">
-        <v>0.07200057804584503</v>
+        <v>5.903614044189453</v>
       </c>
       <c r="X44" s="205" t="n">
-        <v>0.0018000144511461258</v>
+        <v>0.049196783701578775</v>
       </c>
       <c r="Y44" s="206" t="n">
-        <v>0.01800014264881611</v>
-      </c>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="207"/>
-      <c r="AC44" s="277" t="s">
-        <v>144</v>
+        <v>0.046385541558265686</v>
+      </c>
+      <c r="Z44" s="205" t="n">
+        <v>5.903614521026611</v>
+      </c>
+      <c r="AA44" s="205" t="n">
+        <v>0.049196790903806686</v>
+      </c>
+      <c r="AB44" s="207" t="n">
+        <v>0.046385545283555984</v>
+      </c>
+      <c r="AC44" s="278" t="s">
+        <v>143</v>
       </c>
       <c r="AD44" s="53"/>
       <c r="AE44" s="47"/>
@@ -5139,18 +5203,10 @@
       <c r="AI44" s="207"/>
       <c r="AJ44" s="230"/>
       <c r="AK44" s="124"/>
-      <c r="AL44" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM44" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN44" s="34" t="n">
-        <v>4.0000322042033076E-4</v>
-      </c>
-      <c r="AO44" s="34" t="n">
-        <v>166.6666717529297</v>
-      </c>
+      <c r="AL44" s="47"/>
+      <c r="AM44" s="47"/>
+      <c r="AN44" s="34"/>
+      <c r="AO44" s="34"/>
       <c r="AP44" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -5171,19 +5227,45 @@
       <c r="N45" s="171"/>
       <c r="O45" s="53"/>
       <c r="P45" s="130"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="205"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="205"/>
-      <c r="Y45" s="206"/>
-      <c r="Z45" s="205"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="207"/>
-      <c r="AC45" s="209"/>
+      <c r="Q45" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="R45" s="205" t="s">
+        <v>146</v>
+      </c>
+      <c r="S45" s="205" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T45" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U45" s="205" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V45" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W45" s="205" t="n">
+        <v>1.6867469549179077</v>
+      </c>
+      <c r="X45" s="205" t="n">
+        <v>0.03373493909835815</v>
+      </c>
+      <c r="Y45" s="206" t="n">
+        <v>0.281124472618103</v>
+      </c>
+      <c r="Z45" s="205" t="n">
+        <v>1.6867470741271973</v>
+      </c>
+      <c r="AA45" s="205" t="n">
+        <v>0.033734939992427826</v>
+      </c>
+      <c r="AB45" s="207" t="n">
+        <v>0.2811245024204254</v>
+      </c>
+      <c r="AC45" s="279" t="s">
+        <v>143</v>
+      </c>
       <c r="AD45" s="53"/>
       <c r="AE45" s="47"/>
       <c r="AF45" s="47"/>
@@ -5215,37 +5297,43 @@
       <c r="O46" s="53"/>
       <c r="P46" s="130"/>
       <c r="Q46" s="141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R46" s="205" t="s">
         <v>147</v>
       </c>
       <c r="S46" s="205" t="n">
-        <v>10000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T46" s="205" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="U46" s="205" t="n">
         <v>40.0</v>
       </c>
       <c r="V46" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="W46" s="205" t="n">
-        <v>0.024000193923711777</v>
+        <v>2.530120372772217</v>
       </c>
       <c r="X46" s="205" t="n">
-        <v>6.000048480927945E-4</v>
+        <v>0.06325300931930541</v>
       </c>
       <c r="Y46" s="206" t="n">
-        <v>2.000016247620806E-4</v>
-      </c>
-      <c r="Z46" s="205"/>
-      <c r="AA46" s="205"/>
-      <c r="AB46" s="207"/>
-      <c r="AC46" s="278" t="s">
-        <v>144</v>
+        <v>0.03162650391459465</v>
+      </c>
+      <c r="Z46" s="205" t="n">
+        <v>2.530120611190796</v>
+      </c>
+      <c r="AA46" s="205" t="n">
+        <v>0.0632530152797699</v>
+      </c>
+      <c r="AB46" s="207" t="n">
+        <v>0.03162650763988495</v>
+      </c>
+      <c r="AC46" s="280" t="s">
+        <v>143</v>
       </c>
       <c r="AD46" s="53"/>
       <c r="AE46" s="47"/>
@@ -5273,14 +5361,14 @@
       <c r="J47" s="151"/>
       <c r="K47" s="150"/>
       <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
+      <c r="M47" s="152"/>
       <c r="N47" s="172"/>
       <c r="P47" s="117"/>
       <c r="Q47" s="139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R47" s="206" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="S47" s="210" t="n">
         <v>300000.0</v>
@@ -5295,19 +5383,25 @@
         <v>20.0</v>
       </c>
       <c r="W47" s="206" t="n">
-        <v>0.024000193923711777</v>
+        <v>5.060240745544434</v>
       </c>
       <c r="X47" s="206" t="n">
-        <v>6.000048480927945E-4</v>
+        <v>0.12650601863861083</v>
       </c>
       <c r="Y47" s="206" t="n">
-        <v>0.006000048480927944</v>
-      </c>
-      <c r="Z47" s="206"/>
-      <c r="AA47" s="206"/>
-      <c r="AB47" s="211"/>
-      <c r="AC47" s="279" t="s">
-        <v>144</v>
+        <v>1.2650601863861084</v>
+      </c>
+      <c r="Z47" s="206" t="n">
+        <v>5.060241222381592</v>
+      </c>
+      <c r="AA47" s="206" t="n">
+        <v>0.1265060305595398</v>
+      </c>
+      <c r="AB47" s="211" t="n">
+        <v>1.265060305595398</v>
+      </c>
+      <c r="AC47" s="281" t="s">
+        <v>143</v>
       </c>
       <c r="AD47" s="21"/>
       <c r="AE47" s="60"/>
@@ -5335,7 +5429,7 @@
       <c r="J48" s="151"/>
       <c r="K48" s="150"/>
       <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
+      <c r="M48" s="151"/>
       <c r="N48" s="172"/>
       <c r="P48" s="117"/>
       <c r="Q48" s="139"/>
@@ -5377,22 +5471,48 @@
       <c r="J49" s="151"/>
       <c r="K49" s="150"/>
       <c r="L49" s="150"/>
-      <c r="M49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="193"/>
       <c r="P49" s="117"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="206"/>
-      <c r="S49" s="210"/>
-      <c r="T49" s="210"/>
-      <c r="U49" s="205"/>
-      <c r="V49" s="205"/>
-      <c r="W49" s="206"/>
-      <c r="X49" s="206"/>
-      <c r="Y49" s="206"/>
-      <c r="Z49" s="206"/>
-      <c r="AA49" s="206"/>
-      <c r="AB49" s="211"/>
-      <c r="AC49" s="208"/>
+      <c r="Q49" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R49" s="206" t="s">
+        <v>144</v>
+      </c>
+      <c r="S49" s="210" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T49" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U49" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V49" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W49" s="206" t="n">
+        <v>5.783132553100586</v>
+      </c>
+      <c r="X49" s="206" t="n">
+        <v>0.14457831382751465</v>
+      </c>
+      <c r="Y49" s="206" t="n">
+        <v>0.1204819306731224</v>
+      </c>
+      <c r="Z49" s="206" t="n">
+        <v>5.783133029937744</v>
+      </c>
+      <c r="AA49" s="206" t="n">
+        <v>0.14457832276821136</v>
+      </c>
+      <c r="AB49" s="211" t="n">
+        <v>0.1204819306731224</v>
+      </c>
+      <c r="AC49" s="283" t="s">
+        <v>143</v>
+      </c>
       <c r="AD49" s="21"/>
       <c r="AE49" s="60"/>
       <c r="AF49" s="34"/>
@@ -5419,22 +5539,48 @@
       <c r="J50" s="150"/>
       <c r="K50" s="150"/>
       <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
+      <c r="M50" s="151"/>
       <c r="N50" s="172"/>
       <c r="P50" s="117"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="206"/>
-      <c r="S50" s="210"/>
-      <c r="T50" s="210"/>
-      <c r="U50" s="205"/>
-      <c r="V50" s="205"/>
-      <c r="W50" s="206"/>
-      <c r="X50" s="205"/>
-      <c r="Y50" s="205"/>
-      <c r="Z50" s="205"/>
-      <c r="AA50" s="205"/>
-      <c r="AB50" s="207"/>
-      <c r="AC50" s="208"/>
+      <c r="Q50" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R50" s="206" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="210" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T50" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U50" s="205" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V50" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W50" s="206" t="n">
+        <v>5.783132553100586</v>
+      </c>
+      <c r="X50" s="205" t="n">
+        <v>0.05783132553100586</v>
+      </c>
+      <c r="Y50" s="205" t="n">
+        <v>0.2409638613462448</v>
+      </c>
+      <c r="Z50" s="205" t="n">
+        <v>5.783133029937744</v>
+      </c>
+      <c r="AA50" s="205" t="n">
+        <v>0.057831328362226486</v>
+      </c>
+      <c r="AB50" s="207" t="n">
+        <v>0.2409638613462448</v>
+      </c>
+      <c r="AC50" s="284" t="s">
+        <v>143</v>
+      </c>
       <c r="AD50" s="44"/>
       <c r="AE50" s="47"/>
       <c r="AF50" s="47"/>
@@ -5461,22 +5607,48 @@
       <c r="J51" s="150"/>
       <c r="K51" s="150"/>
       <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
+      <c r="M51" s="151"/>
       <c r="N51" s="172"/>
       <c r="P51" s="117"/>
-      <c r="Q51" s="139"/>
-      <c r="R51" s="206"/>
-      <c r="S51" s="210"/>
-      <c r="T51" s="210"/>
-      <c r="U51" s="205"/>
-      <c r="V51" s="205"/>
-      <c r="W51" s="206"/>
-      <c r="X51" s="205"/>
-      <c r="Y51" s="205"/>
-      <c r="Z51" s="205"/>
-      <c r="AA51" s="205"/>
-      <c r="AB51" s="207"/>
-      <c r="AC51" s="209"/>
+      <c r="Q51" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R51" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="S51" s="210" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T51" s="210" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U51" s="205" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V51" s="205" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W51" s="206" t="n">
+        <v>6.746988296508789</v>
+      </c>
+      <c r="X51" s="205" t="n">
+        <v>0.05622490247090658</v>
+      </c>
+      <c r="Y51" s="205" t="n">
+        <v>0.053012050688266754</v>
+      </c>
+      <c r="Z51" s="205" t="n">
+        <v>6.746988296508789</v>
+      </c>
+      <c r="AA51" s="205" t="n">
+        <v>0.05622490122914314</v>
+      </c>
+      <c r="AB51" s="207" t="n">
+        <v>0.053012050688266754</v>
+      </c>
+      <c r="AC51" s="285" t="s">
+        <v>143</v>
+      </c>
       <c r="AD51" s="63"/>
       <c r="AE51" s="47"/>
       <c r="AF51" s="47"/>
@@ -5503,22 +5675,48 @@
       <c r="J52" s="150"/>
       <c r="K52" s="150"/>
       <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
+      <c r="M52" s="151"/>
       <c r="N52" s="172"/>
       <c r="P52" s="117"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="210"/>
-      <c r="T52" s="210"/>
-      <c r="U52" s="205"/>
-      <c r="V52" s="205"/>
-      <c r="W52" s="206"/>
-      <c r="X52" s="206"/>
-      <c r="Y52" s="206"/>
-      <c r="Z52" s="206"/>
-      <c r="AA52" s="206"/>
-      <c r="AB52" s="211"/>
-      <c r="AC52" s="208"/>
+      <c r="Q52" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R52" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="S52" s="210" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T52" s="210" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U52" s="205" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V52" s="205" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W52" s="206" t="n">
+        <v>1.9277108907699585</v>
+      </c>
+      <c r="X52" s="206" t="n">
+        <v>0.03855421781539917</v>
+      </c>
+      <c r="Y52" s="206" t="n">
+        <v>0.3212851583957672</v>
+      </c>
+      <c r="Z52" s="206" t="n">
+        <v>1.9277108907699585</v>
+      </c>
+      <c r="AA52" s="206" t="n">
+        <v>0.03855421766638756</v>
+      </c>
+      <c r="AB52" s="211" t="n">
+        <v>0.3212851583957672</v>
+      </c>
+      <c r="AC52" s="286" t="s">
+        <v>143</v>
+      </c>
       <c r="AD52" s="21"/>
       <c r="AE52" s="34"/>
       <c r="AF52" s="34"/>
@@ -5545,22 +5743,48 @@
       <c r="J53" s="150"/>
       <c r="K53" s="150"/>
       <c r="L53" s="150"/>
-      <c r="M53" s="150"/>
+      <c r="M53" s="152"/>
       <c r="N53" s="194"/>
       <c r="P53" s="117"/>
-      <c r="Q53" s="139"/>
-      <c r="R53" s="206"/>
-      <c r="S53" s="210"/>
-      <c r="T53" s="210"/>
-      <c r="U53" s="205"/>
-      <c r="V53" s="205"/>
-      <c r="W53" s="206"/>
-      <c r="X53" s="206"/>
-      <c r="Y53" s="206"/>
-      <c r="Z53" s="206"/>
-      <c r="AA53" s="206"/>
-      <c r="AB53" s="211"/>
-      <c r="AC53" s="208"/>
+      <c r="Q53" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R53" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S53" s="210" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T53" s="210" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U53" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V53" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W53" s="206" t="n">
+        <v>2.891566276550293</v>
+      </c>
+      <c r="X53" s="206" t="n">
+        <v>0.07228915691375733</v>
+      </c>
+      <c r="Y53" s="206" t="n">
+        <v>0.03614458069205284</v>
+      </c>
+      <c r="Z53" s="206" t="n">
+        <v>2.891566514968872</v>
+      </c>
+      <c r="AA53" s="206" t="n">
+        <v>0.07228916138410568</v>
+      </c>
+      <c r="AB53" s="211" t="n">
+        <v>0.03614458069205284</v>
+      </c>
+      <c r="AC53" s="287" t="s">
+        <v>143</v>
+      </c>
       <c r="AD53" s="21"/>
       <c r="AE53" s="34"/>
       <c r="AF53" s="34"/>
@@ -5587,22 +5811,48 @@
       <c r="J54" s="150"/>
       <c r="K54" s="150"/>
       <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
+      <c r="M54" s="151"/>
       <c r="N54" s="172"/>
       <c r="P54" s="117"/>
-      <c r="Q54" s="139"/>
-      <c r="R54" s="206"/>
-      <c r="S54" s="210"/>
-      <c r="T54" s="210"/>
-      <c r="U54" s="206"/>
-      <c r="V54" s="206"/>
-      <c r="W54" s="206"/>
-      <c r="X54" s="206"/>
-      <c r="Y54" s="206"/>
-      <c r="Z54" s="206"/>
-      <c r="AA54" s="206"/>
-      <c r="AB54" s="211"/>
-      <c r="AC54" s="208"/>
+      <c r="Q54" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="R54" s="206" t="s">
+        <v>148</v>
+      </c>
+      <c r="S54" s="210" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T54" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U54" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V54" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W54" s="206" t="n">
+        <v>5.783132553100586</v>
+      </c>
+      <c r="X54" s="206" t="n">
+        <v>0.14457831382751465</v>
+      </c>
+      <c r="Y54" s="206" t="n">
+        <v>1.445783257484436</v>
+      </c>
+      <c r="Z54" s="206" t="n">
+        <v>5.783133029937744</v>
+      </c>
+      <c r="AA54" s="206" t="n">
+        <v>0.14457832276821136</v>
+      </c>
+      <c r="AB54" s="211" t="n">
+        <v>1.445783257484436</v>
+      </c>
+      <c r="AC54" s="288" t="s">
+        <v>143</v>
+      </c>
       <c r="AD54" s="21"/>
       <c r="AE54" s="34"/>
       <c r="AF54" s="34"/>
@@ -5629,7 +5879,7 @@
       <c r="J55" s="150"/>
       <c r="K55" s="150"/>
       <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
+      <c r="M55" s="151"/>
       <c r="N55" s="172"/>
       <c r="P55" s="117"/>
       <c r="Q55" s="139"/>
@@ -5671,7 +5921,7 @@
       <c r="J56" s="150"/>
       <c r="K56" s="150"/>
       <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
+      <c r="M56" s="151"/>
       <c r="N56" s="195"/>
       <c r="P56" s="117"/>
       <c r="Q56" s="139"/>
@@ -5713,7 +5963,7 @@
       <c r="J57" s="138"/>
       <c r="K57" s="137"/>
       <c r="L57" s="137"/>
-      <c r="M57" s="137"/>
+      <c r="M57" s="150"/>
       <c r="N57" s="173"/>
       <c r="P57" s="117"/>
       <c r="Q57" s="139"/>
@@ -5755,7 +6005,7 @@
       <c r="J58" s="138"/>
       <c r="K58" s="137"/>
       <c r="L58" s="137"/>
-      <c r="M58" s="137"/>
+      <c r="M58" s="150"/>
       <c r="N58" s="173"/>
       <c r="P58" s="117"/>
       <c r="Q58" s="139"/>
@@ -5797,7 +6047,7 @@
       <c r="J59" s="138"/>
       <c r="K59" s="137"/>
       <c r="L59" s="137"/>
-      <c r="M59" s="137"/>
+      <c r="M59" s="150"/>
       <c r="N59" s="137"/>
       <c r="P59" s="117"/>
       <c r="Q59" s="139"/>
@@ -5839,7 +6089,7 @@
       <c r="J60" s="138"/>
       <c r="K60" s="137"/>
       <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
+      <c r="M60" s="150"/>
       <c r="N60" s="137"/>
       <c r="P60" s="117"/>
       <c r="Q60" s="139"/>
@@ -5879,7 +6129,7 @@
       <c r="J61" s="138"/>
       <c r="K61" s="137"/>
       <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
+      <c r="M61" s="150"/>
       <c r="N61" s="137"/>
       <c r="P61" s="117"/>
       <c r="Q61" s="139"/>
@@ -13235,7 +13485,7 @@
     <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule dxfId="1" priority="1" type="duplicateValues"/>
+    <cfRule dxfId="0" priority="1" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="N9 N13 N17 N21" type="list">

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -487,24 +487,33 @@
     <t>Preferential Transfer</t>
   </si>
   <si>
-    <t>Topical</t>
-  </si>
-  <si>
-    <t>Campaign</t>
-  </si>
-  <si>
-    <t>Topical2 active1</t>
-  </si>
-  <si>
-    <t>Same</t>
-  </si>
-  <si>
-    <t>Topical2</t>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
+    <t>E5</t>
+  </si>
+  <si>
     <t>E6</t>
   </si>
   <si>
@@ -520,7 +529,7 @@
     <t>E3</t>
   </si>
   <si>
-    <t>Topical2 active3</t>
+    <t>E4</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,6 +1210,81 @@
       <sz val="11.0"/>
       <color indexed="17"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1362,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="304">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1903,6 +1987,21 @@
     <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3795,7 +3894,7 @@
   <dimension ref="A1:AW434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4774,10 +4873,10 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A40" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="198" t="s">
         <v>139</v>
-      </c>
-      <c r="B40" s="198" t="s">
-        <v>138</v>
       </c>
       <c r="D40" s="77"/>
       <c r="E40" s="78"/>
@@ -4951,75 +5050,73 @@
         <v>140</v>
       </c>
       <c r="E42" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G42" s="150" t="n">
+        <v>1.9444283009245046E-5</v>
+      </c>
+      <c r="H42" s="151" t="n">
+        <v>34.99970941664108</v>
+      </c>
+      <c r="I42" s="151" t="n">
+        <v>5.1851421357986787E-5</v>
+      </c>
+      <c r="J42" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="150" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="150" t="n">
-        <v>0.07000000029802322</v>
-      </c>
-      <c r="H42" s="151" t="n">
-        <v>35000.00014901161</v>
-      </c>
-      <c r="I42" s="151" t="n">
-        <v>0.08433734975665448</v>
-      </c>
-      <c r="J42" s="151" t="n">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="K42" s="150" t="n">
-        <v>0.07000000029802322</v>
-      </c>
-      <c r="L42" s="150" t="n">
-        <v>35000.0</v>
-      </c>
-      <c r="M42" s="151" t="n">
-        <v>0.08433735370635986</v>
-      </c>
-      <c r="N42" s="275" t="s">
-        <v>143</v>
-      </c>
+      <c r="K42" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" s="191"/>
       <c r="O42" s="53"/>
       <c r="P42" s="130"/>
       <c r="Q42" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R42" s="205" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="S42" s="205" t="n">
-        <v>25000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="T42" s="205" t="n">
         <v>60.0</v>
       </c>
       <c r="U42" s="205" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="V42" s="205" t="n">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="W42" s="205" t="n">
-        <v>5.060240745544434</v>
+        <v>0.001244454411789775</v>
       </c>
       <c r="X42" s="205" t="n">
-        <v>0.12650601863861083</v>
+        <v>4.148181372632583E-5</v>
       </c>
       <c r="Y42" s="206" t="n">
-        <v>0.10542167723178864</v>
+        <v>1.0370453310315497E-5</v>
       </c>
       <c r="Z42" s="205" t="n">
-        <v>5.060241222381592</v>
+        <v>0.0012444445164874196</v>
       </c>
       <c r="AA42" s="205" t="n">
-        <v>0.1265060305595398</v>
+        <v>4.1481482185190544E-5</v>
       </c>
       <c r="AB42" s="207" t="n">
-        <v>0.10542169213294983</v>
+        <v>1.0370370546297636E-5</v>
       </c>
       <c r="AC42" s="276" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD42" s="53"/>
       <c r="AE42" s="47"/>
@@ -5030,16 +5127,16 @@
       <c r="AJ42" s="228"/>
       <c r="AK42" s="124"/>
       <c r="AL42" s="47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AM42" s="47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AN42" s="34" t="n">
-        <v>0.08433734625577927</v>
+        <v>2.0740906620630994E-5</v>
       </c>
       <c r="AO42" s="34" t="n">
-        <v>120.48192596435547</v>
+        <v>74.0740737915039</v>
       </c>
       <c r="AP42" s="21"/>
     </row>
@@ -5050,79 +5147,75 @@
       <c r="B43" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="32" t="s">
-        <v>149</v>
-      </c>
+      <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="151" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G43" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H43" s="151" t="n">
+        <v>50.400404606573105</v>
+      </c>
+      <c r="I43" s="152" t="n">
+        <v>5.7931499547785175E-5</v>
+      </c>
+      <c r="J43" s="151" t="s">
         <v>142</v>
       </c>
-      <c r="F43" s="151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="150" t="n">
-        <v>0.08000000566244125</v>
-      </c>
-      <c r="H43" s="151" t="n">
-        <v>40000.00283122063</v>
-      </c>
-      <c r="I43" s="152" t="n">
-        <v>0.09638554899089308</v>
-      </c>
-      <c r="J43" s="151" t="n">
-        <v>0.0022320004645735025</v>
-      </c>
-      <c r="K43" s="150" t="n">
-        <v>0.08000000566244125</v>
-      </c>
-      <c r="L43" s="150" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="M43" s="152" t="n">
-        <v>0.09638554602861404</v>
-      </c>
-      <c r="N43" s="282" t="s">
-        <v>143</v>
-      </c>
+      <c r="K43" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="N43" s="170"/>
       <c r="O43" s="53"/>
       <c r="P43" s="130"/>
       <c r="Q43" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R43" s="205" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="S43" s="205" t="n">
-        <v>75000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="T43" s="205" t="n">
         <v>60.0</v>
       </c>
       <c r="U43" s="205" t="n">
-        <v>100.0</v>
+        <v>40.0</v>
       </c>
       <c r="V43" s="205" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="W43" s="205" t="n">
-        <v>5.060240745544434</v>
+        <v>0.001244454411789775</v>
       </c>
       <c r="X43" s="205" t="n">
-        <v>0.05060240745544434</v>
+        <v>3.111136029474437E-5</v>
       </c>
       <c r="Y43" s="206" t="n">
-        <v>0.21084335446357727</v>
+        <v>2.5926134185283445E-5</v>
       </c>
       <c r="Z43" s="205" t="n">
-        <v>5.060241222381592</v>
+        <v>0.0012444445164874196</v>
       </c>
       <c r="AA43" s="205" t="n">
-        <v>0.05060241371393204</v>
+        <v>3.1111110729398206E-5</v>
       </c>
       <c r="AB43" s="207" t="n">
-        <v>0.21084338426589966</v>
+        <v>2.592592682049144E-5</v>
       </c>
       <c r="AC43" s="277" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD43" s="53"/>
       <c r="AE43" s="47"/>
@@ -5132,10 +5225,18 @@
       <c r="AI43" s="207"/>
       <c r="AJ43" s="229"/>
       <c r="AK43" s="124"/>
-      <c r="AL43" s="47"/>
-      <c r="AM43" s="47"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="34"/>
+      <c r="AL43" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM43" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN43" s="34" t="n">
+        <v>1.97184690478025E-5</v>
+      </c>
+      <c r="AO43" s="34" t="n">
+        <v>70.42253875732422</v>
+      </c>
       <c r="AP43" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -5144,56 +5245,76 @@
       </c>
       <c r="B44" s="174"/>
       <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="171"/>
+      <c r="E44" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G44" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H44" s="151" t="n">
+        <v>14.00011239071475</v>
+      </c>
+      <c r="I44" s="151" t="n">
+        <v>2.0740907245503334E-5</v>
+      </c>
+      <c r="J44" s="151" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K44" s="150" t="n">
+        <v>2.8000000384054147E-5</v>
+      </c>
+      <c r="L44" s="150" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M44" s="151" t="n">
+        <v>2.0740741092595272E-5</v>
+      </c>
+      <c r="N44" s="275" t="s">
+        <v>145</v>
+      </c>
       <c r="O44" s="53"/>
       <c r="P44" s="130"/>
       <c r="Q44" s="141" t="s">
         <v>140</v>
       </c>
       <c r="R44" s="205" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="S44" s="205" t="n">
-        <v>55000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T44" s="205" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="U44" s="205" t="n">
-        <v>120.0</v>
+        <v>100.0</v>
       </c>
       <c r="V44" s="205" t="n">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="W44" s="205" t="n">
-        <v>5.903614044189453</v>
+        <v>0.001244454411789775</v>
       </c>
       <c r="X44" s="205" t="n">
-        <v>0.049196783701578775</v>
+        <v>1.244454411789775E-5</v>
       </c>
       <c r="Y44" s="206" t="n">
-        <v>0.046385541558265686</v>
+        <v>5.185226473258808E-5</v>
       </c>
       <c r="Z44" s="205" t="n">
-        <v>5.903614521026611</v>
+        <v>0.0012444445164874196</v>
       </c>
       <c r="AA44" s="205" t="n">
-        <v>0.049196790903806686</v>
+        <v>1.2444445019355044E-5</v>
       </c>
       <c r="AB44" s="207" t="n">
-        <v>0.046385545283555984</v>
+        <v>5.185185364098288E-5</v>
       </c>
       <c r="AC44" s="278" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD44" s="53"/>
       <c r="AE44" s="47"/>
@@ -5203,10 +5324,18 @@
       <c r="AI44" s="207"/>
       <c r="AJ44" s="230"/>
       <c r="AK44" s="124"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47"/>
-      <c r="AN44" s="34"/>
-      <c r="AO44" s="34"/>
+      <c r="AL44" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM44" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN44" s="34" t="n">
+        <v>2.0740906620630994E-5</v>
+      </c>
+      <c r="AO44" s="34" t="n">
+        <v>29.629627227783203</v>
+      </c>
       <c r="AP44" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -5214,16 +5343,36 @@
         <v>4</v>
       </c>
       <c r="B45" s="174"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="151"/>
+      <c r="D45" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G45" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H45" s="151" t="n">
+        <v>22.400179825143603</v>
+      </c>
+      <c r="I45" s="151" t="n">
+        <v>3.3185451592805334E-5</v>
+      </c>
+      <c r="J45" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N45" s="171"/>
       <c r="O45" s="53"/>
       <c r="P45" s="130"/>
@@ -5231,40 +5380,40 @@
         <v>140</v>
       </c>
       <c r="R45" s="205" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="S45" s="205" t="n">
-        <v>100000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="T45" s="205" t="n">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="U45" s="205" t="n">
-        <v>50.0</v>
+        <v>120.0</v>
       </c>
       <c r="V45" s="205" t="n">
-        <v>30.0</v>
+        <v>100.0</v>
       </c>
       <c r="W45" s="205" t="n">
-        <v>1.6867469549179077</v>
+        <v>0.0014518634416162968</v>
       </c>
       <c r="X45" s="205" t="n">
-        <v>0.03373493909835815</v>
+        <v>1.209886201346914E-5</v>
       </c>
       <c r="Y45" s="206" t="n">
-        <v>0.281124472618103</v>
+        <v>1.1407498277549166E-5</v>
       </c>
       <c r="Z45" s="205" t="n">
-        <v>1.6867470741271973</v>
+        <v>0.001451851916499436</v>
       </c>
       <c r="AA45" s="205" t="n">
-        <v>0.033734939992427826</v>
+        <v>1.2098766092094593E-5</v>
       </c>
       <c r="AB45" s="207" t="n">
-        <v>0.2811245024204254</v>
+        <v>1.1407407328078989E-5</v>
       </c>
       <c r="AC45" s="279" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD45" s="53"/>
       <c r="AE45" s="47"/>
@@ -5274,25 +5423,51 @@
       <c r="AI45" s="207"/>
       <c r="AJ45" s="231"/>
       <c r="AK45" s="124"/>
-      <c r="AL45" s="47"/>
-      <c r="AM45" s="47"/>
-      <c r="AN45" s="34"/>
-      <c r="AO45" s="34"/>
+      <c r="AL45" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM45" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN45" s="34" t="n">
+        <v>2.0740906620630994E-5</v>
+      </c>
+      <c r="AO45" s="34" t="n">
+        <v>74.0740737915039</v>
+      </c>
       <c r="AP45" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A46" s="174"/>
       <c r="B46" s="174"/>
       <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="151"/>
+      <c r="E46" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G46" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H46" s="151" t="n">
+        <v>50.400404606573105</v>
+      </c>
+      <c r="I46" s="151" t="n">
+        <v>7.4667266083812E-5</v>
+      </c>
+      <c r="J46" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N46" s="192"/>
       <c r="O46" s="53"/>
       <c r="P46" s="130"/>
@@ -5300,40 +5475,40 @@
         <v>140</v>
       </c>
       <c r="R46" s="205" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="S46" s="205" t="n">
-        <v>15000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="T46" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U46" s="205" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V46" s="205" t="n">
         <v>30.0</v>
       </c>
-      <c r="U46" s="205" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V46" s="205" t="n">
-        <v>40.0</v>
-      </c>
       <c r="W46" s="205" t="n">
-        <v>2.530120372772217</v>
+        <v>4.1481811786070466E-4</v>
       </c>
       <c r="X46" s="205" t="n">
-        <v>0.06325300931930541</v>
+        <v>8.296362357214094E-6</v>
       </c>
       <c r="Y46" s="206" t="n">
-        <v>0.03162650391459465</v>
+        <v>6.913636025274172E-5</v>
       </c>
       <c r="Z46" s="205" t="n">
-        <v>2.530120611190796</v>
+        <v>4.1481482912786305E-4</v>
       </c>
       <c r="AA46" s="205" t="n">
-        <v>0.0632530152797699</v>
+        <v>8.296296073240228E-6</v>
       </c>
       <c r="AB46" s="207" t="n">
-        <v>0.03162650763988495</v>
+        <v>6.913580727996305E-5</v>
       </c>
       <c r="AC46" s="280" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD46" s="53"/>
       <c r="AE46" s="47"/>
@@ -5343,65 +5518,93 @@
       <c r="AI46" s="207"/>
       <c r="AJ46" s="232"/>
       <c r="AK46" s="124"/>
-      <c r="AL46" s="47"/>
-      <c r="AM46" s="47"/>
-      <c r="AN46" s="34"/>
-      <c r="AO46" s="34"/>
+      <c r="AL46" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM46" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN46" s="34" t="n">
+        <v>3.318544986541383E-5</v>
+      </c>
+      <c r="AO46" s="34" t="n">
+        <v>118.51851654052734</v>
+      </c>
       <c r="AP46" s="21"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A47" s="174"/>
       <c r="B47" s="174"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="152"/>
-      <c r="N47" s="172"/>
+      <c r="E47" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G47" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H47" s="150" t="n">
+        <v>14.00011239071475</v>
+      </c>
+      <c r="I47" s="150" t="n">
+        <v>1.971846815593627E-5</v>
+      </c>
+      <c r="J47" s="151" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K47" s="150" t="n">
+        <v>2.8000000384054147E-5</v>
+      </c>
+      <c r="L47" s="150" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M47" s="152" t="n">
+        <v>1.9718310795724392E-5</v>
+      </c>
+      <c r="N47" s="283" t="s">
+        <v>145</v>
+      </c>
       <c r="P47" s="117"/>
       <c r="Q47" s="139" t="s">
         <v>140</v>
       </c>
       <c r="R47" s="206" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="S47" s="210" t="n">
-        <v>300000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="T47" s="210" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
       <c r="U47" s="205" t="n">
         <v>40.0</v>
       </c>
       <c r="V47" s="205" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="W47" s="206" t="n">
-        <v>5.060240745544434</v>
+        <v>6.222272058948874E-4</v>
       </c>
       <c r="X47" s="206" t="n">
-        <v>0.12650601863861083</v>
+        <v>1.5555680147372186E-5</v>
       </c>
       <c r="Y47" s="206" t="n">
-        <v>1.2650601863861084</v>
+        <v>7.777839527989272E-6</v>
       </c>
       <c r="Z47" s="206" t="n">
-        <v>5.060241222381592</v>
+        <v>6.222222582437098E-4</v>
       </c>
       <c r="AA47" s="206" t="n">
-        <v>0.1265060305595398</v>
+        <v>1.5555555364699103E-5</v>
       </c>
       <c r="AB47" s="211" t="n">
-        <v>1.265060305595398</v>
+        <v>7.777777682349551E-6</v>
       </c>
       <c r="AC47" s="281" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD47" s="21"/>
       <c r="AE47" s="60"/>
@@ -5420,31 +5623,77 @@
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A48" s="174"/>
       <c r="B48" s="174"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="151"/>
+      <c r="D48" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G48" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H48" s="150" t="n">
+        <v>22.400179825143603</v>
+      </c>
+      <c r="I48" s="150" t="n">
+        <v>2.574733313234897E-5</v>
+      </c>
+      <c r="J48" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L48" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N48" s="172"/>
       <c r="P48" s="117"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="206"/>
-      <c r="S48" s="210"/>
-      <c r="T48" s="210"/>
-      <c r="U48" s="205"/>
-      <c r="V48" s="205"/>
-      <c r="W48" s="206"/>
-      <c r="X48" s="206"/>
-      <c r="Y48" s="206"/>
-      <c r="Z48" s="206"/>
-      <c r="AA48" s="206"/>
-      <c r="AB48" s="211"/>
-      <c r="AC48" s="208"/>
+      <c r="Q48" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="R48" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="S48" s="210" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T48" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U48" s="205" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V48" s="205" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W48" s="206" t="n">
+        <v>0.001244454411789775</v>
+      </c>
+      <c r="X48" s="206" t="n">
+        <v>3.111136029474437E-5</v>
+      </c>
+      <c r="Y48" s="206" t="n">
+        <v>3.111136029474437E-4</v>
+      </c>
+      <c r="Z48" s="206" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA48" s="206" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB48" s="211" t="n">
+        <v>3.111111291218549E-4</v>
+      </c>
+      <c r="AC48" s="282" t="s">
+        <v>145</v>
+      </c>
       <c r="AD48" s="21"/>
       <c r="AE48" s="60"/>
       <c r="AF48" s="34"/>
@@ -5463,56 +5712,48 @@
       <c r="A49" s="174"/>
       <c r="B49" s="174"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="151"/>
+      <c r="E49" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G49" s="150" t="n">
+        <v>1.9444283009245046E-5</v>
+      </c>
+      <c r="H49" s="150" t="n">
+        <v>34.99970941664108</v>
+      </c>
+      <c r="I49" s="150" t="n">
+        <v>5.1851421357986787E-5</v>
+      </c>
+      <c r="J49" s="151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L49" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N49" s="193"/>
       <c r="P49" s="117"/>
-      <c r="Q49" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="R49" s="206" t="s">
-        <v>144</v>
-      </c>
-      <c r="S49" s="210" t="n">
-        <v>25000.0</v>
-      </c>
-      <c r="T49" s="210" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U49" s="205" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V49" s="205" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W49" s="206" t="n">
-        <v>5.783132553100586</v>
-      </c>
-      <c r="X49" s="206" t="n">
-        <v>0.14457831382751465</v>
-      </c>
-      <c r="Y49" s="206" t="n">
-        <v>0.1204819306731224</v>
-      </c>
-      <c r="Z49" s="206" t="n">
-        <v>5.783133029937744</v>
-      </c>
-      <c r="AA49" s="206" t="n">
-        <v>0.14457832276821136</v>
-      </c>
-      <c r="AB49" s="211" t="n">
-        <v>0.1204819306731224</v>
-      </c>
-      <c r="AC49" s="283" t="s">
-        <v>143</v>
-      </c>
+      <c r="Q49" s="139"/>
+      <c r="R49" s="206"/>
+      <c r="S49" s="210"/>
+      <c r="T49" s="210"/>
+      <c r="U49" s="205"/>
+      <c r="V49" s="205"/>
+      <c r="W49" s="206"/>
+      <c r="X49" s="206"/>
+      <c r="Y49" s="206"/>
+      <c r="Z49" s="206"/>
+      <c r="AA49" s="206"/>
+      <c r="AB49" s="211"/>
+      <c r="AC49" s="208"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="60"/>
       <c r="AF49" s="34"/>
@@ -5531,55 +5772,75 @@
       <c r="A50" s="174"/>
       <c r="B50" s="174"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="172"/>
+      <c r="E50" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G50" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H50" s="150" t="n">
+        <v>14.00011239071475</v>
+      </c>
+      <c r="I50" s="150" t="n">
+        <v>2.0740907245503334E-5</v>
+      </c>
+      <c r="J50" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K50" s="150" t="n">
+        <v>2.8000000384054147E-5</v>
+      </c>
+      <c r="L50" s="150" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M50" s="151" t="n">
+        <v>2.0740741092595272E-5</v>
+      </c>
+      <c r="N50" s="288" t="s">
+        <v>145</v>
+      </c>
       <c r="P50" s="117"/>
       <c r="Q50" s="139" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R50" s="206" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S50" s="210" t="n">
-        <v>75000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="T50" s="210" t="n">
         <v>60.0</v>
       </c>
       <c r="U50" s="205" t="n">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="V50" s="205" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
       <c r="W50" s="206" t="n">
-        <v>5.783132553100586</v>
+        <v>0.0011831081937998533</v>
       </c>
       <c r="X50" s="205" t="n">
-        <v>0.05783132553100586</v>
+        <v>3.9436939793328445E-5</v>
       </c>
       <c r="Y50" s="205" t="n">
-        <v>0.2409638613462448</v>
+        <v>9.85923452390125E-6</v>
       </c>
       <c r="Z50" s="205" t="n">
-        <v>5.783133029937744</v>
+        <v>0.0011830986477434635</v>
       </c>
       <c r="AA50" s="205" t="n">
-        <v>0.057831328362226486</v>
+        <v>3.9436621591448784E-5</v>
       </c>
       <c r="AB50" s="207" t="n">
-        <v>0.2409638613462448</v>
+        <v>9.859155397862196E-6</v>
       </c>
       <c r="AC50" s="284" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD50" s="44"/>
       <c r="AE50" s="47"/>
@@ -5598,56 +5859,78 @@
     <row customHeight="1" ht="24.95" r="51" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A51" s="174"/>
       <c r="B51" s="174"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="172"/>
+      <c r="D51" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G51" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H51" s="150" t="n">
+        <v>22.400179825143603</v>
+      </c>
+      <c r="I51" s="150" t="n">
+        <v>3.3185451592805334E-5</v>
+      </c>
+      <c r="J51" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="K51" s="150" t="n">
+        <v>2.8000000384054147E-5</v>
+      </c>
+      <c r="L51" s="150" t="n">
+        <v>22.399999618530273</v>
+      </c>
+      <c r="M51" s="151" t="n">
+        <v>3.318518429296091E-5</v>
+      </c>
+      <c r="N51" s="296" t="s">
+        <v>145</v>
+      </c>
       <c r="P51" s="117"/>
       <c r="Q51" s="139" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R51" s="206" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="S51" s="210" t="n">
-        <v>55000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="T51" s="210" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="U51" s="205" t="n">
-        <v>120.0</v>
+        <v>100.0</v>
       </c>
       <c r="V51" s="205" t="n">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
       <c r="W51" s="206" t="n">
-        <v>6.746988296508789</v>
+        <v>0.0011831081937998533</v>
       </c>
       <c r="X51" s="205" t="n">
-        <v>0.05622490247090658</v>
+        <v>1.1831081937998533E-5</v>
       </c>
       <c r="Y51" s="205" t="n">
-        <v>0.053012050688266754</v>
+        <v>4.929617352900095E-5</v>
       </c>
       <c r="Z51" s="205" t="n">
-        <v>6.746988296508789</v>
+        <v>0.0011830986477434635</v>
       </c>
       <c r="AA51" s="205" t="n">
-        <v>0.05622490122914314</v>
+        <v>1.1830986295535695E-5</v>
       </c>
       <c r="AB51" s="207" t="n">
-        <v>0.053012050688266754</v>
+        <v>4.929577698931098E-5</v>
       </c>
       <c r="AC51" s="285" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD51" s="63"/>
       <c r="AE51" s="47"/>
@@ -5667,22 +5950,40 @@
       <c r="A52" s="174"/>
       <c r="B52" s="174"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="151"/>
+      <c r="E52" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G52" s="150" t="n">
+        <v>1.9444283009245046E-5</v>
+      </c>
+      <c r="H52" s="150" t="n">
+        <v>34.99970941664108</v>
+      </c>
+      <c r="I52" s="150" t="n">
+        <v>4.929536537555082E-5</v>
+      </c>
+      <c r="J52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L52" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M52" s="151" t="s">
+        <v>142</v>
+      </c>
       <c r="N52" s="172"/>
       <c r="P52" s="117"/>
       <c r="Q52" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="R52" s="206" t="s">
         <v>149</v>
-      </c>
-      <c r="R52" s="206" t="s">
-        <v>146</v>
       </c>
       <c r="S52" s="210" t="n">
         <v>100000.0</v>
@@ -5697,25 +5998,25 @@
         <v>30.0</v>
       </c>
       <c r="W52" s="206" t="n">
-        <v>1.9277108907699585</v>
+        <v>3.943693882320076E-4</v>
       </c>
       <c r="X52" s="206" t="n">
-        <v>0.03855421781539917</v>
+        <v>7.887387764640153E-6</v>
       </c>
       <c r="Y52" s="206" t="n">
-        <v>0.3212851583957672</v>
+        <v>6.572822894668207E-5</v>
       </c>
       <c r="Z52" s="206" t="n">
-        <v>1.9277108907699585</v>
+        <v>3.9436621591448784E-4</v>
       </c>
       <c r="AA52" s="206" t="n">
-        <v>0.03855421766638756</v>
+        <v>7.887324500188697E-6</v>
       </c>
       <c r="AB52" s="211" t="n">
-        <v>0.3212851583957672</v>
+        <v>6.572769780177623E-5</v>
       </c>
       <c r="AC52" s="286" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD52" s="21"/>
       <c r="AE52" s="34"/>
@@ -5735,55 +6036,73 @@
       <c r="A53" s="174"/>
       <c r="B53" s="174"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="152"/>
+      <c r="E53" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F53" s="150" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G53" s="150" t="n">
+        <v>2.8000224781429502E-5</v>
+      </c>
+      <c r="H53" s="150" t="n">
+        <v>50.400404606573105</v>
+      </c>
+      <c r="I53" s="150" t="n">
+        <v>7.4667266083812E-5</v>
+      </c>
+      <c r="J53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="L53" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="M53" s="152" t="s">
+        <v>142</v>
+      </c>
       <c r="N53" s="194"/>
       <c r="P53" s="117"/>
       <c r="Q53" s="139" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R53" s="206" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="S53" s="210" t="n">
-        <v>15000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="T53" s="210" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="U53" s="205" t="n">
         <v>40.0</v>
       </c>
       <c r="V53" s="205" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="W53" s="206" t="n">
-        <v>2.891566276550293</v>
+        <v>0.0011831081937998533</v>
       </c>
       <c r="X53" s="206" t="n">
-        <v>0.07228915691375733</v>
+        <v>2.9577704844996332E-5</v>
       </c>
       <c r="Y53" s="206" t="n">
-        <v>0.03614458069205284</v>
+        <v>2.9577704844996333E-4</v>
       </c>
       <c r="Z53" s="206" t="n">
-        <v>2.891566514968872</v>
+        <v>0.0011830986477434635</v>
       </c>
       <c r="AA53" s="206" t="n">
-        <v>0.07228916138410568</v>
+        <v>2.9577466193586588E-5</v>
       </c>
       <c r="AB53" s="211" t="n">
-        <v>0.03614458069205284</v>
+        <v>2.957746619358659E-4</v>
       </c>
       <c r="AC53" s="287" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AD53" s="21"/>
       <c r="AE53" s="34"/>
@@ -5814,45 +6133,19 @@
       <c r="M54" s="151"/>
       <c r="N54" s="172"/>
       <c r="P54" s="117"/>
-      <c r="Q54" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="R54" s="206" t="s">
-        <v>148</v>
-      </c>
-      <c r="S54" s="210" t="n">
-        <v>300000.0</v>
-      </c>
-      <c r="T54" s="210" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="U54" s="206" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="V54" s="206" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="W54" s="206" t="n">
-        <v>5.783132553100586</v>
-      </c>
-      <c r="X54" s="206" t="n">
-        <v>0.14457831382751465</v>
-      </c>
-      <c r="Y54" s="206" t="n">
-        <v>1.445783257484436</v>
-      </c>
-      <c r="Z54" s="206" t="n">
-        <v>5.783133029937744</v>
-      </c>
-      <c r="AA54" s="206" t="n">
-        <v>0.14457832276821136</v>
-      </c>
-      <c r="AB54" s="211" t="n">
-        <v>1.445783257484436</v>
-      </c>
-      <c r="AC54" s="288" t="s">
-        <v>143</v>
-      </c>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="206"/>
+      <c r="S54" s="210"/>
+      <c r="T54" s="210"/>
+      <c r="U54" s="206"/>
+      <c r="V54" s="206"/>
+      <c r="W54" s="206"/>
+      <c r="X54" s="206"/>
+      <c r="Y54" s="206"/>
+      <c r="Z54" s="206"/>
+      <c r="AA54" s="206"/>
+      <c r="AB54" s="211"/>
+      <c r="AC54" s="208"/>
       <c r="AD54" s="21"/>
       <c r="AE54" s="34"/>
       <c r="AF54" s="34"/>
@@ -5882,19 +6175,45 @@
       <c r="M55" s="151"/>
       <c r="N55" s="172"/>
       <c r="P55" s="117"/>
-      <c r="Q55" s="139"/>
-      <c r="R55" s="206"/>
-      <c r="S55" s="210"/>
-      <c r="T55" s="210"/>
-      <c r="U55" s="206"/>
-      <c r="V55" s="206"/>
-      <c r="W55" s="206"/>
-      <c r="X55" s="206"/>
-      <c r="Y55" s="206"/>
-      <c r="Z55" s="206"/>
-      <c r="AA55" s="206"/>
-      <c r="AB55" s="211"/>
-      <c r="AC55" s="208"/>
+      <c r="Q55" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R55" s="206" t="s">
+        <v>152</v>
+      </c>
+      <c r="S55" s="210" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="T55" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U55" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V55" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W55" s="206" t="n">
+        <v>0.001244454411789775</v>
+      </c>
+      <c r="X55" s="206" t="n">
+        <v>3.111136029474437E-5</v>
+      </c>
+      <c r="Y55" s="206" t="n">
+        <v>1.0370453310315497E-5</v>
+      </c>
+      <c r="Z55" s="206" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA55" s="206" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB55" s="211" t="n">
+        <v>1.0370370546297636E-5</v>
+      </c>
+      <c r="AC55" s="289" t="s">
+        <v>145</v>
+      </c>
       <c r="AD55" s="21"/>
       <c r="AE55" s="34"/>
       <c r="AF55" s="34"/>
@@ -5924,19 +6243,45 @@
       <c r="M56" s="151"/>
       <c r="N56" s="195"/>
       <c r="P56" s="117"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="206"/>
-      <c r="S56" s="210"/>
-      <c r="T56" s="210"/>
-      <c r="U56" s="206"/>
-      <c r="V56" s="206"/>
-      <c r="W56" s="206"/>
-      <c r="X56" s="206"/>
-      <c r="Y56" s="206"/>
-      <c r="Z56" s="206"/>
-      <c r="AA56" s="206"/>
-      <c r="AB56" s="211"/>
-      <c r="AC56" s="209"/>
+      <c r="Q56" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R56" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S56" s="210" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T56" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U56" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V56" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W56" s="206" t="n">
+        <v>0.001244454411789775</v>
+      </c>
+      <c r="X56" s="206" t="n">
+        <v>3.111136029474437E-5</v>
+      </c>
+      <c r="Y56" s="206" t="n">
+        <v>2.5926134185283445E-5</v>
+      </c>
+      <c r="Z56" s="206" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA56" s="206" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB56" s="211" t="n">
+        <v>2.592592682049144E-5</v>
+      </c>
+      <c r="AC56" s="290" t="s">
+        <v>145</v>
+      </c>
       <c r="AD56" s="21"/>
       <c r="AE56" s="34"/>
       <c r="AF56" s="34"/>
@@ -5966,19 +6311,45 @@
       <c r="M57" s="150"/>
       <c r="N57" s="173"/>
       <c r="P57" s="117"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="206"/>
-      <c r="S57" s="210"/>
-      <c r="T57" s="210"/>
-      <c r="U57" s="206"/>
-      <c r="V57" s="206"/>
-      <c r="W57" s="206"/>
-      <c r="X57" s="206"/>
-      <c r="Y57" s="206"/>
-      <c r="Z57" s="206"/>
-      <c r="AA57" s="206"/>
-      <c r="AB57" s="211"/>
-      <c r="AC57" s="208"/>
+      <c r="Q57" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R57" s="206" t="s">
+        <v>148</v>
+      </c>
+      <c r="S57" s="210" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T57" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U57" s="206" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V57" s="206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W57" s="206" t="n">
+        <v>0.001244454411789775</v>
+      </c>
+      <c r="X57" s="206" t="n">
+        <v>1.244454411789775E-5</v>
+      </c>
+      <c r="Y57" s="206" t="n">
+        <v>5.185226473258808E-5</v>
+      </c>
+      <c r="Z57" s="206" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA57" s="206" t="n">
+        <v>1.2444445019355044E-5</v>
+      </c>
+      <c r="AB57" s="211" t="n">
+        <v>5.185185364098288E-5</v>
+      </c>
+      <c r="AC57" s="291" t="s">
+        <v>145</v>
+      </c>
       <c r="AD57" s="21"/>
       <c r="AE57" s="34"/>
       <c r="AF57" s="34"/>
@@ -6008,19 +6379,45 @@
       <c r="M58" s="150"/>
       <c r="N58" s="173"/>
       <c r="P58" s="117"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="206"/>
-      <c r="S58" s="210"/>
-      <c r="T58" s="210"/>
-      <c r="U58" s="206"/>
-      <c r="V58" s="206"/>
-      <c r="W58" s="206"/>
-      <c r="X58" s="206"/>
-      <c r="Y58" s="206"/>
-      <c r="Z58" s="206"/>
-      <c r="AA58" s="206"/>
-      <c r="AB58" s="211"/>
-      <c r="AC58" s="208"/>
+      <c r="Q58" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="S58" s="210" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T58" s="210" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U58" s="206" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V58" s="206" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W58" s="206" t="n">
+        <v>0.0014518634416162968</v>
+      </c>
+      <c r="X58" s="206" t="n">
+        <v>1.209886201346914E-5</v>
+      </c>
+      <c r="Y58" s="206" t="n">
+        <v>1.1407498277549166E-5</v>
+      </c>
+      <c r="Z58" s="206" t="n">
+        <v>0.001451851916499436</v>
+      </c>
+      <c r="AA58" s="206" t="n">
+        <v>1.2098766092094593E-5</v>
+      </c>
+      <c r="AB58" s="211" t="n">
+        <v>1.1407407328078989E-5</v>
+      </c>
+      <c r="AC58" s="292" t="s">
+        <v>145</v>
+      </c>
       <c r="AD58" s="21"/>
       <c r="AE58" s="34"/>
       <c r="AF58" s="34"/>
@@ -6050,19 +6447,45 @@
       <c r="M59" s="150"/>
       <c r="N59" s="137"/>
       <c r="P59" s="117"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="206"/>
-      <c r="S59" s="210"/>
-      <c r="T59" s="210"/>
-      <c r="U59" s="206"/>
-      <c r="V59" s="206"/>
-      <c r="W59" s="206"/>
-      <c r="X59" s="206"/>
-      <c r="Y59" s="206"/>
-      <c r="Z59" s="206"/>
-      <c r="AA59" s="206"/>
-      <c r="AB59" s="211"/>
-      <c r="AC59" s="208"/>
+      <c r="Q59" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R59" s="206" t="s">
+        <v>149</v>
+      </c>
+      <c r="S59" s="210" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T59" s="210" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U59" s="206" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V59" s="206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W59" s="206" t="n">
+        <v>4.1481811786070466E-4</v>
+      </c>
+      <c r="X59" s="206" t="n">
+        <v>8.296362357214094E-6</v>
+      </c>
+      <c r="Y59" s="206" t="n">
+        <v>6.913636025274172E-5</v>
+      </c>
+      <c r="Z59" s="206" t="n">
+        <v>4.1481482912786305E-4</v>
+      </c>
+      <c r="AA59" s="206" t="n">
+        <v>8.296296073240228E-6</v>
+      </c>
+      <c r="AB59" s="211" t="n">
+        <v>6.913580727996305E-5</v>
+      </c>
+      <c r="AC59" s="293" t="s">
+        <v>145</v>
+      </c>
       <c r="AD59" s="21"/>
       <c r="AE59" s="34"/>
       <c r="AF59" s="34"/>
@@ -6092,19 +6515,45 @@
       <c r="M60" s="150"/>
       <c r="N60" s="137"/>
       <c r="P60" s="117"/>
-      <c r="Q60" s="139"/>
-      <c r="R60" s="206"/>
-      <c r="S60" s="210"/>
-      <c r="T60" s="210"/>
-      <c r="U60" s="206"/>
-      <c r="V60" s="206"/>
-      <c r="W60" s="206"/>
-      <c r="X60" s="206"/>
-      <c r="Y60" s="206"/>
-      <c r="Z60" s="206"/>
-      <c r="AA60" s="206"/>
-      <c r="AB60" s="211"/>
-      <c r="AC60" s="209"/>
+      <c r="Q60" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R60" s="206" t="s">
+        <v>150</v>
+      </c>
+      <c r="S60" s="210" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T60" s="210" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U60" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V60" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W60" s="206" t="n">
+        <v>6.222272058948874E-4</v>
+      </c>
+      <c r="X60" s="206" t="n">
+        <v>1.5555680147372186E-5</v>
+      </c>
+      <c r="Y60" s="206" t="n">
+        <v>7.777839527989272E-6</v>
+      </c>
+      <c r="Z60" s="206" t="n">
+        <v>6.222222582437098E-4</v>
+      </c>
+      <c r="AA60" s="206" t="n">
+        <v>1.5555555364699103E-5</v>
+      </c>
+      <c r="AB60" s="211" t="n">
+        <v>7.777777682349551E-6</v>
+      </c>
+      <c r="AC60" s="294" t="s">
+        <v>145</v>
+      </c>
       <c r="AD60" s="21"/>
       <c r="AE60" s="34"/>
       <c r="AF60" s="34"/>
@@ -6132,19 +6581,45 @@
       <c r="M61" s="150"/>
       <c r="N61" s="137"/>
       <c r="P61" s="117"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="206"/>
-      <c r="S61" s="210"/>
-      <c r="T61" s="210"/>
-      <c r="U61" s="206"/>
-      <c r="V61" s="206"/>
-      <c r="W61" s="206"/>
-      <c r="X61" s="206"/>
-      <c r="Y61" s="206"/>
-      <c r="Z61" s="206"/>
-      <c r="AA61" s="206"/>
-      <c r="AB61" s="212"/>
-      <c r="AC61" s="208"/>
+      <c r="Q61" s="139" t="s">
+        <v>143</v>
+      </c>
+      <c r="R61" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="S61" s="210" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T61" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U61" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V61" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W61" s="206" t="n">
+        <v>0.001244454411789775</v>
+      </c>
+      <c r="X61" s="206" t="n">
+        <v>3.111136029474437E-5</v>
+      </c>
+      <c r="Y61" s="206" t="n">
+        <v>3.111136029474437E-4</v>
+      </c>
+      <c r="Z61" s="206" t="n">
+        <v>0.0012444445164874196</v>
+      </c>
+      <c r="AA61" s="206" t="n">
+        <v>3.1111110729398206E-5</v>
+      </c>
+      <c r="AB61" s="212" t="n">
+        <v>3.111111291218549E-4</v>
+      </c>
+      <c r="AC61" s="295" t="s">
+        <v>145</v>
+      </c>
       <c r="AD61" s="21"/>
       <c r="AE61" s="34"/>
       <c r="AF61" s="34"/>
@@ -6212,19 +6687,45 @@
       <c r="M63" s="137"/>
       <c r="N63" s="137"/>
       <c r="P63" s="117"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="206"/>
-      <c r="S63" s="210"/>
-      <c r="T63" s="210"/>
-      <c r="U63" s="206"/>
-      <c r="V63" s="206"/>
-      <c r="W63" s="206"/>
-      <c r="X63" s="206"/>
-      <c r="Y63" s="206"/>
-      <c r="Z63" s="206"/>
-      <c r="AA63" s="206"/>
-      <c r="AB63" s="212"/>
-      <c r="AC63" s="208"/>
+      <c r="Q63" s="139" t="s">
+        <v>144</v>
+      </c>
+      <c r="R63" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="S63" s="210" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="T63" s="210" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U63" s="206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="V63" s="206" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="W63" s="206" t="n">
+        <v>0.0019911269191652536</v>
+      </c>
+      <c r="X63" s="206" t="n">
+        <v>6.637089730550845E-5</v>
+      </c>
+      <c r="Y63" s="206" t="n">
+        <v>1.6592724932706915E-5</v>
+      </c>
+      <c r="Z63" s="206" t="n">
+        <v>0.001991111086681485</v>
+      </c>
+      <c r="AA63" s="206" t="n">
+        <v>6.637036858592182E-5</v>
+      </c>
+      <c r="AB63" s="212" t="n">
+        <v>1.6592592146480456E-5</v>
+      </c>
+      <c r="AC63" s="297" t="s">
+        <v>145</v>
+      </c>
       <c r="AD63" s="21"/>
       <c r="AE63" s="34"/>
       <c r="AF63" s="34"/>
@@ -6252,19 +6753,45 @@
       <c r="M64" s="137"/>
       <c r="N64" s="137"/>
       <c r="P64" s="117"/>
-      <c r="Q64" s="68"/>
-      <c r="R64" s="206"/>
-      <c r="S64" s="213"/>
-      <c r="T64" s="213"/>
-      <c r="U64" s="206"/>
-      <c r="V64" s="206"/>
-      <c r="W64" s="206"/>
-      <c r="X64" s="206"/>
-      <c r="Y64" s="206"/>
-      <c r="Z64" s="206"/>
-      <c r="AA64" s="206"/>
-      <c r="AB64" s="212"/>
-      <c r="AC64" s="214"/>
+      <c r="Q64" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R64" s="206" t="s">
+        <v>147</v>
+      </c>
+      <c r="S64" s="213" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="T64" s="213" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U64" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V64" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W64" s="206" t="n">
+        <v>0.0019911269191652536</v>
+      </c>
+      <c r="X64" s="206" t="n">
+        <v>4.977817297913134E-5</v>
+      </c>
+      <c r="Y64" s="206" t="n">
+        <v>4.148181324126199E-5</v>
+      </c>
+      <c r="Z64" s="206" t="n">
+        <v>0.001991111086681485</v>
+      </c>
+      <c r="AA64" s="206" t="n">
+        <v>4.9777780077420175E-5</v>
+      </c>
+      <c r="AB64" s="212" t="n">
+        <v>4.1481482185190544E-5</v>
+      </c>
+      <c r="AC64" s="298" t="s">
+        <v>145</v>
+      </c>
       <c r="AD64" s="21"/>
       <c r="AE64" s="34"/>
       <c r="AF64" s="34"/>
@@ -6292,19 +6819,45 @@
       <c r="M65" s="137"/>
       <c r="N65" s="137"/>
       <c r="P65" s="117"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="206"/>
-      <c r="S65" s="213"/>
-      <c r="T65" s="213"/>
-      <c r="U65" s="206"/>
-      <c r="V65" s="206"/>
-      <c r="W65" s="206"/>
-      <c r="X65" s="206"/>
-      <c r="Y65" s="206"/>
-      <c r="Z65" s="206"/>
-      <c r="AA65" s="206"/>
-      <c r="AB65" s="212"/>
-      <c r="AC65" s="214"/>
+      <c r="Q65" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R65" s="206" t="s">
+        <v>148</v>
+      </c>
+      <c r="S65" s="213" t="n">
+        <v>75000.0</v>
+      </c>
+      <c r="T65" s="213" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U65" s="206" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="V65" s="206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W65" s="206" t="n">
+        <v>0.0019911269191652536</v>
+      </c>
+      <c r="X65" s="206" t="n">
+        <v>1.9911269191652536E-5</v>
+      </c>
+      <c r="Y65" s="206" t="n">
+        <v>8.296362648252398E-5</v>
+      </c>
+      <c r="Z65" s="206" t="n">
+        <v>0.001991111086681485</v>
+      </c>
+      <c r="AA65" s="206" t="n">
+        <v>1.9911110939574428E-5</v>
+      </c>
+      <c r="AB65" s="212" t="n">
+        <v>8.296296437038109E-5</v>
+      </c>
+      <c r="AC65" s="299" t="s">
+        <v>145</v>
+      </c>
       <c r="AE65" s="34"/>
       <c r="AF65" s="34"/>
       <c r="AG65" s="47"/>
@@ -6329,19 +6882,45 @@
       <c r="M66" s="137"/>
       <c r="N66" s="137"/>
       <c r="P66" s="117"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="206"/>
-      <c r="S66" s="213"/>
-      <c r="T66" s="213"/>
-      <c r="U66" s="206"/>
-      <c r="V66" s="206"/>
-      <c r="W66" s="206"/>
-      <c r="X66" s="206"/>
-      <c r="Y66" s="206"/>
-      <c r="Z66" s="206"/>
-      <c r="AA66" s="206"/>
-      <c r="AB66" s="212"/>
-      <c r="AC66" s="214"/>
+      <c r="Q66" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R66" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="S66" s="213" t="n">
+        <v>55000.0</v>
+      </c>
+      <c r="T66" s="213" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="U66" s="206" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="V66" s="206" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="W66" s="206" t="n">
+        <v>0.0023229815997183323</v>
+      </c>
+      <c r="X66" s="206" t="n">
+        <v>1.935817999765277E-5</v>
+      </c>
+      <c r="Y66" s="206" t="n">
+        <v>1.8251997971674427E-5</v>
+      </c>
+      <c r="Z66" s="206" t="n">
+        <v>0.00232296297326684</v>
+      </c>
+      <c r="AA66" s="206" t="n">
+        <v>1.9358025383553468E-5</v>
+      </c>
+      <c r="AB66" s="212" t="n">
+        <v>1.8251852452522144E-5</v>
+      </c>
+      <c r="AC66" s="300" t="s">
+        <v>145</v>
+      </c>
       <c r="AE66" s="34"/>
       <c r="AF66" s="34"/>
       <c r="AG66" s="47"/>
@@ -6366,19 +6945,45 @@
       <c r="M67" s="137"/>
       <c r="N67" s="137"/>
       <c r="P67" s="117"/>
-      <c r="Q67" s="68"/>
-      <c r="R67" s="206"/>
-      <c r="S67" s="213"/>
-      <c r="T67" s="213"/>
-      <c r="U67" s="206"/>
-      <c r="V67" s="206"/>
-      <c r="W67" s="206"/>
-      <c r="X67" s="206"/>
-      <c r="Y67" s="206"/>
-      <c r="Z67" s="206"/>
-      <c r="AA67" s="206"/>
-      <c r="AB67" s="212"/>
-      <c r="AC67" s="214"/>
+      <c r="Q67" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R67" s="206" t="s">
+        <v>149</v>
+      </c>
+      <c r="S67" s="213" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T67" s="213" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U67" s="206" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V67" s="206" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="W67" s="206" t="n">
+        <v>6.637090118601918E-4</v>
+      </c>
+      <c r="X67" s="206" t="n">
+        <v>1.3274180237203836E-5</v>
+      </c>
+      <c r="Y67" s="206" t="n">
+        <v>1.1061817349400371E-4</v>
+      </c>
+      <c r="Z67" s="206" t="n">
+        <v>6.637037149630487E-4</v>
+      </c>
+      <c r="AA67" s="206" t="n">
+        <v>1.3274074262881186E-5</v>
+      </c>
+      <c r="AB67" s="212" t="n">
+        <v>1.1061728582717478E-4</v>
+      </c>
+      <c r="AC67" s="301" t="s">
+        <v>145</v>
+      </c>
       <c r="AE67" s="34"/>
       <c r="AF67" s="34"/>
       <c r="AG67" s="47"/>
@@ -6403,19 +7008,45 @@
       <c r="M68" s="137"/>
       <c r="N68" s="137"/>
       <c r="P68" s="117"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="206"/>
-      <c r="S68" s="213"/>
-      <c r="T68" s="213"/>
-      <c r="U68" s="206"/>
-      <c r="V68" s="206"/>
-      <c r="W68" s="206"/>
-      <c r="X68" s="206"/>
-      <c r="Y68" s="206"/>
-      <c r="Z68" s="206"/>
-      <c r="AA68" s="206"/>
-      <c r="AB68" s="212"/>
-      <c r="AC68" s="214"/>
+      <c r="Q68" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R68" s="206" t="s">
+        <v>150</v>
+      </c>
+      <c r="S68" s="213" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="T68" s="213" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U68" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V68" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="W68" s="206" t="n">
+        <v>9.955634595826268E-4</v>
+      </c>
+      <c r="X68" s="206" t="n">
+        <v>2.488908648956567E-5</v>
+      </c>
+      <c r="Y68" s="206" t="n">
+        <v>1.2444544154277537E-5</v>
+      </c>
+      <c r="Z68" s="206" t="n">
+        <v>9.955555433407426E-4</v>
+      </c>
+      <c r="AA68" s="206" t="n">
+        <v>2.4888890038710088E-5</v>
+      </c>
+      <c r="AB68" s="212" t="n">
+        <v>1.2444445019355044E-5</v>
+      </c>
+      <c r="AC68" s="302" t="s">
+        <v>145</v>
+      </c>
       <c r="AE68" s="34"/>
       <c r="AF68" s="34"/>
       <c r="AG68" s="47"/>
@@ -6440,19 +7071,45 @@
       <c r="M69" s="137"/>
       <c r="N69" s="137"/>
       <c r="P69" s="117"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="206"/>
-      <c r="S69" s="213"/>
-      <c r="T69" s="213"/>
-      <c r="U69" s="206"/>
-      <c r="V69" s="206"/>
-      <c r="W69" s="206"/>
-      <c r="X69" s="206"/>
-      <c r="Y69" s="206"/>
-      <c r="Z69" s="206"/>
-      <c r="AA69" s="206"/>
-      <c r="AB69" s="212"/>
-      <c r="AC69" s="214"/>
+      <c r="Q69" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="R69" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="S69" s="213" t="n">
+        <v>300000.0</v>
+      </c>
+      <c r="T69" s="213" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="U69" s="206" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="V69" s="206" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="W69" s="206" t="n">
+        <v>0.0019911269191652536</v>
+      </c>
+      <c r="X69" s="206" t="n">
+        <v>4.977817297913134E-5</v>
+      </c>
+      <c r="Y69" s="206" t="n">
+        <v>4.977817297913134E-4</v>
+      </c>
+      <c r="Z69" s="206" t="n">
+        <v>0.001991111086681485</v>
+      </c>
+      <c r="AA69" s="206" t="n">
+        <v>4.9777780077420175E-5</v>
+      </c>
+      <c r="AB69" s="212" t="n">
+        <v>4.977777716703713E-4</v>
+      </c>
+      <c r="AC69" s="303" t="s">
+        <v>145</v>
+      </c>
       <c r="AE69" s="34"/>
       <c r="AF69" s="34"/>
       <c r="AG69" s="47"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Max Length</t>
   </si>
   <si>
-    <t>Asser No</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -511,27 +508,15 @@
     <t>Alphabets</t>
   </si>
   <si>
-    <t>Two Decimal</t>
-  </si>
-  <si>
     <t>Surface Area Data Source</t>
   </si>
   <si>
     <t>Can Preferential Transfer of Residue Occur with this Equipment?</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Preferential Transfer of Residue Occur with this Equipment?: </t>
-  </si>
-  <si>
-    <t>Equipment Surface Area Involved in Preferential Transfer</t>
-  </si>
-  <si>
     <t>Is this Equipment Involved in Primary Packaging?</t>
   </si>
   <si>
@@ -577,6 +562,50 @@
     <t>Minimum Batch size cannot be empty</t>
   </si>
   <si>
+    <t>Assert No</t>
+  </si>
+  <si>
+    <t>Choose Cleaning Process Type</t>
+  </si>
+  <si>
+    <t>Choose an option for preferential transfer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter Preferential Surface area</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -584,6 +613,9 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -591,7 +623,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="113" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1251,136 @@
       <sz val="11.0"/>
       <color indexed="17"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1380,7 +1542,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="305">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1820,6 +1982,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1917,7 +2080,33 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3597,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I46"/>
+  <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,10 +3861,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3688,16 +3877,16 @@
       <c r="G7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="273" t="s">
-        <v>168</v>
+      <c r="H7" s="274" t="s">
+        <v>169</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3707,19 +3896,15 @@
       <c r="F8" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="277" t="s">
-        <v>168</v>
-      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="238"/>
     </row>
     <row ht="60" r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3732,16 +3917,16 @@
       <c r="G9" s="239" t="n">
         <v>75.0</v>
       </c>
-      <c r="H9" s="274" t="s">
-        <v>168</v>
+      <c r="H9" s="275" t="s">
+        <v>169</v>
       </c>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="244"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3749,21 +3934,21 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="275" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="H10" s="276" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3772,10 +3957,10 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="276" t="s">
         <v>170</v>
+      </c>
+      <c r="H11" s="277" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3803,10 +3988,18 @@
       <c r="D13" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12">
+        <v>75</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H13" s="299" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -3814,15 +4007,23 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="E14" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="12">
+        <v>75</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H14" s="300" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -3830,13 +4031,21 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="E15" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="12">
+        <v>75</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H15" s="301" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
@@ -3851,10 +4060,14 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="278" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
@@ -3863,14 +4076,18 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="279" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
@@ -3885,8 +4102,12 @@
       <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H18" s="280" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -3895,14 +4116,18 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="281" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
@@ -3914,13 +4139,17 @@
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H20" s="282" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -3929,16 +4158,20 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="242" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H21" s="283" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -3946,15 +4179,23 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="E22" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="12">
+        <v>75</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="H22" s="302" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -3962,257 +4203,323 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="284" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="80" t="s">
+        <v>166</v>
+      </c>
       <c r="D24" s="12" t="s">
-        <v>150</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row ht="30" r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>19</v>
-      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="285" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row ht="30" r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>20</v>
-      </c>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="286" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="242" t="s">
-        <v>152</v>
-      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="12">
+        <v>6</v>
+      </c>
+      <c r="G26" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H26" s="287" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>21</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="288" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>22</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="12">
+        <v>123</v>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H28" s="289" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>23</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>24</v>
-      </c>
+      <c r="D29" s="242" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="G29" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H29" s="290" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="C30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="242"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="242" t="s">
-        <v>146</v>
-      </c>
+      <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="30" r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row ht="30" r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="291" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="F33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="292" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" t="s">
-        <v>165</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="12">
+        <v>6</v>
+      </c>
+      <c r="G34" s="12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H34" s="293" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12">
-        <v>6</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="294" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="F36" s="12">
+        <v>123</v>
+      </c>
+      <c r="G36" s="12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="H36" s="295" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
-        <v>133</v>
+      <c r="D37" s="242" t="s">
+        <v>159</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F37" s="12">
-        <v>123</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+        <v>1.23</v>
+      </c>
+      <c r="G37" s="12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H37" s="296" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="242" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>163</v>
+      <c r="C38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="243" t="s">
+        <v>132</v>
       </c>
       <c r="F38" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="G38" s="12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H38" s="303" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>141</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
@@ -4220,57 +4527,75 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="297" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="H41" s="298" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="E42" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="12">
+        <v>75</v>
+      </c>
+      <c r="G42" s="12" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="H42" s="304" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
@@ -4281,16 +4606,10 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>38</v>
-      </c>
+      <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -4305,16 +4624,6 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4380,15 +4689,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="247" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4437,22 +4746,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="250"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
-      <c r="Q6" s="249"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="249"/>
+      <c r="Q6" s="250"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4470,10 +4779,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="251"/>
+      <c r="G7" s="252"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4496,10 +4805,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="250" t="s">
+      <c r="P7" s="251" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="251"/>
+      <c r="Q7" s="252"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4567,7 +4876,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="252"/>
+      <c r="B9" s="253"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4578,15 +4887,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="244"/>
+      <c r="M9" s="245"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="245"/>
+      <c r="P9" s="245"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="245"/>
+      <c r="S9" s="245"/>
+      <c r="T9" s="260"/>
+      <c r="U9" s="245"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4596,7 +4905,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="253"/>
+      <c r="B10" s="254"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4607,15 +4916,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="255"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="255"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="255"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="258"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="256"/>
+      <c r="Q10" s="256"/>
+      <c r="R10" s="256"/>
+      <c r="S10" s="256"/>
+      <c r="T10" s="261"/>
+      <c r="U10" s="256"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4623,8 +4932,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="244"/>
-      <c r="B11" s="253"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="254"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4635,15 +4944,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="255"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="255"/>
-      <c r="P11" s="255"/>
-      <c r="Q11" s="255"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="255"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="255"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="256"/>
+      <c r="Q11" s="256"/>
+      <c r="R11" s="256"/>
+      <c r="S11" s="256"/>
+      <c r="T11" s="261"/>
+      <c r="U11" s="256"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4653,8 +4962,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="254"/>
+      <c r="A12" s="246"/>
+      <c r="B12" s="255"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4665,15 +4974,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="245"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="245"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="259"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="262"/>
+      <c r="U12" s="246"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4682,7 +4991,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="252"/>
+      <c r="B13" s="253"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -4693,15 +5002,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="244"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="244"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
+      <c r="R13" s="245"/>
+      <c r="S13" s="245"/>
+      <c r="T13" s="260"/>
+      <c r="U13" s="245"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -4710,7 +5019,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="253"/>
+      <c r="B14" s="254"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -4721,15 +5030,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="255"/>
-      <c r="P14" s="255"/>
-      <c r="Q14" s="255"/>
-      <c r="R14" s="255"/>
-      <c r="S14" s="255"/>
-      <c r="T14" s="260"/>
-      <c r="U14" s="255"/>
+      <c r="M14" s="256"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="256"/>
+      <c r="Q14" s="256"/>
+      <c r="R14" s="256"/>
+      <c r="S14" s="256"/>
+      <c r="T14" s="261"/>
+      <c r="U14" s="256"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -4737,8 +5046,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="262"/>
-      <c r="B15" s="253"/>
+      <c r="A15" s="263"/>
+      <c r="B15" s="254"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4749,15 +5058,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="255"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="255"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="258"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="256"/>
+      <c r="R15" s="256"/>
+      <c r="S15" s="256"/>
+      <c r="T15" s="261"/>
+      <c r="U15" s="256"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -4765,8 +5074,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="263"/>
-      <c r="B16" s="254"/>
+      <c r="A16" s="264"/>
+      <c r="B16" s="255"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4777,15 +5086,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="245"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="245"/>
+      <c r="M16" s="246"/>
+      <c r="N16" s="259"/>
+      <c r="O16" s="246"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="246"/>
+      <c r="R16" s="246"/>
+      <c r="S16" s="246"/>
+      <c r="T16" s="262"/>
+      <c r="U16" s="246"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -4794,7 +5103,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="252"/>
+      <c r="B17" s="253"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4805,15 +5114,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="244"/>
+      <c r="M17" s="245"/>
+      <c r="N17" s="257"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
+      <c r="R17" s="245"/>
+      <c r="S17" s="245"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="245"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -4822,7 +5131,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="253"/>
+      <c r="B18" s="254"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -4833,22 +5142,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="255"/>
-      <c r="P18" s="255"/>
-      <c r="Q18" s="255"/>
-      <c r="R18" s="255"/>
-      <c r="S18" s="255"/>
-      <c r="T18" s="260"/>
-      <c r="U18" s="255"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="261"/>
+      <c r="U18" s="256"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="244"/>
-      <c r="B19" s="253"/>
+      <c r="A19" s="245"/>
+      <c r="B19" s="254"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -4859,22 +5168,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="255"/>
-      <c r="P19" s="255"/>
-      <c r="Q19" s="255"/>
-      <c r="R19" s="255"/>
-      <c r="S19" s="255"/>
-      <c r="T19" s="260"/>
-      <c r="U19" s="255"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="256"/>
+      <c r="Q19" s="256"/>
+      <c r="R19" s="256"/>
+      <c r="S19" s="256"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="256"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="245"/>
-      <c r="B20" s="254"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="255"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -4885,22 +5194,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="245"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="245"/>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="245"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="245"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="259"/>
+      <c r="O20" s="246"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="262"/>
+      <c r="U20" s="246"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="252"/>
+      <c r="B21" s="253"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -4911,22 +5220,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="259"/>
-      <c r="U21" s="244"/>
+      <c r="M21" s="245"/>
+      <c r="N21" s="257"/>
+      <c r="O21" s="245"/>
+      <c r="P21" s="245"/>
+      <c r="Q21" s="245"/>
+      <c r="R21" s="245"/>
+      <c r="S21" s="245"/>
+      <c r="T21" s="260"/>
+      <c r="U21" s="245"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="253"/>
+      <c r="B22" s="254"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -4937,22 +5246,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="255"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="255"/>
-      <c r="P22" s="255"/>
-      <c r="Q22" s="255"/>
-      <c r="R22" s="255"/>
-      <c r="S22" s="255"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="255"/>
+      <c r="M22" s="256"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="256"/>
+      <c r="P22" s="256"/>
+      <c r="Q22" s="256"/>
+      <c r="R22" s="256"/>
+      <c r="S22" s="256"/>
+      <c r="T22" s="261"/>
+      <c r="U22" s="256"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="271"/>
-      <c r="B23" s="253"/>
+      <c r="A23" s="272"/>
+      <c r="B23" s="254"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -4963,22 +5272,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="255"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="255"/>
-      <c r="P23" s="255"/>
-      <c r="Q23" s="255"/>
-      <c r="R23" s="255"/>
-      <c r="S23" s="255"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="255"/>
+      <c r="M23" s="256"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="256"/>
+      <c r="P23" s="256"/>
+      <c r="Q23" s="256"/>
+      <c r="R23" s="256"/>
+      <c r="S23" s="256"/>
+      <c r="T23" s="261"/>
+      <c r="U23" s="256"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="272"/>
-      <c r="B24" s="254"/>
+      <c r="A24" s="273"/>
+      <c r="B24" s="255"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -4989,15 +5298,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="245"/>
-      <c r="S24" s="245"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="245"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="259"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="262"/>
+      <c r="U24" s="246"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5317,33 +5626,33 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="268" t="s">
+      <c r="G40" s="267"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="268"/>
+      <c r="J40" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="270"/>
+      <c r="K40" s="270"/>
+      <c r="L40" s="270"/>
+      <c r="M40" s="271"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="264" t="s">
+      <c r="Q40" s="265" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
-      <c r="U40" s="264"/>
-      <c r="V40" s="264"/>
-      <c r="W40" s="264"/>
-      <c r="X40" s="264"/>
-      <c r="Y40" s="264"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="265"/>
+      <c r="T40" s="265"/>
+      <c r="U40" s="265"/>
+      <c r="V40" s="265"/>
+      <c r="W40" s="265"/>
+      <c r="X40" s="265"/>
+      <c r="Y40" s="265"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="200">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -606,6 +603,87 @@
     <t>Enter Preferential Surface area</t>
   </si>
   <si>
+    <t>Risk AssessmentTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Please Add location to proceed.</t>
+  </si>
+  <si>
+    <t>Sampling Information Tab</t>
+  </si>
+  <si>
+    <t>Please add location details</t>
+  </si>
+  <si>
+    <t>Please fill the Sampling and Test method field</t>
+  </si>
+  <si>
+    <t>No: Add Location Pin - Empty Check(no Pin)</t>
+  </si>
+  <si>
+    <t>Sampling Method - Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Information Tab</t>
+  </si>
+  <si>
+    <t>Add Segment</t>
+  </si>
+  <si>
+    <t>Please add segment information</t>
+  </si>
+  <si>
+    <t>Add Location Empty Check</t>
+  </si>
+  <si>
+    <t>Please Enter Location</t>
+  </si>
+  <si>
+    <t>Add Location Max length Check</t>
+  </si>
+  <si>
+    <t>Upload Image: No</t>
+  </si>
+  <si>
+    <t>Segment Name Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Name max length Check</t>
+  </si>
+  <si>
+    <t>Segment Surface Area</t>
+  </si>
+  <si>
+    <t>Segment location Names</t>
+  </si>
+  <si>
+    <t>Location Empty Check</t>
+  </si>
+  <si>
+    <t>Add Equipment: Success</t>
+  </si>
+  <si>
+    <t>Enter Segment name</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -616,6 +694,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>No Risk Assessment</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1308,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
@@ -1354,12 +1443,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1374,15 +1458,15 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1431,8 +1515,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1538,11 +1628,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="326">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -1986,6 +2085,72 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="108" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2076,7 +2241,6 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
@@ -2106,7 +2270,7 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3786,10 +3950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:I45"/>
+  <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,7 +3963,7 @@
     <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="80" width="26.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="80" width="29.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
     <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
@@ -3861,10 +4025,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="244" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="244" t="s">
+      <c r="B7" s="264" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="251" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3877,16 +4041,16 @@
       <c r="G7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="274" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row ht="30" r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="296" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3903,8 +4067,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3917,16 +4081,16 @@
       <c r="G9" s="239" t="n">
         <v>75.0</v>
       </c>
-      <c r="H9" s="275" t="s">
-        <v>169</v>
+      <c r="H9" s="297" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="251"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3934,21 +4098,21 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="276" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="H10" s="298" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3957,19 +4121,19 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="277" t="s">
-        <v>171</v>
+        <v>196</v>
+      </c>
+      <c r="H11" s="299" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>139</v>
+      <c r="B12" s="265"/>
+      <c r="C12" s="244" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3981,57 +4145,57 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="265"/>
+      <c r="C13" s="244" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H13" s="299" t="s">
-        <v>171</v>
+      <c r="H13" s="321" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>163</v>
+      <c r="B14" s="265"/>
+      <c r="C14" s="244" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F14" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H14" s="300" t="s">
-        <v>171</v>
+      <c r="H14" s="322" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>142</v>
+      <c r="B15" s="265"/>
+      <c r="C15" s="244" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -4043,16 +4207,16 @@
       <c r="G15" s="12" t="n">
         <v>75.0</v>
       </c>
-      <c r="H15" s="301" t="s">
-        <v>169</v>
+      <c r="H15" s="323" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="242" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="258" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4060,41 +4224,41 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="278" t="s">
-        <v>169</v>
+        <v>154</v>
+      </c>
+      <c r="H16" s="300" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="279" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H17" s="301" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -4105,41 +4269,41 @@
       <c r="G18" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H18" s="280" t="s">
-        <v>169</v>
+      <c r="H18" s="302" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="281" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H19" s="303" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -4147,21 +4311,21 @@
       <c r="G20" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H20" s="282" t="s">
-        <v>169</v>
+      <c r="H20" s="304" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="260"/>
       <c r="D21" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -4169,20 +4333,20 @@
       <c r="G21" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H21" s="283" t="s">
-        <v>169</v>
+      <c r="H21" s="305" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>145</v>
+      <c r="B22" s="265"/>
+      <c r="C22" s="244" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -4193,76 +4357,80 @@
       <c r="G22" s="12" t="n">
         <v>75.0</v>
       </c>
-      <c r="H22" s="302" t="s">
-        <v>169</v>
+      <c r="H22" s="324" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>146</v>
+      <c r="B23" s="265"/>
+      <c r="C23" s="244" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="284" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H23" s="306" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="80" t="s">
-        <v>166</v>
+      <c r="B24" s="265"/>
+      <c r="C24" s="255" t="s">
+        <v>165</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="285" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="H24" s="307" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="12">
+        <v>19</v>
+      </c>
+      <c r="B25" s="265"/>
+      <c r="C25" s="256"/>
       <c r="D25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="286" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H25" s="308" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="12">
+        <v>20</v>
+      </c>
+      <c r="B26" s="265"/>
+      <c r="C26" s="256"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4273,37 +4441,41 @@
       <c r="G26" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H26" s="287" t="s">
-        <v>169</v>
+      <c r="H26" s="309" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="12">
+        <v>21</v>
+      </c>
+      <c r="B27" s="265"/>
+      <c r="C27" s="256"/>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H27" s="288" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H27" s="310" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="12">
+        <v>22</v>
+      </c>
+      <c r="B28" s="265"/>
+      <c r="C28" s="256"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
@@ -4311,19 +4483,21 @@
       <c r="G28" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H28" s="289" t="s">
-        <v>169</v>
+      <c r="H28" s="311" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="12">
+        <v>23</v>
+      </c>
+      <c r="B29" s="265"/>
+      <c r="C29" s="257"/>
       <c r="D29" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
@@ -4331,15 +4505,17 @@
       <c r="G29" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H29" s="290" t="s">
-        <v>169</v>
+      <c r="H29" s="312" t="s">
+        <v>195</v>
       </c>
     </row>
     <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>167</v>
+      <c r="A30" s="12">
+        <v>24</v>
+      </c>
+      <c r="B30" s="265"/>
+      <c r="C30" s="244" t="s">
+        <v>166</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4349,11 +4525,11 @@
     </row>
     <row customHeight="1" ht="30" r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="265"/>
+      <c r="C31" s="244" t="s">
+        <v>147</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4363,52 +4539,52 @@
     </row>
     <row ht="30" r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="265"/>
+      <c r="C32" s="252" t="s">
+        <v>148</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="291" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="H32" s="313" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="265"/>
+      <c r="C33" s="254"/>
       <c r="D33" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="292" t="s">
-        <v>169</v>
+        <v>159</v>
+      </c>
+      <c r="H33" s="314" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>29</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="265"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4419,41 +4595,41 @@
       <c r="G34" s="12" t="n">
         <v>6.0</v>
       </c>
-      <c r="H34" s="293" t="s">
-        <v>169</v>
+      <c r="H34" s="315" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="265"/>
+      <c r="C35" s="254"/>
       <c r="D35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H35" s="294" t="s">
-        <v>169</v>
+        <v>198</v>
+      </c>
+      <c r="H35" s="316" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="265"/>
+      <c r="C36" s="254"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
@@ -4461,21 +4637,21 @@
       <c r="G36" s="12" t="n">
         <v>123.0</v>
       </c>
-      <c r="H36" s="295" t="s">
-        <v>169</v>
+      <c r="H36" s="317" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>32</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="265"/>
+      <c r="C37" s="253"/>
       <c r="D37" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
@@ -4483,41 +4659,41 @@
       <c r="G37" s="12" t="n">
         <v>1.23</v>
       </c>
-      <c r="H37" s="296" t="s">
-        <v>169</v>
+      <c r="H37" s="318" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>33</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="265"/>
+      <c r="C38" s="245" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
       </c>
       <c r="F38" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G38" s="12" t="n">
         <v>25.0</v>
       </c>
-      <c r="H38" s="303" t="s">
-        <v>171</v>
+      <c r="H38" s="325" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>34</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="265"/>
+      <c r="C39" s="245" t="s">
+        <v>150</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4527,54 +4703,52 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>35</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="265"/>
+      <c r="C40" s="252" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H40" s="297" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="H40" s="319" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>36</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B41" s="265"/>
+      <c r="C41" s="253"/>
       <c r="D41" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="298" t="s">
-        <v>169</v>
+      <c r="H41" s="320" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>37</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="265"/>
+      <c r="C42" s="245" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4582,23 +4756,19 @@
       <c r="F42" s="12">
         <v>75</v>
       </c>
-      <c r="G42" s="12" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="H42" s="304" t="s">
-        <v>171</v>
-      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>38</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="265"/>
+      <c r="C43" s="245" t="s">
+        <v>153</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4606,9 +4776,11 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="12">
+        <v>38</v>
+      </c>
+      <c r="B44" s="265"/>
+      <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -4616,8 +4788,10 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12">
+        <v>39</v>
+      </c>
+      <c r="B45" s="265"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4625,10 +4799,395 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
+    <row customHeight="1" ht="20.25" r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>40</v>
+      </c>
+      <c r="B46" s="265"/>
+      <c r="C46" s="263" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>41</v>
+      </c>
+      <c r="B47" s="265"/>
+      <c r="C47" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>42</v>
+      </c>
+      <c r="B48" s="265"/>
+      <c r="C48" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="12">
+        <v>15</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43</v>
+      </c>
+      <c r="B49" s="265"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="246"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row customHeight="1" ht="15" r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>44</v>
+      </c>
+      <c r="B50" s="265"/>
+      <c r="C50" s="261" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="262"/>
+    </row>
+    <row ht="30" r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45</v>
+      </c>
+      <c r="B51" s="265"/>
+      <c r="C51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="246"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>46</v>
+      </c>
+      <c r="B52" s="265"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="246"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>47</v>
+      </c>
+      <c r="B53" s="265"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1">
+        <v>25</v>
+      </c>
+      <c r="G53" s="246"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>48</v>
+      </c>
+      <c r="B54" s="265"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="246"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>49</v>
+      </c>
+      <c r="B55" s="265"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row customHeight="1" ht="17.25" r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>50</v>
+      </c>
+      <c r="B56" s="265"/>
+      <c r="C56" s="261" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="261"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
+      <c r="H56" s="262"/>
+    </row>
+    <row ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>51</v>
+      </c>
+      <c r="B57" s="265"/>
+      <c r="C57" s="248" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>52</v>
+      </c>
+      <c r="B58" s="265"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>53</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="12">
+        <v>25</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>54</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="248" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>55</v>
+      </c>
+      <c r="B61" s="265"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>56</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12">
+        <v>6</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>57</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>58</v>
+      </c>
+      <c r="B64" s="265"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="12">
+        <v>123</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>59</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="242" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>60</v>
+      </c>
+      <c r="B66" s="265"/>
+      <c r="C66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>61</v>
+      </c>
+      <c r="B67" s="265"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row ht="15.75" r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>62</v>
+      </c>
+      <c r="B68" s="266"/>
+      <c r="C68" s="247" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:B11"/>
+  <mergeCells count="11">
+    <mergeCell ref="B7:B68"/>
+    <mergeCell ref="C60:C65"/>
     <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C46:H46"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4689,15 +5248,15 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="247" t="s">
+      <c r="F1" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4746,22 +5305,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="250"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="248" t="s">
+      <c r="M6" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="249"/>
-      <c r="O6" s="249"/>
-      <c r="P6" s="249"/>
-      <c r="Q6" s="250"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="271"/>
+      <c r="Q6" s="272"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4779,10 +5338,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="251" t="s">
+      <c r="F7" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="252"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4805,10 +5364,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="251" t="s">
+      <c r="P7" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="252"/>
+      <c r="Q7" s="274"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4876,7 +5435,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="253"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4887,15 +5446,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="245"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="279"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="282"/>
+      <c r="U9" s="267"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4905,7 +5464,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="254"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4916,15 +5475,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="258"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
-      <c r="R10" s="256"/>
-      <c r="S10" s="256"/>
-      <c r="T10" s="261"/>
-      <c r="U10" s="256"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="278"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4932,8 +5491,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="245"/>
-      <c r="B11" s="254"/>
+      <c r="A11" s="267"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4944,15 +5503,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
-      <c r="R11" s="256"/>
-      <c r="S11" s="256"/>
-      <c r="T11" s="261"/>
-      <c r="U11" s="256"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="278"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4962,8 +5521,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="246"/>
-      <c r="B12" s="255"/>
+      <c r="A12" s="268"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4974,15 +5533,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="259"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="262"/>
-      <c r="U12" s="246"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="284"/>
+      <c r="U12" s="268"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4991,7 +5550,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="253"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5002,15 +5561,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="245"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="245"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="279"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="282"/>
+      <c r="U13" s="267"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5019,7 +5578,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="254"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5030,15 +5589,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
-      <c r="R14" s="256"/>
-      <c r="S14" s="256"/>
-      <c r="T14" s="261"/>
-      <c r="U14" s="256"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="278"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="278"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5046,8 +5605,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="263"/>
-      <c r="B15" s="254"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5058,15 +5617,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="258"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
-      <c r="R15" s="256"/>
-      <c r="S15" s="256"/>
-      <c r="T15" s="261"/>
-      <c r="U15" s="256"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="278"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5074,8 +5633,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="264"/>
-      <c r="B16" s="255"/>
+      <c r="A16" s="286"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5086,15 +5645,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="259"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="246"/>
-      <c r="Q16" s="246"/>
-      <c r="R16" s="246"/>
-      <c r="S16" s="246"/>
-      <c r="T16" s="262"/>
-      <c r="U16" s="246"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="281"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="268"/>
+      <c r="S16" s="268"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="268"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5103,7 +5662,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="253"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5114,15 +5673,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="245"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="245"/>
-      <c r="P17" s="245"/>
-      <c r="Q17" s="245"/>
-      <c r="R17" s="245"/>
-      <c r="S17" s="245"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="245"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="267"/>
+      <c r="P17" s="267"/>
+      <c r="Q17" s="267"/>
+      <c r="R17" s="267"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="282"/>
+      <c r="U17" s="267"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5131,7 +5690,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="254"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5142,22 +5701,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="261"/>
-      <c r="U18" s="256"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="278"/>
+      <c r="Q18" s="278"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="283"/>
+      <c r="U18" s="278"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="245"/>
-      <c r="B19" s="254"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5168,22 +5727,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="258"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
-      <c r="R19" s="256"/>
-      <c r="S19" s="256"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="256"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="278"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="246"/>
-      <c r="B20" s="255"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5194,22 +5753,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="259"/>
-      <c r="O20" s="246"/>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="262"/>
-      <c r="U20" s="246"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="281"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="268"/>
+      <c r="S20" s="268"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="268"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="253"/>
+      <c r="B21" s="275"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5220,22 +5779,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="245"/>
-      <c r="N21" s="257"/>
-      <c r="O21" s="245"/>
-      <c r="P21" s="245"/>
-      <c r="Q21" s="245"/>
-      <c r="R21" s="245"/>
-      <c r="S21" s="245"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="245"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="279"/>
+      <c r="O21" s="267"/>
+      <c r="P21" s="267"/>
+      <c r="Q21" s="267"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="282"/>
+      <c r="U21" s="267"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="254"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5246,22 +5805,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="258"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
-      <c r="R22" s="256"/>
-      <c r="S22" s="256"/>
-      <c r="T22" s="261"/>
-      <c r="U22" s="256"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="278"/>
+      <c r="Q22" s="278"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="278"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="272"/>
-      <c r="B23" s="254"/>
+      <c r="A23" s="294"/>
+      <c r="B23" s="276"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5272,22 +5831,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="258"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="256"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="261"/>
-      <c r="U23" s="256"/>
+      <c r="M23" s="278"/>
+      <c r="N23" s="280"/>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="283"/>
+      <c r="U23" s="278"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="273"/>
-      <c r="B24" s="255"/>
+      <c r="A24" s="295"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5298,15 +5857,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="246"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="246"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="262"/>
-      <c r="U24" s="246"/>
+      <c r="M24" s="268"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="268"/>
+      <c r="S24" s="268"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="268"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5622,37 +6181,37 @@
         <v>137</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="266" t="s">
+      <c r="F40" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="268"/>
-      <c r="J40" s="269" t="s">
+      <c r="G40" s="289"/>
+      <c r="H40" s="289"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="270"/>
-      <c r="L40" s="270"/>
-      <c r="M40" s="271"/>
+      <c r="K40" s="292"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="293"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="265" t="s">
+      <c r="Q40" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="265"/>
-      <c r="S40" s="265"/>
-      <c r="T40" s="265"/>
-      <c r="U40" s="265"/>
-      <c r="V40" s="265"/>
-      <c r="W40" s="265"/>
-      <c r="X40" s="265"/>
-      <c r="Y40" s="265"/>
+      <c r="R40" s="287"/>
+      <c r="S40" s="287"/>
+      <c r="T40" s="287"/>
+      <c r="U40" s="287"/>
+      <c r="V40" s="287"/>
+      <c r="W40" s="287"/>
+      <c r="X40" s="287"/>
+      <c r="Y40" s="287"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8520" windowWidth="19155" xWindow="240" yWindow="90"/>
+    <workbookView activeTab="2" windowHeight="8520" windowWidth="19155" xWindow="240" yWindow="90"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" r:id="rId1" sheetId="2"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="201">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -478,9 +478,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  selenium</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
   </si>
   <si>
@@ -669,34 +666,40 @@
     <t>Enter Segment name</t>
   </si>
   <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selenium</t>
+  </si>
+  <si>
     <t>Liquid</t>
   </si>
   <si>
-    <t>Equipment Saved Successfully</t>
-  </si>
-  <si>
-    <t>Choose Location</t>
-  </si>
-  <si>
-    <t>Enter Surface Area</t>
-  </si>
-  <si>
-    <t>Create Equipment</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Space Accepted</t>
+    <t>L4 min batch L A2</t>
+  </si>
+  <si>
+    <t>L3 min batch L</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>No Risk Assessment</t>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L4 min batch L</t>
+  </si>
+  <si>
+    <t>L3 min batch L A2</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="113" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,17 +1321,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1338,132 +1331,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1641,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="300">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2094,6 +1967,15 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="108" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2142,38 +2024,32 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="9" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2184,7 +2060,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0">
@@ -2214,63 +2096,28 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="75" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="5" fontId="21" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="5" fontId="21" numFmtId="3" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3952,21 +3799,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="80" width="5.7109375" collapsed="false"/>
     <col min="2" max="2" customWidth="true" style="80" width="15.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="80" width="38.7109375" collapsed="false"/>
     <col min="4" max="4" customWidth="true" style="80" width="37.5703125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="80" width="23.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="80" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="80" width="27.5703125" collapsed="false"/>
     <col min="8" max="8" customWidth="true" style="80" width="8.85546875" collapsed="true"/>
-    <col min="9" max="16384" style="80" width="9.140625" collapsed="true"/>
+    <col min="9" max="16384" style="80" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,10 +3872,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="264" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="251" t="s">
+      <c r="B7" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="254" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -4038,19 +3885,15 @@
       <c r="F7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="296" t="s">
-        <v>195</v>
-      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="237"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="251"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="254"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -4067,8 +3910,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="265"/>
-      <c r="C9" s="251"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="254"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -4078,19 +3921,15 @@
       <c r="F9" s="239">
         <v>75</v>
       </c>
-      <c r="G9" s="239" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H9" s="297" t="s">
-        <v>195</v>
-      </c>
+      <c r="G9" s="239"/>
+      <c r="H9" s="240"/>
     </row>
     <row ht="60" r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="251"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="254"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -4098,42 +3937,34 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="H10" s="298" t="s">
-        <v>195</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="241"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="251"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="299" t="s">
-        <v>197</v>
-      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="265"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="244" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4145,12 +3976,12 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="265"/>
+      <c r="B13" s="249"/>
       <c r="C13" s="244" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
@@ -4158,23 +3989,19 @@
       <c r="F13" s="12">
         <v>25</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H13" s="321" t="s">
-        <v>195</v>
-      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="265"/>
+      <c r="B14" s="249"/>
       <c r="C14" s="244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
@@ -4182,20 +4009,16 @@
       <c r="F14" s="12">
         <v>25</v>
       </c>
-      <c r="G14" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H14" s="322" t="s">
-        <v>195</v>
-      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="244" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -4204,19 +4027,15 @@
       <c r="F15" s="12">
         <v>75</v>
       </c>
-      <c r="G15" s="12" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H15" s="323" t="s">
-        <v>195</v>
-      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="258" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="261" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4224,41 +4043,33 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="300" t="s">
-        <v>195</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="265"/>
-      <c r="C17" s="259"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="262"/>
       <c r="D17" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="301" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="265"/>
-      <c r="C18" s="259"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="262"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -4266,87 +4077,71 @@
       <c r="F18" s="12">
         <v>6</v>
       </c>
-      <c r="G18" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H18" s="302" t="s">
-        <v>195</v>
-      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="259"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="262"/>
       <c r="D19" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="12"/>
-      <c r="G19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="303" t="s">
-        <v>195</v>
-      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="259"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="262"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
       </c>
-      <c r="G20" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H20" s="304" t="s">
-        <v>195</v>
-      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="265"/>
-      <c r="C21" s="260"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="263"/>
       <c r="D21" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
       </c>
-      <c r="G21" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H21" s="305" t="s">
-        <v>195</v>
-      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="265"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -4354,83 +4149,67 @@
       <c r="F22" s="12">
         <v>75</v>
       </c>
-      <c r="G22" s="12" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="H22" s="324" t="s">
-        <v>195</v>
-      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row ht="30" r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="265"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="306" t="s">
-        <v>195</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row customHeight="1" ht="30" r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="255" t="s">
-        <v>165</v>
+      <c r="B24" s="249"/>
+      <c r="C24" s="258" t="s">
+        <v>164</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>167</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="307" t="s">
-        <v>195</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="265"/>
-      <c r="C25" s="256"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="308" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="265"/>
-      <c r="C26" s="256"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4438,84 +4217,68 @@
       <c r="F26" s="12">
         <v>6</v>
       </c>
-      <c r="G26" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H26" s="309" t="s">
-        <v>195</v>
-      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="265"/>
-      <c r="C27" s="256"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="310" t="s">
-        <v>195</v>
-      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="265"/>
-      <c r="C28" s="256"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="259"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
       </c>
-      <c r="G28" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H28" s="311" t="s">
-        <v>195</v>
-      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="265"/>
-      <c r="C29" s="257"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="260"/>
       <c r="D29" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
       </c>
-      <c r="G29" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H29" s="312" t="s">
-        <v>195</v>
-      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row ht="30" r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="265"/>
+      <c r="B30" s="249"/>
       <c r="C30" s="244" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4527,9 +4290,9 @@
       <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="265"/>
+      <c r="B31" s="249"/>
       <c r="C31" s="244" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4541,50 +4304,42 @@
       <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="252" t="s">
-        <v>148</v>
+      <c r="B32" s="249"/>
+      <c r="C32" s="255" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="313" t="s">
-        <v>195</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="265"/>
-      <c r="C33" s="254"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>159</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H33" s="314" t="s">
-        <v>195</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="265"/>
-      <c r="C34" s="254"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="257"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4592,87 +4347,71 @@
       <c r="F34" s="12">
         <v>6</v>
       </c>
-      <c r="G34" s="12" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H34" s="315" t="s">
-        <v>195</v>
-      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="265"/>
-      <c r="C35" s="254"/>
+      <c r="B35" s="249"/>
+      <c r="C35" s="257"/>
       <c r="D35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="G35" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="316" t="s">
-        <v>195</v>
-      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="265"/>
-      <c r="C36" s="254"/>
+      <c r="B36" s="249"/>
+      <c r="C36" s="257"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
       </c>
-      <c r="G36" s="12" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="H36" s="317" t="s">
-        <v>195</v>
-      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="265"/>
-      <c r="C37" s="253"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="256"/>
       <c r="D37" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
       </c>
-      <c r="G37" s="12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H37" s="318" t="s">
-        <v>195</v>
-      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="265"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
@@ -4680,20 +4419,16 @@
       <c r="F38" s="12">
         <v>25</v>
       </c>
-      <c r="G38" s="12" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="H38" s="325" t="s">
-        <v>195</v>
-      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="265"/>
+      <c r="B39" s="249"/>
       <c r="C39" s="245" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4705,50 +4440,44 @@
       <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="265"/>
-      <c r="C40" s="252" t="s">
-        <v>151</v>
+      <c r="B40" s="249"/>
+      <c r="C40" s="255" t="s">
+        <v>150</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="319" t="s">
-        <v>195</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="265"/>
-      <c r="C41" s="253"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="320" t="s">
-        <v>195</v>
-      </c>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="265"/>
+      <c r="B42" s="249"/>
       <c r="C42" s="245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4763,12 +4492,12 @@
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="265"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4779,7 +4508,7 @@
       <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="265"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4791,7 +4520,7 @@
       <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="265"/>
+      <c r="B45" s="249"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4803,46 +4532,44 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="265"/>
-      <c r="C46" s="263" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
+      <c r="B46" s="249"/>
+      <c r="C46" s="266" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="266"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="265"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>42</v>
       </c>
-      <c r="B48" s="265"/>
+      <c r="B48" s="249"/>
       <c r="C48" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="243" t="s">
         <v>132</v>
@@ -4851,15 +4578,13 @@
         <v>15</v>
       </c>
       <c r="G48" s="12"/>
-      <c r="H48" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="265"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4871,30 +4596,30 @@
       <c r="A50" s="12">
         <v>44</v>
       </c>
-      <c r="B50" s="265"/>
-      <c r="C50" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="261"/>
-      <c r="E50" s="261"/>
-      <c r="F50" s="261"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="262"/>
+      <c r="B50" s="249"/>
+      <c r="C50" s="264" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="264"/>
+      <c r="E50" s="264"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="264"/>
+      <c r="H50" s="265"/>
     </row>
     <row ht="30" r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>45</v>
       </c>
-      <c r="B51" s="265"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="246"/>
       <c r="H51" s="12"/>
@@ -4903,14 +4628,14 @@
       <c r="A52" s="12">
         <v>46</v>
       </c>
-      <c r="B52" s="265"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="246"/>
       <c r="H52" s="12"/>
@@ -4919,10 +4644,10 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="265"/>
+      <c r="B53" s="249"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="243" t="s">
         <v>132</v>
@@ -4937,14 +4662,14 @@
       <c r="A54" s="12">
         <v>48</v>
       </c>
-      <c r="B54" s="265"/>
+      <c r="B54" s="249"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="246"/>
       <c r="H54" s="12"/>
@@ -4953,7 +4678,7 @@
       <c r="A55" s="12">
         <v>49</v>
       </c>
-      <c r="B55" s="265"/>
+      <c r="B55" s="249"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -4965,30 +4690,30 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="265"/>
-      <c r="C56" s="261" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="261"/>
-      <c r="E56" s="261"/>
-      <c r="F56" s="261"/>
-      <c r="G56" s="261"/>
-      <c r="H56" s="262"/>
+      <c r="B56" s="249"/>
+      <c r="C56" s="264" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="264"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="264"/>
+      <c r="G56" s="264"/>
+      <c r="H56" s="265"/>
     </row>
     <row ht="30" r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>51</v>
       </c>
-      <c r="B57" s="265"/>
-      <c r="C57" s="248" t="s">
-        <v>177</v>
+      <c r="B57" s="249"/>
+      <c r="C57" s="251" t="s">
+        <v>176</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -4997,14 +4722,14 @@
       <c r="A58" s="12">
         <v>52</v>
       </c>
-      <c r="B58" s="265"/>
-      <c r="C58" s="249"/>
+      <c r="B58" s="249"/>
+      <c r="C58" s="252"/>
       <c r="D58" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -5013,10 +4738,10 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="250"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="253"/>
       <c r="D59" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" s="243" t="s">
         <v>132</v>
@@ -5031,16 +4756,16 @@
       <c r="A60" s="12">
         <v>54</v>
       </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="248" t="s">
-        <v>185</v>
+      <c r="B60" s="249"/>
+      <c r="C60" s="251" t="s">
+        <v>184</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -5049,14 +4774,14 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="265"/>
-      <c r="C61" s="249"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="252"/>
       <c r="D61" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -5065,8 +4790,8 @@
       <c r="A62" s="12">
         <v>56</v>
       </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="249"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="252"/>
       <c r="D62" s="12" t="s">
         <v>50</v>
       </c>
@@ -5081,13 +4806,13 @@
       <c r="A63" s="12">
         <v>57</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="249"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="252"/>
       <c r="D63" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -5097,13 +4822,13 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="265"/>
-      <c r="C64" s="249"/>
+      <c r="B64" s="249"/>
+      <c r="C64" s="252"/>
       <c r="D64" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="12">
         <v>123</v>
@@ -5115,13 +4840,13 @@
       <c r="A65" s="12">
         <v>59</v>
       </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="250"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="12">
         <v>1.23</v>
@@ -5133,16 +4858,16 @@
       <c r="A66" s="12">
         <v>60</v>
       </c>
-      <c r="B66" s="265"/>
+      <c r="B66" s="249"/>
       <c r="C66" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -5151,7 +4876,7 @@
       <c r="A67" s="12">
         <v>61</v>
       </c>
-      <c r="B67" s="265"/>
+      <c r="B67" s="249"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -5163,14 +4888,14 @@
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="266"/>
+      <c r="B68" s="250"/>
       <c r="C68" s="247" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -5198,7 +4923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW434"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0" zoomScale="50" zoomScaleNormal="50">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -5242,21 +4967,21 @@
     <col min="36" max="36" customWidth="true" style="15" width="19.42578125" collapsed="true"/>
     <col min="37" max="37" customWidth="true" style="15" width="13.42578125" collapsed="true"/>
     <col min="38" max="38" customWidth="true" style="15" width="26.0" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" style="15" width="26.0" collapsed="false"/>
     <col min="40" max="41" customWidth="true" style="15" width="29.0" collapsed="true"/>
     <col min="42" max="16384" style="15" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="39" r="1" spans="1:48" x14ac:dyDescent="0.5">
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -5305,22 +5030,22 @@
       <c r="L5" s="16"/>
     </row>
     <row customHeight="1" ht="36.75" r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="D6" s="270" t="s">
+      <c r="D6" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="272"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="271"/>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="272"/>
+      <c r="N6" s="292"/>
+      <c r="O6" s="292"/>
+      <c r="P6" s="292"/>
+      <c r="Q6" s="293"/>
     </row>
     <row customHeight="1" ht="76.5" r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -5338,10 +5063,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="273" t="s">
+      <c r="F7" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="274"/>
+      <c r="G7" s="295"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -5364,10 +5089,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="273" t="s">
+      <c r="P7" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="274"/>
+      <c r="Q7" s="295"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -5435,7 +5160,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="275"/>
+      <c r="B9" s="276"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -5446,15 +5171,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="279"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="267"/>
+      <c r="M9" s="279"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="279"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="279"/>
+      <c r="R9" s="279"/>
+      <c r="S9" s="279"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="279"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -5464,7 +5189,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="276"/>
+      <c r="B10" s="277"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -5475,15 +5200,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="280"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="278"/>
-      <c r="S10" s="278"/>
-      <c r="T10" s="283"/>
-      <c r="U10" s="278"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="280"/>
+      <c r="Q10" s="280"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="280"/>
+      <c r="T10" s="286"/>
+      <c r="U10" s="280"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -5491,8 +5216,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A11" s="267"/>
-      <c r="B11" s="276"/>
+      <c r="A11" s="279"/>
+      <c r="B11" s="277"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -5503,15 +5228,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="278"/>
-      <c r="N11" s="280"/>
-      <c r="O11" s="278"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="278"/>
-      <c r="T11" s="283"/>
-      <c r="U11" s="278"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="280"/>
+      <c r="P11" s="280"/>
+      <c r="Q11" s="280"/>
+      <c r="R11" s="280"/>
+      <c r="S11" s="280"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="280"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -5521,8 +5246,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row customHeight="1" ht="24.95" r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A12" s="268"/>
-      <c r="B12" s="277"/>
+      <c r="A12" s="281"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -5533,15 +5258,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="284"/>
-      <c r="U12" s="268"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="281"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -5550,7 +5275,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="275"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5561,15 +5286,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="279"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="267"/>
+      <c r="M13" s="279"/>
+      <c r="N13" s="282"/>
+      <c r="O13" s="279"/>
+      <c r="P13" s="279"/>
+      <c r="Q13" s="279"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="279"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5578,7 +5303,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="276"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5589,15 +5314,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="280"/>
-      <c r="O14" s="278"/>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="278"/>
-      <c r="S14" s="278"/>
-      <c r="T14" s="283"/>
-      <c r="U14" s="278"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="280"/>
+      <c r="T14" s="286"/>
+      <c r="U14" s="280"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5605,8 +5330,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row customHeight="1" ht="24.95" r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A15" s="285"/>
-      <c r="B15" s="276"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="277"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5617,15 +5342,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="278"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="278"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="280"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5633,8 +5358,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row customHeight="1" ht="24.95" r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="A16" s="286"/>
-      <c r="B16" s="277"/>
+      <c r="A16" s="289"/>
+      <c r="B16" s="278"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5645,15 +5370,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="284"/>
-      <c r="U16" s="268"/>
+      <c r="M16" s="281"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="281"/>
+      <c r="P16" s="281"/>
+      <c r="Q16" s="281"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="287"/>
+      <c r="U16" s="281"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5662,7 +5387,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="275"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5673,15 +5398,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="267"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="282"/>
-      <c r="U17" s="267"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="282"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="279"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="279"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5690,7 +5415,7 @@
     </row>
     <row customHeight="1" ht="24.95" r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="276"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5701,22 +5426,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="278"/>
-      <c r="S18" s="278"/>
-      <c r="T18" s="283"/>
-      <c r="U18" s="278"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="280"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="280"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="19" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A19" s="267"/>
-      <c r="B19" s="276"/>
+      <c r="A19" s="279"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5727,22 +5452,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="280"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="278"/>
-      <c r="T19" s="283"/>
-      <c r="U19" s="278"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="280"/>
+      <c r="Q19" s="280"/>
+      <c r="R19" s="280"/>
+      <c r="S19" s="280"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="280"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="20" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A20" s="268"/>
-      <c r="B20" s="277"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5753,22 +5478,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="281"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="268"/>
+      <c r="M20" s="281"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="281"/>
+      <c r="P20" s="281"/>
+      <c r="Q20" s="281"/>
+      <c r="R20" s="281"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="281"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="275"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5779,22 +5504,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="279"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="267"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="279"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="279"/>
+      <c r="R21" s="279"/>
+      <c r="S21" s="279"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="279"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="276"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5805,22 +5530,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="278"/>
-      <c r="N22" s="280"/>
-      <c r="O22" s="278"/>
-      <c r="P22" s="278"/>
-      <c r="Q22" s="278"/>
-      <c r="R22" s="278"/>
-      <c r="S22" s="278"/>
-      <c r="T22" s="283"/>
-      <c r="U22" s="278"/>
+      <c r="M22" s="280"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="280"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="280"/>
+      <c r="S22" s="280"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="280"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="23" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A23" s="294"/>
-      <c r="B23" s="276"/>
+      <c r="A23" s="274"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5831,22 +5556,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="278"/>
-      <c r="N23" s="280"/>
-      <c r="O23" s="278"/>
-      <c r="P23" s="278"/>
-      <c r="Q23" s="278"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="283"/>
-      <c r="U23" s="278"/>
+      <c r="M23" s="280"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="280"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row customHeight="1" ht="24.95" r="24" spans="1:47" x14ac:dyDescent="0.35">
-      <c r="A24" s="295"/>
-      <c r="B24" s="277"/>
+      <c r="A24" s="275"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5857,15 +5582,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="268"/>
-      <c r="N24" s="281"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="268"/>
-      <c r="S24" s="268"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="268"/>
+      <c r="M24" s="281"/>
+      <c r="N24" s="284"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="281"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -6178,40 +5903,40 @@
     </row>
     <row customHeight="1" ht="50.25" r="40" spans="1:42" x14ac:dyDescent="0.5">
       <c r="A40" s="192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="288" t="s">
+      <c r="F40" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="289"/>
-      <c r="H40" s="289"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="291" t="s">
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="292"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="293"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="273"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="287" t="s">
+      <c r="Q40" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="287"/>
-      <c r="S40" s="287"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="287"/>
-      <c r="V40" s="287"/>
-      <c r="W40" s="287"/>
-      <c r="X40" s="287"/>
-      <c r="Y40" s="287"/>
+      <c r="R40" s="267"/>
+      <c r="S40" s="267"/>
+      <c r="T40" s="267"/>
+      <c r="U40" s="267"/>
+      <c r="V40" s="267"/>
+      <c r="W40" s="267"/>
+      <c r="X40" s="267"/>
+      <c r="Y40" s="267"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -6340,7 +6065,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP41" s="16"/>
     </row>
@@ -6351,32 +6076,80 @@
       <c r="B42" s="169" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="186"/>
+      <c r="D42" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="145" t="n">
+        <v>0.0010000000474974513</v>
+      </c>
+      <c r="G42" s="145" t="n">
+        <v>2.0000000949949027E-5</v>
+      </c>
+      <c r="H42" s="146" t="n">
+        <v>10.000000474974513</v>
+      </c>
+      <c r="I42" s="146" t="n">
+        <v>0.0050000002374872565</v>
+      </c>
+      <c r="J42" s="146" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K42" s="145" t="n">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="L42" s="145" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="M42" s="146" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="N42" s="296" t="s">
+        <v>197</v>
+      </c>
       <c r="O42" s="48"/>
       <c r="P42" s="125"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="200"/>
-      <c r="S42" s="200"/>
-      <c r="T42" s="200"/>
-      <c r="U42" s="200"/>
-      <c r="V42" s="200"/>
-      <c r="W42" s="200"/>
-      <c r="X42" s="200"/>
-      <c r="Y42" s="201"/>
-      <c r="Z42" s="200"/>
-      <c r="AA42" s="200"/>
-      <c r="AB42" s="202"/>
-      <c r="AC42" s="203"/>
+      <c r="Q42" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="R42" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="S42" s="200" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T42" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U42" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V42" s="200" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W42" s="200" t="n">
+        <v>0.5000000353902578</v>
+      </c>
+      <c r="X42" s="200" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="Y42" s="201" t="n">
+        <v>2.8571431296212335E-4</v>
+      </c>
+      <c r="Z42" s="200" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="AA42" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AB42" s="202" t="n">
+        <v>2.857142925262451</v>
+      </c>
+      <c r="AC42" s="297" t="s">
+        <v>197</v>
+      </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -6385,10 +6158,18 @@
       <c r="AI42" s="202"/>
       <c r="AJ42" s="222"/>
       <c r="AK42" s="119"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
+      <c r="AL42" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM42" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN42" s="29" t="n">
+        <v>0.005000000353902578</v>
+      </c>
+      <c r="AO42" s="29" t="n">
+        <v>100.00000762939453</v>
+      </c>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -6398,17 +6179,39 @@
       <c r="B43" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="165"/>
+      <c r="D43" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" s="146" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="G43" s="145" t="n">
+        <v>2.7777779743903213E-5</v>
+      </c>
+      <c r="H43" s="146" t="n">
+        <v>16.666667846341927</v>
+      </c>
+      <c r="I43" s="147" t="n">
+        <v>0.008333333923170963</v>
+      </c>
+      <c r="J43" s="146" t="n">
+        <v>0.0020000000949949026</v>
+      </c>
+      <c r="K43" s="145" t="n">
+        <v>3.333333370392211E-5</v>
+      </c>
+      <c r="L43" s="145" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M43" s="147" t="n">
+        <v>0.010000000707805157</v>
+      </c>
+      <c r="N43" s="298" t="s">
+        <v>197</v>
+      </c>
       <c r="O43" s="48"/>
       <c r="P43" s="125"/>
       <c r="Q43" s="136"/>
@@ -6432,10 +6235,18 @@
       <c r="AI43" s="202"/>
       <c r="AJ43" s="223"/>
       <c r="AK43" s="119"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
+      <c r="AL43" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM43" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN43" s="29" t="n">
+        <v>0.008333333767950535</v>
+      </c>
+      <c r="AO43" s="29" t="n">
+        <v>119.99999237060547</v>
+      </c>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -6456,19 +6267,45 @@
       <c r="N44" s="166"/>
       <c r="O44" s="48"/>
       <c r="P44" s="125"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="200"/>
-      <c r="S44" s="200"/>
-      <c r="T44" s="200"/>
-      <c r="U44" s="200"/>
-      <c r="V44" s="200"/>
-      <c r="W44" s="200"/>
-      <c r="X44" s="200"/>
-      <c r="Y44" s="201"/>
-      <c r="Z44" s="200"/>
-      <c r="AA44" s="200"/>
-      <c r="AB44" s="202"/>
-      <c r="AC44" s="203"/>
+      <c r="Q44" s="136" t="s">
+        <v>200</v>
+      </c>
+      <c r="R44" s="200" t="s">
+        <v>198</v>
+      </c>
+      <c r="S44" s="200" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T44" s="200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U44" s="200" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V44" s="200" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W44" s="200" t="n">
+        <v>0.8333333767950535</v>
+      </c>
+      <c r="X44" s="200" t="n">
+        <v>0.01666666753590107</v>
+      </c>
+      <c r="Y44" s="201" t="n">
+        <v>4.7619051252092634E-4</v>
+      </c>
+      <c r="Z44" s="200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA44" s="200" t="n">
+        <v>0.020000001415610313</v>
+      </c>
+      <c r="AB44" s="202" t="n">
+        <v>5.714286235161126E-4</v>
+      </c>
+      <c r="AC44" s="299" t="s">
+        <v>197</v>
+      </c>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -14471,6 +14308,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -14485,44 +14360,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule dxfId="0" priority="1" type="duplicateValues"/>

--- a/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
+++ b/eResidue_CV_eDocs/src/Test Data/eResidue_eDocs_TestCase_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="240">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -767,34 +767,34 @@
     <t>Equipment Group saved successfully</t>
   </si>
   <si>
-    <t>Diluent</t>
+    <t>Liquid Anull</t>
   </si>
   <si>
-    <t>S1</t>
+    <t>Liquid A</t>
   </si>
   <si>
-    <t/>
+    <t>Liquid B</t>
   </si>
   <si>
-    <t>S2</t>
+    <t>Fail</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Liquid A null</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>L6</t>
   </si>
   <si>
-    <t>E1,</t>
+    <t>L5</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>L</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>Liquid Bnull</t>
   </si>
   <si>
-    <t>E2,E1,</t>
+    <t>Liquid B null</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="94" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1286,22 +1286,52 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1479,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="279">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -2090,6 +2120,12 @@
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4387,67 +4423,33 @@
       <c r="B42" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
-      <c r="H42" s="119" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="I42" s="119" t="n">
-        <v>600000.0</v>
-      </c>
+      <c r="H42" s="119"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="119"/>
       <c r="K42" s="118"/>
-      <c r="L42" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="M42" s="119" t="s">
-        <v>232</v>
-      </c>
+      <c r="L42" s="118"/>
+      <c r="M42" s="119"/>
       <c r="N42" s="142"/>
       <c r="O42" s="42"/>
       <c r="P42" s="104"/>
-      <c r="Q42" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="R42" s="152" t="s">
-        <v>235</v>
-      </c>
-      <c r="S42" s="152" t="n">
-        <v>1000.0</v>
-      </c>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="152"/>
+      <c r="S42" s="152"/>
       <c r="T42" s="152"/>
-      <c r="U42" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V42" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W42" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U42" s="152"/>
+      <c r="V42" s="153"/>
+      <c r="W42" s="154"/>
       <c r="X42" s="155"/>
       <c r="Y42" s="48"/>
-      <c r="Z42" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA42" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB42" s="42" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC42" s="152" t="n">
-        <v>285.71429443359375</v>
-      </c>
-      <c r="AD42" s="154" t="s">
-        <v>237</v>
-      </c>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="154"/>
       <c r="AE42" s="161"/>
       <c r="AF42" s="101"/>
       <c r="AG42" s="42"/>
@@ -4464,31 +4466,17 @@
         <v>125</v>
       </c>
       <c r="D43" s="27"/>
-      <c r="E43" s="27" t="s">
-        <v>233</v>
-      </c>
+      <c r="E43" s="27"/>
       <c r="F43" s="119"/>
       <c r="G43" s="118"/>
-      <c r="H43" s="119" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="I43" s="120" t="n">
-        <v>600000.0</v>
-      </c>
+      <c r="H43" s="119"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="119"/>
       <c r="K43" s="118"/>
-      <c r="L43" s="118" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="M43" s="120" t="n">
-        <v>600000.0</v>
-      </c>
-      <c r="N43" s="269" t="s">
-        <v>234</v>
-      </c>
-      <c r="O43" s="270" t="s">
-        <v>234</v>
-      </c>
+      <c r="L43" s="118"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="42"/>
       <c r="P43" s="104"/>
       <c r="Q43" s="111"/>
       <c r="R43" s="152"/>
@@ -4499,21 +4487,11 @@
       <c r="W43" s="154"/>
       <c r="X43" s="155"/>
       <c r="Y43" s="48"/>
-      <c r="Z43" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA43" s="42" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB43" s="42" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="AC43" s="152" t="n">
-        <v>145.7142791748047</v>
-      </c>
-      <c r="AD43" s="154" t="s">
-        <v>237</v>
-      </c>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="42"/>
+      <c r="AB43" s="42"/>
+      <c r="AC43" s="152"/>
+      <c r="AD43" s="154"/>
       <c r="AE43" s="162"/>
       <c r="AF43" s="101"/>
       <c r="AG43" s="42"/>
@@ -4538,25 +4516,13 @@
       <c r="N44" s="208"/>
       <c r="O44" s="42"/>
       <c r="P44" s="104"/>
-      <c r="Q44" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="R44" s="152" t="s">
-        <v>235</v>
-      </c>
-      <c r="S44" s="152" t="n">
-        <v>1000.0</v>
-      </c>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="152"/>
+      <c r="S44" s="152"/>
       <c r="T44" s="152"/>
-      <c r="U44" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V44" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W44" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U44" s="152"/>
+      <c r="V44" s="153"/>
+      <c r="W44" s="154"/>
       <c r="X44" s="155"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="42"/>
@@ -4575,50 +4541,26 @@
     <row customHeight="1" ht="24.95" r="45" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A45" s="125"/>
       <c r="B45" s="125"/>
-      <c r="D45" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>230</v>
-      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="118"/>
       <c r="G45" s="118"/>
-      <c r="H45" s="119" t="n">
-        <v>5100.0</v>
-      </c>
-      <c r="I45" s="119" t="n">
-        <v>306000.0</v>
-      </c>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
       <c r="J45" s="119"/>
       <c r="K45" s="118"/>
-      <c r="L45" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="M45" s="119" t="s">
-        <v>232</v>
-      </c>
+      <c r="L45" s="118"/>
+      <c r="M45" s="119"/>
       <c r="N45" s="208"/>
       <c r="O45" s="42"/>
       <c r="P45" s="104"/>
-      <c r="Q45" s="111" t="s">
-        <v>233</v>
-      </c>
-      <c r="R45" s="152" t="s">
-        <v>238</v>
-      </c>
-      <c r="S45" s="152" t="n">
-        <v>2000.0</v>
-      </c>
+      <c r="Q45" s="111"/>
+      <c r="R45" s="152"/>
+      <c r="S45" s="152"/>
       <c r="T45" s="152"/>
-      <c r="U45" s="152" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="V45" s="153" t="n">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="W45" s="154" t="n">
-        <v>0.10000000149011612</v>
-      </c>
+      <c r="U45" s="152"/>
+      <c r="V45" s="153"/>
+      <c r="W45" s="154"/>
       <c r="X45" s="156"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="42"/>
@@ -4638,31 +4580,17 @@
       <c r="A46" s="125"/>
       <c r="B46" s="125"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
-        <v>231</v>
-      </c>
+      <c r="E46" s="27"/>
       <c r="F46" s="118"/>
       <c r="G46" s="118"/>
-      <c r="H46" s="119" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="I46" s="119" t="n">
-        <v>102000.0</v>
-      </c>
+      <c r="H46" s="119"/>
+      <c r="I46" s="119"/>
       <c r="J46" s="119"/>
       <c r="K46" s="118"/>
-      <c r="L46" s="118" t="n">
-        <v>1700.0</v>
-      </c>
-      <c r="M46" s="119" t="n">
-        <v>102000.0</v>
-      </c>
-      <c r="N46" s="271" t="s">
-        <v>234</v>
-      </c>
-      <c r="O46" s="272" t="s">
-        <v>234</v>
-      </c>
+      <c r="L46" s="118"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="143"/>
+      <c r="O46" s="42"/>
       <c r="P46" s="104"/>
       <c r="Q46" s="111"/>
       <c r="R46" s="152"/>
@@ -27901,32 +27829,80 @@
       <c r="B42" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="119"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="119"/>
-      <c r="K42" s="118"/>
-      <c r="L42" s="118"/>
-      <c r="M42" s="119"/>
-      <c r="N42" s="142"/>
+      <c r="D42" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F42" s="118" t="n">
+        <v>0.02499999850988388</v>
+      </c>
+      <c r="G42" s="118" t="n">
+        <v>2.499999850988388E-4</v>
+      </c>
+      <c r="H42" s="119" t="n">
+        <v>124.9999925494194</v>
+      </c>
+      <c r="I42" s="119" t="n">
+        <v>3.7878785621036184E-4</v>
+      </c>
+      <c r="J42" s="119" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="K42" s="118" t="n">
+        <v>1.9999999494757503E-4</v>
+      </c>
+      <c r="L42" s="118" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="M42" s="119" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="N42" s="269" t="s">
+        <v>233</v>
+      </c>
       <c r="O42" s="48"/>
       <c r="P42" s="104"/>
-      <c r="Q42" s="111"/>
-      <c r="R42" s="152"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="152"/>
-      <c r="U42" s="152"/>
-      <c r="V42" s="152"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="152"/>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="152"/>
-      <c r="AA42" s="152"/>
-      <c r="AB42" s="154"/>
-      <c r="AC42" s="155"/>
+      <c r="Q42" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R42" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="S42" s="152" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="T42" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U42" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V42" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W42" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X42" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y42" s="153" t="n">
+        <v>3.0303028651646206E-4</v>
+      </c>
+      <c r="Z42" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA42" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB42" s="154" t="n">
+        <v>2.4242424115072936E-4</v>
+      </c>
+      <c r="AC42" s="270" t="s">
+        <v>233</v>
+      </c>
       <c r="AD42" s="48"/>
       <c r="AE42" s="42"/>
       <c r="AF42" s="42"/>
@@ -27935,10 +27911,18 @@
       <c r="AI42" s="154"/>
       <c r="AJ42" s="161"/>
       <c r="AK42" s="101"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
+      <c r="AL42" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM42" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN42" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO42" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP42" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="43" spans="1:42" x14ac:dyDescent="0.4">
@@ -27948,32 +27932,80 @@
       <c r="B43" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="121"/>
+      <c r="D43" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="119" t="n">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="G43" s="118" t="n">
+        <v>1.9999999552965163E-4</v>
+      </c>
+      <c r="H43" s="119" t="n">
+        <v>99.99999776482582</v>
+      </c>
+      <c r="I43" s="120" t="n">
+        <v>3.0303029625704795E-4</v>
+      </c>
+      <c r="J43" s="119" t="n">
+        <v>0.02499999850988388</v>
+      </c>
+      <c r="K43" s="118" t="n">
+        <v>2.4999998277053237E-4</v>
+      </c>
+      <c r="L43" s="118" t="n">
+        <v>124.99999237060547</v>
+      </c>
+      <c r="M43" s="120" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="N43" s="274" t="s">
+        <v>233</v>
+      </c>
       <c r="O43" s="48"/>
       <c r="P43" s="104"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="152"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="152"/>
-      <c r="U43" s="152"/>
-      <c r="V43" s="152"/>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="153"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="152"/>
-      <c r="AB43" s="154"/>
-      <c r="AC43" s="155"/>
+      <c r="Q43" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R43" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="S43" s="152" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T43" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U43" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V43" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W43" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X43" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y43" s="153" t="n">
+        <v>0.0010822510855538505</v>
+      </c>
+      <c r="Z43" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA43" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB43" s="154" t="n">
+        <v>8.658008300699294E-4</v>
+      </c>
+      <c r="AC43" s="271" t="s">
+        <v>233</v>
+      </c>
       <c r="AD43" s="48"/>
       <c r="AE43" s="42"/>
       <c r="AF43" s="42"/>
@@ -27982,10 +28014,18 @@
       <c r="AI43" s="154"/>
       <c r="AJ43" s="162"/>
       <c r="AK43" s="101"/>
-      <c r="AL43" s="42"/>
-      <c r="AM43" s="42"/>
-      <c r="AN43" s="29"/>
-      <c r="AO43" s="29"/>
+      <c r="AL43" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM43" s="42" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN43" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO43" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP43" s="16"/>
     </row>
     <row customHeight="1" ht="24.75" r="44" spans="1:42" x14ac:dyDescent="0.4">
@@ -28004,19 +28044,45 @@
       <c r="N44" s="122"/>
       <c r="O44" s="48"/>
       <c r="P44" s="104"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="152"/>
-      <c r="S44" s="152"/>
-      <c r="T44" s="152"/>
-      <c r="U44" s="152"/>
-      <c r="V44" s="152"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="152"/>
-      <c r="Y44" s="153"/>
-      <c r="Z44" s="152"/>
-      <c r="AA44" s="152"/>
-      <c r="AB44" s="154"/>
-      <c r="AC44" s="155"/>
+      <c r="Q44" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R44" s="152" t="s">
+        <v>237</v>
+      </c>
+      <c r="S44" s="152" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T44" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U44" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V44" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W44" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X44" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y44" s="153" t="n">
+        <v>2.164502143859863E-5</v>
+      </c>
+      <c r="Z44" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA44" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB44" s="154" t="n">
+        <v>1.7316016965196468E-5</v>
+      </c>
+      <c r="AC44" s="272" t="s">
+        <v>233</v>
+      </c>
       <c r="AD44" s="48"/>
       <c r="AE44" s="42"/>
       <c r="AF44" s="42"/>
@@ -28025,10 +28091,18 @@
       <c r="AI44" s="154"/>
       <c r="AJ44" s="163"/>
       <c r="AK44" s="101"/>
-      <c r="AL44" s="42"/>
-      <c r="AM44" s="42"/>
-      <c r="AN44" s="29"/>
-      <c r="AO44" s="29"/>
+      <c r="AL44" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM44" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN44" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO44" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP44" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="45" spans="1:42" x14ac:dyDescent="0.4">
@@ -28047,19 +28121,45 @@
       <c r="N45" s="122"/>
       <c r="O45" s="48"/>
       <c r="P45" s="104"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="152"/>
-      <c r="S45" s="152"/>
-      <c r="T45" s="152"/>
-      <c r="U45" s="152"/>
-      <c r="V45" s="152"/>
-      <c r="W45" s="152"/>
-      <c r="X45" s="152"/>
-      <c r="Y45" s="153"/>
-      <c r="Z45" s="152"/>
-      <c r="AA45" s="152"/>
-      <c r="AB45" s="154"/>
-      <c r="AC45" s="156"/>
+      <c r="Q45" s="111" t="s">
+        <v>234</v>
+      </c>
+      <c r="R45" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="S45" s="152" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="T45" s="152" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U45" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V45" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W45" s="152" t="n">
+        <v>0.03787878667935729</v>
+      </c>
+      <c r="X45" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="Y45" s="153" t="n">
+        <v>5.411255427769252E-4</v>
+      </c>
+      <c r="Z45" s="152" t="n">
+        <v>0.030303029343485832</v>
+      </c>
+      <c r="AA45" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="AB45" s="154" t="n">
+        <v>4.329004150349647E-4</v>
+      </c>
+      <c r="AC45" s="273" t="s">
+        <v>233</v>
+      </c>
       <c r="AD45" s="48"/>
       <c r="AE45" s="42"/>
       <c r="AF45" s="42"/>
@@ -28068,10 +28168,18 @@
       <c r="AI45" s="154"/>
       <c r="AJ45" s="164"/>
       <c r="AK45" s="101"/>
-      <c r="AL45" s="42"/>
-      <c r="AM45" s="42"/>
-      <c r="AN45" s="29"/>
-      <c r="AO45" s="29"/>
+      <c r="AL45" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM45" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN45" s="29" t="n">
+        <v>3.787878667935729E-4</v>
+      </c>
+      <c r="AO45" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP45" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="46" spans="1:42" x14ac:dyDescent="0.4">
@@ -28111,10 +28219,18 @@
       <c r="AI46" s="154"/>
       <c r="AJ46" s="165"/>
       <c r="AK46" s="101"/>
-      <c r="AL46" s="42"/>
-      <c r="AM46" s="42"/>
-      <c r="AN46" s="29"/>
-      <c r="AO46" s="29"/>
+      <c r="AL46" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM46" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN46" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO46" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP46" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="47" spans="1:42" x14ac:dyDescent="0.4">
@@ -28132,19 +28248,45 @@
       <c r="M47" s="120"/>
       <c r="N47" s="123"/>
       <c r="P47" s="100"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="153"/>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157"/>
-      <c r="U47" s="152"/>
-      <c r="V47" s="152"/>
-      <c r="W47" s="153"/>
-      <c r="X47" s="153"/>
-      <c r="Y47" s="153"/>
-      <c r="Z47" s="153"/>
-      <c r="AA47" s="153"/>
-      <c r="AB47" s="158"/>
-      <c r="AC47" s="155"/>
+      <c r="Q47" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R47" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="S47" s="157" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="T47" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U47" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V47" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W47" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X47" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y47" s="153" t="n">
+        <v>2.4242425646100725E-4</v>
+      </c>
+      <c r="Z47" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA47" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB47" s="158" t="n">
+        <v>3.0303027597256005E-4</v>
+      </c>
+      <c r="AC47" s="275" t="s">
+        <v>233</v>
+      </c>
       <c r="AD47" s="16"/>
       <c r="AE47" s="55"/>
       <c r="AF47" s="29"/>
@@ -28153,10 +28295,18 @@
       <c r="AI47" s="158"/>
       <c r="AJ47" s="166"/>
       <c r="AK47" s="101"/>
-      <c r="AL47" s="55"/>
-      <c r="AM47" s="55"/>
-      <c r="AN47" s="29"/>
-      <c r="AO47" s="29"/>
+      <c r="AL47" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM47" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="AN47" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO47" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP47" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="48" spans="1:42" x14ac:dyDescent="0.4">
@@ -28174,19 +28324,45 @@
       <c r="M48" s="119"/>
       <c r="N48" s="123"/>
       <c r="P48" s="100"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="153"/>
-      <c r="S48" s="157"/>
-      <c r="T48" s="157"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="152"/>
-      <c r="W48" s="153"/>
-      <c r="X48" s="153"/>
-      <c r="Y48" s="153"/>
-      <c r="Z48" s="153"/>
-      <c r="AA48" s="153"/>
-      <c r="AB48" s="158"/>
-      <c r="AC48" s="155"/>
+      <c r="Q48" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R48" s="153" t="s">
+        <v>236</v>
+      </c>
+      <c r="S48" s="157" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="T48" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U48" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V48" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W48" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X48" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y48" s="153" t="n">
+        <v>8.658008575439453E-4</v>
+      </c>
+      <c r="Z48" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA48" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB48" s="158" t="n">
+        <v>0.0010822509648278356</v>
+      </c>
+      <c r="AC48" s="276" t="s">
+        <v>233</v>
+      </c>
       <c r="AD48" s="16"/>
       <c r="AE48" s="55"/>
       <c r="AF48" s="29"/>
@@ -28195,10 +28371,18 @@
       <c r="AI48" s="158"/>
       <c r="AJ48" s="167"/>
       <c r="AK48" s="101"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="55"/>
-      <c r="AN48" s="29"/>
-      <c r="AO48" s="29"/>
+      <c r="AL48" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM48" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN48" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO48" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP48" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="49" spans="1:42" x14ac:dyDescent="0.4">
@@ -28216,19 +28400,45 @@
       <c r="M49" s="119"/>
       <c r="N49" s="144"/>
       <c r="P49" s="100"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="153"/>
-      <c r="S49" s="157"/>
-      <c r="T49" s="157"/>
-      <c r="U49" s="152"/>
-      <c r="V49" s="152"/>
-      <c r="W49" s="153"/>
-      <c r="X49" s="153"/>
-      <c r="Y49" s="153"/>
-      <c r="Z49" s="153"/>
-      <c r="AA49" s="153"/>
-      <c r="AB49" s="158"/>
-      <c r="AC49" s="155"/>
+      <c r="Q49" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>237</v>
+      </c>
+      <c r="S49" s="157" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="T49" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U49" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V49" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W49" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X49" s="153" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y49" s="153" t="n">
+        <v>1.7316017832074845E-5</v>
+      </c>
+      <c r="Z49" s="153" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA49" s="153" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB49" s="158" t="n">
+        <v>2.1645020751748234E-5</v>
+      </c>
+      <c r="AC49" s="277" t="s">
+        <v>233</v>
+      </c>
       <c r="AD49" s="16"/>
       <c r="AE49" s="55"/>
       <c r="AF49" s="29"/>
@@ -28237,10 +28447,18 @@
       <c r="AI49" s="158"/>
       <c r="AJ49" s="168"/>
       <c r="AK49" s="101"/>
-      <c r="AL49" s="55"/>
-      <c r="AM49" s="55"/>
-      <c r="AN49" s="29"/>
-      <c r="AO49" s="29"/>
+      <c r="AL49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM49" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN49" s="29" t="n">
+        <v>3.030303050763905E-4</v>
+      </c>
+      <c r="AO49" s="29" t="n">
+        <v>0.3030303120613098</v>
+      </c>
       <c r="AP49" s="16"/>
     </row>
     <row customHeight="1" ht="24.95" r="50" spans="1:42" x14ac:dyDescent="0.4">
@@ -28258,19 +28476,45 @@
       <c r="M50" s="119"/>
       <c r="N50" s="123"/>
       <c r="P50" s="100"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="153"/>
-      <c r="S50" s="157"/>
-      <c r="T50" s="157"/>
-      <c r="U50" s="152"/>
-      <c r="V50" s="152"/>
-      <c r="W50" s="153"/>
-      <c r="X50" s="152"/>
-      <c r="Y50" s="152"/>
-      <c r="Z50" s="152"/>
-      <c r="AA50" s="152"/>
-      <c r="AB50" s="154"/>
-      <c r="AC50" s="155"/>
+      <c r="Q50" s="109" t="s">
+        <v>239</v>
+      </c>
+      <c r="R50" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" s="157" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="T50" s="157" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="U50" s="152" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="V50" s="152" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W50" s="153" t="n">
+        <v>0.03030303050763905</v>
+      </c>
+      <c r="X50" s="152" t="n">
+        <v>6.06060610152781E-4</v>
+      </c>
+      <c r="Y50" s="152" t="n">
+        <v>4.3290042877197263E-4</v>
+      </c>
+      <c r="Z50" s="152" t="n">
+        <v>0.03787878528237343</v>
+      </c>
+      <c r="AA50" s="152" t="n">
+        <v>7.575757335871458E-4</v>
+      </c>
+      <c r="AB50" s="154" t="n">
+        <v>5.411254824139178E-4</v>
+      </c>
+      <c r="AC50" s="278" t="s">
+        <v>233</v>
+      </c>
       <c r="AD50" s="39"/>
       <c r="AE50" s="42"/>
       <c r="AF50" s="42"/>
